--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -7,7 +7,7 @@
     <sheet name="пос.юр" r:id="rId2" sheetId="2" state="visible"/>
   </sheets>
   <definedNames>
-    <definedName hidden="false" localSheetId="0" name="_xlnm.Print_Area">'Р3пос.юр'!$A$1:$H$232</definedName>
+    <definedName hidden="false" localSheetId="0" name="_xlnm.Print_Area">'Р3пос.юр'!$A$8:$H$231</definedName>
     <definedName hidden="false" localSheetId="1" name="_xlnm.Print_Area">'пос.юр'!$A$1:$C$15</definedName>
   </definedNames>
 </workbook>
@@ -1621,7 +1621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1757,6 +1757,11 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
@@ -1774,7 +1779,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1863,19 +1868,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1890,7 +1889,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1002" quotePrefix="false">
@@ -1899,7 +1898,7 @@
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
@@ -2132,15 +2131,15 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:O281"/>
+  <dimension ref="A1:O231"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.01963900951847" defaultRowHeight="12.75" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="4.65075151230337"/>
-    <col customWidth="true" hidden="true" max="2" min="2" outlineLevel="0" style="1" width="7.61032028740658"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" style="2" width="28.4682350740026"/>
+    <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" style="1" width="3.72505522007082"/>
+    <col customWidth="true" hidden="true" max="2" min="2" outlineLevel="0" style="1" width="6.38580817536172"/>
+    <col customWidth="true" hidden="false" max="3" min="3" outlineLevel="0" style="2" width="28.4682350740026"/>
     <col customWidth="true" max="4" min="4" outlineLevel="0" style="1" width="10.2880260624186"/>
     <col customWidth="true" max="5" min="5" outlineLevel="0" style="1" width="8.73777567109493"/>
     <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="10.4289577316304"/>
@@ -8201,208 +8200,14 @@
       <c r="H231" s="25" t="n">
         <v>17.4</v>
       </c>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="232">
-      <c r="A232" s="32" t="s">
+      <c r="I231" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="B232" s="32" t="n"/>
-      <c r="C232" s="33" t="s">
+      <c r="J231" s="32" t="n"/>
+      <c r="K231" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="D232" s="32" t="n"/>
-      <c r="E232" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="233">
-      <c r="A233" s="32" t="n"/>
-      <c r="B233" s="32" t="n"/>
-      <c r="C233" s="34" t="n"/>
-      <c r="D233" s="32" t="n"/>
-      <c r="E233" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="234">
-      <c r="A234" s="32" t="n"/>
-      <c r="B234" s="32" t="n"/>
-      <c r="C234" s="34" t="n"/>
-      <c r="D234" s="32" t="n"/>
-      <c r="E234" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="235">
-      <c r="A235" s="32" t="n"/>
-      <c r="B235" s="32" t="n"/>
-      <c r="C235" s="34" t="n"/>
-      <c r="D235" s="32" t="n"/>
-      <c r="E235" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="236">
-      <c r="A236" s="32" t="n"/>
-      <c r="B236" s="32" t="n"/>
-      <c r="C236" s="34" t="n"/>
-      <c r="D236" s="32" t="n"/>
-      <c r="E236" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="237">
-      <c r="A237" s="32" t="n"/>
-      <c r="B237" s="32" t="n"/>
-      <c r="C237" s="34" t="n"/>
-      <c r="D237" s="32" t="n"/>
-      <c r="E237" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="238">
-      <c r="A238" s="32" t="n"/>
-      <c r="B238" s="32" t="n"/>
-      <c r="C238" s="34" t="n"/>
-      <c r="D238" s="32" t="n"/>
-      <c r="E238" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="239">
-      <c r="A239" s="32" t="n"/>
-      <c r="B239" s="32" t="n"/>
-      <c r="C239" s="34" t="n"/>
-      <c r="D239" s="32" t="n"/>
-      <c r="E239" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="240">
-      <c r="A240" s="32" t="n"/>
-      <c r="B240" s="32" t="n"/>
-      <c r="C240" s="34" t="n"/>
-      <c r="D240" s="32" t="n"/>
-      <c r="E240" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="241">
-      <c r="A241" s="32" t="n"/>
-      <c r="B241" s="32" t="n"/>
-      <c r="C241" s="34" t="n"/>
-      <c r="D241" s="32" t="n"/>
-      <c r="E241" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="242">
-      <c r="A242" s="32" t="n"/>
-      <c r="B242" s="32" t="n"/>
-      <c r="C242" s="34" t="n"/>
-      <c r="D242" s="32" t="n"/>
-      <c r="E242" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="243">
-      <c r="A243" s="32" t="n"/>
-      <c r="B243" s="32" t="n"/>
-      <c r="C243" s="34" t="n"/>
-      <c r="D243" s="32" t="n"/>
-      <c r="E243" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="244">
-      <c r="A244" s="32" t="n"/>
-      <c r="B244" s="32" t="n"/>
-      <c r="C244" s="34" t="n"/>
-      <c r="D244" s="32" t="n"/>
-      <c r="E244" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="245">
-      <c r="A245" s="32" t="n"/>
-      <c r="B245" s="32" t="n"/>
-      <c r="C245" s="34" t="n"/>
-      <c r="D245" s="32" t="n"/>
-      <c r="E245" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="246">
-      <c r="A246" s="32" t="n"/>
-      <c r="B246" s="32" t="n"/>
-      <c r="C246" s="34" t="n"/>
-      <c r="D246" s="32" t="n"/>
-      <c r="E246" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="247">
-      <c r="A247" s="32" t="n"/>
-      <c r="B247" s="32" t="n"/>
-      <c r="C247" s="34" t="n"/>
-      <c r="D247" s="32" t="n"/>
-      <c r="E247" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="248">
-      <c r="A248" s="32" t="n"/>
-      <c r="B248" s="32" t="n"/>
-      <c r="C248" s="34" t="n"/>
-      <c r="D248" s="32" t="n"/>
-      <c r="E248" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="249">
-      <c r="A249" s="32" t="n"/>
-      <c r="B249" s="32" t="n"/>
-      <c r="C249" s="34" t="n"/>
-      <c r="D249" s="32" t="n"/>
-      <c r="E249" s="32" t="n"/>
-      <c r="F249" s="32" t="n"/>
-      <c r="G249" s="32" t="n"/>
-      <c r="H249" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="250">
-      <c r="A250" s="32" t="n"/>
-      <c r="B250" s="32" t="n"/>
-      <c r="C250" s="34" t="n"/>
-      <c r="D250" s="32" t="n"/>
-      <c r="E250" s="32" t="n"/>
-      <c r="F250" s="32" t="n"/>
-      <c r="G250" s="32" t="n"/>
-      <c r="H250" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="251">
-      <c r="A251" s="32" t="n"/>
-      <c r="B251" s="32" t="n"/>
-      <c r="C251" s="34" t="n"/>
-      <c r="D251" s="32" t="n"/>
-      <c r="E251" s="32" t="n"/>
-      <c r="F251" s="32" t="n"/>
-      <c r="G251" s="32" t="n"/>
-      <c r="H251" s="35" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="252">
-      <c r="A252" s="32" t="n"/>
-      <c r="B252" s="32" t="n"/>
-      <c r="C252" s="34" t="n"/>
-      <c r="D252" s="32" t="n"/>
-      <c r="E252" s="32" t="n"/>
-      <c r="F252" s="32" t="n"/>
-      <c r="G252" s="32" t="n"/>
-      <c r="H252" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="253">
-      <c r="A253" s="32" t="n"/>
-      <c r="B253" s="32" t="n"/>
-      <c r="C253" s="34" t="n"/>
-      <c r="D253" s="32" t="n"/>
-      <c r="E253" s="32" t="n"/>
-      <c r="F253" s="32" t="n"/>
-      <c r="G253" s="32" t="n"/>
-      <c r="H253" s="32" t="n"/>
-    </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="254"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="255"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="256"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="257"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="258"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="259"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="260"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="261"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="262"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="263"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="264"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="265"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="266"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="267"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="268"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="269"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="270"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="271"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="272"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="273"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="274"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="275"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="276"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="277"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="278"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="279"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="280"/>
-    <row customHeight="true" ht="15" outlineLevel="0" r="281"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A5:H5"/>
@@ -8451,7 +8256,7 @@
       <c r="A1" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -8463,40 +8268,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="38" t="s"/>
+      <c r="C2" s="36" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="40" t="s"/>
+      <c r="C3" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="40" t="s"/>
+      <c r="C4" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="42" t="n">
+      <c r="C5" s="40" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8505,109 +8310,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>467</v>
       </c>
       <c r="C6" s="27" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="43" t="n"/>
+      <c r="D6" s="41" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="38" t="s"/>
-      <c r="D7" s="43" t="n"/>
+      <c r="C7" s="36" t="s"/>
+      <c r="D7" s="41" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="16" t="n"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="38" t="s"/>
-      <c r="D8" s="43" t="n"/>
+      <c r="C8" s="36" t="s"/>
+      <c r="D8" s="41" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>470</v>
       </c>
       <c r="C9" s="27" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="43" t="n"/>
+      <c r="D9" s="41" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="40" t="s"/>
-      <c r="D10" s="43" t="n"/>
+      <c r="C10" s="38" t="s"/>
+      <c r="D10" s="41" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="45" t="n">
+      <c r="C11" s="43" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="46" t="n"/>
+      <c r="D11" s="44" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="40" t="s"/>
-      <c r="D12" s="47" t="n"/>
+      <c r="C12" s="38" t="s"/>
+      <c r="D12" s="45" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="40" t="s"/>
-      <c r="D13" s="47" t="n"/>
+      <c r="C13" s="38" t="s"/>
+      <c r="D13" s="45" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="48" t="n"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="46" t="n"/>
+      <c r="B14" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="50" t="s"/>
-      <c r="D14" s="47" t="n"/>
+      <c r="C14" s="48" t="s"/>
+      <c r="D14" s="45" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="16" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="40" t="s"/>
+      <c r="C15" s="38" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
     <sheet name="Р3пос.юр" r:id="rId1" sheetId="1" state="visible"/>
@@ -10,11 +10,12 @@
     <definedName hidden="false" localSheetId="0" name="_xlnm.Print_Area">'Р3пос.юр'!$A$8:$H$231</definedName>
     <definedName hidden="false" localSheetId="1" name="_xlnm.Print_Area">'пос.юр'!$A$1:$C$15</definedName>
   </definedNames>
+  <calcPr calcCompleted="true" calcMode="auto" calcOnSave="false" fullCalcOnLoad="false"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <authors>
     <author/>
   </authors>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
     <t>УТВЕРЖДЕНО</t>
   </si>
@@ -1563,7 +1564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1001"/>
@@ -1927,7 +1928,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -2127,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
@@ -2287,6 +2288,18 @@
       </c>
       <c r="H12" s="25" t="n">
         <v>7.35</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12+E12</f>
+        <v>59.150000000000006</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12*1.2</f>
+        <v>70.98</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12*0.2</f>
+        <v>11.830000000000002</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
@@ -8234,7 +8247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -180,6 +180,7 @@
   <si>
     <t>Австрия</t>
   </si>
+  <si/>
   <si>
     <t>AZ</t>
   </si>
@@ -1567,11 +1568,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
@@ -1597,6 +1600,12 @@
     <font>
       <name val="Arial"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial Cyr"/>
+      <b val="true"/>
+      <color rgb="FB290D" tint="0"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Arial Cyr"/>
@@ -1780,12 +1789,13 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,22 +1853,25 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1869,6 +1882,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -1893,29 +1909,32 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="6" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="2" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="2" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2146,7 +2165,9 @@
     <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="10.4289577316304"/>
     <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="7.61032028740658"/>
     <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="10.0061620473303"/>
-    <col customWidth="true" max="15" min="9" outlineLevel="0" style="1" width="9.01963900951847"/>
+    <col customWidth="true" max="12" min="9" outlineLevel="0" style="1" width="9.01963900951847"/>
+    <col customWidth="true" max="13" min="13" outlineLevel="0" style="1" width="16.2311946837159"/>
+    <col customWidth="true" max="15" min="14" outlineLevel="0" style="1" width="9.01963900951847"/>
     <col bestFit="true" customWidth="true" max="16384" min="16" outlineLevel="0" style="1" width="9.01963900951847"/>
   </cols>
   <sheetData>
@@ -2154,6071 +2175,6307 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="2">
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I2" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row customHeight="true" ht="9.75" outlineLevel="0" r="4"/>
+      <c r="I3" s="3" t="n"/>
+    </row>
+    <row customHeight="true" ht="9.75" outlineLevel="0" r="4">
+      <c r="I4" s="3" t="n"/>
+    </row>
     <row ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s"/>
-      <c r="C5" s="3" t="s"/>
-      <c r="D5" s="3" t="s"/>
-      <c r="E5" s="3" t="s"/>
-      <c r="F5" s="3" t="s"/>
-      <c r="G5" s="3" t="s"/>
-      <c r="H5" s="3" t="s"/>
-    </row>
-    <row customHeight="true" ht="10.5" outlineLevel="0" r="6"/>
+      <c r="B5" s="4" t="s"/>
+      <c r="C5" s="4" t="s"/>
+      <c r="D5" s="4" t="s"/>
+      <c r="E5" s="4" t="s"/>
+      <c r="F5" s="4" t="s"/>
+      <c r="G5" s="4" t="s"/>
+      <c r="H5" s="4" t="s"/>
+      <c r="I5" s="3" t="n"/>
+    </row>
+    <row customHeight="true" ht="10.5" outlineLevel="0" r="6">
+      <c r="I6" s="3" t="n"/>
+    </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="7">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s"/>
-      <c r="G7" s="5" t="s"/>
-      <c r="H7" s="6" t="s"/>
+      <c r="F7" s="6" t="s"/>
+      <c r="G7" s="6" t="s"/>
+      <c r="H7" s="7" t="s"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="13.8999996185303" outlineLevel="0" r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s"/>
-      <c r="F8" s="10" t="s"/>
-      <c r="G8" s="10" t="s"/>
-      <c r="H8" s="11" t="s"/>
+      <c r="E8" s="11" t="s"/>
+      <c r="F8" s="11" t="s"/>
+      <c r="G8" s="11" t="s"/>
+      <c r="H8" s="12" t="s"/>
+      <c r="I8" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="28.5" outlineLevel="0" r="9">
-      <c r="A9" s="12" t="s"/>
-      <c r="B9" s="13" t="s"/>
-      <c r="C9" s="12" t="s"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="13" t="s"/>
+      <c r="B9" s="14" t="s"/>
+      <c r="C9" s="13" t="s"/>
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15" t="s"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="16" t="s"/>
+      <c r="F9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="17" t="s"/>
-      <c r="H9" s="18" t="s"/>
+      <c r="G9" s="18" t="s"/>
+      <c r="H9" s="19" t="s"/>
+      <c r="I9" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="25.5" outlineLevel="0" r="10">
-      <c r="A10" s="19" t="s"/>
-      <c r="B10" s="20" t="s"/>
-      <c r="C10" s="19" t="s"/>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="20" t="s"/>
+      <c r="B10" s="21" t="s"/>
+      <c r="C10" s="20" t="s"/>
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="I10" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="23" t="n">
         <v>40.4</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="24" t="n">
         <v>48.1</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="24" t="n">
         <v>41.25</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="24" t="n">
         <v>50.2</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="24" t="n">
         <v>41.65</v>
       </c>
+      <c r="I11" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="25" t="n">
         <v>48.45</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="26" t="n">
         <v>10.7</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="26" t="n">
         <v>49.9</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="26" t="n">
         <v>10.7</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12+E12</f>
-        <v>59.150000000000006</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12*1.2</f>
-        <v>70.98</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12*0.2</f>
-        <v>11.830000000000002</v>
-      </c>
+      <c r="I12" s="27" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12+E12*1.05+5.85+0.3</f>
+        <v>65.835</v>
+      </c>
+      <c r="J12" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.05*E12</f>
+        <v>11.235</v>
+      </c>
+      <c r="K12" s="29" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(J12, 2)</f>
+        <v>11.240000000000002</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="29" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="25" t="n">
+      <c r="D13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="26" t="n">
         <v>39.05</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="26" t="n">
         <v>9.6</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I13" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="C14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="25" t="n">
         <v>53</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="26" t="n">
         <v>14.8</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="26" t="n">
         <v>53</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="26" t="n">
         <v>16.3</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I14" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>5</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="24" t="n">
+      <c r="C15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25" t="n">
         <v>51.65</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="26" t="n">
         <v>17.05</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="26" t="n">
         <v>51.65</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="26" t="n">
         <v>21.4</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I15" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>6</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="25" t="n">
+      <c r="C16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="26" t="n">
         <v>46.5</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="26" t="n">
         <v>36.35</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="24" t="n">
+      <c r="C17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="n">
         <v>59</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="26" t="n">
         <v>26.1</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="26" t="n">
         <v>59</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="26" t="n">
         <v>30.7</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>8</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="25" t="n">
+      <c r="C18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="26" t="n">
         <v>53.2</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="26" t="n">
         <v>11.15</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I18" s="3" t="n"/>
       <c r="K18" s="1" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>9</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="24" t="n">
+      <c r="C19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="25" t="n">
         <v>40.3</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="26" t="n">
         <v>33.35</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="26" t="n">
         <v>41</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="26" t="n">
         <v>33.35</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="26" t="n">
         <v>31.3</v>
       </c>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>10</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="25" t="n">
+      <c r="C20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="26" t="n">
         <v>49.8</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="26" t="n">
         <v>32.05</v>
       </c>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>11</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="25" t="n">
+      <c r="C21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="26" t="n">
         <v>45.35</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="26" t="n">
         <v>12.8</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="26" t="n">
         <v>6.35</v>
       </c>
+      <c r="I21" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>12</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="24" t="n">
+      <c r="C22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <v>46.65</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="26" t="n">
         <v>28.9</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="26" t="n">
         <v>52.75</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="26" t="n">
         <v>47.05</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="26" t="n">
         <v>23.3</v>
       </c>
+      <c r="I22" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>13</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="22" t="n">
+      <c r="C23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="23" t="n">
         <v>56.05</v>
       </c>
-      <c r="E23" s="23" t="n">
+      <c r="E23" s="24" t="n">
         <v>26.65</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="24" t="n">
         <v>56.05</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="24" t="n">
         <v>29.25</v>
       </c>
-      <c r="H23" s="23" t="n">
+      <c r="H23" s="24" t="n">
         <v>14.2</v>
       </c>
+      <c r="I23" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>14</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="25" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="E24" s="26" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="26" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G24" s="26" t="n">
         <v>40</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <v>40.75</v>
-      </c>
-      <c r="E24" s="25" t="n">
-        <v>33</v>
-      </c>
-      <c r="F24" s="25" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="G24" s="25" t="n">
-        <v>40</v>
-      </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="26" t="n">
         <v>30.8</v>
       </c>
+      <c r="I24" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>15</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="C25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="25" t="n">
         <v>43.5</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="26" t="n">
         <v>26.25</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="26" t="n">
         <v>50.95</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="26" t="n">
         <v>36.2</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I25" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>16</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="24" t="n">
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="25" t="n">
         <v>47.5</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="26" t="n">
         <v>26.4</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="26" t="n">
         <v>50.1</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="26" t="n">
         <v>37.25</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="26" t="n">
         <v>22.3</v>
       </c>
+      <c r="I26" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>17</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="24" t="n">
+      <c r="C27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="25" t="n">
         <v>50.8</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="26" t="n">
         <v>19.4</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="26" t="n">
         <v>50.8</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="26" t="n">
         <v>33.3</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I27" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>18</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="C28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="25" t="n">
         <v>52.2</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="26" t="n">
         <v>36.35</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="26" t="n">
         <v>61.55</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="26" t="n">
         <v>42.7</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="26" t="n">
         <v>30</v>
       </c>
+      <c r="I28" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>19</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="25" t="n">
+      <c r="C29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="26" t="n">
         <v>63.45</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="26" t="n">
         <v>11.65</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>20</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="24" t="n">
+      <c r="C30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="25" t="n">
         <v>47.85</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="26" t="n">
         <v>23.6</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="26" t="n">
         <v>47.85</v>
       </c>
-      <c r="G30" s="25" t="n">
+      <c r="G30" s="26" t="n">
         <v>32.85</v>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="16" t="n">
+      <c r="A31" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>21</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="24" t="n">
+      <c r="C31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="25" t="n">
         <v>53.35</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="26" t="n">
         <v>30.95</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="26" t="n">
         <v>53.9</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="26" t="n">
         <v>30.95</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="26" t="n">
         <v>27.85</v>
       </c>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="16" t="n">
+      <c r="A32" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>22</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="25" t="n">
+      <c r="C32" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="26" t="n">
         <v>53.7</v>
       </c>
-      <c r="G32" s="25" t="n">
+      <c r="G32" s="26" t="n">
         <v>41.6</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="26" t="n">
         <v>23.85</v>
       </c>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="16" t="n">
+      <c r="A33" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>23</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="24" t="n">
+      <c r="C33" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="25" t="n">
         <v>35.7</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="26" t="n">
         <v>12.2</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="26" t="n">
         <v>39.75</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="26" t="n">
         <v>12.2</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="26" t="n">
         <v>7.45</v>
       </c>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="16" t="n">
+      <c r="A34" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>24</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="24" t="n">
+      <c r="C34" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="25" t="n">
         <v>56</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="26" t="n">
         <v>46.5</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="26" t="n">
         <v>63.65</v>
       </c>
-      <c r="G34" s="25" t="n">
+      <c r="G34" s="26" t="n">
         <v>56.3</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="26" t="n">
         <v>36</v>
       </c>
+      <c r="I34" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="16" t="n">
+      <c r="A35" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>25</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="24" t="n">
+      <c r="C35" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="25" t="n">
         <v>46.8</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="26" t="n">
         <v>17.35</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="26" t="n">
         <v>46.8</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I35" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="16" t="n">
+      <c r="A36" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>26</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="25" t="n">
+      <c r="C36" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="26" t="n">
         <v>62.65</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="26" t="n">
         <v>44.35</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I36" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="16" t="n">
+      <c r="A37" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>27</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="24" t="n">
+      <c r="C37" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="25" t="n">
         <v>47.3</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="26" t="n">
         <v>41.75</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="26" t="n">
         <v>48.9</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="26" t="n">
         <v>41.75</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="26" t="n">
         <v>29.5</v>
       </c>
+      <c r="I37" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="16" t="n">
+      <c r="A38" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>28</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="27" t="n">
+      <c r="C38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="31" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="27" t="n">
+      <c r="E38" s="31" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="27" t="n">
+      <c r="F38" s="31" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="27" t="n">
+      <c r="G38" s="31" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="27" t="n">
+      <c r="H38" s="31" t="n">
         <v>22.9</v>
       </c>
+      <c r="I38" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="16" t="n">
+      <c r="A39" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A38+1</f>
         <v>29</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="24" t="n">
+      <c r="C39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="25" t="n">
         <v>55.3</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="26" t="n">
         <v>27.3</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="26" t="n">
         <v>55.3</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="26" t="n">
         <v>34.2</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I39" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="16" t="n">
+      <c r="A40" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A39+1</f>
         <v>30</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="24" t="n">
+      <c r="C40" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="25" t="n">
         <v>57.75</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="26" t="n">
         <v>28.4</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="26" t="n">
         <v>62.6</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="26" t="n">
         <v>28.4</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I40" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="16" t="n">
+      <c r="A41" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A40+1</f>
         <v>31</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="27" t="n">
+      <c r="C41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="31" t="n">
         <v>50.65</v>
       </c>
-      <c r="G41" s="27" t="n">
+      <c r="G41" s="31" t="n">
         <v>16.6</v>
       </c>
-      <c r="H41" s="27" t="n">
+      <c r="H41" s="31" t="n">
         <v>6.8</v>
       </c>
+      <c r="I41" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="16" t="n">
+      <c r="A42" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A41+1</f>
         <v>32</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="25" t="n">
+      <c r="C42" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="26" t="n">
         <v>32.85</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="26" t="n">
         <v>66.7</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="26" t="n">
         <v>41.65</v>
       </c>
+      <c r="I42" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="16" t="n">
+      <c r="A43" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A42+1</f>
         <v>33</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="24" t="n">
+      <c r="C43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="25" t="n">
         <v>51.95</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="26" t="n">
         <v>11.5</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="26" t="n">
         <v>54.6</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="26" t="n">
         <v>17.8</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I43" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="44">
-      <c r="A44" s="16" t="n">
+      <c r="A44" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A43+1</f>
         <v>34</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="24" t="n">
+      <c r="C44" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="25" t="n">
         <v>63.1</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="26" t="n">
         <v>18.75</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="26" t="n">
         <v>63.1</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="26" t="n">
         <v>18.75</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="26" t="n">
         <v>8.2</v>
       </c>
+      <c r="I44" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="16" t="n">
+      <c r="A45" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A44+1</f>
         <v>35</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="24" t="n">
+      <c r="C45" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="25" t="n">
         <v>51.15</v>
       </c>
-      <c r="E45" s="25" t="n">
+      <c r="E45" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="26" t="n">
         <v>52.55</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="26" t="n">
         <v>12.05</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I45" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="16" t="n">
+      <c r="A46" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A45+1</f>
         <v>36</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="24" t="n">
+      <c r="C46" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="25" t="n">
         <v>47.2</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="26" t="n">
         <v>34.5</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="26" t="n">
         <v>55.3</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="26" t="n">
         <v>54.25</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="26" t="n">
         <v>31.75</v>
       </c>
+      <c r="I46" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="16" t="n">
+      <c r="A47" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A46+1</f>
         <v>37</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="25" t="n">
+      <c r="C47" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="26" t="n">
         <v>47.15</v>
       </c>
-      <c r="G47" s="25" t="n">
+      <c r="G47" s="26" t="n">
         <v>37.3</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I47" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="16" t="n">
+      <c r="A48" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A47+1</f>
         <v>38</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="24" t="n">
+      <c r="C48" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="25" t="n">
         <v>37.85</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E48" s="26" t="n">
         <v>18.85</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="26" t="n">
         <v>37.95</v>
       </c>
-      <c r="G48" s="25" t="n">
+      <c r="G48" s="26" t="n">
         <v>20.4</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="26" t="n">
         <v>15.9</v>
       </c>
+      <c r="I48" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="16" t="n">
+      <c r="A49" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A48+1</f>
         <v>39</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="24" t="n">
+      <c r="C49" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="25" t="n">
         <v>52.45</v>
       </c>
-      <c r="E49" s="25" t="n">
+      <c r="E49" s="26" t="n">
         <v>28.8</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="26" t="n">
         <v>52.45</v>
       </c>
-      <c r="G49" s="25" t="n">
+      <c r="G49" s="26" t="n">
         <v>36.35</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I49" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="16" t="n">
+      <c r="A50" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A49+1</f>
         <v>40</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="24" t="n">
+      <c r="C50" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="25" t="n">
         <v>42.2</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E50" s="26" t="n">
         <v>34.05</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="26" t="n">
         <v>44.65</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="26" t="n">
         <v>35.35</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="26" t="n">
         <v>31.8</v>
       </c>
+      <c r="I50" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="16" t="n">
+      <c r="A51" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A50+1</f>
         <v>41</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="24" t="n">
+      <c r="C51" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="25" t="n">
         <v>51.25</v>
       </c>
-      <c r="E51" s="25" t="n">
+      <c r="E51" s="26" t="n">
         <v>38.35</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="26" t="n">
         <v>55.6</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="26" t="n">
         <v>40.55</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="26" t="n">
         <v>25.7</v>
       </c>
+      <c r="I51" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="16" t="n">
+      <c r="A52" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A51+1</f>
         <v>42</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="24" t="n">
+      <c r="C52" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="25" t="n">
         <v>52.35</v>
       </c>
-      <c r="E52" s="25" t="n">
+      <c r="E52" s="26" t="n">
         <v>25.25</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="26" t="n">
         <v>57.15</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="26" t="n">
         <v>31.55</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="26" t="n">
         <v>23.6</v>
       </c>
+      <c r="I52" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="16" t="n">
+      <c r="A53" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A52+1</f>
         <v>43</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="24" t="n">
+      <c r="C53" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="25" t="n">
         <v>65.15</v>
       </c>
-      <c r="E53" s="25" t="n">
+      <c r="E53" s="26" t="n">
         <v>26.55</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="26" t="n">
         <v>69.7</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="26" t="n">
         <v>35.9</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I53" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="16" t="n">
+      <c r="A54" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A53+1</f>
         <v>44</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="25" t="n">
+      <c r="C54" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="26" t="n">
         <v>73.2</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="26" t="n">
         <v>38.2</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="26" t="n">
         <v>20.1</v>
       </c>
+      <c r="I54" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="16" t="n">
+      <c r="A55" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A54+1</f>
         <v>45</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="24" t="n">
+      <c r="C55" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="25" t="n">
         <v>41.1</v>
       </c>
-      <c r="E55" s="25" t="n">
+      <c r="E55" s="26" t="n">
         <v>35.95</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="26" t="n">
         <v>49.05</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="26" t="n">
         <v>38.9</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="26" t="n">
         <v>29.05</v>
       </c>
+      <c r="I55" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="16" t="n">
+      <c r="A56" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A55+1</f>
         <v>46</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="24" t="n">
+      <c r="C56" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="25" t="n">
         <v>53.35</v>
       </c>
-      <c r="E56" s="25" t="n">
+      <c r="E56" s="26" t="n">
         <v>25.7</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="26" t="n">
         <v>53.35</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="26" t="n">
         <v>33.15</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="26" t="n">
         <v>20.85</v>
       </c>
+      <c r="I56" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="57">
-      <c r="A57" s="16" t="n">
+      <c r="A57" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A56+1</f>
         <v>47</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="24" t="n">
+      <c r="C57" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="25" t="n">
         <v>60.45</v>
       </c>
-      <c r="E57" s="25" t="n">
+      <c r="E57" s="26" t="n">
         <v>28.55</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="26" t="n">
         <v>64.55</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="26" t="n">
         <v>33.75</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="26" t="n">
         <v>26.8</v>
       </c>
+      <c r="I57" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="16" t="n">
+      <c r="A58" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A57+1</f>
         <v>48</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="24" t="n">
+      <c r="C58" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="25" t="n">
         <v>65.15</v>
       </c>
-      <c r="E58" s="25" t="n">
+      <c r="E58" s="26" t="n">
         <v>11.5</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="26" t="n">
         <v>65.15</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="26" t="n">
         <v>11.5</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I58" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="16" t="n">
+      <c r="A59" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A58+1</f>
         <v>49</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="24" t="n">
+      <c r="C59" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="25" t="n">
         <v>45.65</v>
       </c>
-      <c r="E59" s="25" t="n">
+      <c r="E59" s="26" t="n">
         <v>27.4</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="26" t="n">
         <v>58.15</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="26" t="n">
         <v>42.3</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I59" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="60">
-      <c r="A60" s="16" t="n">
+      <c r="A60" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A59+1</f>
         <v>50</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="25" t="n">
+      <c r="C60" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="26" t="n">
         <v>55.4</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="26" t="n">
         <v>50.95</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="26" t="n">
         <v>30.2</v>
       </c>
+      <c r="I60" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="16" t="n">
+      <c r="A61" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A60+1</f>
         <v>51</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="24" t="n">
+      <c r="C61" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="25" t="n">
         <v>52.6</v>
       </c>
-      <c r="E61" s="25" t="n">
+      <c r="E61" s="26" t="n">
         <v>24.05</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="26" t="n">
         <v>53.6</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="G61" s="26" t="n">
         <v>24.05</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="26" t="n">
         <v>15.25</v>
       </c>
+      <c r="I61" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="16" t="n">
+      <c r="A62" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A61+1</f>
         <v>52</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="24" t="n">
+      <c r="C62" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="25" t="n">
         <v>44.05</v>
       </c>
-      <c r="E62" s="25" t="n">
+      <c r="E62" s="26" t="n">
         <v>31.5</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="26" t="n">
         <v>49.35</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="G62" s="26" t="n">
         <v>31.5</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="26" t="n">
         <v>29.05</v>
       </c>
+      <c r="I62" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="16" t="n">
+      <c r="A63" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A62+1</f>
         <v>53</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="25" t="n">
+      <c r="C63" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="26" t="n">
         <v>104.5</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="G63" s="26" t="n">
         <v>33.9</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="H63" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I63" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="16" t="n">
+      <c r="A64" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A63+1</f>
         <v>54</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="27" t="n">
+      <c r="C64" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="31" t="n">
         <v>38.55</v>
       </c>
-      <c r="E64" s="27" t="n">
+      <c r="E64" s="31" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="27" t="n">
+      <c r="F64" s="31" t="n">
         <v>39.05</v>
       </c>
-      <c r="G64" s="27" t="n">
+      <c r="G64" s="31" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="27" t="n">
+      <c r="H64" s="31" t="n">
         <v>6.7</v>
       </c>
+      <c r="I64" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="16" t="n">
+      <c r="A65" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A64+1</f>
         <v>55</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="24" t="n">
+      <c r="C65" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="25" t="n">
         <v>53.15</v>
       </c>
-      <c r="E65" s="25" t="n">
+      <c r="E65" s="26" t="n">
         <v>11.8</v>
       </c>
-      <c r="F65" s="25" t="n">
+      <c r="F65" s="26" t="n">
         <v>53.75</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="G65" s="26" t="n">
         <v>12.25</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="H65" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I65" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="16" t="n">
+      <c r="A66" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A65+1</f>
         <v>56</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="24" t="n">
+      <c r="C66" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="25" t="n">
         <v>50.05</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="26" t="n">
         <v>10.45</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="26" t="n">
         <v>52.05</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="26" t="n">
         <v>10.45</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I66" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="16" t="n">
+      <c r="A67" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A66+1</f>
         <v>57</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="24" t="n">
+      <c r="C67" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="25" t="n">
         <v>47.7</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="26" t="n">
         <v>29.2</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="26" t="n">
         <v>53.75</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="G67" s="26" t="n">
         <v>42.35</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="H67" s="26" t="n">
         <v>26.5</v>
       </c>
+      <c r="I67" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="16" t="n">
+      <c r="A68" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A67+1</f>
         <v>58</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="25" t="n">
+      <c r="C68" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="26" t="n">
         <v>47.9</v>
       </c>
-      <c r="G68" s="25" t="n">
+      <c r="G68" s="26" t="n">
         <v>37.6</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="H68" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I68" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="16" t="n">
+      <c r="A69" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A68+1</f>
         <v>59</v>
       </c>
-      <c r="B69" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="24" t="n">
+      <c r="C69" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="25" t="n">
         <v>43.55</v>
       </c>
-      <c r="E69" s="25" t="n">
+      <c r="E69" s="26" t="n">
         <v>27.85</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="26" t="n">
         <v>51.6</v>
       </c>
-      <c r="G69" s="25" t="n">
+      <c r="G69" s="26" t="n">
         <v>42.95</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="H69" s="26" t="n">
         <v>19.95</v>
       </c>
+      <c r="I69" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="70">
-      <c r="A70" s="16" t="n">
+      <c r="A70" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A69+1</f>
         <v>60</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="25" t="n">
+      <c r="C70" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="26" t="n">
         <v>58.4</v>
       </c>
-      <c r="G70" s="25" t="n">
+      <c r="G70" s="26" t="n">
         <v>37.05</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I70" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="71">
-      <c r="A71" s="16" t="n">
+      <c r="A71" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A70+1</f>
         <v>61</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D71" s="24" t="n">
+      <c r="C71" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="E71" s="25" t="n">
+      <c r="E71" s="26" t="n">
         <v>16.2</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="G71" s="25" t="n">
+      <c r="G71" s="26" t="n">
         <v>23.4</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="H71" s="26" t="n">
         <v>7.2</v>
       </c>
+      <c r="I71" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="72">
-      <c r="A72" s="16" t="n">
+      <c r="A72" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A71+1</f>
         <v>62</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="24" t="n">
+      <c r="C72" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="25" t="n">
         <v>59.45</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E72" s="26" t="n">
         <v>30.75</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="26" t="n">
         <v>59.45</v>
       </c>
-      <c r="G72" s="25" t="n">
+      <c r="G72" s="26" t="n">
         <v>36.05</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="H72" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I72" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="73">
-      <c r="A73" s="16" t="n">
+      <c r="A73" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A72+1</f>
         <v>63</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="24" t="n">
+      <c r="C73" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="25" t="n">
         <v>67.15</v>
       </c>
-      <c r="E73" s="25" t="n">
+      <c r="E73" s="26" t="n">
         <v>32.7</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="26" t="n">
         <v>67.15</v>
       </c>
-      <c r="G73" s="25" t="n">
+      <c r="G73" s="26" t="n">
         <v>38.5</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I73" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="74">
-      <c r="A74" s="16" t="n">
+      <c r="A74" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A73+1</f>
         <v>64</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="24" t="n">
+      <c r="C74" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="25" t="n">
         <v>43.6</v>
       </c>
-      <c r="E74" s="25" t="n">
+      <c r="E74" s="26" t="n">
         <v>17.35</v>
       </c>
-      <c r="F74" s="25" t="n">
+      <c r="F74" s="26" t="n">
         <v>43.6</v>
       </c>
-      <c r="G74" s="25" t="n">
+      <c r="G74" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="H74" s="25" t="n">
+      <c r="H74" s="26" t="n">
         <v>13.65</v>
       </c>
+      <c r="I74" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="75">
-      <c r="A75" s="16" t="n">
+      <c r="A75" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A74+1</f>
         <v>65</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="24" t="n">
+      <c r="C75" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="25" t="n">
         <v>47.85</v>
       </c>
-      <c r="E75" s="25" t="n">
+      <c r="E75" s="26" t="n">
         <v>13.55</v>
       </c>
-      <c r="F75" s="25" t="n">
+      <c r="F75" s="26" t="n">
         <v>47.85</v>
       </c>
-      <c r="G75" s="25" t="n">
+      <c r="G75" s="26" t="n">
         <v>15.5</v>
       </c>
-      <c r="H75" s="25" t="n">
+      <c r="H75" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I75" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="76">
-      <c r="A76" s="16" t="n">
+      <c r="A76" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A75+1</f>
         <v>66</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="24" t="n">
+      <c r="C76" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="25" t="n">
         <v>39.2</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="26" t="n">
         <v>22.65</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="26" t="n">
         <v>45.9</v>
       </c>
-      <c r="G76" s="25" t="n">
+      <c r="G76" s="26" t="n">
         <v>30.2</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="26" t="n">
         <v>16.75</v>
       </c>
+      <c r="I76" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="16" t="n">
+      <c r="A77" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A76+1</f>
         <v>67</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="24" t="n">
+      <c r="C77" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="25" t="n">
         <v>46.55</v>
       </c>
-      <c r="E77" s="25" t="n">
+      <c r="E77" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="F77" s="25" t="n">
+      <c r="F77" s="26" t="n">
         <v>46.55</v>
       </c>
-      <c r="G77" s="25" t="n">
+      <c r="G77" s="26" t="n">
         <v>29.05</v>
       </c>
-      <c r="H77" s="25" t="n">
+      <c r="H77" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I77" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="78">
-      <c r="A78" s="16" t="n">
+      <c r="A78" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A77+1</f>
         <v>68</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="24" t="n">
+      <c r="C78" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="25" t="n">
         <v>33.35</v>
       </c>
-      <c r="E78" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F78" s="25" t="n">
+      <c r="E78" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F78" s="26" t="n">
         <v>36.7</v>
       </c>
-      <c r="G78" s="25" t="n">
+      <c r="G78" s="26" t="n">
         <v>22.8</v>
       </c>
-      <c r="H78" s="25" t="n">
+      <c r="H78" s="26" t="n">
         <v>17.4</v>
       </c>
+      <c r="I78" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="79">
-      <c r="A79" s="16" t="n">
+      <c r="A79" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A78+1</f>
         <v>69</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="24" t="n">
+      <c r="C79" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="25" t="n">
         <v>53.7</v>
       </c>
-      <c r="E79" s="25" t="n">
+      <c r="E79" s="26" t="n">
         <v>17.65</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="26" t="n">
         <v>57.8</v>
       </c>
-      <c r="G79" s="25" t="n">
+      <c r="G79" s="26" t="n">
         <v>18.45</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="26" t="n">
         <v>7.2</v>
       </c>
+      <c r="I79" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="80">
-      <c r="A80" s="16" t="n">
+      <c r="A80" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A79+1</f>
         <v>70</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="24" t="n">
+      <c r="C80" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="25" t="n">
         <v>57.05</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="26" t="n">
         <v>11.35</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="26" t="n">
         <v>57.05</v>
       </c>
-      <c r="G80" s="25" t="n">
+      <c r="G80" s="26" t="n">
         <v>11.35</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="H80" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I80" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="16" t="n">
+      <c r="A81" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A80+1</f>
         <v>71</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="22" t="n">
+      <c r="C81" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="23" t="n">
         <v>66.95</v>
       </c>
-      <c r="E81" s="23" t="n">
+      <c r="E81" s="24" t="n">
         <v>16.2</v>
       </c>
-      <c r="F81" s="23" t="n">
+      <c r="F81" s="24" t="n">
         <v>69.2</v>
       </c>
-      <c r="G81" s="23" t="n">
+      <c r="G81" s="24" t="n">
         <v>18.65</v>
       </c>
-      <c r="H81" s="23" t="n">
+      <c r="H81" s="24" t="n">
         <v>10.55</v>
       </c>
+      <c r="I81" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="16" t="n">
+      <c r="A82" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A81+1</f>
         <v>72</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="24" t="n">
+      <c r="C82" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="25" t="n">
         <v>45.9</v>
       </c>
-      <c r="E82" s="25" t="n">
+      <c r="E82" s="26" t="n">
         <v>12.15</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="26" t="n">
         <v>49.4</v>
       </c>
-      <c r="G82" s="25" t="n">
+      <c r="G82" s="26" t="n">
         <v>12.15</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="26" t="n">
         <v>8.2</v>
       </c>
+      <c r="I82" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="16" t="n">
+      <c r="A83" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A82+1</f>
         <v>73</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="24" t="n">
+      <c r="C83" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="25" t="n">
         <v>43.55</v>
       </c>
-      <c r="E83" s="25" t="n">
+      <c r="E83" s="26" t="n">
         <v>11.7</v>
       </c>
-      <c r="F83" s="25" t="n">
+      <c r="F83" s="26" t="n">
         <v>43.6</v>
       </c>
-      <c r="G83" s="25" t="n">
+      <c r="G83" s="26" t="n">
         <v>11.7</v>
       </c>
-      <c r="H83" s="25" t="n">
+      <c r="H83" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I83" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="16" t="n">
+      <c r="A84" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A83+1</f>
         <v>74</v>
       </c>
-      <c r="B84" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="C84" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="16" t="n">
+      <c r="A85" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A84+1</f>
         <v>75</v>
       </c>
-      <c r="B85" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="C85" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="16" t="n">
+      <c r="A86" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A85+1</f>
         <v>76</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="24" t="n">
+      <c r="C86" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="25" t="n">
         <v>55.2</v>
       </c>
-      <c r="E86" s="25" t="n">
+      <c r="E86" s="26" t="n">
         <v>29.05</v>
       </c>
-      <c r="F86" s="25" t="n">
+      <c r="F86" s="26" t="n">
         <v>55.2</v>
       </c>
-      <c r="G86" s="25" t="n">
+      <c r="G86" s="26" t="n">
         <v>32.75</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I86" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="16" t="n">
+      <c r="A87" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A86+1</f>
         <v>77</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D87" s="24" t="n">
+      <c r="C87" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="25" t="n">
         <v>49.7</v>
       </c>
-      <c r="E87" s="25" t="n">
+      <c r="E87" s="26" t="n">
         <v>14.3</v>
       </c>
-      <c r="F87" s="25" t="n">
+      <c r="F87" s="26" t="n">
         <v>49.7</v>
       </c>
-      <c r="G87" s="25" t="n">
+      <c r="G87" s="26" t="n">
         <v>19.95</v>
       </c>
-      <c r="H87" s="25" t="n">
+      <c r="H87" s="26" t="n">
         <v>5.85</v>
       </c>
+      <c r="I87" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="88">
-      <c r="A88" s="16" t="n">
+      <c r="A88" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A87+1</f>
         <v>78</v>
       </c>
-      <c r="B88" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="27" t="n">
+      <c r="C88" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="31" t="n">
         <v>51.8</v>
       </c>
-      <c r="E88" s="27" t="n">
+      <c r="E88" s="31" t="n">
         <v>33.15</v>
       </c>
-      <c r="F88" s="27" t="n">
+      <c r="F88" s="31" t="n">
         <v>56.3</v>
       </c>
-      <c r="G88" s="27" t="n">
+      <c r="G88" s="31" t="n">
         <v>35</v>
       </c>
-      <c r="H88" s="27" t="n">
+      <c r="H88" s="31" t="n">
         <v>27.9</v>
       </c>
+      <c r="I88" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="89">
-      <c r="A89" s="16" t="n">
+      <c r="A89" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A88+1</f>
         <v>79</v>
       </c>
-      <c r="B89" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D89" s="24" t="n">
+      <c r="C89" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="25" t="n">
         <v>46.25</v>
       </c>
-      <c r="E89" s="25" t="n">
+      <c r="E89" s="26" t="n">
         <v>27.2</v>
       </c>
-      <c r="F89" s="25" t="n">
+      <c r="F89" s="26" t="n">
         <v>46.95</v>
       </c>
-      <c r="G89" s="25" t="n">
+      <c r="G89" s="26" t="n">
         <v>27.2</v>
       </c>
-      <c r="H89" s="25" t="n">
+      <c r="H89" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I89" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="90">
-      <c r="A90" s="16" t="n">
+      <c r="A90" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A89+1</f>
         <v>80</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="24" t="n">
+      <c r="C90" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="25" t="n">
         <v>54.25</v>
       </c>
-      <c r="E90" s="25" t="n">
+      <c r="E90" s="26" t="n">
         <v>27.55</v>
       </c>
-      <c r="F90" s="25" t="n">
+      <c r="F90" s="26" t="n">
         <v>54.25</v>
       </c>
-      <c r="G90" s="25" t="n">
+      <c r="G90" s="26" t="n">
         <v>33.9</v>
       </c>
-      <c r="H90" s="25" t="n">
+      <c r="H90" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I90" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="91">
-      <c r="A91" s="16" t="n">
+      <c r="A91" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A90+1</f>
         <v>81</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D91" s="24" t="n">
+      <c r="C91" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="25" t="n">
         <v>44.7</v>
       </c>
-      <c r="E91" s="25" t="n">
+      <c r="E91" s="26" t="n">
         <v>36.65</v>
       </c>
-      <c r="F91" s="25" t="n">
+      <c r="F91" s="26" t="n">
         <v>45.35</v>
       </c>
-      <c r="G91" s="25" t="n">
+      <c r="G91" s="26" t="n">
         <v>38.3</v>
       </c>
-      <c r="H91" s="25" t="n">
+      <c r="H91" s="26" t="n">
         <v>20.85</v>
       </c>
+      <c r="I91" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="92">
-      <c r="A92" s="16" t="n">
+      <c r="A92" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A91+1</f>
         <v>82</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D92" s="24" t="n">
+      <c r="C92" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="25" t="n">
         <v>47.85</v>
       </c>
-      <c r="E92" s="25" t="n">
+      <c r="E92" s="26" t="n">
         <v>11.3</v>
       </c>
-      <c r="F92" s="25" t="n">
+      <c r="F92" s="26" t="n">
         <v>51</v>
       </c>
-      <c r="G92" s="25" t="n">
+      <c r="G92" s="26" t="n">
         <v>13.2</v>
       </c>
-      <c r="H92" s="25" t="n">
+      <c r="H92" s="26" t="n">
         <v>8.2</v>
       </c>
+      <c r="I92" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="16" t="n">
+      <c r="A93" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A92+1</f>
         <v>83</v>
       </c>
-      <c r="B93" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="21" t="s">
+      <c r="B93" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="25" t="n">
+      <c r="C93" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="26" t="n">
         <v>51.15</v>
       </c>
-      <c r="G93" s="25" t="n">
+      <c r="G93" s="26" t="n">
         <v>32.85</v>
       </c>
-      <c r="H93" s="25" t="n">
+      <c r="H93" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I93" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="94">
-      <c r="A94" s="16" t="n">
+      <c r="A94" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A93+1</f>
         <v>84</v>
       </c>
-      <c r="B94" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="21" t="s">
+      <c r="B94" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D94" s="24" t="n">
+      <c r="C94" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="25" t="n">
         <v>51.05</v>
       </c>
-      <c r="E94" s="25" t="n">
+      <c r="E94" s="26" t="n">
         <v>24.45</v>
       </c>
-      <c r="F94" s="25" t="n">
+      <c r="F94" s="26" t="n">
         <v>51.05</v>
       </c>
-      <c r="G94" s="25" t="n">
+      <c r="G94" s="26" t="n">
         <v>37.15</v>
       </c>
-      <c r="H94" s="25" t="n">
+      <c r="H94" s="26" t="n">
         <v>16.35</v>
       </c>
+      <c r="I94" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="95">
-      <c r="A95" s="16" t="n">
+      <c r="A95" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A94+1</f>
         <v>85</v>
       </c>
-      <c r="B95" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="21" t="s">
+      <c r="B95" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D95" s="24" t="n">
+      <c r="C95" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="25" t="n">
         <v>43</v>
       </c>
-      <c r="E95" s="25" t="n">
+      <c r="E95" s="26" t="n">
         <v>11.6</v>
       </c>
-      <c r="F95" s="25" t="n">
+      <c r="F95" s="26" t="n">
         <v>45.4</v>
       </c>
-      <c r="G95" s="25" t="n">
+      <c r="G95" s="26" t="n">
         <v>11.6</v>
       </c>
-      <c r="H95" s="25" t="n">
+      <c r="H95" s="26" t="n">
         <v>8.2</v>
       </c>
+      <c r="I95" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="96">
-      <c r="A96" s="16" t="n">
+      <c r="A96" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A95+1</f>
         <v>86</v>
       </c>
-      <c r="B96" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C96" s="21" t="s">
+      <c r="B96" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="24" t="n">
+      <c r="C96" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="25" t="n">
         <v>30.35</v>
       </c>
-      <c r="E96" s="25" t="n">
+      <c r="E96" s="26" t="n">
         <v>13.1</v>
       </c>
-      <c r="F96" s="25" t="n">
+      <c r="F96" s="26" t="n">
         <v>31.25</v>
       </c>
-      <c r="G96" s="25" t="n">
+      <c r="G96" s="26" t="n">
         <v>13.1</v>
       </c>
-      <c r="H96" s="25" t="n">
+      <c r="H96" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I96" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="97">
-      <c r="A97" s="16" t="n">
+      <c r="A97" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A96+1</f>
         <v>87</v>
       </c>
-      <c r="B97" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="21" t="s">
+      <c r="B97" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="25" t="n">
+      <c r="C97" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="26" t="n">
         <v>38.4</v>
       </c>
-      <c r="G97" s="25" t="n">
+      <c r="G97" s="26" t="n">
         <v>74.25</v>
       </c>
-      <c r="H97" s="25" t="n">
+      <c r="H97" s="26" t="n">
         <v>40.05</v>
       </c>
+      <c r="I97" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="98">
-      <c r="A98" s="16" t="n">
+      <c r="A98" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A97+1</f>
         <v>88</v>
       </c>
-      <c r="B98" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" s="21" t="s">
+      <c r="B98" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="24" t="n">
+      <c r="C98" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="25" t="n">
         <v>34.95</v>
       </c>
-      <c r="E98" s="25" t="n">
+      <c r="E98" s="26" t="n">
         <v>14.65</v>
       </c>
-      <c r="F98" s="25" t="n">
+      <c r="F98" s="26" t="n">
         <v>36.45</v>
       </c>
-      <c r="G98" s="25" t="n">
+      <c r="G98" s="26" t="n">
         <v>18.4</v>
       </c>
-      <c r="H98" s="25" t="n">
+      <c r="H98" s="26" t="n">
         <v>10.6</v>
       </c>
+      <c r="I98" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="99">
-      <c r="A99" s="16" t="n">
+      <c r="A99" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A98+1</f>
         <v>89</v>
       </c>
-      <c r="B99" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="21" t="s">
+      <c r="B99" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D99" s="24" t="n">
+      <c r="C99" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="25" t="n">
         <v>55.5</v>
       </c>
-      <c r="E99" s="25" t="n">
+      <c r="E99" s="26" t="n">
         <v>36.8</v>
       </c>
-      <c r="F99" s="25" t="n">
+      <c r="F99" s="26" t="n">
         <v>58.05</v>
       </c>
-      <c r="G99" s="25" t="n">
+      <c r="G99" s="26" t="n">
         <v>45.95</v>
       </c>
-      <c r="H99" s="25" t="n">
+      <c r="H99" s="26" t="n">
         <v>21.75</v>
       </c>
+      <c r="I99" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="100">
-      <c r="A100" s="16" t="n">
+      <c r="A100" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A99+1</f>
         <v>90</v>
       </c>
-      <c r="B100" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C100" s="21" t="s">
+      <c r="B100" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="25" t="n">
+      <c r="C100" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="26" t="n">
         <v>46.25</v>
       </c>
-      <c r="G100" s="25" t="n">
+      <c r="G100" s="26" t="n">
         <v>42.3</v>
       </c>
-      <c r="H100" s="25" t="n">
+      <c r="H100" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I100" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="101">
-      <c r="A101" s="16" t="n">
+      <c r="A101" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A100+1</f>
         <v>91</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="21" t="s">
+      <c r="B101" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="24" t="n">
+      <c r="C101" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="25" t="n">
         <v>44.6</v>
       </c>
-      <c r="E101" s="25" t="n">
+      <c r="E101" s="26" t="n">
         <v>30.1</v>
       </c>
-      <c r="F101" s="25" t="n">
+      <c r="F101" s="26" t="n">
         <v>48.85</v>
       </c>
-      <c r="G101" s="25" t="n">
+      <c r="G101" s="26" t="n">
         <v>36.3</v>
       </c>
-      <c r="H101" s="25" t="n">
+      <c r="H101" s="26" t="n">
         <v>23.6</v>
       </c>
+      <c r="I101" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="102">
-      <c r="A102" s="16" t="n">
+      <c r="A102" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A101+1</f>
         <v>92</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="21" t="s">
+      <c r="B102" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D102" s="24" t="n">
+      <c r="C102" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="25" t="n">
         <v>46.15</v>
       </c>
-      <c r="E102" s="25" t="n">
+      <c r="E102" s="26" t="n">
         <v>26.15</v>
       </c>
-      <c r="F102" s="25" t="n">
+      <c r="F102" s="26" t="n">
         <v>46.15</v>
       </c>
-      <c r="G102" s="25" t="n">
+      <c r="G102" s="26" t="n">
         <v>26.15</v>
       </c>
-      <c r="H102" s="25" t="n">
+      <c r="H102" s="26" t="n">
         <v>14.65</v>
       </c>
+      <c r="I102" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="103">
-      <c r="A103" s="16" t="n">
+      <c r="A103" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A102+1</f>
         <v>93</v>
       </c>
-      <c r="B103" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="21" t="s">
+      <c r="B103" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D103" s="24" t="n">
+      <c r="C103" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" s="25" t="n">
         <v>53.1</v>
       </c>
-      <c r="E103" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F103" s="25" t="n">
+      <c r="E103" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F103" s="26" t="n">
         <v>58.55</v>
       </c>
-      <c r="G103" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="H103" s="25" t="n">
+      <c r="G103" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="H103" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I103" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="104">
-      <c r="A104" s="16" t="n">
+      <c r="A104" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A103+1</f>
         <v>94</v>
       </c>
-      <c r="B104" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="21" t="s">
+      <c r="B104" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D104" s="24" t="n">
+      <c r="C104" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="25" t="n">
         <v>63.6</v>
       </c>
-      <c r="E104" s="25" t="n">
+      <c r="E104" s="26" t="n">
         <v>32.35</v>
       </c>
-      <c r="F104" s="25" t="n">
+      <c r="F104" s="26" t="n">
         <v>63.75</v>
       </c>
-      <c r="G104" s="25" t="n">
+      <c r="G104" s="26" t="n">
         <v>38</v>
       </c>
-      <c r="H104" s="25" t="n">
+      <c r="H104" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I104" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="105">
-      <c r="A105" s="16" t="n">
+      <c r="A105" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A104+1</f>
         <v>95</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="21" t="s">
+      <c r="B105" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D105" s="24" t="n">
+      <c r="C105" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="25" t="n">
         <v>55.4</v>
       </c>
-      <c r="E105" s="25" t="n">
+      <c r="E105" s="26" t="n">
         <v>24.15</v>
       </c>
-      <c r="F105" s="25" t="n">
+      <c r="F105" s="26" t="n">
         <v>59.95</v>
       </c>
-      <c r="G105" s="25" t="n">
+      <c r="G105" s="26" t="n">
         <v>38</v>
       </c>
-      <c r="H105" s="25" t="n">
+      <c r="H105" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I105" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="106">
-      <c r="A106" s="16" t="n">
+      <c r="A106" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A105+1</f>
         <v>96</v>
       </c>
-      <c r="B106" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106" s="21" t="s">
+      <c r="B106" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="24" t="n">
+      <c r="C106" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="E106" s="25" t="n">
+      <c r="E106" s="26" t="n">
         <v>36.7</v>
       </c>
-      <c r="F106" s="25" t="n">
+      <c r="F106" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="G106" s="25" t="n">
+      <c r="G106" s="26" t="n">
         <v>37.4</v>
       </c>
-      <c r="H106" s="25" t="n">
+      <c r="H106" s="26" t="n">
         <v>32.8</v>
       </c>
+      <c r="I106" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="107">
-      <c r="A107" s="16" t="n">
+      <c r="A107" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A106+1</f>
         <v>97</v>
       </c>
-      <c r="B107" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C107" s="21" t="s">
+      <c r="B107" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D107" s="24" t="n">
+      <c r="C107" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="25" t="n">
         <v>51.5</v>
       </c>
-      <c r="E107" s="25" t="n">
+      <c r="E107" s="26" t="n">
         <v>16.75</v>
       </c>
-      <c r="F107" s="25" t="n">
+      <c r="F107" s="26" t="n">
         <v>54.55</v>
       </c>
-      <c r="G107" s="25" t="n">
+      <c r="G107" s="26" t="n">
         <v>28.4</v>
       </c>
-      <c r="H107" s="25" t="n">
+      <c r="H107" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I107" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="108">
-      <c r="A108" s="16" t="n">
+      <c r="A108" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A107+1</f>
         <v>98</v>
       </c>
-      <c r="B108" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" s="21" t="s">
+      <c r="B108" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D108" s="24" t="n">
+      <c r="C108" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="25" t="n">
         <v>50.15</v>
       </c>
-      <c r="E108" s="25" t="n">
+      <c r="E108" s="26" t="n">
         <v>35.95</v>
       </c>
-      <c r="F108" s="25" t="n">
+      <c r="F108" s="26" t="n">
         <v>53.45</v>
       </c>
-      <c r="G108" s="25" t="n">
+      <c r="G108" s="26" t="n">
         <v>41.7</v>
       </c>
-      <c r="H108" s="25" t="n">
+      <c r="H108" s="26" t="n">
         <v>22.7</v>
       </c>
+      <c r="I108" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="109">
-      <c r="A109" s="16" t="n">
+      <c r="A109" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A108+1</f>
         <v>99</v>
       </c>
-      <c r="B109" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="21" t="s">
+      <c r="B109" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D109" s="24" t="n">
+      <c r="C109" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="25" t="n">
         <v>46.45</v>
       </c>
-      <c r="E109" s="25" t="n">
+      <c r="E109" s="26" t="n">
         <v>30.5</v>
       </c>
-      <c r="F109" s="25" t="n">
+      <c r="F109" s="26" t="n">
         <v>51.7</v>
       </c>
-      <c r="G109" s="25" t="n">
+      <c r="G109" s="26" t="n">
         <v>30.5</v>
       </c>
-      <c r="H109" s="25" t="n">
+      <c r="H109" s="26" t="n">
         <v>9.35</v>
       </c>
+      <c r="I109" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="110">
-      <c r="A110" s="16" t="n">
+      <c r="A110" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A109+1</f>
         <v>100</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C110" s="21" t="s">
+      <c r="B110" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D110" s="24" t="n">
+      <c r="C110" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="25" t="n">
         <v>32.05</v>
       </c>
-      <c r="E110" s="25" t="n">
+      <c r="E110" s="26" t="n">
         <v>9.4</v>
       </c>
-      <c r="F110" s="25" t="n">
+      <c r="F110" s="26" t="n">
         <v>32.55</v>
       </c>
-      <c r="G110" s="25" t="n">
+      <c r="G110" s="26" t="n">
         <v>9.4</v>
       </c>
-      <c r="H110" s="25" t="n">
+      <c r="H110" s="26" t="n">
         <v>5.25</v>
       </c>
+      <c r="I110" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="111">
-      <c r="A111" s="16" t="n">
+      <c r="A111" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A110+1</f>
         <v>101</v>
       </c>
-      <c r="B111" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="21" t="s">
+      <c r="B111" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="25" t="n">
+      <c r="C111" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="26" t="n">
         <v>60.85</v>
       </c>
-      <c r="G111" s="25" t="n">
+      <c r="G111" s="26" t="n">
         <v>36.8</v>
       </c>
-      <c r="H111" s="25" t="n">
+      <c r="H111" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I111" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="112">
-      <c r="A112" s="16" t="n">
+      <c r="A112" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A111+1</f>
         <v>102</v>
       </c>
-      <c r="B112" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="21" t="s">
+      <c r="B112" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D112" s="24" t="n">
+      <c r="C112" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="25" t="n">
         <v>47.3</v>
       </c>
-      <c r="E112" s="25" t="n">
+      <c r="E112" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="F112" s="25" t="n">
+      <c r="F112" s="26" t="n">
         <v>47.3</v>
       </c>
-      <c r="G112" s="25" t="n">
+      <c r="G112" s="26" t="n">
         <v>28.85</v>
       </c>
-      <c r="H112" s="25" t="n">
+      <c r="H112" s="26" t="n">
         <v>23.65</v>
       </c>
+      <c r="I112" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="113">
-      <c r="A113" s="16" t="n">
+      <c r="A113" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A112+1</f>
         <v>103</v>
       </c>
-      <c r="B113" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="21" t="s">
+      <c r="B113" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D113" s="24" t="n">
+      <c r="C113" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="25" t="n">
         <v>50.35</v>
       </c>
-      <c r="E113" s="25" t="n">
+      <c r="E113" s="26" t="n">
         <v>20.1</v>
       </c>
-      <c r="F113" s="25" t="n">
+      <c r="F113" s="26" t="n">
         <v>50.35</v>
       </c>
-      <c r="G113" s="25" t="n">
+      <c r="G113" s="26" t="n">
         <v>20.1</v>
       </c>
-      <c r="H113" s="25" t="n">
+      <c r="H113" s="26" t="n">
         <v>13.15</v>
       </c>
+      <c r="I113" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="114">
-      <c r="A114" s="16" t="n">
+      <c r="A114" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A113+1</f>
         <v>104</v>
       </c>
-      <c r="B114" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="21" t="s">
+      <c r="B114" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="25" t="s">
+      <c r="C114" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G114" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H114" s="25" t="s">
-        <v>222</v>
-      </c>
+      <c r="D114" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I114" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="115">
-      <c r="A115" s="16" t="n">
+      <c r="A115" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A114+1</f>
         <v>105</v>
       </c>
-      <c r="B115" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C115" s="21" t="s">
+      <c r="B115" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="24" t="n">
+      <c r="C115" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D115" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="E115" s="25" t="n">
+      <c r="E115" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="F115" s="25" t="n">
+      <c r="F115" s="26" t="n">
         <v>48.75</v>
       </c>
-      <c r="G115" s="25" t="n">
+      <c r="G115" s="26" t="n">
         <v>6.15</v>
       </c>
-      <c r="H115" s="25" t="n">
+      <c r="H115" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I115" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="116">
-      <c r="A116" s="16" t="n">
+      <c r="A116" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A115+1</f>
         <v>106</v>
       </c>
-      <c r="B116" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C116" s="21" t="s">
+      <c r="B116" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="24" t="n">
+      <c r="C116" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="25" t="n">
         <v>46.1</v>
       </c>
-      <c r="E116" s="25" t="n">
+      <c r="E116" s="26" t="n">
         <v>11.3</v>
       </c>
-      <c r="F116" s="25" t="n">
+      <c r="F116" s="26" t="n">
         <v>47.35</v>
       </c>
-      <c r="G116" s="25" t="n">
+      <c r="G116" s="26" t="n">
         <v>11.3</v>
       </c>
-      <c r="H116" s="25" t="n">
+      <c r="H116" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I116" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="117">
-      <c r="A117" s="16" t="n">
+      <c r="A117" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A116+1</f>
         <v>107</v>
       </c>
-      <c r="B117" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C117" s="21" t="s">
+      <c r="B117" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="24" t="n">
+      <c r="C117" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117" s="25" t="n">
         <v>48.9</v>
       </c>
-      <c r="E117" s="25" t="n">
+      <c r="E117" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="F117" s="25" t="n">
+      <c r="F117" s="26" t="n">
         <v>48.9</v>
       </c>
-      <c r="G117" s="25" t="n">
+      <c r="G117" s="26" t="n">
         <v>10.05</v>
       </c>
-      <c r="H117" s="25" t="n">
+      <c r="H117" s="26" t="n">
         <v>7.15</v>
       </c>
+      <c r="I117" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="118">
-      <c r="A118" s="16" t="n">
+      <c r="A118" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A117+1</f>
         <v>108</v>
       </c>
-      <c r="B118" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="21" t="s">
+      <c r="B118" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D118" s="24" t="n">
+      <c r="C118" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118" s="25" t="n">
         <v>52</v>
       </c>
-      <c r="E118" s="25" t="n">
+      <c r="E118" s="26" t="n">
         <v>31.45</v>
       </c>
-      <c r="F118" s="25" t="n">
+      <c r="F118" s="26" t="n">
         <v>60.3</v>
       </c>
-      <c r="G118" s="25" t="n">
+      <c r="G118" s="26" t="n">
         <v>40.9</v>
       </c>
-      <c r="H118" s="25" t="n">
+      <c r="H118" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I118" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="119">
-      <c r="A119" s="16" t="n">
+      <c r="A119" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A118+1</f>
         <v>109</v>
       </c>
-      <c r="B119" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C119" s="21" t="s">
+      <c r="B119" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D119" s="24" t="n">
+      <c r="C119" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D119" s="25" t="n">
         <v>57.7</v>
       </c>
-      <c r="E119" s="25" t="n">
+      <c r="E119" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="F119" s="25" t="n">
+      <c r="F119" s="26" t="n">
         <v>59.2</v>
       </c>
-      <c r="G119" s="25" t="n">
+      <c r="G119" s="26" t="n">
         <v>32.35</v>
       </c>
-      <c r="H119" s="25" t="n">
+      <c r="H119" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I119" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="120">
-      <c r="A120" s="16" t="n">
+      <c r="A120" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A119+1</f>
         <v>110</v>
       </c>
-      <c r="B120" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" s="21" t="s">
+      <c r="B120" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="24" t="n">
+      <c r="C120" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="25" t="n">
         <v>67.55</v>
       </c>
-      <c r="E120" s="25" t="n">
+      <c r="E120" s="26" t="n">
         <v>29.5</v>
       </c>
-      <c r="F120" s="25" t="n">
+      <c r="F120" s="26" t="n">
         <v>66.05</v>
       </c>
-      <c r="G120" s="25" t="n">
+      <c r="G120" s="26" t="n">
         <v>41</v>
       </c>
-      <c r="H120" s="25" t="n">
+      <c r="H120" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I120" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="121">
-      <c r="A121" s="16" t="n">
+      <c r="A121" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A120+1</f>
         <v>111</v>
       </c>
-      <c r="B121" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C121" s="21" t="s">
+      <c r="B121" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="25" t="n">
+      <c r="C121" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="26" t="n">
         <v>80.75</v>
       </c>
-      <c r="G121" s="25" t="n">
+      <c r="G121" s="26" t="n">
         <v>42.25</v>
       </c>
-      <c r="H121" s="25" t="n">
+      <c r="H121" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I121" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="122">
-      <c r="A122" s="16" t="n">
+      <c r="A122" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A121+1</f>
         <v>112</v>
       </c>
-      <c r="B122" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122" s="21" t="s">
+      <c r="B122" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="24" t="n">
+      <c r="C122" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="25" t="n">
         <v>59.2</v>
       </c>
-      <c r="E122" s="25" t="n">
+      <c r="E122" s="26" t="n">
         <v>30.9</v>
       </c>
-      <c r="F122" s="25" t="n">
+      <c r="F122" s="26" t="n">
         <v>68</v>
       </c>
-      <c r="G122" s="25" t="n">
+      <c r="G122" s="26" t="n">
         <v>30.95</v>
       </c>
-      <c r="H122" s="25" t="n">
+      <c r="H122" s="26" t="n">
         <v>26.25</v>
       </c>
+      <c r="I122" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="123">
-      <c r="A123" s="16" t="n">
+      <c r="A123" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A122+1</f>
         <v>113</v>
       </c>
-      <c r="B123" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C123" s="21" t="s">
+      <c r="B123" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D123" s="24" t="n">
+      <c r="C123" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" s="25" t="n">
         <v>45.7</v>
       </c>
-      <c r="E123" s="25" t="n">
+      <c r="E123" s="26" t="n">
         <v>18.7</v>
       </c>
-      <c r="F123" s="25" t="n">
+      <c r="F123" s="26" t="n">
         <v>45.7</v>
       </c>
-      <c r="G123" s="25" t="n">
+      <c r="G123" s="26" t="n">
         <v>18.7</v>
       </c>
-      <c r="H123" s="25" t="n">
+      <c r="H123" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I123" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="124">
-      <c r="A124" s="16" t="n">
+      <c r="A124" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A123+1</f>
         <v>114</v>
       </c>
-      <c r="B124" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C124" s="21" t="s">
+      <c r="B124" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="24" t="n">
+      <c r="C124" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" s="25" t="n">
         <v>61.8</v>
       </c>
-      <c r="E124" s="25" t="n">
+      <c r="E124" s="26" t="n">
         <v>30.9</v>
       </c>
-      <c r="F124" s="25" t="n">
+      <c r="F124" s="26" t="n">
         <v>59.9</v>
       </c>
-      <c r="G124" s="25" t="n">
+      <c r="G124" s="26" t="n">
         <v>33.05</v>
       </c>
-      <c r="H124" s="25" t="n">
+      <c r="H124" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I124" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="125">
-      <c r="A125" s="16" t="n">
+      <c r="A125" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A124+1</f>
         <v>115</v>
       </c>
-      <c r="B125" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C125" s="21" t="s">
+      <c r="B125" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="24" t="n">
+      <c r="C125" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" s="25" t="n">
         <v>41.2</v>
       </c>
-      <c r="E125" s="25" t="n">
+      <c r="E125" s="26" t="n">
         <v>19.2</v>
       </c>
-      <c r="F125" s="25" t="n">
+      <c r="F125" s="26" t="n">
         <v>41.75</v>
       </c>
-      <c r="G125" s="25" t="n">
+      <c r="G125" s="26" t="n">
         <v>19.8</v>
       </c>
-      <c r="H125" s="25" t="n">
+      <c r="H125" s="26" t="n">
         <v>15.9</v>
       </c>
+      <c r="I125" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="126">
-      <c r="A126" s="16" t="n">
+      <c r="A126" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A125+1</f>
         <v>116</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="21" t="s">
+      <c r="B126" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D126" s="24" t="n">
+      <c r="C126" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D126" s="25" t="n">
         <v>49.8</v>
       </c>
-      <c r="E126" s="25" t="n">
+      <c r="E126" s="26" t="n">
         <v>26.9</v>
       </c>
-      <c r="F126" s="25" t="n">
+      <c r="F126" s="26" t="n">
         <v>51.55</v>
       </c>
-      <c r="G126" s="25" t="n">
+      <c r="G126" s="26" t="n">
         <v>33.6</v>
       </c>
-      <c r="H126" s="25" t="n">
+      <c r="H126" s="26" t="n">
         <v>22.85</v>
       </c>
+      <c r="I126" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="127">
-      <c r="A127" s="16" t="n">
+      <c r="A127" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A126+1</f>
         <v>117</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C127" s="21" t="s">
+      <c r="B127" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="24" t="n">
+      <c r="C127" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D127" s="25" t="n">
         <v>48.15</v>
       </c>
-      <c r="E127" s="25" t="n">
+      <c r="E127" s="26" t="n">
         <v>26.5</v>
       </c>
-      <c r="F127" s="25" t="n">
+      <c r="F127" s="26" t="n">
         <v>59.05</v>
       </c>
-      <c r="G127" s="25" t="n">
+      <c r="G127" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="H127" s="25" t="n">
+      <c r="H127" s="26" t="n">
         <v>7.65</v>
       </c>
+      <c r="I127" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="128">
-      <c r="A128" s="16" t="n">
+      <c r="A128" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A127+1</f>
         <v>118</v>
       </c>
-      <c r="B128" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C128" s="21" t="s">
+      <c r="B128" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D128" s="24" t="n">
+      <c r="C128" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128" s="25" t="n">
         <v>58.35</v>
       </c>
-      <c r="E128" s="25" t="n">
+      <c r="E128" s="26" t="n">
         <v>17.5</v>
       </c>
-      <c r="F128" s="25" t="n">
+      <c r="F128" s="26" t="n">
         <v>58.45</v>
       </c>
-      <c r="G128" s="25" t="n">
+      <c r="G128" s="26" t="n">
         <v>27.7</v>
       </c>
-      <c r="H128" s="25" t="n">
+      <c r="H128" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I128" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="129">
-      <c r="A129" s="16" t="n">
+      <c r="A129" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A128+1</f>
         <v>119</v>
       </c>
-      <c r="B129" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C129" s="21" t="s">
+      <c r="B129" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D129" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="25" t="n">
+      <c r="C129" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="26" t="n">
         <v>56.3</v>
       </c>
-      <c r="G129" s="25" t="n">
+      <c r="G129" s="26" t="n">
         <v>21.3</v>
       </c>
-      <c r="H129" s="25" t="n">
+      <c r="H129" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I129" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="130">
-      <c r="A130" s="16" t="n">
+      <c r="A130" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A129+1</f>
         <v>120</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C130" s="21" t="s">
+      <c r="B130" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="25" t="n">
+      <c r="C130" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="26" t="n">
         <v>74.25</v>
       </c>
-      <c r="G130" s="25" t="n">
+      <c r="G130" s="26" t="n">
         <v>38.4</v>
       </c>
-      <c r="H130" s="25" t="n">
+      <c r="H130" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I130" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="131">
-      <c r="A131" s="16" t="n">
+      <c r="A131" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A130+1</f>
         <v>121</v>
       </c>
-      <c r="B131" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C131" s="21" t="s">
+      <c r="B131" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D131" s="24" t="n">
+      <c r="C131" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D131" s="25" t="n">
         <v>36.25</v>
       </c>
-      <c r="E131" s="25" t="n">
+      <c r="E131" s="26" t="n">
         <v>31.35</v>
       </c>
-      <c r="F131" s="25" t="n">
+      <c r="F131" s="26" t="n">
         <v>36.25</v>
       </c>
-      <c r="G131" s="25" t="n">
+      <c r="G131" s="26" t="n">
         <v>31.95</v>
       </c>
-      <c r="H131" s="25" t="n">
+      <c r="H131" s="26" t="n">
         <v>22.3</v>
       </c>
+      <c r="I131" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="132">
-      <c r="A132" s="16" t="n">
+      <c r="A132" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A131+1</f>
         <v>122</v>
       </c>
-      <c r="B132" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C132" s="21" t="s">
+      <c r="B132" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D132" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="25" t="n">
+      <c r="C132" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="26" t="n">
         <v>63.1</v>
       </c>
-      <c r="G132" s="25" t="n">
+      <c r="G132" s="26" t="n">
         <v>35.85</v>
       </c>
-      <c r="H132" s="25" t="n">
+      <c r="H132" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I132" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="133">
-      <c r="A133" s="16" t="n">
+      <c r="A133" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A132+1</f>
         <v>123</v>
       </c>
-      <c r="B133" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C133" s="21" t="s">
+      <c r="B133" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D133" s="24" t="n">
+      <c r="C133" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="25" t="n">
         <v>43.15</v>
       </c>
-      <c r="E133" s="25" t="n">
+      <c r="E133" s="26" t="n">
         <v>14.6</v>
       </c>
-      <c r="F133" s="25" t="n">
+      <c r="F133" s="26" t="n">
         <v>43.2</v>
       </c>
-      <c r="G133" s="25" t="n">
+      <c r="G133" s="26" t="n">
         <v>14.8</v>
       </c>
-      <c r="H133" s="25" t="n">
+      <c r="H133" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I133" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="134">
-      <c r="A134" s="16" t="n">
+      <c r="A134" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A133+1</f>
         <v>124</v>
       </c>
-      <c r="B134" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C134" s="21" t="s">
+      <c r="B134" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="24" t="n">
+      <c r="C134" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D134" s="25" t="n">
         <v>53.2</v>
       </c>
-      <c r="E134" s="25" t="n">
+      <c r="E134" s="26" t="n">
         <v>10.35</v>
       </c>
-      <c r="F134" s="25" t="n">
+      <c r="F134" s="26" t="n">
         <v>53.2</v>
       </c>
-      <c r="G134" s="25" t="n">
+      <c r="G134" s="26" t="n">
         <v>11.15</v>
       </c>
-      <c r="H134" s="25" t="n">
+      <c r="H134" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I134" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="135">
-      <c r="A135" s="16" t="n">
+      <c r="A135" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A134+1</f>
         <v>125</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C135" s="21" t="s">
+      <c r="B135" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="25" t="n">
+      <c r="C135" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="26" t="n">
         <v>56.2</v>
       </c>
-      <c r="G135" s="25" t="n">
+      <c r="G135" s="26" t="n">
         <v>43.55</v>
       </c>
-      <c r="H135" s="25" t="n">
+      <c r="H135" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I135" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="136">
-      <c r="A136" s="16" t="n">
+      <c r="A136" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A135+1</f>
         <v>126</v>
       </c>
-      <c r="B136" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C136" s="21" t="s">
+      <c r="B136" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D136" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>222</v>
-      </c>
+      <c r="C136" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D136" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G136" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H136" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I136" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="137">
-      <c r="A137" s="16" t="n">
+      <c r="A137" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A136+1</f>
         <v>127</v>
       </c>
-      <c r="B137" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C137" s="21" t="s">
+      <c r="B137" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D137" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="25" t="n">
+      <c r="C137" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="26" t="n">
         <v>53.45</v>
       </c>
-      <c r="G137" s="25" t="n">
+      <c r="G137" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="H137" s="25" t="n">
+      <c r="H137" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I137" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="138">
-      <c r="A138" s="16" t="n">
+      <c r="A138" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A137+1</f>
         <v>128</v>
       </c>
-      <c r="B138" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C138" s="21" t="s">
+      <c r="B138" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D138" s="24" t="n">
+      <c r="C138" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="25" t="n">
         <v>60.55</v>
       </c>
-      <c r="E138" s="25" t="n">
+      <c r="E138" s="26" t="n">
         <v>27.55</v>
       </c>
-      <c r="F138" s="25" t="n">
+      <c r="F138" s="26" t="n">
         <v>60.55</v>
       </c>
-      <c r="G138" s="25" t="n">
+      <c r="G138" s="26" t="n">
         <v>33.15</v>
       </c>
-      <c r="H138" s="25" t="n">
+      <c r="H138" s="26" t="n">
         <v>23.7</v>
       </c>
+      <c r="I138" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="139">
-      <c r="A139" s="16" t="n">
+      <c r="A139" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A138+1</f>
         <v>129</v>
       </c>
-      <c r="B139" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="21" t="s">
+      <c r="B139" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="C139" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="E139" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="F139" s="25" t="n">
+      <c r="D139" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" s="26" t="n">
         <v>34.05</v>
       </c>
-      <c r="G139" s="25" t="n">
+      <c r="G139" s="26" t="n">
         <v>68.75</v>
       </c>
-      <c r="H139" s="25" t="n">
+      <c r="H139" s="26" t="n">
         <v>41.65</v>
       </c>
+      <c r="I139" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="140">
-      <c r="A140" s="16" t="n">
+      <c r="A140" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A139+1</f>
         <v>130</v>
       </c>
-      <c r="B140" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C140" s="21" t="s">
+      <c r="B140" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D140" s="24" t="n">
+      <c r="C140" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D140" s="25" t="n">
         <v>41.1</v>
       </c>
-      <c r="E140" s="25" t="n">
+      <c r="E140" s="26" t="n">
         <v>32.95</v>
       </c>
-      <c r="F140" s="25" t="n">
+      <c r="F140" s="26" t="n">
         <v>49.95</v>
       </c>
-      <c r="G140" s="25" t="n">
+      <c r="G140" s="26" t="n">
         <v>32</v>
       </c>
-      <c r="H140" s="25" t="n">
+      <c r="H140" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I140" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="141">
-      <c r="A141" s="16" t="n">
+      <c r="A141" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A140+1</f>
         <v>131</v>
       </c>
-      <c r="B141" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C141" s="21" t="s">
+      <c r="B141" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D141" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="F141" s="25" t="n">
+      <c r="C141" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" s="26" t="n">
         <v>45.4</v>
       </c>
-      <c r="G141" s="25" t="n">
+      <c r="G141" s="26" t="n">
         <v>32.35</v>
       </c>
-      <c r="H141" s="25" t="n">
+      <c r="H141" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I141" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="142">
-      <c r="A142" s="16" t="n">
+      <c r="A142" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A141+1</f>
         <v>132</v>
       </c>
-      <c r="B142" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="21" t="s">
+      <c r="B142" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D142" s="24" t="n">
+      <c r="C142" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D142" s="25" t="n">
         <v>64.9</v>
       </c>
-      <c r="E142" s="25" t="n">
+      <c r="E142" s="26" t="n">
         <v>24.95</v>
       </c>
-      <c r="F142" s="25" t="n">
+      <c r="F142" s="26" t="n">
         <v>64.9</v>
       </c>
-      <c r="G142" s="25" t="n">
+      <c r="G142" s="26" t="n">
         <v>28.6</v>
       </c>
-      <c r="H142" s="25" t="n">
+      <c r="H142" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I142" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="16" t="n">
+      <c r="A143" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A142+1</f>
         <v>133</v>
       </c>
-      <c r="B143" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C143" s="21" t="s">
+      <c r="B143" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D143" s="24" t="n">
+      <c r="C143" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D143" s="25" t="n">
         <v>44.2</v>
       </c>
-      <c r="E143" s="25" t="n">
+      <c r="E143" s="26" t="n">
         <v>10.7</v>
       </c>
-      <c r="F143" s="25" t="n">
+      <c r="F143" s="26" t="n">
         <v>44.2</v>
       </c>
-      <c r="G143" s="25" t="n">
+      <c r="G143" s="26" t="n">
         <v>10.7</v>
       </c>
-      <c r="H143" s="25" t="n">
+      <c r="H143" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I143" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="16" t="n">
+      <c r="A144" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A143+1</f>
         <v>134</v>
       </c>
-      <c r="B144" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C144" s="21" t="s">
+      <c r="B144" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D144" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="25" t="n">
+      <c r="C144" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="26" t="n">
         <v>56.4</v>
       </c>
-      <c r="G144" s="25" t="n">
+      <c r="G144" s="26" t="n">
         <v>37.1</v>
       </c>
-      <c r="H144" s="25" t="n">
+      <c r="H144" s="26" t="n">
         <v>28.85</v>
       </c>
+      <c r="I144" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="16" t="n">
+      <c r="A145" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A144+1</f>
         <v>135</v>
       </c>
-      <c r="B145" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="C145" s="21" t="s">
+      <c r="B145" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D145" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="25" t="n">
+      <c r="C145" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="26" t="n">
         <v>52.6</v>
       </c>
-      <c r="G145" s="25" t="n">
+      <c r="G145" s="26" t="n">
         <v>48.65</v>
       </c>
-      <c r="H145" s="25" t="n">
+      <c r="H145" s="26" t="n">
         <v>40.05</v>
       </c>
+      <c r="I145" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="16" t="n">
+      <c r="A146" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A145+1</f>
         <v>136</v>
       </c>
-      <c r="B146" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C146" s="21" t="s">
+      <c r="B146" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D146" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="25" t="n">
+      <c r="C146" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="26" t="n">
         <v>62.9</v>
       </c>
-      <c r="G146" s="25" t="n">
+      <c r="G146" s="26" t="n">
         <v>58.7</v>
       </c>
-      <c r="H146" s="25" t="n">
+      <c r="H146" s="26" t="n">
         <v>17.4</v>
       </c>
+      <c r="I146" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="16" t="n">
+      <c r="A147" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A146+1</f>
         <v>137</v>
       </c>
-      <c r="B147" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C147" s="21" t="s">
+      <c r="B147" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D147" s="24" t="n">
+      <c r="C147" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" s="25" t="n">
         <v>64.55</v>
       </c>
-      <c r="E147" s="25" t="n">
+      <c r="E147" s="26" t="n">
         <v>12.75</v>
       </c>
-      <c r="F147" s="25" t="n">
+      <c r="F147" s="26" t="n">
         <v>65.65</v>
       </c>
-      <c r="G147" s="25" t="n">
+      <c r="G147" s="26" t="n">
         <v>12.75</v>
       </c>
-      <c r="H147" s="25" t="n">
+      <c r="H147" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I147" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="16" t="n">
+      <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C148" s="31" t="s">
+      <c r="B148" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="D148" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E148" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="F148" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>222</v>
-      </c>
+      <c r="C148" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H148" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I148" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="16" t="n">
+      <c r="A149" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A148+1</f>
         <v>139</v>
       </c>
-      <c r="B149" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C149" s="21" t="s">
+      <c r="B149" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D149" s="24" t="n">
+      <c r="C149" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" s="25" t="n">
         <v>31.2</v>
       </c>
-      <c r="E149" s="25" t="n">
+      <c r="E149" s="26" t="n">
         <v>10.5</v>
       </c>
-      <c r="F149" s="25" t="n">
+      <c r="F149" s="26" t="n">
         <v>34.5</v>
       </c>
-      <c r="G149" s="25" t="n">
+      <c r="G149" s="26" t="n">
         <v>11.75</v>
       </c>
-      <c r="H149" s="25" t="n">
+      <c r="H149" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I149" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="16" t="n">
+      <c r="A150" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A149+1</f>
         <v>140</v>
       </c>
-      <c r="B150" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C150" s="21" t="s">
+      <c r="B150" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D150" s="24" t="n">
+      <c r="C150" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" s="25" t="n">
         <v>45.3</v>
       </c>
-      <c r="E150" s="25" t="n">
+      <c r="E150" s="26" t="n">
         <v>23.75</v>
       </c>
-      <c r="F150" s="25" t="n">
+      <c r="F150" s="26" t="n">
         <v>46.05</v>
       </c>
-      <c r="G150" s="25" t="n">
+      <c r="G150" s="26" t="n">
         <v>24.1</v>
       </c>
-      <c r="H150" s="25" t="n">
+      <c r="H150" s="26" t="n">
         <v>16.1</v>
       </c>
+      <c r="I150" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="16" t="n">
+      <c r="A151" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A150+1</f>
         <v>141</v>
       </c>
-      <c r="B151" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C151" s="21" t="s">
+      <c r="B151" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D151" s="24" t="n">
+      <c r="C151" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" s="25" t="n">
         <v>46.55</v>
       </c>
-      <c r="E151" s="25" t="n">
+      <c r="E151" s="26" t="n">
         <v>22.6</v>
       </c>
-      <c r="F151" s="25" t="n">
+      <c r="F151" s="26" t="n">
         <v>46.55</v>
       </c>
-      <c r="G151" s="25" t="n">
+      <c r="G151" s="26" t="n">
         <v>23.3</v>
       </c>
-      <c r="H151" s="25" t="n">
+      <c r="H151" s="26" t="n">
         <v>15.25</v>
       </c>
+      <c r="I151" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="16" t="n">
+      <c r="A152" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A151+1</f>
         <v>142</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C152" s="21" t="s">
+      <c r="B152" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D152" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="C152" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="16" t="n">
+      <c r="A153" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A152+1</f>
         <v>143</v>
       </c>
-      <c r="B153" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="C153" s="21" t="s">
+      <c r="B153" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D153" s="24" t="n">
+      <c r="C153" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D153" s="25" t="n">
         <v>45.6</v>
       </c>
-      <c r="E153" s="25" t="n">
+      <c r="E153" s="26" t="n">
         <v>30.3</v>
       </c>
-      <c r="F153" s="25" t="n">
+      <c r="F153" s="26" t="n">
         <v>45.6</v>
       </c>
-      <c r="G153" s="25" t="n">
+      <c r="G153" s="26" t="n">
         <v>30.3</v>
       </c>
-      <c r="H153" s="25" t="n">
+      <c r="H153" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I153" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="16" t="n">
+      <c r="A154" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A153+1</f>
         <v>144</v>
       </c>
-      <c r="B154" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C154" s="21" t="s">
+      <c r="B154" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D154" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="25" t="n">
+      <c r="C154" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="26" t="n">
         <v>73</v>
       </c>
-      <c r="G154" s="25" t="n">
+      <c r="G154" s="26" t="n">
         <v>54.6</v>
       </c>
-      <c r="H154" s="25" t="n">
+      <c r="H154" s="26" t="n">
         <v>17.4</v>
       </c>
+      <c r="I154" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="16" t="n">
+      <c r="A155" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A154+1</f>
         <v>145</v>
       </c>
-      <c r="B155" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C155" s="21" t="s">
+      <c r="B155" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D155" s="24" t="n">
+      <c r="C155" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" s="25" t="n">
         <v>42.95</v>
       </c>
-      <c r="E155" s="25" t="n">
+      <c r="E155" s="26" t="n">
         <v>35.85</v>
       </c>
-      <c r="F155" s="25" t="n">
+      <c r="F155" s="26" t="n">
         <v>48.9</v>
       </c>
-      <c r="G155" s="25" t="n">
+      <c r="G155" s="26" t="n">
         <v>48.4</v>
       </c>
-      <c r="H155" s="25" t="n">
+      <c r="H155" s="26" t="n">
         <v>31.85</v>
       </c>
+      <c r="I155" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="16" t="n">
+      <c r="A156" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A155+1</f>
         <v>146</v>
       </c>
-      <c r="B156" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C156" s="21" t="s">
+      <c r="B156" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D156" s="24" t="n">
+      <c r="C156" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D156" s="25" t="n">
         <v>54.3</v>
       </c>
-      <c r="E156" s="25" t="n">
+      <c r="E156" s="26" t="n">
         <v>37.2</v>
       </c>
-      <c r="F156" s="25" t="n">
+      <c r="F156" s="26" t="n">
         <v>64.9</v>
       </c>
-      <c r="G156" s="25" t="n">
+      <c r="G156" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="H156" s="25" t="n">
+      <c r="H156" s="26" t="n">
         <v>25.9</v>
       </c>
+      <c r="I156" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="16" t="n">
+      <c r="A157" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A156+1</f>
         <v>147</v>
       </c>
-      <c r="B157" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C157" s="21" t="s">
+      <c r="B157" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D157" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="25" t="n">
+      <c r="C157" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="26" t="n">
         <v>53.85</v>
       </c>
-      <c r="G157" s="25" t="n">
+      <c r="G157" s="26" t="n">
         <v>71.65</v>
       </c>
-      <c r="H157" s="25" t="n">
+      <c r="H157" s="26" t="n">
         <v>40.05</v>
       </c>
+      <c r="I157" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="16" t="n">
+      <c r="A158" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A157+1</f>
         <v>148</v>
       </c>
-      <c r="B158" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C158" s="21" t="s">
+      <c r="B158" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D158" s="24" t="n">
+      <c r="C158" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D158" s="25" t="n">
         <v>45.25</v>
       </c>
-      <c r="E158" s="25" t="n">
+      <c r="E158" s="26" t="n">
         <v>9.45</v>
       </c>
-      <c r="F158" s="25" t="n">
+      <c r="F158" s="26" t="n">
         <v>45.7</v>
       </c>
-      <c r="G158" s="25" t="n">
+      <c r="G158" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="H158" s="25" t="n">
+      <c r="H158" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I158" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="16" t="n">
+      <c r="A159" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A158+1</f>
         <v>149</v>
       </c>
-      <c r="B159" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C159" s="21" t="s">
+      <c r="B159" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D159" s="24" t="n">
+      <c r="C159" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D159" s="25" t="n">
         <v>56.1</v>
       </c>
-      <c r="E159" s="25" t="n">
+      <c r="E159" s="26" t="n">
         <v>13.1</v>
       </c>
-      <c r="F159" s="25" t="n">
+      <c r="F159" s="26" t="n">
         <v>56.1</v>
       </c>
-      <c r="G159" s="25" t="n">
+      <c r="G159" s="26" t="n">
         <v>13.1</v>
       </c>
-      <c r="H159" s="25" t="n">
+      <c r="H159" s="26" t="n">
         <v>8.2</v>
       </c>
+      <c r="I159" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="16" t="n">
+      <c r="A160" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A159+1</f>
         <v>150</v>
       </c>
-      <c r="B160" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C160" s="21" t="s">
+      <c r="B160" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D160" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="25" t="n">
+      <c r="C160" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" s="26" t="n">
         <v>72.1</v>
       </c>
-      <c r="G160" s="25" t="n">
+      <c r="G160" s="26" t="n">
         <v>43.4</v>
       </c>
-      <c r="H160" s="25" t="n">
+      <c r="H160" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I160" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="16" t="n">
+      <c r="A161" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A160+1</f>
         <v>151</v>
       </c>
-      <c r="B161" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C161" s="29" t="s">
+      <c r="B161" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D161" s="24" t="n">
+      <c r="C161" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D161" s="25" t="n">
         <v>58.35</v>
       </c>
-      <c r="E161" s="25" t="n">
+      <c r="E161" s="26" t="n">
         <v>6.75</v>
       </c>
-      <c r="F161" s="25" t="n">
+      <c r="F161" s="26" t="n">
         <v>58.35</v>
       </c>
-      <c r="G161" s="25" t="n">
+      <c r="G161" s="26" t="n">
         <v>12.5</v>
       </c>
-      <c r="H161" s="25" t="n">
+      <c r="H161" s="26" t="n">
         <v>1.75</v>
       </c>
+      <c r="I161" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="16" t="n">
+      <c r="A162" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A161+1</f>
         <v>152</v>
       </c>
-      <c r="B162" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C162" s="21" t="s">
+      <c r="B162" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D162" s="24" t="n">
+      <c r="C162" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D162" s="25" t="n">
         <v>52.35</v>
       </c>
-      <c r="E162" s="25" t="n">
+      <c r="E162" s="26" t="n">
         <v>29.35</v>
       </c>
-      <c r="F162" s="25" t="n">
+      <c r="F162" s="26" t="n">
         <v>52.35</v>
       </c>
-      <c r="G162" s="25" t="n">
+      <c r="G162" s="26" t="n">
         <v>36.55</v>
       </c>
-      <c r="H162" s="25" t="n">
+      <c r="H162" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I162" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="16" t="n">
+      <c r="A163" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A162+1</f>
         <v>153</v>
       </c>
-      <c r="B163" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C163" s="21" t="s">
+      <c r="B163" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D163" s="24" t="n">
+      <c r="C163" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D163" s="25" t="n">
         <v>58.9</v>
       </c>
-      <c r="E163" s="25" t="n">
+      <c r="E163" s="26" t="n">
         <v>15.1</v>
       </c>
-      <c r="F163" s="25" t="n">
+      <c r="F163" s="26" t="n">
         <v>58.9</v>
       </c>
-      <c r="G163" s="25" t="n">
+      <c r="G163" s="26" t="n">
         <v>17.1</v>
       </c>
-      <c r="H163" s="25" t="n">
+      <c r="H163" s="26" t="n">
         <v>10.55</v>
       </c>
+      <c r="I163" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="16" t="n">
+      <c r="A164" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A163+1</f>
         <v>154</v>
       </c>
-      <c r="B164" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C164" s="21" t="s">
+      <c r="B164" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D164" s="24" t="n">
+      <c r="C164" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D164" s="25" t="n">
         <v>35.65</v>
       </c>
-      <c r="E164" s="25" t="n">
+      <c r="E164" s="26" t="n">
         <v>35.05</v>
       </c>
-      <c r="F164" s="25" t="n">
+      <c r="F164" s="26" t="n">
         <v>38.2</v>
       </c>
-      <c r="G164" s="25" t="n">
+      <c r="G164" s="26" t="n">
         <v>39.25</v>
       </c>
-      <c r="H164" s="25" t="n">
+      <c r="H164" s="26" t="n">
         <v>21.8</v>
       </c>
+      <c r="I164" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="16" t="n">
+      <c r="A165" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A164+1</f>
         <v>155</v>
       </c>
-      <c r="B165" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C165" s="21" t="s">
+      <c r="B165" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D165" s="24" t="n">
+      <c r="C165" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D165" s="25" t="n">
         <v>46.7</v>
       </c>
-      <c r="E165" s="25" t="n">
+      <c r="E165" s="26" t="n">
         <v>35.6</v>
       </c>
-      <c r="F165" s="25" t="n">
+      <c r="F165" s="26" t="n">
         <v>48.65</v>
       </c>
-      <c r="G165" s="25" t="n">
+      <c r="G165" s="26" t="n">
         <v>43.1</v>
       </c>
-      <c r="H165" s="25" t="n">
+      <c r="H165" s="26" t="n">
         <v>26.85</v>
       </c>
+      <c r="I165" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="16" t="n">
+      <c r="A166" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A165+1</f>
         <v>156</v>
       </c>
-      <c r="B166" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C166" s="21" t="s">
+      <c r="B166" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D166" s="27" t="n">
+      <c r="C166" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D166" s="31" t="n">
         <v>34.6</v>
       </c>
-      <c r="E166" s="27" t="n">
+      <c r="E166" s="31" t="n">
         <v>62.6</v>
       </c>
-      <c r="F166" s="27" t="n">
+      <c r="F166" s="31" t="n">
         <v>34.6</v>
       </c>
-      <c r="G166" s="27" t="n">
+      <c r="G166" s="31" t="n">
         <v>65.1</v>
       </c>
-      <c r="H166" s="27" t="n">
+      <c r="H166" s="31" t="n">
         <v>40.05</v>
       </c>
+      <c r="I166" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="16" t="n">
+      <c r="A167" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A166+1</f>
         <v>157</v>
       </c>
-      <c r="B167" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="C167" s="21" t="s">
+      <c r="B167" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D167" s="24" t="n">
+      <c r="C167" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" s="25" t="n">
         <v>44.95</v>
       </c>
-      <c r="E167" s="25" t="n">
+      <c r="E167" s="26" t="n">
         <v>32.25</v>
       </c>
-      <c r="F167" s="25" t="n">
+      <c r="F167" s="26" t="n">
         <v>48.5</v>
       </c>
-      <c r="G167" s="25" t="n">
+      <c r="G167" s="26" t="n">
         <v>40.35</v>
       </c>
-      <c r="H167" s="25" t="n">
+      <c r="H167" s="26" t="n">
         <v>29.9</v>
       </c>
+      <c r="I167" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="16" t="n">
+      <c r="A168" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A167+1</f>
         <v>158</v>
       </c>
-      <c r="B168" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C168" s="21" t="s">
+      <c r="B168" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="D168" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" s="25" t="n">
+      <c r="C168" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" s="26" t="n">
         <v>49.15</v>
       </c>
-      <c r="G168" s="25" t="n">
+      <c r="G168" s="26" t="n">
         <v>36.1</v>
       </c>
-      <c r="H168" s="25" t="n">
+      <c r="H168" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I168" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="16" t="n">
+      <c r="A169" s="17" t="n">
         <v>158</v>
       </c>
-      <c r="B169" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C169" s="21" t="s">
+      <c r="B169" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D169" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="25" t="n">
+      <c r="C169" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" s="26" t="n">
         <v>45.45</v>
       </c>
-      <c r="G169" s="25" t="n">
+      <c r="G169" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="H169" s="25" t="n">
+      <c r="H169" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I169" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="16" t="n">
+      <c r="A170" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A169+1</f>
         <v>159</v>
       </c>
-      <c r="B170" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C170" s="21" t="s">
+      <c r="B170" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D170" s="24" t="n">
+      <c r="C170" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D170" s="25" t="n">
         <v>43.3</v>
       </c>
-      <c r="E170" s="25" t="n">
+      <c r="E170" s="26" t="n">
         <v>25.85</v>
       </c>
-      <c r="F170" s="25" t="n">
+      <c r="F170" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="G170" s="25" t="n">
+      <c r="G170" s="26" t="n">
         <v>36.5</v>
       </c>
-      <c r="H170" s="25" t="n">
+      <c r="H170" s="26" t="n">
         <v>11.05</v>
       </c>
+      <c r="I170" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="16" t="n">
+      <c r="A171" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A170+1</f>
         <v>160</v>
       </c>
-      <c r="B171" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C171" s="21" t="s">
+      <c r="B171" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D171" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F171" s="25" t="n">
+      <c r="C171" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171" s="26" t="n">
         <v>84.35</v>
       </c>
-      <c r="G171" s="25" t="n">
+      <c r="G171" s="26" t="n">
         <v>46.9</v>
       </c>
-      <c r="H171" s="25" t="n">
+      <c r="H171" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I171" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="16" t="n">
+      <c r="A172" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A171+1</f>
         <v>161</v>
       </c>
-      <c r="B172" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C172" s="21" t="s">
+      <c r="B172" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="D172" s="24" t="n">
+      <c r="C172" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D172" s="25" t="n">
         <v>51.25</v>
       </c>
-      <c r="E172" s="25" t="n">
+      <c r="E172" s="26" t="n">
         <v>24.15</v>
       </c>
-      <c r="F172" s="25" t="n">
+      <c r="F172" s="26" t="n">
         <v>53.35</v>
       </c>
-      <c r="G172" s="25" t="n">
+      <c r="G172" s="26" t="n">
         <v>32.35</v>
       </c>
-      <c r="H172" s="25" t="n">
+      <c r="H172" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I172" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="16" t="n">
+      <c r="A173" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A172+1</f>
         <v>162</v>
       </c>
-      <c r="B173" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C173" s="21" t="s">
+      <c r="B173" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D173" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" s="25" t="n">
+      <c r="C173" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" s="26" t="n">
         <v>49.7</v>
       </c>
-      <c r="G173" s="25" t="n">
+      <c r="G173" s="26" t="n">
         <v>40</v>
       </c>
-      <c r="H173" s="25" t="n">
+      <c r="H173" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I173" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15.75" outlineLevel="0" r="174">
-      <c r="A174" s="16" t="n">
+      <c r="A174" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A173+1</f>
         <v>163</v>
       </c>
-      <c r="B174" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C174" s="26" t="s">
+      <c r="B174" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D174" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" s="25" t="n">
+      <c r="C174" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" s="26" t="n">
         <v>49.05</v>
       </c>
-      <c r="G174" s="25" t="n">
+      <c r="G174" s="26" t="n">
         <v>37.85</v>
       </c>
-      <c r="H174" s="25" t="n">
+      <c r="H174" s="26" t="n">
         <v>27.9</v>
       </c>
+      <c r="I174" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="16" t="n">
+      <c r="A175" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A174+1</f>
         <v>164</v>
       </c>
-      <c r="B175" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C175" s="21" t="s">
+      <c r="B175" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D175" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175" s="25" t="n">
+      <c r="C175" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" s="26" t="n">
         <v>48.7</v>
       </c>
-      <c r="G175" s="25" t="n">
+      <c r="G175" s="26" t="n">
         <v>39.25</v>
       </c>
-      <c r="H175" s="25" t="n">
+      <c r="H175" s="26" t="n">
         <v>29.9</v>
       </c>
+      <c r="I175" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="16" t="n">
+      <c r="A176" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A175+1</f>
         <v>165</v>
       </c>
-      <c r="B176" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C176" s="21" t="s">
+      <c r="B176" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D176" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" s="25" t="n">
+      <c r="C176" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="26" t="n">
         <v>47.75</v>
       </c>
-      <c r="G176" s="25" t="n">
+      <c r="G176" s="26" t="n">
         <v>36.9</v>
       </c>
-      <c r="H176" s="25" t="n">
+      <c r="H176" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I176" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="16" t="n">
+      <c r="A177" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A176+1</f>
         <v>166</v>
       </c>
-      <c r="B177" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C177" s="21" t="s">
+      <c r="B177" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D177" s="24" t="n">
+      <c r="C177" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D177" s="25" t="n">
         <v>52.3</v>
       </c>
-      <c r="E177" s="25" t="n">
+      <c r="E177" s="26" t="n">
         <v>11.75</v>
       </c>
-      <c r="F177" s="25" t="n">
+      <c r="F177" s="26" t="n">
         <v>52.3</v>
       </c>
-      <c r="G177" s="25" t="n">
+      <c r="G177" s="26" t="n">
         <v>11.75</v>
       </c>
-      <c r="H177" s="25" t="n">
+      <c r="H177" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I177" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="16" t="n">
+      <c r="A178" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A177+1</f>
         <v>167</v>
       </c>
-      <c r="B178" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C178" s="21" t="s">
+      <c r="B178" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D178" s="24" t="n">
+      <c r="C178" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D178" s="25" t="n">
         <v>41.85</v>
       </c>
-      <c r="E178" s="25" t="n">
+      <c r="E178" s="26" t="n">
         <v>19.2</v>
       </c>
-      <c r="F178" s="25" t="n">
+      <c r="F178" s="26" t="n">
         <v>41.85</v>
       </c>
-      <c r="G178" s="25" t="n">
+      <c r="G178" s="26" t="n">
         <v>21.75</v>
       </c>
-      <c r="H178" s="25" t="n">
+      <c r="H178" s="26" t="n">
         <v>15.9</v>
       </c>
+      <c r="I178" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="16" t="n">
+      <c r="A179" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A178+1</f>
         <v>168</v>
       </c>
-      <c r="B179" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C179" s="21" t="s">
+      <c r="B179" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="D179" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H179" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="C179" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="16" t="n">
+      <c r="A180" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A179+1</f>
         <v>169</v>
       </c>
-      <c r="B180" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C180" s="21" t="s">
+      <c r="B180" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D180" s="24" t="n">
+      <c r="C180" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D180" s="25" t="n">
         <v>39.95</v>
       </c>
-      <c r="E180" s="25" t="n">
+      <c r="E180" s="26" t="n">
         <v>10.8</v>
       </c>
-      <c r="F180" s="25" t="n">
+      <c r="F180" s="26" t="n">
         <v>39.95</v>
       </c>
-      <c r="G180" s="25" t="n">
+      <c r="G180" s="26" t="n">
         <v>10.8</v>
       </c>
-      <c r="H180" s="25" t="n">
+      <c r="H180" s="26" t="n">
         <v>7.3</v>
       </c>
+      <c r="I180" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="16" t="n">
+      <c r="A181" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A180+1</f>
         <v>170</v>
       </c>
-      <c r="B181" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C181" s="21" t="s">
+      <c r="B181" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D181" s="24" t="n">
+      <c r="C181" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D181" s="25" t="n">
         <v>41.2</v>
       </c>
-      <c r="E181" s="25" t="n">
+      <c r="E181" s="26" t="n">
         <v>11.15</v>
       </c>
-      <c r="F181" s="25" t="n">
+      <c r="F181" s="26" t="n">
         <v>41.2</v>
       </c>
-      <c r="G181" s="25" t="n">
+      <c r="G181" s="26" t="n">
         <v>11.15</v>
       </c>
-      <c r="H181" s="25" t="n">
+      <c r="H181" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I181" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="16" t="n">
+      <c r="A182" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A181+1</f>
         <v>171</v>
       </c>
-      <c r="B182" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="C182" s="21" t="s">
+      <c r="B182" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D182" s="27" t="n">
+      <c r="C182" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="31" t="n">
         <v>33.7</v>
       </c>
-      <c r="E182" s="27" t="n">
+      <c r="E182" s="31" t="n">
         <v>52.9</v>
       </c>
-      <c r="F182" s="27" t="n">
+      <c r="F182" s="31" t="n">
         <v>33.7</v>
       </c>
-      <c r="G182" s="27" t="n">
+      <c r="G182" s="31" t="n">
         <v>62.9</v>
       </c>
-      <c r="H182" s="27" t="n">
+      <c r="H182" s="31" t="n">
         <v>41.65</v>
       </c>
+      <c r="I182" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="16" t="n">
+      <c r="A183" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A182+1</f>
         <v>172</v>
       </c>
-      <c r="B183" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C183" s="21" t="s">
+      <c r="B183" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D183" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E183" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H183" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="C183" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G183" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="16" t="n">
+      <c r="A184" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A183+1</f>
         <v>173</v>
       </c>
-      <c r="B184" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="C184" s="21" t="s">
+      <c r="B184" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="D184" s="24" t="n">
+      <c r="C184" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D184" s="25" t="n">
         <v>54.65</v>
       </c>
-      <c r="E184" s="25" t="n">
+      <c r="E184" s="26" t="n">
         <v>24.5</v>
       </c>
-      <c r="F184" s="25" t="n">
+      <c r="F184" s="26" t="n">
         <v>54.65</v>
       </c>
-      <c r="G184" s="25" t="n">
+      <c r="G184" s="26" t="n">
         <v>35.75</v>
       </c>
-      <c r="H184" s="25" t="n">
+      <c r="H184" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I184" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="16" t="n">
+      <c r="A185" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A184+1</f>
         <v>174</v>
       </c>
-      <c r="B185" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C185" s="21" t="s">
+      <c r="B185" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D185" s="24" t="n">
+      <c r="C185" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D185" s="25" t="n">
         <v>42.4</v>
       </c>
-      <c r="E185" s="25" t="n">
+      <c r="E185" s="26" t="n">
         <v>32.55</v>
       </c>
-      <c r="F185" s="25" t="n">
+      <c r="F185" s="26" t="n">
         <v>44.85</v>
       </c>
-      <c r="G185" s="25" t="n">
+      <c r="G185" s="26" t="n">
         <v>38.7</v>
       </c>
-      <c r="H185" s="25" t="n">
+      <c r="H185" s="26" t="n">
         <v>22.9</v>
       </c>
+      <c r="I185" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="16" t="n">
+      <c r="A186" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A185+1</f>
         <v>175</v>
       </c>
-      <c r="B186" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C186" s="21" t="s">
+      <c r="B186" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D186" s="24" t="n">
+      <c r="C186" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D186" s="25" t="n">
         <v>49.55</v>
       </c>
-      <c r="E186" s="25" t="n">
+      <c r="E186" s="26" t="n">
         <v>26.45</v>
       </c>
-      <c r="F186" s="25" t="n">
+      <c r="F186" s="26" t="n">
         <v>49.55</v>
       </c>
-      <c r="G186" s="25" t="n">
+      <c r="G186" s="26" t="n">
         <v>35</v>
       </c>
-      <c r="H186" s="25" t="n">
+      <c r="H186" s="26" t="n">
         <v>23.65</v>
       </c>
+      <c r="I186" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="16" t="n">
+      <c r="A187" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A186+1</f>
         <v>176</v>
       </c>
-      <c r="B187" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C187" s="21" t="s">
+      <c r="B187" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="D187" s="24" t="n">
+      <c r="C187" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D187" s="25" t="n">
         <v>33.15</v>
       </c>
-      <c r="E187" s="25" t="n">
+      <c r="E187" s="26" t="n">
         <v>18.4</v>
       </c>
-      <c r="F187" s="25" t="n">
+      <c r="F187" s="26" t="n">
         <v>33.15</v>
       </c>
-      <c r="G187" s="25" t="n">
+      <c r="G187" s="26" t="n">
         <v>19.75</v>
       </c>
-      <c r="H187" s="25" t="n">
+      <c r="H187" s="26" t="n">
         <v>13.55</v>
       </c>
+      <c r="I187" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="16" t="n">
+      <c r="A188" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A187+1</f>
         <v>177</v>
       </c>
-      <c r="B188" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C188" s="21" t="s">
+      <c r="B188" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="D188" s="24" t="n">
+      <c r="C188" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D188" s="25" t="n">
         <v>49.45</v>
       </c>
-      <c r="E188" s="25" t="n">
+      <c r="E188" s="26" t="n">
         <v>28.95</v>
       </c>
-      <c r="F188" s="25" t="n">
+      <c r="F188" s="26" t="n">
         <v>53.1</v>
       </c>
-      <c r="G188" s="25" t="n">
+      <c r="G188" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="H188" s="25" t="n">
+      <c r="H188" s="26" t="n">
         <v>24.75</v>
       </c>
+      <c r="I188" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="16" t="n">
+      <c r="A189" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A188+1</f>
         <v>178</v>
       </c>
-      <c r="B189" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C189" s="21" t="s">
+      <c r="B189" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D189" s="24" t="n">
+      <c r="C189" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D189" s="25" t="n">
         <v>36.5</v>
       </c>
-      <c r="E189" s="25" t="n">
+      <c r="E189" s="26" t="n">
         <v>13.4</v>
       </c>
-      <c r="F189" s="25" t="n">
+      <c r="F189" s="26" t="n">
         <v>39.05</v>
       </c>
-      <c r="G189" s="25" t="n">
+      <c r="G189" s="26" t="n">
         <v>16.6</v>
       </c>
-      <c r="H189" s="25" t="n">
+      <c r="H189" s="26" t="n">
         <v>9.35</v>
       </c>
+      <c r="I189" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="16" t="n">
+      <c r="A190" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A189+1</f>
         <v>179</v>
       </c>
-      <c r="B190" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C190" s="21" t="s">
+      <c r="B190" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="D190" s="24" t="n">
+      <c r="C190" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D190" s="25" t="n">
         <v>50.65</v>
       </c>
-      <c r="E190" s="25" t="n">
+      <c r="E190" s="26" t="n">
         <v>27.3</v>
       </c>
-      <c r="F190" s="25" t="n">
+      <c r="F190" s="26" t="n">
         <v>56.2</v>
       </c>
-      <c r="G190" s="25" t="n">
+      <c r="G190" s="26" t="n">
         <v>40.95</v>
       </c>
-      <c r="H190" s="25" t="n">
+      <c r="H190" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I190" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="16" t="n">
+      <c r="A191" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A190+1</f>
         <v>180</v>
       </c>
-      <c r="B191" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C191" s="21" t="s">
+      <c r="B191" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="D191" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H191" s="27" t="n">
+      <c r="C191" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D191" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G191" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191" s="31" t="n">
         <v>17.4</v>
       </c>
+      <c r="I191" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="16" t="n">
+      <c r="A192" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A191+1</f>
         <v>181</v>
       </c>
-      <c r="B192" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C192" s="21" t="s">
+      <c r="B192" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D192" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="27" t="n">
+      <c r="C192" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D192" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" s="31" t="n">
         <v>33.6</v>
       </c>
-      <c r="G192" s="27" t="n">
+      <c r="G192" s="31" t="n">
         <v>69.55</v>
       </c>
-      <c r="H192" s="27" t="n">
+      <c r="H192" s="31" t="n">
         <v>41.65</v>
       </c>
+      <c r="I192" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="16" t="n">
+      <c r="A193" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A192+1</f>
         <v>182</v>
       </c>
-      <c r="B193" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C193" s="21" t="s">
+      <c r="B193" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D193" s="24" t="n">
+      <c r="C193" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D193" s="25" t="n">
         <v>54</v>
       </c>
-      <c r="E193" s="25" t="n">
+      <c r="E193" s="26" t="n">
         <v>23.95</v>
       </c>
-      <c r="F193" s="25" t="n">
+      <c r="F193" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="G193" s="25" t="n">
+      <c r="G193" s="26" t="n">
         <v>28.4</v>
       </c>
-      <c r="H193" s="25" t="n">
+      <c r="H193" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I193" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="16" t="n">
+      <c r="A194" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A193+1</f>
         <v>183</v>
       </c>
-      <c r="B194" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C194" s="21" t="s">
+      <c r="B194" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D194" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" s="25" t="n">
+      <c r="C194" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D194" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194" s="26" t="n">
         <v>41.85</v>
       </c>
-      <c r="G194" s="25" t="n">
+      <c r="G194" s="26" t="n">
         <v>52.95</v>
       </c>
-      <c r="H194" s="25" t="n">
+      <c r="H194" s="26" t="n">
         <v>40.05</v>
       </c>
+      <c r="I194" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="16" t="n">
+      <c r="A195" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A194+1</f>
         <v>184</v>
       </c>
-      <c r="B195" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C195" s="21" t="s">
+      <c r="B195" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D195" s="24" t="n">
+      <c r="C195" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D195" s="25" t="n">
         <v>43.2</v>
       </c>
-      <c r="E195" s="25" t="n">
+      <c r="E195" s="26" t="n">
         <v>33.1</v>
       </c>
-      <c r="F195" s="25" t="n">
+      <c r="F195" s="26" t="n">
         <v>44.75</v>
       </c>
-      <c r="G195" s="25" t="n">
+      <c r="G195" s="26" t="n">
         <v>33.2</v>
       </c>
-      <c r="H195" s="25" t="n">
+      <c r="H195" s="26" t="n">
         <v>30.45</v>
       </c>
+      <c r="I195" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="16" t="n">
+      <c r="A196" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A195+1</f>
         <v>185</v>
       </c>
-      <c r="B196" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="C196" s="31" t="s">
+      <c r="B196" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="D196" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G196" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H196" s="25" t="s">
-        <v>222</v>
-      </c>
+      <c r="C196" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D196" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G196" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H196" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I196" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="16" t="n">
+      <c r="A197" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A196+1</f>
         <v>186</v>
       </c>
-      <c r="B197" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C197" s="21" t="s">
+      <c r="B197" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="D197" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" s="25" t="n">
+      <c r="C197" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D197" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197" s="26" t="n">
         <v>34.95</v>
       </c>
-      <c r="G197" s="25" t="n">
+      <c r="G197" s="26" t="n">
         <v>65.65</v>
       </c>
-      <c r="H197" s="25" t="n">
+      <c r="H197" s="26" t="n">
         <v>40.05</v>
       </c>
+      <c r="I197" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="16" t="n">
+      <c r="A198" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A197+1</f>
         <v>187</v>
       </c>
-      <c r="B198" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="C198" s="21" t="s">
+      <c r="B198" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D198" s="24" t="n">
+      <c r="C198" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D198" s="25" t="n">
         <v>58.7</v>
       </c>
-      <c r="E198" s="25" t="n">
+      <c r="E198" s="26" t="n">
         <v>19.45</v>
       </c>
-      <c r="F198" s="25" t="n">
+      <c r="F198" s="26" t="n">
         <v>58.7</v>
       </c>
-      <c r="G198" s="25" t="n">
+      <c r="G198" s="26" t="n">
         <v>30.5</v>
       </c>
-      <c r="H198" s="25" t="n">
+      <c r="H198" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I198" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="16" t="n">
+      <c r="A199" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A198+1</f>
         <v>188</v>
       </c>
-      <c r="B199" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C199" s="21" t="s">
+      <c r="B199" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D199" s="24" t="n">
+      <c r="C199" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D199" s="25" t="n">
         <v>29.9</v>
       </c>
-      <c r="E199" s="25" t="n">
+      <c r="E199" s="26" t="n">
         <v>13.3</v>
       </c>
-      <c r="F199" s="25" t="n">
+      <c r="F199" s="26" t="n">
         <v>29.9</v>
       </c>
-      <c r="G199" s="25" t="n">
+      <c r="G199" s="26" t="n">
         <v>14.35</v>
       </c>
-      <c r="H199" s="25" t="n">
+      <c r="H199" s="26" t="n">
         <v>10.2</v>
       </c>
+      <c r="I199" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="16" t="n">
+      <c r="A200" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A199+1</f>
         <v>189</v>
       </c>
-      <c r="B200" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C200" s="21" t="s">
+      <c r="B200" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D200" s="24" t="n">
+      <c r="C200" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D200" s="25" t="n">
         <v>51.25</v>
       </c>
-      <c r="E200" s="25" t="n">
+      <c r="E200" s="26" t="n">
         <v>11.3</v>
       </c>
-      <c r="F200" s="25" t="n">
+      <c r="F200" s="26" t="n">
         <v>51.25</v>
       </c>
-      <c r="G200" s="25" t="n">
+      <c r="G200" s="26" t="n">
         <v>13.25</v>
       </c>
-      <c r="H200" s="25" t="n">
+      <c r="H200" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I200" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="16" t="n">
+      <c r="A201" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A200+1</f>
         <v>190</v>
       </c>
-      <c r="B201" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C201" s="21" t="s">
+      <c r="B201" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="D201" s="24" t="n">
+      <c r="C201" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D201" s="25" t="n">
         <v>47.3</v>
       </c>
-      <c r="E201" s="25" t="n">
+      <c r="E201" s="26" t="n">
         <v>27.9</v>
       </c>
-      <c r="F201" s="25" t="n">
+      <c r="F201" s="26" t="n">
         <v>50.45</v>
       </c>
-      <c r="G201" s="25" t="n">
+      <c r="G201" s="26" t="n">
         <v>34</v>
       </c>
-      <c r="H201" s="25" t="n">
+      <c r="H201" s="26" t="n">
         <v>19.95</v>
       </c>
+      <c r="I201" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="16" t="n">
+      <c r="A202" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A201+1</f>
         <v>191</v>
       </c>
-      <c r="B202" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C202" s="21" t="s">
+      <c r="B202" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="D202" s="24" t="n">
+      <c r="C202" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D202" s="25" t="n">
         <v>62.1</v>
       </c>
-      <c r="E202" s="25" t="n">
+      <c r="E202" s="26" t="n">
         <v>15.35</v>
       </c>
-      <c r="F202" s="25" t="n">
+      <c r="F202" s="26" t="n">
         <v>62.1</v>
       </c>
-      <c r="G202" s="25" t="n">
+      <c r="G202" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="H202" s="25" t="n">
+      <c r="H202" s="26" t="n">
         <v>6.4</v>
       </c>
+      <c r="I202" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="16" t="n">
+      <c r="A203" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A202+1</f>
         <v>192</v>
       </c>
-      <c r="B203" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C203" s="21" t="s">
+      <c r="B203" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D203" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E203" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G203" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H203" s="25" t="s">
-        <v>222</v>
-      </c>
+      <c r="C203" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D203" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G203" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H203" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I203" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="16" t="n">
+      <c r="A204" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A203+1</f>
         <v>193</v>
       </c>
-      <c r="B204" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C204" s="21" t="s">
+      <c r="B204" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="D204" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="25" t="n">
+      <c r="C204" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D204" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" s="26" t="n">
         <v>55.9</v>
       </c>
-      <c r="G204" s="25" t="n">
+      <c r="G204" s="26" t="n">
         <v>72.45</v>
       </c>
-      <c r="H204" s="25" t="n">
+      <c r="H204" s="26" t="n">
         <v>40.05</v>
       </c>
+      <c r="I204" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="16" t="n">
+      <c r="A205" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A204+1</f>
         <v>194</v>
       </c>
-      <c r="B205" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C205" s="21" t="s">
+      <c r="B205" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="D205" s="24" t="n">
+      <c r="C205" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D205" s="25" t="n">
         <v>61.9</v>
       </c>
-      <c r="E205" s="25" t="n">
+      <c r="E205" s="26" t="n">
         <v>35.2</v>
       </c>
-      <c r="F205" s="25" t="n">
+      <c r="F205" s="26" t="n">
         <v>67.4</v>
       </c>
-      <c r="G205" s="25" t="n">
+      <c r="G205" s="26" t="n">
         <v>48.25</v>
       </c>
-      <c r="H205" s="25" t="n">
+      <c r="H205" s="26" t="n">
         <v>31.05</v>
       </c>
+      <c r="I205" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="16" t="n">
+      <c r="A206" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A205+1</f>
         <v>195</v>
       </c>
-      <c r="B206" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C206" s="21" t="s">
+      <c r="B206" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D206" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E206" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F206" s="25" t="n">
+      <c r="C206" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206" s="26" t="n">
         <v>59</v>
       </c>
-      <c r="G206" s="25" t="n">
+      <c r="G206" s="26" t="n">
         <v>19.25</v>
       </c>
-      <c r="H206" s="25" t="n">
+      <c r="H206" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I206" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="16" t="n">
+      <c r="A207" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A206+1</f>
         <v>196</v>
       </c>
-      <c r="B207" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C207" s="21" t="s">
+      <c r="B207" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D207" s="22" t="n">
+      <c r="C207" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D207" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="E207" s="23" t="n">
+      <c r="E207" s="24" t="n">
         <v>35.5</v>
       </c>
-      <c r="F207" s="23" t="n">
+      <c r="F207" s="24" t="n">
         <v>42.8</v>
       </c>
-      <c r="G207" s="23" t="n">
+      <c r="G207" s="24" t="n">
         <v>49.55</v>
       </c>
-      <c r="H207" s="23" t="n">
+      <c r="H207" s="24" t="n">
         <v>40.05</v>
       </c>
+      <c r="I207" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="16" t="n">
+      <c r="A208" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A207+1</f>
         <v>197</v>
       </c>
-      <c r="B208" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C208" s="21" t="s">
+      <c r="B208" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D208" s="24" t="n">
+      <c r="C208" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D208" s="25" t="n">
         <v>42.35</v>
       </c>
-      <c r="E208" s="25" t="n">
+      <c r="E208" s="26" t="n">
         <v>22.15</v>
       </c>
-      <c r="F208" s="25" t="n">
+      <c r="F208" s="26" t="n">
         <v>49.05</v>
       </c>
-      <c r="G208" s="25" t="n">
+      <c r="G208" s="26" t="n">
         <v>28.1</v>
       </c>
-      <c r="H208" s="25" t="n">
+      <c r="H208" s="26" t="n">
         <v>14.85</v>
       </c>
+      <c r="I208" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="16" t="n">
+      <c r="A209" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A208+1</f>
         <v>198</v>
       </c>
-      <c r="B209" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C209" s="21" t="s">
+      <c r="B209" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="D209" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E209" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G209" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H209" s="25" t="s">
-        <v>222</v>
-      </c>
+      <c r="C209" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D209" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G209" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H209" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I209" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="16" t="n">
+      <c r="A210" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A209+1</f>
         <v>199</v>
       </c>
-      <c r="B210" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C210" s="21" t="s">
+      <c r="B210" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="27" t="n">
+      <c r="C210" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D210" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" s="31" t="n">
         <v>39.55</v>
       </c>
-      <c r="G210" s="27" t="n">
+      <c r="G210" s="31" t="n">
         <v>51.9</v>
       </c>
-      <c r="H210" s="27" t="n">
+      <c r="H210" s="31" t="n">
         <v>8.2</v>
       </c>
+      <c r="I210" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="16" t="n">
+      <c r="A211" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A210+1</f>
         <v>200</v>
       </c>
-      <c r="B211" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="C211" s="21" t="s">
+      <c r="B211" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="D211" s="24" t="n">
+      <c r="C211" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D211" s="25" t="n">
         <v>52.3</v>
       </c>
-      <c r="E211" s="25" t="n">
+      <c r="E211" s="26" t="n">
         <v>10.35</v>
       </c>
-      <c r="F211" s="25" t="n">
+      <c r="F211" s="26" t="n">
         <v>52.65</v>
       </c>
-      <c r="G211" s="25" t="n">
+      <c r="G211" s="26" t="n">
         <v>10.35</v>
       </c>
-      <c r="H211" s="25" t="n">
+      <c r="H211" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I211" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="16" t="n">
+      <c r="A212" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A211+1</f>
         <v>201</v>
       </c>
-      <c r="B212" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C212" s="21" t="s">
+      <c r="B212" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D212" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" s="25" t="n">
+      <c r="C212" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F212" s="26" t="n">
         <v>72.1</v>
       </c>
-      <c r="G212" s="25" t="n">
+      <c r="G212" s="26" t="n">
         <v>38.45</v>
       </c>
-      <c r="H212" s="25" t="n">
+      <c r="H212" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I212" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="16" t="n">
+      <c r="A213" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A212+1</f>
         <v>202</v>
       </c>
-      <c r="B213" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C213" s="21" t="s">
+      <c r="B213" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D213" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F213" s="25" t="n">
+      <c r="C213" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F213" s="26" t="n">
         <v>57.1</v>
       </c>
-      <c r="G213" s="25" t="n">
+      <c r="G213" s="26" t="n">
         <v>54.5</v>
       </c>
-      <c r="H213" s="25" t="n">
+      <c r="H213" s="26" t="n">
         <v>33.6</v>
       </c>
+      <c r="I213" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="16" t="n">
+      <c r="A214" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A213+1</f>
         <v>203</v>
       </c>
-      <c r="B214" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C214" s="21" t="s">
+      <c r="B214" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D214" s="24" t="n">
+      <c r="C214" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="D214" s="25" t="n">
         <v>36.7</v>
       </c>
-      <c r="E214" s="25" t="n">
+      <c r="E214" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="F214" s="25" t="n">
+      <c r="F214" s="26" t="n">
         <v>36.7</v>
       </c>
-      <c r="G214" s="25" t="n">
+      <c r="G214" s="26" t="n">
         <v>11.7</v>
       </c>
-      <c r="H214" s="25" t="n">
+      <c r="H214" s="26" t="n">
         <v>7.9</v>
       </c>
+      <c r="I214" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="16" t="n">
+      <c r="A215" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A214+1</f>
         <v>204</v>
       </c>
-      <c r="B215" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C215" s="21" t="s">
+      <c r="B215" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D215" s="24" t="n">
+      <c r="C215" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="D215" s="25" t="n">
         <v>55.05</v>
       </c>
-      <c r="E215" s="25" t="n">
+      <c r="E215" s="26" t="n">
         <v>31.4</v>
       </c>
-      <c r="F215" s="25" t="n">
+      <c r="F215" s="26" t="n">
         <v>56.25</v>
       </c>
-      <c r="G215" s="25" t="n">
+      <c r="G215" s="26" t="n">
         <v>32.05</v>
       </c>
-      <c r="H215" s="25" t="n">
+      <c r="H215" s="26" t="n">
         <v>29.15</v>
       </c>
+      <c r="I215" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="16" t="n">
+      <c r="A216" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A215+1</f>
         <v>205</v>
       </c>
-      <c r="B216" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C216" s="21" t="s">
+      <c r="B216" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="D216" s="24" t="n">
+      <c r="C216" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D216" s="25" t="n">
         <v>46.2</v>
       </c>
-      <c r="E216" s="25" t="n">
+      <c r="E216" s="26" t="n">
         <v>30.15</v>
       </c>
-      <c r="F216" s="25" t="n">
+      <c r="F216" s="26" t="n">
         <v>50.15</v>
       </c>
-      <c r="G216" s="25" t="n">
+      <c r="G216" s="26" t="n">
         <v>41.6</v>
       </c>
-      <c r="H216" s="25" t="n">
+      <c r="H216" s="26" t="n">
         <v>27.4</v>
       </c>
+      <c r="I216" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="16" t="n">
+      <c r="A217" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A216+1</f>
         <v>206</v>
       </c>
-      <c r="B217" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C217" s="21" t="s">
+      <c r="B217" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D217" s="24" t="n">
+      <c r="C217" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D217" s="25" t="n">
         <v>54.3</v>
       </c>
-      <c r="E217" s="25" t="n">
+      <c r="E217" s="26" t="n">
         <v>16.8</v>
       </c>
-      <c r="F217" s="25" t="n">
+      <c r="F217" s="26" t="n">
         <v>54.3</v>
       </c>
-      <c r="G217" s="25" t="n">
+      <c r="G217" s="26" t="n">
         <v>16.8</v>
       </c>
-      <c r="H217" s="25" t="n">
+      <c r="H217" s="26" t="n">
         <v>2.1</v>
       </c>
+      <c r="I217" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="218">
-      <c r="A218" s="16" t="n">
+      <c r="A218" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A217+1</f>
         <v>207</v>
       </c>
-      <c r="B218" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C218" s="21" t="s">
+      <c r="B218" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="D218" s="24" t="n">
+      <c r="C218" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D218" s="25" t="n">
         <v>37.15</v>
       </c>
-      <c r="E218" s="25" t="n">
+      <c r="E218" s="26" t="n">
         <v>10.5</v>
       </c>
-      <c r="F218" s="25" t="n">
+      <c r="F218" s="26" t="n">
         <v>38.55</v>
       </c>
-      <c r="G218" s="25" t="n">
+      <c r="G218" s="26" t="n">
         <v>10.55</v>
       </c>
-      <c r="H218" s="25" t="n">
+      <c r="H218" s="26" t="n">
         <v>7.55</v>
       </c>
+      <c r="I218" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="219">
-      <c r="A219" s="16" t="n">
+      <c r="A219" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A218+1</f>
         <v>208</v>
       </c>
-      <c r="B219" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C219" s="21" t="s">
+      <c r="B219" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="D219" s="24" t="n">
+      <c r="C219" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D219" s="25" t="n">
         <v>57.7</v>
       </c>
-      <c r="E219" s="25" t="n">
+      <c r="E219" s="26" t="n">
         <v>42.45</v>
       </c>
-      <c r="F219" s="25" t="n">
+      <c r="F219" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="G219" s="25" t="n">
+      <c r="G219" s="26" t="n">
         <v>53.15</v>
       </c>
-      <c r="H219" s="25" t="n">
+      <c r="H219" s="26" t="n">
         <v>24.85</v>
       </c>
+      <c r="I219" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="220">
-      <c r="A220" s="16" t="n">
+      <c r="A220" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A219+1</f>
         <v>209</v>
       </c>
-      <c r="B220" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C220" s="21" t="s">
+      <c r="B220" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="D220" s="24" t="n">
+      <c r="C220" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D220" s="25" t="n">
         <v>43</v>
       </c>
-      <c r="E220" s="25" t="n">
+      <c r="E220" s="26" t="n">
         <v>11.3</v>
       </c>
-      <c r="F220" s="25" t="n">
+      <c r="F220" s="26" t="n">
         <v>44.95</v>
       </c>
-      <c r="G220" s="25" t="n">
+      <c r="G220" s="26" t="n">
         <v>11.3</v>
       </c>
-      <c r="H220" s="25" t="n">
+      <c r="H220" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I220" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="221">
-      <c r="A221" s="16" t="n">
+      <c r="A221" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A220+1</f>
         <v>210</v>
       </c>
-      <c r="B221" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="C221" s="21" t="s">
+      <c r="B221" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D221" s="24" t="n">
+      <c r="C221" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D221" s="25" t="n">
         <v>58.85</v>
       </c>
-      <c r="E221" s="25" t="n">
+      <c r="E221" s="26" t="n">
         <v>11.7</v>
       </c>
-      <c r="F221" s="25" t="n">
+      <c r="F221" s="26" t="n">
         <v>58.85</v>
       </c>
-      <c r="G221" s="25" t="n">
+      <c r="G221" s="26" t="n">
         <v>11.75</v>
       </c>
-      <c r="H221" s="25" t="n">
+      <c r="H221" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I221" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="222">
-      <c r="A222" s="16" t="n">
+      <c r="A222" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A221+1</f>
         <v>211</v>
       </c>
-      <c r="B222" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C222" s="21" t="s">
+      <c r="B222" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="D222" s="24" t="n">
+      <c r="C222" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D222" s="25" t="n">
         <v>43.9</v>
       </c>
-      <c r="E222" s="25" t="n">
+      <c r="E222" s="26" t="n">
         <v>20.45</v>
       </c>
-      <c r="F222" s="25" t="n">
+      <c r="F222" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="G222" s="25" t="n">
+      <c r="G222" s="26" t="n">
         <v>27.5</v>
       </c>
-      <c r="H222" s="25" t="n">
+      <c r="H222" s="26" t="n">
         <v>8.5</v>
       </c>
+      <c r="I222" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="223">
-      <c r="A223" s="16" t="n">
+      <c r="A223" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A222+1</f>
         <v>212</v>
       </c>
-      <c r="B223" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C223" s="21" t="s">
+      <c r="B223" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D223" s="24" t="n">
+      <c r="C223" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D223" s="25" t="n">
         <v>48.3</v>
       </c>
-      <c r="E223" s="25" t="n">
+      <c r="E223" s="26" t="n">
         <v>33.85</v>
       </c>
-      <c r="F223" s="25" t="n">
+      <c r="F223" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="G223" s="25" t="n">
+      <c r="G223" s="26" t="n">
         <v>41.15</v>
       </c>
-      <c r="H223" s="25" t="n">
+      <c r="H223" s="26" t="n">
         <v>29.05</v>
       </c>
+      <c r="I223" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="224">
-      <c r="A224" s="16" t="n">
+      <c r="A224" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A223+1</f>
         <v>213</v>
       </c>
-      <c r="B224" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="C224" s="21" t="s">
+      <c r="B224" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D224" s="24" t="n">
+      <c r="C224" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D224" s="25" t="n">
         <v>44.3</v>
       </c>
-      <c r="E224" s="25" t="n">
+      <c r="E224" s="26" t="n">
         <v>27.2</v>
       </c>
-      <c r="F224" s="25" t="n">
+      <c r="F224" s="26" t="n">
         <v>45.15</v>
       </c>
-      <c r="G224" s="25" t="n">
+      <c r="G224" s="26" t="n">
         <v>40.85</v>
       </c>
-      <c r="H224" s="25" t="n">
+      <c r="H224" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I224" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="225">
-      <c r="A225" s="16" t="n">
+      <c r="A225" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A224+1</f>
         <v>214</v>
       </c>
-      <c r="B225" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C225" s="21" t="s">
+      <c r="B225" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="D225" s="24" t="n">
+      <c r="C225" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D225" s="25" t="n">
         <v>58.1</v>
       </c>
-      <c r="E225" s="25" t="n">
+      <c r="E225" s="26" t="n">
         <v>27.7</v>
       </c>
-      <c r="F225" s="25" t="n">
+      <c r="F225" s="26" t="n">
         <v>59.55</v>
       </c>
-      <c r="G225" s="25" t="n">
+      <c r="G225" s="26" t="n">
         <v>35.25</v>
       </c>
-      <c r="H225" s="25" t="n">
+      <c r="H225" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I225" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="226">
-      <c r="A226" s="16" t="n">
+      <c r="A226" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A225+1</f>
         <v>215</v>
       </c>
-      <c r="B226" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="C226" s="21" t="s">
+      <c r="B226" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D226" s="24" t="n">
+      <c r="C226" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="D226" s="25" t="n">
         <v>41.85</v>
       </c>
-      <c r="E226" s="25" t="n">
+      <c r="E226" s="26" t="n">
         <v>10.45</v>
       </c>
-      <c r="F226" s="25" t="n">
+      <c r="F226" s="26" t="n">
         <v>41.85</v>
       </c>
-      <c r="G226" s="25" t="n">
+      <c r="G226" s="26" t="n">
         <v>10.45</v>
       </c>
-      <c r="H226" s="25" t="n">
+      <c r="H226" s="26" t="n">
         <v>6.3</v>
       </c>
+      <c r="I226" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="227">
-      <c r="A227" s="16" t="n">
+      <c r="A227" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A226+1</f>
         <v>216</v>
       </c>
-      <c r="B227" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="C227" s="21" t="s">
+      <c r="B227" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="D227" s="24" t="n">
+      <c r="C227" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D227" s="25" t="n">
         <v>43.45</v>
       </c>
-      <c r="E227" s="25" t="n">
+      <c r="E227" s="26" t="n">
         <v>29.95</v>
       </c>
-      <c r="F227" s="25" t="n">
+      <c r="F227" s="26" t="n">
         <v>45.45</v>
       </c>
-      <c r="G227" s="25" t="n">
+      <c r="G227" s="26" t="n">
         <v>41.3</v>
       </c>
-      <c r="H227" s="25" t="n">
+      <c r="H227" s="26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I227" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="228">
-      <c r="A228" s="16" t="n">
+      <c r="A228" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A227+1</f>
         <v>217</v>
       </c>
-      <c r="B228" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="C228" s="21" t="s">
+      <c r="B228" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="D228" s="24" t="n">
+      <c r="C228" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D228" s="25" t="n">
         <v>45.45</v>
       </c>
-      <c r="E228" s="25" t="n">
+      <c r="E228" s="26" t="n">
         <v>32.6</v>
       </c>
-      <c r="F228" s="25" t="n">
+      <c r="F228" s="26" t="n">
         <v>46.25</v>
       </c>
-      <c r="G228" s="25" t="n">
+      <c r="G228" s="26" t="n">
         <v>40.45</v>
       </c>
-      <c r="H228" s="25" t="n">
+      <c r="H228" s="26" t="n">
         <v>23.75</v>
       </c>
+      <c r="I228" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="229">
-      <c r="A229" s="16" t="n">
+      <c r="A229" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A228+1</f>
         <v>218</v>
       </c>
-      <c r="B229" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="C229" s="21" t="s">
+      <c r="B229" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="D229" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E229" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="23" t="n">
+      <c r="C229" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F229" s="24" t="n">
         <v>32.4</v>
       </c>
-      <c r="G229" s="23" t="n">
+      <c r="G229" s="24" t="n">
         <v>27.3</v>
       </c>
-      <c r="H229" s="23" t="n">
+      <c r="H229" s="24" t="n">
         <v>6.8</v>
       </c>
+      <c r="I229" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="230">
-      <c r="A230" s="16" t="n">
+      <c r="A230" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A229+1</f>
         <v>219</v>
       </c>
-      <c r="B230" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="C230" s="21" t="s">
+      <c r="B230" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="D230" s="24" t="n">
+      <c r="C230" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D230" s="25" t="n">
         <v>49.65</v>
       </c>
-      <c r="E230" s="25" t="n">
+      <c r="E230" s="26" t="n">
         <v>33.05</v>
       </c>
-      <c r="F230" s="25" t="n">
+      <c r="F230" s="26" t="n">
         <v>54.25</v>
       </c>
-      <c r="G230" s="25" t="n">
+      <c r="G230" s="26" t="n">
         <v>41.7</v>
       </c>
-      <c r="H230" s="25" t="n">
+      <c r="H230" s="26" t="n">
         <v>29.05</v>
       </c>
+      <c r="I230" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="231">
-      <c r="A231" s="16" t="n">
+      <c r="A231" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A230+1</f>
         <v>220</v>
       </c>
-      <c r="B231" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C231" s="21" t="s">
+      <c r="B231" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="D231" s="24" t="n">
+      <c r="C231" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="D231" s="25" t="n">
         <v>42.45</v>
       </c>
-      <c r="E231" s="25" t="n">
+      <c r="E231" s="26" t="n">
         <v>22.35</v>
       </c>
-      <c r="F231" s="25" t="n">
+      <c r="F231" s="26" t="n">
         <v>42.45</v>
       </c>
-      <c r="G231" s="25" t="n">
+      <c r="G231" s="26" t="n">
         <v>22.35</v>
       </c>
-      <c r="H231" s="25" t="n">
+      <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="J231" s="32" t="n"/>
-      <c r="K231" s="33" t="s">
+      <c r="I231" s="36" t="s">
         <v>459</v>
+      </c>
+      <c r="J231" s="37" t="n"/>
+      <c r="K231" s="38" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8266,166 +8523,166 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="32.4500007629395" outlineLevel="0" r="1">
-      <c r="A1" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="39" t="s">
         <v>462</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="36" t="s"/>
+      <c r="B2" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="41" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" s="38" t="s"/>
+      <c r="B3" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="43" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" s="38" t="s"/>
+      <c r="B4" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="43" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="40" t="n">
+      <c r="B5" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="45" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="6">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="27" t="n">
+      <c r="B6" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="46" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="41" t="n"/>
+      <c r="D6" s="47" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="36" t="s"/>
-      <c r="D7" s="41" t="n"/>
+      <c r="B7" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="41" t="s"/>
+      <c r="D7" s="47" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
-      <c r="A8" s="16" t="n"/>
-      <c r="B8" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="C8" s="36" t="s"/>
-      <c r="D8" s="41" t="n"/>
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="41" t="s"/>
+      <c r="D8" s="47" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="31" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="41" t="n"/>
+      <c r="D9" s="47" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C10" s="38" t="s"/>
-      <c r="D10" s="41" t="n"/>
+      <c r="B10" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="43" t="s"/>
+      <c r="D10" s="47" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="C11" s="43" t="n">
+      <c r="B11" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="49" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="44" t="n"/>
+      <c r="D11" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="C12" s="38" t="s"/>
-      <c r="D12" s="45" t="n"/>
+      <c r="B12" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="43" t="s"/>
+      <c r="D12" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" s="38" t="s"/>
-      <c r="D13" s="45" t="n"/>
+      <c r="B13" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="43" t="s"/>
+      <c r="D13" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="46" t="n"/>
-      <c r="B14" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="C14" s="48" t="s"/>
-      <c r="D14" s="45" t="n"/>
+      <c r="A14" s="52" t="n"/>
+      <c r="B14" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="54" t="s"/>
+      <c r="D14" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="C15" s="38" t="s"/>
+      <c r="B15" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="43" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -180,7 +180,6 @@
   <si>
     <t>Австрия</t>
   </si>
-  <si/>
   <si>
     <t>AZ</t>
   </si>
@@ -1570,9 +1569,12 @@
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0000000000000;-0.0000000000000" formatCode="0.0000000000000;-0.0000000000000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1008"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1789,7 +1791,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1867,7 +1869,9 @@
     </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
@@ -1909,13 +1913,13 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1924,10 +1928,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -2165,7 +2169,9 @@
     <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="10.4289577316304"/>
     <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="7.61032028740658"/>
     <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="10.0061620473303"/>
-    <col customWidth="true" max="12" min="9" outlineLevel="0" style="1" width="9.01963900951847"/>
+    <col customWidth="true" max="10" min="9" outlineLevel="0" style="1" width="9.01963900951847"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="14.7139283144772"/>
+    <col customWidth="true" max="12" min="12" outlineLevel="0" style="1" width="9.01963900951847"/>
     <col customWidth="true" max="13" min="13" outlineLevel="0" style="1" width="16.2311946837159"/>
     <col customWidth="true" max="15" min="14" outlineLevel="0" style="1" width="9.01963900951847"/>
     <col bestFit="true" customWidth="true" max="16384" min="16" outlineLevel="0" style="1" width="9.01963900951847"/>
@@ -2324,22 +2330,26 @@
         <v>7.35</v>
       </c>
       <c r="I12" s="27" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12+E12*1.05+5.85+0.3</f>
-        <v>65.835</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12+5.85+1.05*E12</f>
+        <v>65.535</v>
       </c>
       <c r="J12" s="28" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.05*E12</f>
-        <v>11.235</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.25*3/100</f>
+        <v>0.0375</v>
       </c>
       <c r="K12" s="29" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(J12, 2)</f>
-        <v>11.240000000000002</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="27" t="n"/>
-      <c r="N12" s="29" t="n"/>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12+J12</f>
+        <v>65.57249999999999</v>
+      </c>
+      <c r="L12" s="30" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(K12*0.2, 2)</f>
+        <v>13.11</v>
+      </c>
+      <c r="M12" s="31" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">K13+L12</f>
+        <v>78.67999999999999</v>
+      </c>
+      <c r="N12" s="31" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
@@ -2347,16 +2357,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="26" t="n">
         <v>39.05</v>
@@ -2368,6 +2378,9 @@
         <v>4.65</v>
       </c>
       <c r="I13" s="3" t="n"/>
+      <c r="K13" s="28" t="n">
+        <v>65.57</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="17" t="n">
@@ -2375,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="D14" s="25" t="n">
         <v>53</v>
@@ -2395,7 +2408,7 @@
       <c r="H14" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I14" s="3" t="n"/>
+      <c r="I14" s="31" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
@@ -2403,10 +2416,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="25" t="n">
         <v>51.65</v>
@@ -2431,16 +2444,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="26" t="n">
         <v>46.5</v>
@@ -2459,10 +2472,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="25" t="n">
         <v>59</v>
@@ -2487,16 +2500,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="26" t="n">
         <v>53.2</v>
@@ -2516,10 +2529,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="D19" s="25" t="n">
         <v>40.3</v>
@@ -2544,16 +2557,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="26" t="n">
         <v>49.8</v>
@@ -2572,16 +2585,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="26" t="n">
         <v>45.35</v>
@@ -2600,10 +2613,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="25" t="n">
         <v>46.65</v>
@@ -2628,10 +2641,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="D23" s="23" t="n">
         <v>56.05</v>
@@ -2656,10 +2669,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="25" t="n">
         <v>40.75</v>
@@ -2684,10 +2697,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="25" t="n">
         <v>43.5</v>
@@ -2712,10 +2725,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="D26" s="25" t="n">
         <v>47.5</v>
@@ -2740,10 +2753,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="D27" s="25" t="n">
         <v>50.8</v>
@@ -2768,10 +2781,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="D28" s="25" t="n">
         <v>52.2</v>
@@ -2796,16 +2809,16 @@
         <v>19</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="26" t="n">
         <v>63.45</v>
@@ -2824,10 +2837,10 @@
         <v>20</v>
       </c>
       <c r="B30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="D30" s="25" t="n">
         <v>47.85</v>
@@ -2852,10 +2865,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="D31" s="25" t="n">
         <v>53.35</v>
@@ -2880,16 +2893,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>58</v>
-      </c>
       <c r="D32" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="26" t="n">
         <v>53.7</v>
@@ -2908,10 +2921,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="D33" s="25" t="n">
         <v>35.7</v>
@@ -2936,10 +2949,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="D34" s="25" t="n">
         <v>56</v>
@@ -2964,10 +2977,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="D35" s="25" t="n">
         <v>46.8</v>
@@ -2992,16 +3005,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>66</v>
-      </c>
       <c r="D36" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="26" t="n">
         <v>62.65</v>
@@ -3020,10 +3033,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="D37" s="25" t="n">
         <v>47.3</v>
@@ -3048,24 +3061,24 @@
         <v>28</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="31" t="n">
+      <c r="D38" s="33" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="31" t="n">
+      <c r="E38" s="33" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="31" t="n">
+      <c r="F38" s="33" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="31" t="n">
+      <c r="G38" s="33" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="31" t="n">
+      <c r="H38" s="33" t="n">
         <v>22.9</v>
       </c>
       <c r="I38" s="3" t="n"/>
@@ -3076,10 +3089,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="D39" s="25" t="n">
         <v>55.3</v>
@@ -3104,10 +3117,10 @@
         <v>30</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="D40" s="25" t="n">
         <v>57.75</v>
@@ -3132,24 +3145,24 @@
         <v>31</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="D41" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="31" t="n">
+        <v>19</v>
+      </c>
+      <c r="F41" s="33" t="n">
         <v>50.65</v>
       </c>
-      <c r="G41" s="31" t="n">
+      <c r="G41" s="33" t="n">
         <v>16.6</v>
       </c>
-      <c r="H41" s="31" t="n">
+      <c r="H41" s="33" t="n">
         <v>6.8</v>
       </c>
       <c r="I41" s="3" t="n"/>
@@ -3160,16 +3173,16 @@
         <v>32</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="D42" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" s="26" t="n">
         <v>32.85</v>
@@ -3188,10 +3201,10 @@
         <v>33</v>
       </c>
       <c r="B43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="D43" s="25" t="n">
         <v>51.95</v>
@@ -3216,10 +3229,10 @@
         <v>34</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="25" t="n">
         <v>63.1</v>
@@ -3244,10 +3257,10 @@
         <v>35</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="D45" s="25" t="n">
         <v>51.15</v>
@@ -3272,10 +3285,10 @@
         <v>36</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>86</v>
       </c>
       <c r="D46" s="25" t="n">
         <v>47.2</v>
@@ -3300,16 +3313,16 @@
         <v>37</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="D47" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" s="26" t="n">
         <v>47.15</v>
@@ -3328,10 +3341,10 @@
         <v>38</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="D48" s="25" t="n">
         <v>37.85</v>
@@ -3356,10 +3369,10 @@
         <v>39</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="D49" s="25" t="n">
         <v>52.45</v>
@@ -3384,10 +3397,10 @@
         <v>40</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="D50" s="25" t="n">
         <v>42.2</v>
@@ -3412,10 +3425,10 @@
         <v>41</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="D51" s="25" t="n">
         <v>51.25</v>
@@ -3440,10 +3453,10 @@
         <v>42</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="D52" s="25" t="n">
         <v>52.35</v>
@@ -3468,10 +3481,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="D53" s="25" t="n">
         <v>65.15</v>
@@ -3496,16 +3509,16 @@
         <v>44</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="D54" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="26" t="n">
         <v>73.2</v>
@@ -3524,10 +3537,10 @@
         <v>45</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>104</v>
       </c>
       <c r="D55" s="25" t="n">
         <v>41.1</v>
@@ -3552,10 +3565,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="D56" s="25" t="n">
         <v>53.35</v>
@@ -3580,10 +3593,10 @@
         <v>47</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="D57" s="25" t="n">
         <v>60.45</v>
@@ -3608,10 +3621,10 @@
         <v>48</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="D58" s="25" t="n">
         <v>65.15</v>
@@ -3636,10 +3649,10 @@
         <v>49</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="D59" s="25" t="n">
         <v>45.65</v>
@@ -3664,16 +3677,16 @@
         <v>50</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>114</v>
-      </c>
       <c r="D60" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" s="26" t="n">
         <v>55.4</v>
@@ -3692,10 +3705,10 @@
         <v>51</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="D61" s="25" t="n">
         <v>52.6</v>
@@ -3720,10 +3733,10 @@
         <v>52</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>118</v>
       </c>
       <c r="D62" s="25" t="n">
         <v>44.05</v>
@@ -3748,16 +3761,16 @@
         <v>53</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="D63" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F63" s="26" t="n">
         <v>104.5</v>
@@ -3776,24 +3789,24 @@
         <v>54</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="31" t="n">
+      <c r="D64" s="33" t="n">
         <v>38.55</v>
       </c>
-      <c r="E64" s="31" t="n">
+      <c r="E64" s="33" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="31" t="n">
+      <c r="F64" s="33" t="n">
         <v>39.05</v>
       </c>
-      <c r="G64" s="31" t="n">
+      <c r="G64" s="33" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="31" t="n">
+      <c r="H64" s="33" t="n">
         <v>6.7</v>
       </c>
       <c r="I64" s="3" t="n"/>
@@ -3804,10 +3817,10 @@
         <v>55</v>
       </c>
       <c r="B65" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="D65" s="25" t="n">
         <v>53.15</v>
@@ -3832,10 +3845,10 @@
         <v>56</v>
       </c>
       <c r="B66" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="D66" s="25" t="n">
         <v>50.05</v>
@@ -3860,10 +3873,10 @@
         <v>57</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="D67" s="25" t="n">
         <v>47.7</v>
@@ -3888,16 +3901,16 @@
         <v>58</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>130</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" s="26" t="n">
         <v>47.9</v>
@@ -3916,10 +3929,10 @@
         <v>59</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="D69" s="25" t="n">
         <v>43.55</v>
@@ -3944,16 +3957,16 @@
         <v>60</v>
       </c>
       <c r="B70" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>134</v>
-      </c>
       <c r="D70" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F70" s="26" t="n">
         <v>58.4</v>
@@ -3972,10 +3985,10 @@
         <v>61</v>
       </c>
       <c r="B71" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>136</v>
       </c>
       <c r="D71" s="25" t="n">
         <v>46</v>
@@ -4000,10 +4013,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="D72" s="25" t="n">
         <v>59.45</v>
@@ -4028,10 +4041,10 @@
         <v>63</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="D73" s="25" t="n">
         <v>67.15</v>
@@ -4056,10 +4069,10 @@
         <v>64</v>
       </c>
       <c r="B74" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>142</v>
       </c>
       <c r="D74" s="25" t="n">
         <v>43.6</v>
@@ -4084,10 +4097,10 @@
         <v>65</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>144</v>
       </c>
       <c r="D75" s="25" t="n">
         <v>47.85</v>
@@ -4112,10 +4125,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="D76" s="25" t="n">
         <v>39.2</v>
@@ -4140,10 +4153,10 @@
         <v>67</v>
       </c>
       <c r="B77" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="D77" s="25" t="n">
         <v>46.55</v>
@@ -4168,10 +4181,10 @@
         <v>68</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="D78" s="25" t="n">
         <v>33.35</v>
@@ -4196,10 +4209,10 @@
         <v>69</v>
       </c>
       <c r="B79" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="D79" s="25" t="n">
         <v>53.7</v>
@@ -4224,10 +4237,10 @@
         <v>70</v>
       </c>
       <c r="B80" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>154</v>
       </c>
       <c r="D80" s="25" t="n">
         <v>57.05</v>
@@ -4252,10 +4265,10 @@
         <v>71</v>
       </c>
       <c r="B81" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="D81" s="23" t="n">
         <v>66.95</v>
@@ -4280,10 +4293,10 @@
         <v>72</v>
       </c>
       <c r="B82" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="D82" s="25" t="n">
         <v>45.9</v>
@@ -4308,10 +4321,10 @@
         <v>73</v>
       </c>
       <c r="B83" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="D83" s="25" t="n">
         <v>43.55</v>
@@ -4336,25 +4349,25 @@
         <v>74</v>
       </c>
       <c r="B84" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>162</v>
-      </c>
       <c r="D84" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="3" t="n"/>
     </row>
@@ -4364,25 +4377,25 @@
         <v>75</v>
       </c>
       <c r="B85" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="D85" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I85" s="3" t="n"/>
     </row>
@@ -4392,10 +4405,10 @@
         <v>76</v>
       </c>
       <c r="B86" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="D86" s="25" t="n">
         <v>55.2</v>
@@ -4420,10 +4433,10 @@
         <v>77</v>
       </c>
       <c r="B87" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="D87" s="25" t="n">
         <v>49.7</v>
@@ -4448,24 +4461,24 @@
         <v>78</v>
       </c>
       <c r="B88" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D88" s="31" t="n">
+      <c r="D88" s="33" t="n">
         <v>51.8</v>
       </c>
-      <c r="E88" s="31" t="n">
+      <c r="E88" s="33" t="n">
         <v>33.15</v>
       </c>
-      <c r="F88" s="31" t="n">
+      <c r="F88" s="33" t="n">
         <v>56.3</v>
       </c>
-      <c r="G88" s="31" t="n">
+      <c r="G88" s="33" t="n">
         <v>35</v>
       </c>
-      <c r="H88" s="31" t="n">
+      <c r="H88" s="33" t="n">
         <v>27.9</v>
       </c>
       <c r="I88" s="3" t="n"/>
@@ -4476,10 +4489,10 @@
         <v>79</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="D89" s="25" t="n">
         <v>46.25</v>
@@ -4504,10 +4517,10 @@
         <v>80</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="D90" s="25" t="n">
         <v>54.25</v>
@@ -4532,10 +4545,10 @@
         <v>81</v>
       </c>
       <c r="B91" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>176</v>
       </c>
       <c r="D91" s="25" t="n">
         <v>44.7</v>
@@ -4559,11 +4572,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A91+1</f>
         <v>82</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="D92" s="25" t="n">
         <v>47.85</v>
@@ -4588,16 +4601,16 @@
         <v>83</v>
       </c>
       <c r="B93" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="D93" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F93" s="26" t="n">
         <v>51.15</v>
@@ -4616,10 +4629,10 @@
         <v>84</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="D94" s="25" t="n">
         <v>51.05</v>
@@ -4644,10 +4657,10 @@
         <v>85</v>
       </c>
       <c r="B95" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="D95" s="25" t="n">
         <v>43</v>
@@ -4672,10 +4685,10 @@
         <v>86</v>
       </c>
       <c r="B96" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="D96" s="25" t="n">
         <v>30.35</v>
@@ -4700,16 +4713,16 @@
         <v>87</v>
       </c>
       <c r="B97" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>188</v>
-      </c>
       <c r="D97" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97" s="26" t="n">
         <v>38.4</v>
@@ -4728,10 +4741,10 @@
         <v>88</v>
       </c>
       <c r="B98" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>190</v>
       </c>
       <c r="D98" s="25" t="n">
         <v>34.95</v>
@@ -4756,10 +4769,10 @@
         <v>89</v>
       </c>
       <c r="B99" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="D99" s="25" t="n">
         <v>55.5</v>
@@ -4784,16 +4797,16 @@
         <v>90</v>
       </c>
       <c r="B100" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="D100" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F100" s="26" t="n">
         <v>46.25</v>
@@ -4812,10 +4825,10 @@
         <v>91</v>
       </c>
       <c r="B101" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="D101" s="25" t="n">
         <v>44.6</v>
@@ -4840,10 +4853,10 @@
         <v>92</v>
       </c>
       <c r="B102" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="D102" s="25" t="n">
         <v>46.15</v>
@@ -4868,10 +4881,10 @@
         <v>93</v>
       </c>
       <c r="B103" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="D103" s="25" t="n">
         <v>53.1</v>
@@ -4896,10 +4909,10 @@
         <v>94</v>
       </c>
       <c r="B104" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="D104" s="25" t="n">
         <v>63.6</v>
@@ -4924,10 +4937,10 @@
         <v>95</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="D105" s="25" t="n">
         <v>55.4</v>
@@ -4952,10 +4965,10 @@
         <v>96</v>
       </c>
       <c r="B106" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="D106" s="25" t="n">
         <v>49</v>
@@ -4980,10 +4993,10 @@
         <v>97</v>
       </c>
       <c r="B107" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="D107" s="25" t="n">
         <v>51.5</v>
@@ -5008,10 +5021,10 @@
         <v>98</v>
       </c>
       <c r="B108" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="D108" s="25" t="n">
         <v>50.15</v>
@@ -5036,10 +5049,10 @@
         <v>99</v>
       </c>
       <c r="B109" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="D109" s="25" t="n">
         <v>46.45</v>
@@ -5064,10 +5077,10 @@
         <v>100</v>
       </c>
       <c r="B110" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="D110" s="25" t="n">
         <v>32.05</v>
@@ -5092,16 +5105,16 @@
         <v>101</v>
       </c>
       <c r="B111" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="D111" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111" s="26" t="n">
         <v>60.85</v>
@@ -5120,10 +5133,10 @@
         <v>102</v>
       </c>
       <c r="B112" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>218</v>
       </c>
       <c r="D112" s="25" t="n">
         <v>47.3</v>
@@ -5148,10 +5161,10 @@
         <v>103</v>
       </c>
       <c r="B113" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="D113" s="25" t="n">
         <v>50.35</v>
@@ -5176,25 +5189,25 @@
         <v>104</v>
       </c>
       <c r="B114" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="D114" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>223</v>
-      </c>
       <c r="G114" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I114" s="3" t="n"/>
     </row>
@@ -5204,10 +5217,10 @@
         <v>105</v>
       </c>
       <c r="B115" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="D115" s="25" t="n">
         <v>48</v>
@@ -5232,10 +5245,10 @@
         <v>106</v>
       </c>
       <c r="B116" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="D116" s="25" t="n">
         <v>46.1</v>
@@ -5260,10 +5273,10 @@
         <v>107</v>
       </c>
       <c r="B117" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="D117" s="25" t="n">
         <v>48.9</v>
@@ -5288,10 +5301,10 @@
         <v>108</v>
       </c>
       <c r="B118" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="D118" s="25" t="n">
         <v>52</v>
@@ -5316,10 +5329,10 @@
         <v>109</v>
       </c>
       <c r="B119" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="D119" s="25" t="n">
         <v>57.7</v>
@@ -5344,10 +5357,10 @@
         <v>110</v>
       </c>
       <c r="B120" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="D120" s="25" t="n">
         <v>67.55</v>
@@ -5372,16 +5385,16 @@
         <v>111</v>
       </c>
       <c r="B121" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="22" t="s">
-        <v>237</v>
-      </c>
       <c r="D121" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F121" s="26" t="n">
         <v>80.75</v>
@@ -5400,10 +5413,10 @@
         <v>112</v>
       </c>
       <c r="B122" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="D122" s="25" t="n">
         <v>59.2</v>
@@ -5428,10 +5441,10 @@
         <v>113</v>
       </c>
       <c r="B123" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="D123" s="25" t="n">
         <v>45.7</v>
@@ -5456,10 +5469,10 @@
         <v>114</v>
       </c>
       <c r="B124" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="D124" s="25" t="n">
         <v>61.8</v>
@@ -5484,10 +5497,10 @@
         <v>115</v>
       </c>
       <c r="B125" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="D125" s="25" t="n">
         <v>41.2</v>
@@ -5512,10 +5525,10 @@
         <v>116</v>
       </c>
       <c r="B126" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="D126" s="25" t="n">
         <v>49.8</v>
@@ -5540,10 +5553,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="D127" s="25" t="n">
         <v>48.15</v>
@@ -5568,10 +5581,10 @@
         <v>118</v>
       </c>
       <c r="B128" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="D128" s="25" t="n">
         <v>58.35</v>
@@ -5596,16 +5609,16 @@
         <v>119</v>
       </c>
       <c r="B129" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C129" s="22" t="s">
-        <v>253</v>
-      </c>
       <c r="D129" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F129" s="26" t="n">
         <v>56.3</v>
@@ -5624,16 +5637,16 @@
         <v>120</v>
       </c>
       <c r="B130" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="22" t="s">
-        <v>255</v>
-      </c>
       <c r="D130" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F130" s="26" t="n">
         <v>74.25</v>
@@ -5652,10 +5665,10 @@
         <v>121</v>
       </c>
       <c r="B131" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>257</v>
       </c>
       <c r="D131" s="25" t="n">
         <v>36.25</v>
@@ -5680,16 +5693,16 @@
         <v>122</v>
       </c>
       <c r="B132" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C132" s="22" t="s">
-        <v>259</v>
-      </c>
       <c r="D132" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F132" s="26" t="n">
         <v>63.1</v>
@@ -5708,10 +5721,10 @@
         <v>123</v>
       </c>
       <c r="B133" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>261</v>
       </c>
       <c r="D133" s="25" t="n">
         <v>43.15</v>
@@ -5736,10 +5749,10 @@
         <v>124</v>
       </c>
       <c r="B134" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="D134" s="25" t="n">
         <v>53.2</v>
@@ -5764,16 +5777,16 @@
         <v>125</v>
       </c>
       <c r="B135" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C135" s="22" t="s">
-        <v>265</v>
-      </c>
       <c r="D135" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F135" s="26" t="n">
         <v>56.2</v>
@@ -5792,25 +5805,25 @@
         <v>126</v>
       </c>
       <c r="B136" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C136" s="22" t="s">
-        <v>267</v>
-      </c>
       <c r="D136" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I136" s="3" t="n"/>
     </row>
@@ -5820,16 +5833,16 @@
         <v>127</v>
       </c>
       <c r="B137" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C137" s="22" t="s">
-        <v>269</v>
-      </c>
       <c r="D137" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F137" s="26" t="n">
         <v>53.45</v>
@@ -5848,10 +5861,10 @@
         <v>128</v>
       </c>
       <c r="B138" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="D138" s="25" t="n">
         <v>60.55</v>
@@ -5876,16 +5889,16 @@
         <v>129</v>
       </c>
       <c r="B139" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="D139" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="D139" s="25" t="s">
-        <v>274</v>
-      </c>
       <c r="E139" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F139" s="26" t="n">
         <v>34.05</v>
@@ -5904,10 +5917,10 @@
         <v>130</v>
       </c>
       <c r="B140" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="D140" s="25" t="n">
         <v>41.1</v>
@@ -5932,16 +5945,16 @@
         <v>131</v>
       </c>
       <c r="B141" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="C141" s="22" t="s">
-        <v>278</v>
-      </c>
       <c r="D141" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F141" s="26" t="n">
         <v>45.4</v>
@@ -5960,10 +5973,10 @@
         <v>132</v>
       </c>
       <c r="B142" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="D142" s="25" t="n">
         <v>64.9</v>
@@ -5988,10 +6001,10 @@
         <v>133</v>
       </c>
       <c r="B143" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="D143" s="25" t="n">
         <v>44.2</v>
@@ -6016,16 +6029,16 @@
         <v>134</v>
       </c>
       <c r="B144" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C144" s="22" t="s">
-        <v>284</v>
-      </c>
       <c r="D144" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F144" s="26" t="n">
         <v>56.4</v>
@@ -6044,16 +6057,16 @@
         <v>135</v>
       </c>
       <c r="B145" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="22" t="s">
-        <v>286</v>
-      </c>
       <c r="D145" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F145" s="26" t="n">
         <v>52.6</v>
@@ -6072,16 +6085,16 @@
         <v>136</v>
       </c>
       <c r="B146" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C146" s="22" t="s">
-        <v>288</v>
-      </c>
       <c r="D146" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F146" s="26" t="n">
         <v>62.9</v>
@@ -6100,10 +6113,10 @@
         <v>137</v>
       </c>
       <c r="B147" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="D147" s="25" t="n">
         <v>64.55</v>
@@ -6126,26 +6139,26 @@
       <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="35" t="s">
-        <v>292</v>
-      </c>
       <c r="D148" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H148" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I148" s="3" t="n"/>
     </row>
@@ -6155,10 +6168,10 @@
         <v>139</v>
       </c>
       <c r="B149" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="D149" s="25" t="n">
         <v>31.2</v>
@@ -6183,10 +6196,10 @@
         <v>140</v>
       </c>
       <c r="B150" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="D150" s="25" t="n">
         <v>45.3</v>
@@ -6211,10 +6224,10 @@
         <v>141</v>
       </c>
       <c r="B151" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="D151" s="25" t="n">
         <v>46.55</v>
@@ -6239,25 +6252,25 @@
         <v>142</v>
       </c>
       <c r="B152" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C152" s="22" t="s">
-        <v>300</v>
-      </c>
       <c r="D152" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I152" s="3" t="n"/>
     </row>
@@ -6267,10 +6280,10 @@
         <v>143</v>
       </c>
       <c r="B153" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="D153" s="25" t="n">
         <v>45.6</v>
@@ -6295,16 +6308,16 @@
         <v>144</v>
       </c>
       <c r="B154" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C154" s="22" t="s">
-        <v>304</v>
-      </c>
       <c r="D154" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F154" s="26" t="n">
         <v>73</v>
@@ -6323,10 +6336,10 @@
         <v>145</v>
       </c>
       <c r="B155" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="D155" s="25" t="n">
         <v>42.95</v>
@@ -6351,10 +6364,10 @@
         <v>146</v>
       </c>
       <c r="B156" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="D156" s="25" t="n">
         <v>54.3</v>
@@ -6379,16 +6392,16 @@
         <v>147</v>
       </c>
       <c r="B157" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C157" s="22" t="s">
-        <v>310</v>
-      </c>
       <c r="D157" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F157" s="26" t="n">
         <v>53.85</v>
@@ -6407,10 +6420,10 @@
         <v>148</v>
       </c>
       <c r="B158" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="D158" s="25" t="n">
         <v>45.25</v>
@@ -6435,10 +6448,10 @@
         <v>149</v>
       </c>
       <c r="B159" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" s="22" t="s">
         <v>313</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>314</v>
       </c>
       <c r="D159" s="25" t="n">
         <v>56.1</v>
@@ -6463,16 +6476,16 @@
         <v>150</v>
       </c>
       <c r="B160" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C160" s="22" t="s">
-        <v>316</v>
-      </c>
       <c r="D160" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F160" s="26" t="n">
         <v>72.1</v>
@@ -6491,10 +6504,10 @@
         <v>151</v>
       </c>
       <c r="B161" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="D161" s="25" t="n">
         <v>58.35</v>
@@ -6519,10 +6532,10 @@
         <v>152</v>
       </c>
       <c r="B162" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="D162" s="25" t="n">
         <v>52.35</v>
@@ -6547,10 +6560,10 @@
         <v>153</v>
       </c>
       <c r="B163" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="D163" s="25" t="n">
         <v>58.9</v>
@@ -6575,10 +6588,10 @@
         <v>154</v>
       </c>
       <c r="B164" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="D164" s="25" t="n">
         <v>35.65</v>
@@ -6603,10 +6616,10 @@
         <v>155</v>
       </c>
       <c r="B165" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="D165" s="25" t="n">
         <v>46.7</v>
@@ -6631,24 +6644,24 @@
         <v>156</v>
       </c>
       <c r="B166" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="D166" s="31" t="n">
+      <c r="D166" s="33" t="n">
         <v>34.6</v>
       </c>
-      <c r="E166" s="31" t="n">
+      <c r="E166" s="33" t="n">
         <v>62.6</v>
       </c>
-      <c r="F166" s="31" t="n">
+      <c r="F166" s="33" t="n">
         <v>34.6</v>
       </c>
-      <c r="G166" s="31" t="n">
+      <c r="G166" s="33" t="n">
         <v>65.1</v>
       </c>
-      <c r="H166" s="31" t="n">
+      <c r="H166" s="33" t="n">
         <v>40.05</v>
       </c>
       <c r="I166" s="3" t="n"/>
@@ -6659,10 +6672,10 @@
         <v>157</v>
       </c>
       <c r="B167" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>330</v>
       </c>
       <c r="D167" s="25" t="n">
         <v>44.95</v>
@@ -6687,16 +6700,16 @@
         <v>158</v>
       </c>
       <c r="B168" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="C168" s="22" t="s">
-        <v>332</v>
-      </c>
       <c r="D168" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F168" s="26" t="n">
         <v>49.15</v>
@@ -6714,16 +6727,16 @@
         <v>158</v>
       </c>
       <c r="B169" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="C169" s="22" t="s">
-        <v>334</v>
-      </c>
       <c r="D169" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F169" s="26" t="n">
         <v>45.45</v>
@@ -6742,10 +6755,10 @@
         <v>159</v>
       </c>
       <c r="B170" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" s="22" t="s">
         <v>335</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>336</v>
       </c>
       <c r="D170" s="25" t="n">
         <v>43.3</v>
@@ -6770,16 +6783,16 @@
         <v>160</v>
       </c>
       <c r="B171" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="C171" s="22" t="s">
-        <v>338</v>
-      </c>
       <c r="D171" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F171" s="26" t="n">
         <v>84.35</v>
@@ -6798,10 +6811,10 @@
         <v>161</v>
       </c>
       <c r="B172" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>340</v>
       </c>
       <c r="D172" s="25" t="n">
         <v>51.25</v>
@@ -6826,16 +6839,16 @@
         <v>162</v>
       </c>
       <c r="B173" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="C173" s="22" t="s">
-        <v>342</v>
-      </c>
       <c r="D173" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F173" s="26" t="n">
         <v>49.7</v>
@@ -6854,16 +6867,16 @@
         <v>163</v>
       </c>
       <c r="B174" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="C174" s="30" t="s">
-        <v>344</v>
-      </c>
       <c r="D174" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F174" s="26" t="n">
         <v>49.05</v>
@@ -6882,16 +6895,16 @@
         <v>164</v>
       </c>
       <c r="B175" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C175" s="22" t="s">
-        <v>346</v>
-      </c>
       <c r="D175" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F175" s="26" t="n">
         <v>48.7</v>
@@ -6910,16 +6923,16 @@
         <v>165</v>
       </c>
       <c r="B176" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="C176" s="22" t="s">
-        <v>348</v>
-      </c>
       <c r="D176" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F176" s="26" t="n">
         <v>47.75</v>
@@ -6938,10 +6951,10 @@
         <v>166</v>
       </c>
       <c r="B177" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C177" s="22" t="s">
         <v>349</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>350</v>
       </c>
       <c r="D177" s="25" t="n">
         <v>52.3</v>
@@ -6966,10 +6979,10 @@
         <v>167</v>
       </c>
       <c r="B178" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" s="22" t="s">
         <v>351</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>352</v>
       </c>
       <c r="D178" s="25" t="n">
         <v>41.85</v>
@@ -6994,25 +7007,25 @@
         <v>168</v>
       </c>
       <c r="B179" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C179" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C179" s="22" t="s">
-        <v>354</v>
-      </c>
       <c r="D179" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H179" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I179" s="3" t="n"/>
     </row>
@@ -7022,10 +7035,10 @@
         <v>169</v>
       </c>
       <c r="B180" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>355</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>356</v>
       </c>
       <c r="D180" s="25" t="n">
         <v>39.95</v>
@@ -7050,10 +7063,10 @@
         <v>170</v>
       </c>
       <c r="B181" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="D181" s="25" t="n">
         <v>41.2</v>
@@ -7078,24 +7091,24 @@
         <v>171</v>
       </c>
       <c r="B182" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C182" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C182" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D182" s="31" t="n">
+      <c r="D182" s="33" t="n">
         <v>33.7</v>
       </c>
-      <c r="E182" s="31" t="n">
+      <c r="E182" s="33" t="n">
         <v>52.9</v>
       </c>
-      <c r="F182" s="31" t="n">
+      <c r="F182" s="33" t="n">
         <v>33.7</v>
       </c>
-      <c r="G182" s="31" t="n">
+      <c r="G182" s="33" t="n">
         <v>62.9</v>
       </c>
-      <c r="H182" s="31" t="n">
+      <c r="H182" s="33" t="n">
         <v>41.65</v>
       </c>
       <c r="I182" s="3" t="n"/>
@@ -7106,25 +7119,25 @@
         <v>172</v>
       </c>
       <c r="B183" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C183" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C183" s="22" t="s">
-        <v>362</v>
-      </c>
       <c r="D183" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F183" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G183" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H183" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I183" s="3" t="n"/>
     </row>
@@ -7134,10 +7147,10 @@
         <v>173</v>
       </c>
       <c r="B184" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C184" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="C184" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="D184" s="25" t="n">
         <v>54.65</v>
@@ -7162,10 +7175,10 @@
         <v>174</v>
       </c>
       <c r="B185" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" s="22" t="s">
         <v>365</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>366</v>
       </c>
       <c r="D185" s="25" t="n">
         <v>42.4</v>
@@ -7190,10 +7203,10 @@
         <v>175</v>
       </c>
       <c r="B186" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C186" s="22" t="s">
         <v>367</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>368</v>
       </c>
       <c r="D186" s="25" t="n">
         <v>49.55</v>
@@ -7218,10 +7231,10 @@
         <v>176</v>
       </c>
       <c r="B187" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C187" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="C187" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="D187" s="25" t="n">
         <v>33.15</v>
@@ -7246,10 +7259,10 @@
         <v>177</v>
       </c>
       <c r="B188" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C188" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>372</v>
       </c>
       <c r="D188" s="25" t="n">
         <v>49.45</v>
@@ -7274,10 +7287,10 @@
         <v>178</v>
       </c>
       <c r="B189" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C189" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="C189" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="D189" s="25" t="n">
         <v>36.5</v>
@@ -7302,10 +7315,10 @@
         <v>179</v>
       </c>
       <c r="B190" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>375</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>376</v>
       </c>
       <c r="D190" s="25" t="n">
         <v>50.65</v>
@@ -7330,24 +7343,24 @@
         <v>180</v>
       </c>
       <c r="B191" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C191" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C191" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="D191" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F191" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H191" s="31" t="n">
+      <c r="D191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="33" t="n">
         <v>17.4</v>
       </c>
       <c r="I191" s="3" t="n"/>
@@ -7358,24 +7371,24 @@
         <v>181</v>
       </c>
       <c r="B192" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C192" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D192" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F192" s="31" t="n">
+      <c r="D192" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="33" t="n">
         <v>33.6</v>
       </c>
-      <c r="G192" s="31" t="n">
+      <c r="G192" s="33" t="n">
         <v>69.55</v>
       </c>
-      <c r="H192" s="31" t="n">
+      <c r="H192" s="33" t="n">
         <v>41.65</v>
       </c>
       <c r="I192" s="3" t="n"/>
@@ -7386,10 +7399,10 @@
         <v>182</v>
       </c>
       <c r="B193" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C193" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>382</v>
       </c>
       <c r="D193" s="25" t="n">
         <v>54</v>
@@ -7414,16 +7427,16 @@
         <v>183</v>
       </c>
       <c r="B194" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C194" s="22" t="s">
-        <v>384</v>
-      </c>
       <c r="D194" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F194" s="26" t="n">
         <v>41.85</v>
@@ -7442,10 +7455,10 @@
         <v>184</v>
       </c>
       <c r="B195" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="D195" s="25" t="n">
         <v>43.2</v>
@@ -7469,26 +7482,26 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A195+1</f>
         <v>185</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="C196" s="35" t="s">
-        <v>388</v>
-      </c>
       <c r="D196" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G196" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H196" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I196" s="3" t="n"/>
     </row>
@@ -7498,16 +7511,16 @@
         <v>186</v>
       </c>
       <c r="B197" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C197" s="22" t="s">
-        <v>390</v>
-      </c>
       <c r="D197" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F197" s="26" t="n">
         <v>34.95</v>
@@ -7526,10 +7539,10 @@
         <v>187</v>
       </c>
       <c r="B198" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C198" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>392</v>
       </c>
       <c r="D198" s="25" t="n">
         <v>58.7</v>
@@ -7554,10 +7567,10 @@
         <v>188</v>
       </c>
       <c r="B199" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="D199" s="25" t="n">
         <v>29.9</v>
@@ -7582,10 +7595,10 @@
         <v>189</v>
       </c>
       <c r="B200" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="D200" s="25" t="n">
         <v>51.25</v>
@@ -7610,10 +7623,10 @@
         <v>190</v>
       </c>
       <c r="B201" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C201" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="D201" s="25" t="n">
         <v>47.3</v>
@@ -7638,10 +7651,10 @@
         <v>191</v>
       </c>
       <c r="B202" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C202" s="22" t="s">
         <v>399</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="D202" s="25" t="n">
         <v>62.1</v>
@@ -7666,25 +7679,25 @@
         <v>192</v>
       </c>
       <c r="B203" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C203" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="C203" s="22" t="s">
-        <v>402</v>
-      </c>
       <c r="D203" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G203" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H203" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I203" s="3" t="n"/>
     </row>
@@ -7694,16 +7707,16 @@
         <v>193</v>
       </c>
       <c r="B204" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C204" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="C204" s="22" t="s">
-        <v>404</v>
-      </c>
       <c r="D204" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F204" s="26" t="n">
         <v>55.9</v>
@@ -7722,10 +7735,10 @@
         <v>194</v>
       </c>
       <c r="B205" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="D205" s="25" t="n">
         <v>61.9</v>
@@ -7750,16 +7763,16 @@
         <v>195</v>
       </c>
       <c r="B206" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C206" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C206" s="22" t="s">
-        <v>408</v>
-      </c>
       <c r="D206" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F206" s="26" t="n">
         <v>59</v>
@@ -7778,10 +7791,10 @@
         <v>196</v>
       </c>
       <c r="B207" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C207" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>410</v>
       </c>
       <c r="D207" s="23" t="n">
         <v>38</v>
@@ -7806,10 +7819,10 @@
         <v>197</v>
       </c>
       <c r="B208" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C208" s="22" t="s">
         <v>411</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="D208" s="25" t="n">
         <v>42.35</v>
@@ -7834,25 +7847,25 @@
         <v>198</v>
       </c>
       <c r="B209" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C209" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="C209" s="22" t="s">
-        <v>414</v>
-      </c>
       <c r="D209" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E209" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F209" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G209" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H209" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I209" s="3" t="n"/>
     </row>
@@ -7862,24 +7875,24 @@
         <v>199</v>
       </c>
       <c r="B210" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C210" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="C210" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="D210" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F210" s="31" t="n">
+      <c r="D210" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="33" t="n">
         <v>39.55</v>
       </c>
-      <c r="G210" s="31" t="n">
+      <c r="G210" s="33" t="n">
         <v>51.9</v>
       </c>
-      <c r="H210" s="31" t="n">
+      <c r="H210" s="33" t="n">
         <v>8.2</v>
       </c>
       <c r="I210" s="3" t="n"/>
@@ -7890,10 +7903,10 @@
         <v>200</v>
       </c>
       <c r="B211" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C211" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="D211" s="25" t="n">
         <v>52.3</v>
@@ -7918,16 +7931,16 @@
         <v>201</v>
       </c>
       <c r="B212" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C212" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="C212" s="22" t="s">
-        <v>420</v>
-      </c>
       <c r="D212" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E212" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F212" s="26" t="n">
         <v>72.1</v>
@@ -7946,16 +7959,16 @@
         <v>202</v>
       </c>
       <c r="B213" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C213" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="C213" s="22" t="s">
-        <v>422</v>
-      </c>
       <c r="D213" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E213" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F213" s="26" t="n">
         <v>57.1</v>
@@ -7974,10 +7987,10 @@
         <v>203</v>
       </c>
       <c r="B214" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C214" s="22" t="s">
         <v>423</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>424</v>
       </c>
       <c r="D214" s="25" t="n">
         <v>36.7</v>
@@ -8002,10 +8015,10 @@
         <v>204</v>
       </c>
       <c r="B215" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C215" s="22" t="s">
         <v>425</v>
-      </c>
-      <c r="C215" s="22" t="s">
-        <v>426</v>
       </c>
       <c r="D215" s="25" t="n">
         <v>55.05</v>
@@ -8030,10 +8043,10 @@
         <v>205</v>
       </c>
       <c r="B216" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C216" s="22" t="s">
         <v>427</v>
-      </c>
-      <c r="C216" s="22" t="s">
-        <v>428</v>
       </c>
       <c r="D216" s="25" t="n">
         <v>46.2</v>
@@ -8058,10 +8071,10 @@
         <v>206</v>
       </c>
       <c r="B217" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C217" s="22" t="s">
         <v>429</v>
-      </c>
-      <c r="C217" s="22" t="s">
-        <v>430</v>
       </c>
       <c r="D217" s="25" t="n">
         <v>54.3</v>
@@ -8086,10 +8099,10 @@
         <v>207</v>
       </c>
       <c r="B218" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C218" s="22" t="s">
         <v>431</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>432</v>
       </c>
       <c r="D218" s="25" t="n">
         <v>37.15</v>
@@ -8114,10 +8127,10 @@
         <v>208</v>
       </c>
       <c r="B219" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" s="22" t="s">
         <v>433</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>434</v>
       </c>
       <c r="D219" s="25" t="n">
         <v>57.7</v>
@@ -8142,10 +8155,10 @@
         <v>209</v>
       </c>
       <c r="B220" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C220" s="22" t="s">
         <v>435</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>436</v>
       </c>
       <c r="D220" s="25" t="n">
         <v>43</v>
@@ -8170,10 +8183,10 @@
         <v>210</v>
       </c>
       <c r="B221" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C221" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>438</v>
       </c>
       <c r="D221" s="25" t="n">
         <v>58.85</v>
@@ -8198,10 +8211,10 @@
         <v>211</v>
       </c>
       <c r="B222" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C222" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="D222" s="25" t="n">
         <v>43.9</v>
@@ -8226,10 +8239,10 @@
         <v>212</v>
       </c>
       <c r="B223" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C223" s="22" t="s">
         <v>441</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>442</v>
       </c>
       <c r="D223" s="25" t="n">
         <v>48.3</v>
@@ -8254,10 +8267,10 @@
         <v>213</v>
       </c>
       <c r="B224" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C224" s="22" t="s">
         <v>443</v>
-      </c>
-      <c r="C224" s="22" t="s">
-        <v>444</v>
       </c>
       <c r="D224" s="25" t="n">
         <v>44.3</v>
@@ -8282,10 +8295,10 @@
         <v>214</v>
       </c>
       <c r="B225" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C225" s="22" t="s">
         <v>445</v>
-      </c>
-      <c r="C225" s="22" t="s">
-        <v>446</v>
       </c>
       <c r="D225" s="25" t="n">
         <v>58.1</v>
@@ -8310,10 +8323,10 @@
         <v>215</v>
       </c>
       <c r="B226" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C226" s="22" t="s">
         <v>447</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>448</v>
       </c>
       <c r="D226" s="25" t="n">
         <v>41.85</v>
@@ -8338,10 +8351,10 @@
         <v>216</v>
       </c>
       <c r="B227" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C227" s="22" t="s">
         <v>449</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>450</v>
       </c>
       <c r="D227" s="25" t="n">
         <v>43.45</v>
@@ -8366,10 +8379,10 @@
         <v>217</v>
       </c>
       <c r="B228" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C228" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>452</v>
       </c>
       <c r="D228" s="25" t="n">
         <v>45.45</v>
@@ -8394,16 +8407,16 @@
         <v>218</v>
       </c>
       <c r="B229" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C229" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C229" s="22" t="s">
-        <v>454</v>
-      </c>
       <c r="D229" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F229" s="24" t="n">
         <v>32.4</v>
@@ -8422,10 +8435,10 @@
         <v>219</v>
       </c>
       <c r="B230" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C230" s="22" t="s">
         <v>455</v>
-      </c>
-      <c r="C230" s="22" t="s">
-        <v>456</v>
       </c>
       <c r="D230" s="25" t="n">
         <v>49.65</v>
@@ -8450,10 +8463,10 @@
         <v>220</v>
       </c>
       <c r="B231" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C231" s="22" t="s">
         <v>457</v>
-      </c>
-      <c r="C231" s="22" t="s">
-        <v>458</v>
       </c>
       <c r="D231" s="25" t="n">
         <v>42.45</v>
@@ -8470,12 +8483,12 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="36" t="s">
+      <c r="I231" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="J231" s="39" t="n"/>
+      <c r="K231" s="40" t="s">
         <v>459</v>
-      </c>
-      <c r="J231" s="37" t="n"/>
-      <c r="K231" s="38" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8524,13 +8537,13 @@
   <sheetData>
     <row customHeight="true" ht="32.4500007629395" outlineLevel="0" r="1">
       <c r="A1" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
@@ -8538,40 +8551,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="41" t="s"/>
+      <c r="B2" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="43" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" s="43" t="s"/>
+      <c r="B3" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="45" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" s="43" t="s"/>
+      <c r="B4" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="45" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="45" t="n">
+      <c r="B5" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="47" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8580,109 +8593,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" s="46" t="n">
+      <c r="B6" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="47" t="n"/>
+      <c r="D6" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="41" t="s"/>
-      <c r="D7" s="47" t="n"/>
+      <c r="B7" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="43" t="s"/>
+      <c r="D7" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="C8" s="41" t="s"/>
-      <c r="D8" s="47" t="n"/>
+      <c r="B8" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="43" t="s"/>
+      <c r="D8" s="49" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="31" t="n">
+      <c r="B9" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="47" t="n"/>
+      <c r="D9" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="43" t="s"/>
-      <c r="D10" s="47" t="n"/>
+      <c r="B10" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="45" t="s"/>
+      <c r="D10" s="49" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="C11" s="49" t="n">
+      <c r="B11" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" s="51" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="50" t="n"/>
+      <c r="D11" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C12" s="43" t="s"/>
-      <c r="D12" s="51" t="n"/>
+      <c r="B12" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="45" t="s"/>
+      <c r="D12" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="45" t="s"/>
+      <c r="D13" s="53" t="n"/>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
+      <c r="A14" s="54" t="n"/>
+      <c r="B14" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="43" t="s"/>
-      <c r="D13" s="51" t="n"/>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="52" t="n"/>
-      <c r="B14" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="54" t="s"/>
-      <c r="D14" s="51" t="n"/>
+      <c r="C14" s="56" t="s"/>
+      <c r="D14" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="C15" s="43" t="s"/>
+      <c r="B15" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="45" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -799,6 +799,9 @@
     <t xml:space="preserve">x </t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>LT</t>
   </si>
   <si>
@@ -947,9 +950,6 @@
   </si>
   <si>
     <t>Науру</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>NP</t>
@@ -1567,14 +1567,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.0000000000000;-0.0000000000000" formatCode="0.0000000000000;-0.0000000000000" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0.000000;-0.000000" formatCode="0.000000;-0.000000" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1791,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1868,10 +1867,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
@@ -1881,18 +1877,24 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1913,13 +1915,13 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1928,10 +1930,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -2155,7 +2157,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -2169,34 +2171,40 @@
     <col customWidth="true" max="6" min="6" outlineLevel="0" style="1" width="10.4289577316304"/>
     <col customWidth="true" max="7" min="7" outlineLevel="0" style="1" width="7.61032028740658"/>
     <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="10.0061620473303"/>
-    <col customWidth="true" max="10" min="9" outlineLevel="0" style="1" width="9.01963900951847"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="14.7139283144772"/>
-    <col customWidth="true" max="12" min="12" outlineLevel="0" style="1" width="9.01963900951847"/>
-    <col customWidth="true" max="13" min="13" outlineLevel="0" style="1" width="16.2311946837159"/>
-    <col customWidth="true" max="15" min="14" outlineLevel="0" style="1" width="9.01963900951847"/>
-    <col bestFit="true" customWidth="true" max="16384" min="16" outlineLevel="0" style="1" width="9.01963900951847"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" style="1" width="16.2311946837159"/>
+    <col customWidth="true" max="10" min="10" outlineLevel="0" style="1" width="9.01963900951847"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="16.5489347859295"/>
+    <col bestFit="true" customWidth="true" max="16384" min="12" outlineLevel="0" style="1" width="9.01963900951847"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="2">
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="9.75" outlineLevel="0" r="4">
-      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
@@ -2209,10 +2217,14 @@
       <c r="F5" s="4" t="s"/>
       <c r="G5" s="4" t="s"/>
       <c r="H5" s="4" t="s"/>
-      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="10.5" outlineLevel="0" r="6">
-      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="7">
       <c r="E7" s="5" t="s">
@@ -2221,7 +2233,9 @@
       <c r="F7" s="6" t="s"/>
       <c r="G7" s="6" t="s"/>
       <c r="H7" s="7" t="s"/>
-      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="13.8999996185303" outlineLevel="0" r="8">
       <c r="A8" s="8" t="s">
@@ -2238,7 +2252,9 @@
       <c r="F8" s="11" t="s"/>
       <c r="G8" s="11" t="s"/>
       <c r="H8" s="12" t="s"/>
-      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="28.5" outlineLevel="0" r="9">
       <c r="A9" s="13" t="s"/>
@@ -2253,7 +2269,9 @@
       </c>
       <c r="G9" s="18" t="s"/>
       <c r="H9" s="19" t="s"/>
-      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="25.5" outlineLevel="0" r="10">
       <c r="A10" s="20" t="s"/>
@@ -2274,7 +2292,9 @@
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="17" t="n">
@@ -2301,11 +2321,12 @@
       <c r="H11" s="24" t="n">
         <v>41.65</v>
       </c>
-      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -2329,31 +2350,13 @@
       <c r="H12" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I12" s="27" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12+5.85+1.05*E12</f>
-        <v>65.535</v>
-      </c>
-      <c r="J12" s="28" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.25*3/100</f>
-        <v>0.0375</v>
-      </c>
-      <c r="K12" s="29" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12+J12</f>
-        <v>65.57249999999999</v>
-      </c>
-      <c r="L12" s="30" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(K12*0.2, 2)</f>
-        <v>13.11</v>
-      </c>
-      <c r="M12" s="31" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">K13+L12</f>
-        <v>78.67999999999999</v>
-      </c>
-      <c r="N12" s="31" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="28" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -2377,14 +2380,12 @@
       <c r="H13" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I13" s="3" t="n"/>
-      <c r="K13" s="28" t="n">
-        <v>65.57</v>
-      </c>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="28" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2408,11 +2409,12 @@
       <c r="H14" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I14" s="31" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A14+1</f>
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -2436,11 +2438,12 @@
       <c r="H15" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A15+1</f>
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -2464,11 +2467,12 @@
       <c r="H16" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A16+1</f>
         <v>7</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2492,11 +2496,12 @@
       <c r="H17" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A17+1</f>
         <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2520,12 +2525,12 @@
       <c r="H18" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I18" s="3" t="n"/>
-      <c r="K18" s="1" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A18+1</f>
         <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -2549,11 +2554,12 @@
       <c r="H19" s="26" t="n">
         <v>31.3</v>
       </c>
-      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A19+1</f>
         <v>10</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2577,11 +2583,12 @@
       <c r="H20" s="26" t="n">
         <v>32.05</v>
       </c>
-      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A20+1</f>
         <v>11</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -2605,11 +2612,12 @@
       <c r="H21" s="26" t="n">
         <v>6.35</v>
       </c>
-      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A21+1</f>
         <v>12</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2633,11 +2641,12 @@
       <c r="H22" s="26" t="n">
         <v>23.3</v>
       </c>
-      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A22+1</f>
         <v>13</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -2661,11 +2670,12 @@
       <c r="H23" s="24" t="n">
         <v>14.2</v>
       </c>
-      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A23+1</f>
         <v>14</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -2689,11 +2699,12 @@
       <c r="H24" s="26" t="n">
         <v>30.8</v>
       </c>
-      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A24+1</f>
         <v>15</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -2717,11 +2728,12 @@
       <c r="H25" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A25+1</f>
         <v>16</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -2745,11 +2757,12 @@
       <c r="H26" s="26" t="n">
         <v>22.3</v>
       </c>
-      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A26+1</f>
         <v>17</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -2773,11 +2786,12 @@
       <c r="H27" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A27+1</f>
         <v>18</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -2801,11 +2815,12 @@
       <c r="H28" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A28+1</f>
         <v>19</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2829,11 +2844,12 @@
       <c r="H29" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A29+1</f>
         <v>20</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -2857,11 +2873,12 @@
       <c r="H30" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="n"/>
+      <c r="L30" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A30+1</f>
         <v>21</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2885,17 +2902,18 @@
       <c r="H31" s="26" t="n">
         <v>27.85</v>
       </c>
-      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="n"/>
+      <c r="L31" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A31+1</f>
         <v>22</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -2913,11 +2931,12 @@
       <c r="H32" s="26" t="n">
         <v>23.85</v>
       </c>
-      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
+      <c r="L32" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A32+1</f>
         <v>23</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -2941,11 +2960,12 @@
       <c r="H33" s="26" t="n">
         <v>7.45</v>
       </c>
-      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A33+1</f>
         <v>24</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -2969,11 +2989,12 @@
       <c r="H34" s="26" t="n">
         <v>36</v>
       </c>
-      <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="n"/>
+      <c r="L34" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A34+1</f>
         <v>25</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -2997,11 +3018,12 @@
       <c r="H35" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A35+1</f>
         <v>26</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -3025,11 +3047,12 @@
       <c r="H36" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="n"/>
+      <c r="L36" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>27</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -3053,11 +3076,12 @@
       <c r="H37" s="26" t="n">
         <v>29.5</v>
       </c>
-      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A37+1</f>
         <v>28</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -3066,26 +3090,27 @@
       <c r="C38" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="33" t="n">
+      <c r="D38" s="30" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="33" t="n">
+      <c r="E38" s="30" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="33" t="n">
+      <c r="F38" s="30" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="33" t="n">
+      <c r="G38" s="30" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="33" t="n">
+      <c r="H38" s="30" t="n">
         <v>22.9</v>
       </c>
-      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A38+1</f>
         <v>29</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -3109,11 +3134,12 @@
       <c r="H39" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A39+1</f>
         <v>30</v>
       </c>
       <c r="B40" s="17" t="s">
@@ -3137,11 +3163,12 @@
       <c r="H40" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A40+1</f>
         <v>31</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -3156,20 +3183,21 @@
       <c r="E41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="33" t="n">
+      <c r="F41" s="30" t="n">
         <v>50.65</v>
       </c>
-      <c r="G41" s="33" t="n">
+      <c r="G41" s="30" t="n">
         <v>16.6</v>
       </c>
-      <c r="H41" s="33" t="n">
+      <c r="H41" s="30" t="n">
         <v>6.8</v>
       </c>
-      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A41+1</f>
         <v>32</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -3193,11 +3221,12 @@
       <c r="H42" s="26" t="n">
         <v>41.65</v>
       </c>
-      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A42+1</f>
         <v>33</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -3221,17 +3250,18 @@
       <c r="H43" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="44">
       <c r="A44" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A43+1</f>
         <v>34</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="25" t="n">
@@ -3249,11 +3279,12 @@
       <c r="H44" s="26" t="n">
         <v>8.2</v>
       </c>
-      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
+      <c r="L44" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A44+1</f>
         <v>35</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3277,11 +3308,12 @@
       <c r="H45" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A45+1</f>
         <v>36</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -3305,11 +3337,12 @@
       <c r="H46" s="26" t="n">
         <v>31.75</v>
       </c>
-      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="n"/>
+      <c r="L46" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A46+1</f>
         <v>37</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -3333,11 +3366,12 @@
       <c r="H47" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A47+1</f>
         <v>38</v>
       </c>
       <c r="B48" s="17" t="s">
@@ -3361,11 +3395,12 @@
       <c r="H48" s="26" t="n">
         <v>15.9</v>
       </c>
-      <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="n"/>
+      <c r="L48" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A48+1</f>
         <v>39</v>
       </c>
       <c r="B49" s="17" t="s">
@@ -3389,11 +3424,12 @@
       <c r="H49" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A49+1</f>
         <v>40</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -3417,11 +3453,12 @@
       <c r="H50" s="26" t="n">
         <v>31.8</v>
       </c>
-      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A50+1</f>
         <v>41</v>
       </c>
       <c r="B51" s="17" t="s">
@@ -3445,11 +3482,12 @@
       <c r="H51" s="26" t="n">
         <v>25.7</v>
       </c>
-      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A51+1</f>
         <v>42</v>
       </c>
       <c r="B52" s="17" t="s">
@@ -3473,11 +3511,12 @@
       <c r="H52" s="26" t="n">
         <v>23.6</v>
       </c>
-      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A52+1</f>
         <v>43</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -3501,11 +3540,12 @@
       <c r="H53" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="54">
       <c r="A54" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A53+1</f>
         <v>44</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -3529,11 +3569,12 @@
       <c r="H54" s="26" t="n">
         <v>20.1</v>
       </c>
-      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="55">
       <c r="A55" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A54+1</f>
         <v>45</v>
       </c>
       <c r="B55" s="17" t="s">
@@ -3557,11 +3598,12 @@
       <c r="H55" s="26" t="n">
         <v>29.05</v>
       </c>
-      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
       <c r="A56" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A55+1</f>
         <v>46</v>
       </c>
       <c r="B56" s="17" t="s">
@@ -3585,11 +3627,12 @@
       <c r="H56" s="26" t="n">
         <v>20.85</v>
       </c>
-      <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="57">
       <c r="A57" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A56+1</f>
         <v>47</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -3613,11 +3656,12 @@
       <c r="H57" s="26" t="n">
         <v>26.8</v>
       </c>
-      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A57+1</f>
         <v>48</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -3641,11 +3685,12 @@
       <c r="H58" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I58" s="3" t="n"/>
+      <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="n"/>
+      <c r="L58" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A58+1</f>
         <v>49</v>
       </c>
       <c r="B59" s="17" t="s">
@@ -3669,11 +3714,12 @@
       <c r="H59" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A59+1</f>
         <v>50</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -3697,11 +3743,12 @@
       <c r="H60" s="26" t="n">
         <v>30.2</v>
       </c>
-      <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="61">
       <c r="A61" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A60+1</f>
         <v>51</v>
       </c>
       <c r="B61" s="17" t="s">
@@ -3725,11 +3772,12 @@
       <c r="H61" s="26" t="n">
         <v>15.25</v>
       </c>
-      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A61+1</f>
         <v>52</v>
       </c>
       <c r="B62" s="17" t="s">
@@ -3753,11 +3801,12 @@
       <c r="H62" s="26" t="n">
         <v>29.05</v>
       </c>
-      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
+      <c r="L62" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
       <c r="A63" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A62+1</f>
         <v>53</v>
       </c>
       <c r="B63" s="17" t="s">
@@ -3781,11 +3830,12 @@
       <c r="H63" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="64">
       <c r="A64" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A63+1</f>
         <v>54</v>
       </c>
       <c r="B64" s="17" t="s">
@@ -3794,26 +3844,27 @@
       <c r="C64" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="33" t="n">
+      <c r="D64" s="30" t="n">
         <v>38.55</v>
       </c>
-      <c r="E64" s="33" t="n">
+      <c r="E64" s="30" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="33" t="n">
+      <c r="F64" s="30" t="n">
         <v>39.05</v>
       </c>
-      <c r="G64" s="33" t="n">
+      <c r="G64" s="30" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="33" t="n">
+      <c r="H64" s="30" t="n">
         <v>6.7</v>
       </c>
-      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
+      <c r="L64" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="65">
       <c r="A65" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A64+1</f>
         <v>55</v>
       </c>
       <c r="B65" s="17" t="s">
@@ -3837,11 +3888,12 @@
       <c r="H65" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="66">
       <c r="A66" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A65+1</f>
         <v>56</v>
       </c>
       <c r="B66" s="17" t="s">
@@ -3865,11 +3917,12 @@
       <c r="H66" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I66" s="3" t="n"/>
+      <c r="J66" s="3" t="n"/>
+      <c r="K66" s="3" t="n"/>
+      <c r="L66" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="67">
       <c r="A67" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A66+1</f>
         <v>57</v>
       </c>
       <c r="B67" s="17" t="s">
@@ -3893,11 +3946,12 @@
       <c r="H67" s="26" t="n">
         <v>26.5</v>
       </c>
-      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="68">
       <c r="A68" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A67+1</f>
         <v>58</v>
       </c>
       <c r="B68" s="17" t="s">
@@ -3921,11 +3975,12 @@
       <c r="H68" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I68" s="3" t="n"/>
+      <c r="J68" s="3" t="n"/>
+      <c r="K68" s="3" t="n"/>
+      <c r="L68" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="69">
       <c r="A69" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A68+1</f>
         <v>59</v>
       </c>
       <c r="B69" s="17" t="s">
@@ -3949,17 +4004,18 @@
       <c r="H69" s="26" t="n">
         <v>19.95</v>
       </c>
-      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
+      <c r="L69" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="70">
       <c r="A70" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A69+1</f>
         <v>60</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D70" s="25" t="s">
@@ -3977,11 +4033,12 @@
       <c r="H70" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I70" s="3" t="n"/>
+      <c r="J70" s="3" t="n"/>
+      <c r="K70" s="3" t="n"/>
+      <c r="L70" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="71">
       <c r="A71" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A70+1</f>
         <v>61</v>
       </c>
       <c r="B71" s="17" t="s">
@@ -4005,11 +4062,12 @@
       <c r="H71" s="26" t="n">
         <v>7.2</v>
       </c>
-      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="72">
       <c r="A72" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A71+1</f>
         <v>62</v>
       </c>
       <c r="B72" s="17" t="s">
@@ -4033,11 +4091,12 @@
       <c r="H72" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I72" s="3" t="n"/>
+      <c r="J72" s="3" t="n"/>
+      <c r="K72" s="3" t="n"/>
+      <c r="L72" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="73">
       <c r="A73" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A72+1</f>
         <v>63</v>
       </c>
       <c r="B73" s="17" t="s">
@@ -4061,11 +4120,12 @@
       <c r="H73" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="74">
       <c r="A74" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A73+1</f>
         <v>64</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -4089,11 +4149,12 @@
       <c r="H74" s="26" t="n">
         <v>13.65</v>
       </c>
-      <c r="I74" s="3" t="n"/>
+      <c r="J74" s="3" t="n"/>
+      <c r="K74" s="3" t="n"/>
+      <c r="L74" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="75">
       <c r="A75" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A74+1</f>
         <v>65</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -4117,11 +4178,12 @@
       <c r="H75" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="76">
       <c r="A76" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A75+1</f>
         <v>66</v>
       </c>
       <c r="B76" s="17" t="s">
@@ -4145,11 +4207,12 @@
       <c r="H76" s="26" t="n">
         <v>16.75</v>
       </c>
-      <c r="I76" s="3" t="n"/>
+      <c r="J76" s="3" t="n"/>
+      <c r="K76" s="3" t="n"/>
+      <c r="L76" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="77">
       <c r="A77" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A76+1</f>
         <v>67</v>
       </c>
       <c r="B77" s="17" t="s">
@@ -4173,11 +4236,12 @@
       <c r="H77" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I77" s="3" t="n"/>
+      <c r="J77" s="3" t="n"/>
+      <c r="K77" s="3" t="n"/>
+      <c r="L77" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="78">
       <c r="A78" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A77+1</f>
         <v>68</v>
       </c>
       <c r="B78" s="17" t="s">
@@ -4201,11 +4265,12 @@
       <c r="H78" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I78" s="3" t="n"/>
+      <c r="J78" s="3" t="n"/>
+      <c r="K78" s="3" t="n"/>
+      <c r="L78" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="79">
       <c r="A79" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A78+1</f>
         <v>69</v>
       </c>
       <c r="B79" s="17" t="s">
@@ -4229,11 +4294,12 @@
       <c r="H79" s="26" t="n">
         <v>7.2</v>
       </c>
-      <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="80">
       <c r="A80" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A79+1</f>
         <v>70</v>
       </c>
       <c r="B80" s="17" t="s">
@@ -4257,11 +4323,12 @@
       <c r="H80" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I80" s="3" t="n"/>
+      <c r="J80" s="3" t="n"/>
+      <c r="K80" s="3" t="n"/>
+      <c r="L80" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="81">
       <c r="A81" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A80+1</f>
         <v>71</v>
       </c>
       <c r="B81" s="17" t="s">
@@ -4285,11 +4352,12 @@
       <c r="H81" s="24" t="n">
         <v>10.55</v>
       </c>
-      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="82">
       <c r="A82" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A81+1</f>
         <v>72</v>
       </c>
       <c r="B82" s="17" t="s">
@@ -4313,11 +4381,12 @@
       <c r="H82" s="26" t="n">
         <v>8.2</v>
       </c>
-      <c r="I82" s="3" t="n"/>
+      <c r="J82" s="3" t="n"/>
+      <c r="K82" s="3" t="n"/>
+      <c r="L82" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="83">
       <c r="A83" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A82+1</f>
         <v>73</v>
       </c>
       <c r="B83" s="17" t="s">
@@ -4341,11 +4410,12 @@
       <c r="H83" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="84">
       <c r="A84" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A83+1</f>
         <v>74</v>
       </c>
       <c r="B84" s="17" t="s">
@@ -4363,17 +4433,18 @@
       <c r="F84" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="26" t="s">
+      <c r="G84" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H84" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="3" t="n"/>
+      <c r="J84" s="3" t="n"/>
+      <c r="K84" s="3" t="n"/>
+      <c r="L84" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="85">
       <c r="A85" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A84+1</f>
         <v>75</v>
       </c>
       <c r="B85" s="17" t="s">
@@ -4391,17 +4462,18 @@
       <c r="F85" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H85" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="3" t="n"/>
+      <c r="J85" s="3" t="n"/>
+      <c r="K85" s="3" t="n"/>
+      <c r="L85" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="86">
       <c r="A86" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A85+1</f>
         <v>76</v>
       </c>
       <c r="B86" s="17" t="s">
@@ -4425,11 +4497,12 @@
       <c r="H86" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I86" s="3" t="n"/>
+      <c r="J86" s="3" t="n"/>
+      <c r="K86" s="3" t="n"/>
+      <c r="L86" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="87">
       <c r="A87" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A86+1</f>
         <v>77</v>
       </c>
       <c r="B87" s="17" t="s">
@@ -4453,11 +4526,12 @@
       <c r="H87" s="26" t="n">
         <v>5.85</v>
       </c>
-      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="88">
       <c r="A88" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A87+1</f>
         <v>78</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -4466,26 +4540,27 @@
       <c r="C88" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="33" t="n">
+      <c r="D88" s="30" t="n">
         <v>51.8</v>
       </c>
-      <c r="E88" s="33" t="n">
+      <c r="E88" s="30" t="n">
         <v>33.15</v>
       </c>
-      <c r="F88" s="33" t="n">
+      <c r="F88" s="30" t="n">
         <v>56.3</v>
       </c>
-      <c r="G88" s="33" t="n">
+      <c r="G88" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="H88" s="33" t="n">
+      <c r="H88" s="30" t="n">
         <v>27.9</v>
       </c>
-      <c r="I88" s="3" t="n"/>
+      <c r="J88" s="3" t="n"/>
+      <c r="K88" s="3" t="n"/>
+      <c r="L88" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="89">
       <c r="A89" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A88+1</f>
         <v>79</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -4509,11 +4584,12 @@
       <c r="H89" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I89" s="3" t="n"/>
+      <c r="J89" s="3" t="n"/>
+      <c r="K89" s="3" t="n"/>
+      <c r="L89" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="90">
       <c r="A90" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A89+1</f>
         <v>80</v>
       </c>
       <c r="B90" s="17" t="s">
@@ -4537,11 +4613,12 @@
       <c r="H90" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I90" s="3" t="n"/>
+      <c r="J90" s="3" t="n"/>
+      <c r="K90" s="3" t="n"/>
+      <c r="L90" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="91">
       <c r="A91" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A90+1</f>
         <v>81</v>
       </c>
       <c r="B91" s="17" t="s">
@@ -4565,14 +4642,15 @@
       <c r="H91" s="26" t="n">
         <v>20.85</v>
       </c>
-      <c r="I91" s="3" t="n"/>
+      <c r="J91" s="3" t="n"/>
+      <c r="K91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A91+1</f>
         <v>82</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="33" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="22" t="s">
@@ -4593,11 +4671,12 @@
       <c r="H92" s="26" t="n">
         <v>8.2</v>
       </c>
-      <c r="I92" s="3" t="n"/>
+      <c r="J92" s="3" t="n"/>
+      <c r="K92" s="3" t="n"/>
+      <c r="L92" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A92+1</f>
         <v>83</v>
       </c>
       <c r="B93" s="17" t="s">
@@ -4621,11 +4700,12 @@
       <c r="H93" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I93" s="3" t="n"/>
+      <c r="J93" s="3" t="n"/>
+      <c r="K93" s="3" t="n"/>
+      <c r="L93" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A93+1</f>
         <v>84</v>
       </c>
       <c r="B94" s="17" t="s">
@@ -4649,11 +4729,12 @@
       <c r="H94" s="26" t="n">
         <v>16.35</v>
       </c>
-      <c r="I94" s="3" t="n"/>
+      <c r="J94" s="3" t="n"/>
+      <c r="K94" s="3" t="n"/>
+      <c r="L94" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A94+1</f>
         <v>85</v>
       </c>
       <c r="B95" s="17" t="s">
@@ -4677,11 +4758,12 @@
       <c r="H95" s="26" t="n">
         <v>8.2</v>
       </c>
-      <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
+      <c r="L95" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A95+1</f>
         <v>86</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -4705,11 +4787,12 @@
       <c r="H96" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I96" s="3" t="n"/>
+      <c r="J96" s="3" t="n"/>
+      <c r="K96" s="3" t="n"/>
+      <c r="L96" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="97">
       <c r="A97" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A96+1</f>
         <v>87</v>
       </c>
       <c r="B97" s="17" t="s">
@@ -4733,11 +4816,12 @@
       <c r="H97" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="I97" s="3" t="n"/>
+      <c r="J97" s="3" t="n"/>
+      <c r="K97" s="3" t="n"/>
+      <c r="L97" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="98">
       <c r="A98" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A97+1</f>
         <v>88</v>
       </c>
       <c r="B98" s="17" t="s">
@@ -4761,11 +4845,12 @@
       <c r="H98" s="26" t="n">
         <v>10.6</v>
       </c>
-      <c r="I98" s="3" t="n"/>
+      <c r="J98" s="3" t="n"/>
+      <c r="K98" s="3" t="n"/>
+      <c r="L98" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="99">
       <c r="A99" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A98+1</f>
         <v>89</v>
       </c>
       <c r="B99" s="17" t="s">
@@ -4789,11 +4874,12 @@
       <c r="H99" s="26" t="n">
         <v>21.75</v>
       </c>
-      <c r="I99" s="3" t="n"/>
+      <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
+      <c r="L99" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="100">
       <c r="A100" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A99+1</f>
         <v>90</v>
       </c>
       <c r="B100" s="17" t="s">
@@ -4817,11 +4903,12 @@
       <c r="H100" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I100" s="3" t="n"/>
+      <c r="J100" s="3" t="n"/>
+      <c r="K100" s="3" t="n"/>
+      <c r="L100" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="101">
       <c r="A101" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A100+1</f>
         <v>91</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -4845,11 +4932,12 @@
       <c r="H101" s="26" t="n">
         <v>23.6</v>
       </c>
-      <c r="I101" s="3" t="n"/>
+      <c r="J101" s="3" t="n"/>
+      <c r="K101" s="3" t="n"/>
+      <c r="L101" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="102">
       <c r="A102" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A101+1</f>
         <v>92</v>
       </c>
       <c r="B102" s="17" t="s">
@@ -4873,11 +4961,12 @@
       <c r="H102" s="26" t="n">
         <v>14.65</v>
       </c>
-      <c r="I102" s="3" t="n"/>
+      <c r="J102" s="3" t="n"/>
+      <c r="K102" s="3" t="n"/>
+      <c r="L102" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="103">
       <c r="A103" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A102+1</f>
         <v>93</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -4901,11 +4990,12 @@
       <c r="H103" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="K103" s="3" t="n"/>
+      <c r="L103" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="104">
       <c r="A104" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A103+1</f>
         <v>94</v>
       </c>
       <c r="B104" s="17" t="s">
@@ -4929,11 +5019,12 @@
       <c r="H104" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I104" s="3" t="n"/>
+      <c r="J104" s="3" t="n"/>
+      <c r="K104" s="3" t="n"/>
+      <c r="L104" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="105">
       <c r="A105" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A104+1</f>
         <v>95</v>
       </c>
       <c r="B105" s="17" t="s">
@@ -4957,11 +5048,12 @@
       <c r="H105" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I105" s="3" t="n"/>
+      <c r="J105" s="3" t="n"/>
+      <c r="K105" s="3" t="n"/>
+      <c r="L105" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="106">
       <c r="A106" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A105+1</f>
         <v>96</v>
       </c>
       <c r="B106" s="17" t="s">
@@ -4985,11 +5077,12 @@
       <c r="H106" s="26" t="n">
         <v>32.8</v>
       </c>
-      <c r="I106" s="3" t="n"/>
+      <c r="J106" s="3" t="n"/>
+      <c r="K106" s="3" t="n"/>
+      <c r="L106" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="107">
       <c r="A107" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A106+1</f>
         <v>97</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -5013,11 +5106,12 @@
       <c r="H107" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I107" s="3" t="n"/>
+      <c r="J107" s="3" t="n"/>
+      <c r="K107" s="3" t="n"/>
+      <c r="L107" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="108">
       <c r="A108" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A107+1</f>
         <v>98</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -5041,11 +5135,12 @@
       <c r="H108" s="26" t="n">
         <v>22.7</v>
       </c>
-      <c r="I108" s="3" t="n"/>
+      <c r="J108" s="3" t="n"/>
+      <c r="K108" s="3" t="n"/>
+      <c r="L108" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="109">
       <c r="A109" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A108+1</f>
         <v>99</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -5069,11 +5164,12 @@
       <c r="H109" s="26" t="n">
         <v>9.35</v>
       </c>
-      <c r="I109" s="3" t="n"/>
+      <c r="J109" s="3" t="n"/>
+      <c r="K109" s="3" t="n"/>
+      <c r="L109" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="110">
       <c r="A110" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A109+1</f>
         <v>100</v>
       </c>
       <c r="B110" s="17" t="s">
@@ -5097,11 +5193,12 @@
       <c r="H110" s="26" t="n">
         <v>5.25</v>
       </c>
-      <c r="I110" s="3" t="n"/>
+      <c r="J110" s="3" t="n"/>
+      <c r="K110" s="3" t="n"/>
+      <c r="L110" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="111">
       <c r="A111" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A110+1</f>
         <v>101</v>
       </c>
       <c r="B111" s="17" t="s">
@@ -5125,11 +5222,12 @@
       <c r="H111" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I111" s="3" t="n"/>
+      <c r="J111" s="3" t="n"/>
+      <c r="K111" s="3" t="n"/>
+      <c r="L111" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="112">
       <c r="A112" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A111+1</f>
         <v>102</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -5153,11 +5251,12 @@
       <c r="H112" s="26" t="n">
         <v>23.65</v>
       </c>
-      <c r="I112" s="3" t="n"/>
+      <c r="J112" s="3" t="n"/>
+      <c r="K112" s="3" t="n"/>
+      <c r="L112" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="113">
       <c r="A113" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A112+1</f>
         <v>103</v>
       </c>
       <c r="B113" s="17" t="s">
@@ -5181,11 +5280,12 @@
       <c r="H113" s="26" t="n">
         <v>13.15</v>
       </c>
-      <c r="I113" s="3" t="n"/>
+      <c r="J113" s="3" t="n"/>
+      <c r="K113" s="3" t="n"/>
+      <c r="L113" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="114">
       <c r="A114" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A113+1</f>
         <v>104</v>
       </c>
       <c r="B114" s="17" t="s">
@@ -5203,24 +5303,25 @@
       <c r="F114" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G114" s="26" t="s">
-        <v>222</v>
+      <c r="G114" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="H114" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I114" s="3" t="n"/>
+      <c r="J114" s="3" t="n"/>
+      <c r="K114" s="3" t="n"/>
+      <c r="L114" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="115">
       <c r="A115" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A114+1</f>
         <v>105</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D115" s="25" t="n">
         <v>48</v>
@@ -5237,18 +5338,19 @@
       <c r="H115" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="n"/>
+      <c r="K115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="116">
       <c r="A116" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A115+1</f>
         <v>106</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D116" s="25" t="n">
         <v>46.1</v>
@@ -5265,18 +5367,19 @@
       <c r="H116" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I116" s="3" t="n"/>
+      <c r="J116" s="3" t="n"/>
+      <c r="K116" s="3" t="n"/>
+      <c r="L116" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="117">
       <c r="A117" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A116+1</f>
         <v>107</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D117" s="25" t="n">
         <v>48.9</v>
@@ -5293,18 +5396,19 @@
       <c r="H117" s="26" t="n">
         <v>7.15</v>
       </c>
-      <c r="I117" s="3" t="n"/>
+      <c r="J117" s="3" t="n"/>
+      <c r="K117" s="3" t="n"/>
+      <c r="L117" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="118">
       <c r="A118" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A117+1</f>
         <v>108</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D118" s="25" t="n">
         <v>52</v>
@@ -5321,18 +5425,19 @@
       <c r="H118" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I118" s="3" t="n"/>
+      <c r="J118" s="3" t="n"/>
+      <c r="K118" s="3" t="n"/>
+      <c r="L118" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="119">
       <c r="A119" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A118+1</f>
         <v>109</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D119" s="25" t="n">
         <v>57.7</v>
@@ -5349,18 +5454,19 @@
       <c r="H119" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I119" s="3" t="n"/>
+      <c r="J119" s="3" t="n"/>
+      <c r="K119" s="3" t="n"/>
+      <c r="L119" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="120">
       <c r="A120" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A119+1</f>
         <v>110</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D120" s="25" t="n">
         <v>67.55</v>
@@ -5377,18 +5483,19 @@
       <c r="H120" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I120" s="3" t="n"/>
+      <c r="J120" s="3" t="n"/>
+      <c r="K120" s="3" t="n"/>
+      <c r="L120" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="121">
       <c r="A121" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A120+1</f>
         <v>111</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>19</v>
@@ -5405,18 +5512,19 @@
       <c r="H121" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I121" s="3" t="n"/>
+      <c r="J121" s="3" t="n"/>
+      <c r="K121" s="3" t="n"/>
+      <c r="L121" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="122">
       <c r="A122" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A121+1</f>
         <v>112</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D122" s="25" t="n">
         <v>59.2</v>
@@ -5433,18 +5541,19 @@
       <c r="H122" s="26" t="n">
         <v>26.25</v>
       </c>
-      <c r="I122" s="3" t="n"/>
+      <c r="J122" s="3" t="n"/>
+      <c r="K122" s="3" t="n"/>
+      <c r="L122" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="123">
       <c r="A123" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A122+1</f>
         <v>113</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D123" s="25" t="n">
         <v>45.7</v>
@@ -5461,18 +5570,19 @@
       <c r="H123" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I123" s="3" t="n"/>
+      <c r="J123" s="3" t="n"/>
+      <c r="K123" s="3" t="n"/>
+      <c r="L123" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="124">
       <c r="A124" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A123+1</f>
         <v>114</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D124" s="25" t="n">
         <v>61.8</v>
@@ -5489,18 +5599,19 @@
       <c r="H124" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I124" s="3" t="n"/>
+      <c r="J124" s="3" t="n"/>
+      <c r="K124" s="3" t="n"/>
+      <c r="L124" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="125">
       <c r="A125" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A124+1</f>
         <v>115</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D125" s="25" t="n">
         <v>41.2</v>
@@ -5517,18 +5628,19 @@
       <c r="H125" s="26" t="n">
         <v>15.9</v>
       </c>
-      <c r="I125" s="3" t="n"/>
+      <c r="J125" s="3" t="n"/>
+      <c r="K125" s="3" t="n"/>
+      <c r="L125" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="126">
       <c r="A126" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A125+1</f>
         <v>116</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D126" s="25" t="n">
         <v>49.8</v>
@@ -5545,18 +5657,19 @@
       <c r="H126" s="26" t="n">
         <v>22.85</v>
       </c>
-      <c r="I126" s="3" t="n"/>
+      <c r="J126" s="3" t="n"/>
+      <c r="K126" s="3" t="n"/>
+      <c r="L126" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="127">
       <c r="A127" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A126+1</f>
         <v>117</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D127" s="25" t="n">
         <v>48.15</v>
@@ -5573,18 +5686,19 @@
       <c r="H127" s="26" t="n">
         <v>7.65</v>
       </c>
-      <c r="I127" s="3" t="n"/>
+      <c r="J127" s="3" t="n"/>
+      <c r="K127" s="3" t="n"/>
+      <c r="L127" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="128">
       <c r="A128" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A127+1</f>
         <v>118</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D128" s="25" t="n">
         <v>58.35</v>
@@ -5601,18 +5715,19 @@
       <c r="H128" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I128" s="3" t="n"/>
+      <c r="J128" s="3" t="n"/>
+      <c r="K128" s="3" t="n"/>
+      <c r="L128" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="129">
       <c r="A129" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A128+1</f>
         <v>119</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>19</v>
@@ -5629,18 +5744,19 @@
       <c r="H129" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I129" s="3" t="n"/>
+      <c r="J129" s="3" t="n"/>
+      <c r="K129" s="3" t="n"/>
+      <c r="L129" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="130">
       <c r="A130" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A129+1</f>
         <v>120</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>19</v>
@@ -5657,18 +5773,19 @@
       <c r="H130" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I130" s="3" t="n"/>
+      <c r="J130" s="3" t="n"/>
+      <c r="K130" s="3" t="n"/>
+      <c r="L130" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="131">
       <c r="A131" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A130+1</f>
         <v>121</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D131" s="25" t="n">
         <v>36.25</v>
@@ -5685,18 +5802,19 @@
       <c r="H131" s="26" t="n">
         <v>22.3</v>
       </c>
-      <c r="I131" s="3" t="n"/>
+      <c r="J131" s="3" t="n"/>
+      <c r="K131" s="3" t="n"/>
+      <c r="L131" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="132">
       <c r="A132" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A131+1</f>
         <v>122</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>19</v>
@@ -5713,18 +5831,19 @@
       <c r="H132" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I132" s="3" t="n"/>
+      <c r="J132" s="3" t="n"/>
+      <c r="K132" s="3" t="n"/>
+      <c r="L132" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="133">
       <c r="A133" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A132+1</f>
         <v>123</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D133" s="25" t="n">
         <v>43.15</v>
@@ -5741,18 +5860,19 @@
       <c r="H133" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I133" s="3" t="n"/>
+      <c r="J133" s="3" t="n"/>
+      <c r="K133" s="3" t="n"/>
+      <c r="L133" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="134">
       <c r="A134" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A133+1</f>
         <v>124</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D134" s="25" t="n">
         <v>53.2</v>
@@ -5769,18 +5889,19 @@
       <c r="H134" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I134" s="3" t="n"/>
+      <c r="J134" s="3" t="n"/>
+      <c r="K134" s="3" t="n"/>
+      <c r="L134" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="135">
       <c r="A135" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A134+1</f>
         <v>125</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>19</v>
@@ -5797,18 +5918,19 @@
       <c r="H135" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I135" s="3" t="n"/>
+      <c r="J135" s="3" t="n"/>
+      <c r="K135" s="3" t="n"/>
+      <c r="L135" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="136">
       <c r="A136" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A135+1</f>
         <v>126</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>19</v>
@@ -5819,24 +5941,25 @@
       <c r="F136" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G136" s="26" t="s">
-        <v>222</v>
+      <c r="G136" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="H136" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I136" s="3" t="n"/>
+      <c r="J136" s="3" t="n"/>
+      <c r="K136" s="3" t="n"/>
+      <c r="L136" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="137">
       <c r="A137" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A136+1</f>
         <v>127</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>19</v>
@@ -5853,18 +5976,19 @@
       <c r="H137" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I137" s="3" t="n"/>
+      <c r="J137" s="3" t="n"/>
+      <c r="K137" s="3" t="n"/>
+      <c r="L137" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="138">
       <c r="A138" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A137+1</f>
         <v>128</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D138" s="25" t="n">
         <v>60.55</v>
@@ -5881,24 +6005,25 @@
       <c r="H138" s="26" t="n">
         <v>23.7</v>
       </c>
-      <c r="I138" s="3" t="n"/>
+      <c r="J138" s="3" t="n"/>
+      <c r="K138" s="3" t="n"/>
+      <c r="L138" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="139">
       <c r="A139" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A138+1</f>
         <v>129</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="F139" s="26" t="n">
         <v>34.05</v>
@@ -5909,11 +6034,12 @@
       <c r="H139" s="26" t="n">
         <v>41.65</v>
       </c>
-      <c r="I139" s="3" t="n"/>
+      <c r="J139" s="3" t="n"/>
+      <c r="K139" s="3" t="n"/>
+      <c r="L139" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="140">
       <c r="A140" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A139+1</f>
         <v>130</v>
       </c>
       <c r="B140" s="17" t="s">
@@ -5937,11 +6063,12 @@
       <c r="H140" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I140" s="3" t="n"/>
+      <c r="J140" s="3" t="n"/>
+      <c r="K140" s="3" t="n"/>
+      <c r="L140" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="141">
       <c r="A141" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A140+1</f>
         <v>131</v>
       </c>
       <c r="B141" s="17" t="s">
@@ -5951,10 +6078,10 @@
         <v>277</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="F141" s="26" t="n">
         <v>45.4</v>
@@ -5965,11 +6092,12 @@
       <c r="H141" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I141" s="3" t="n"/>
+      <c r="J141" s="3" t="n"/>
+      <c r="K141" s="3" t="n"/>
+      <c r="L141" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="142">
       <c r="A142" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A141+1</f>
         <v>132</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -5993,11 +6121,12 @@
       <c r="H142" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I142" s="3" t="n"/>
+      <c r="J142" s="3" t="n"/>
+      <c r="K142" s="3" t="n"/>
+      <c r="L142" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
       <c r="A143" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A142+1</f>
         <v>133</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -6021,11 +6150,12 @@
       <c r="H143" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I143" s="3" t="n"/>
+      <c r="J143" s="3" t="n"/>
+      <c r="K143" s="3" t="n"/>
+      <c r="L143" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
       <c r="A144" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A143+1</f>
         <v>134</v>
       </c>
       <c r="B144" s="17" t="s">
@@ -6049,11 +6179,12 @@
       <c r="H144" s="26" t="n">
         <v>28.85</v>
       </c>
-      <c r="I144" s="3" t="n"/>
+      <c r="J144" s="3" t="n"/>
+      <c r="K144" s="3" t="n"/>
+      <c r="L144" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
       <c r="A145" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A144+1</f>
         <v>135</v>
       </c>
       <c r="B145" s="17" t="s">
@@ -6077,11 +6208,12 @@
       <c r="H145" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="I145" s="3" t="n"/>
+      <c r="J145" s="3" t="n"/>
+      <c r="K145" s="3" t="n"/>
+      <c r="L145" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
       <c r="A146" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A145+1</f>
         <v>136</v>
       </c>
       <c r="B146" s="17" t="s">
@@ -6105,11 +6237,12 @@
       <c r="H146" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I146" s="3" t="n"/>
+      <c r="J146" s="3" t="n"/>
+      <c r="K146" s="3" t="n"/>
+      <c r="L146" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
       <c r="A147" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A146+1</f>
         <v>137</v>
       </c>
       <c r="B147" s="17" t="s">
@@ -6133,23 +6266,25 @@
       <c r="H147" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I147" s="3" t="n"/>
+      <c r="J147" s="3" t="n"/>
+      <c r="K147" s="3" t="n"/>
+      <c r="L147" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
       <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="36" t="s">
+      <c r="B148" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="35" t="s">
         <v>291</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="F148" s="26" t="s">
         <v>222</v>
@@ -6160,11 +6295,12 @@
       <c r="H148" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I148" s="3" t="n"/>
+      <c r="J148" s="3" t="n"/>
+      <c r="K148" s="3" t="n"/>
+      <c r="L148" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
       <c r="A149" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A148+1</f>
         <v>139</v>
       </c>
       <c r="B149" s="17" t="s">
@@ -6188,11 +6324,12 @@
       <c r="H149" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I149" s="3" t="n"/>
+      <c r="J149" s="3" t="n"/>
+      <c r="K149" s="3" t="n"/>
+      <c r="L149" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
       <c r="A150" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A149+1</f>
         <v>140</v>
       </c>
       <c r="B150" s="17" t="s">
@@ -6216,11 +6353,12 @@
       <c r="H150" s="26" t="n">
         <v>16.1</v>
       </c>
-      <c r="I150" s="3" t="n"/>
+      <c r="J150" s="3" t="n"/>
+      <c r="K150" s="3" t="n"/>
+      <c r="L150" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
       <c r="A151" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A150+1</f>
         <v>141</v>
       </c>
       <c r="B151" s="17" t="s">
@@ -6244,11 +6382,12 @@
       <c r="H151" s="26" t="n">
         <v>15.25</v>
       </c>
-      <c r="I151" s="3" t="n"/>
+      <c r="J151" s="3" t="n"/>
+      <c r="K151" s="3" t="n"/>
+      <c r="L151" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
       <c r="A152" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A151+1</f>
         <v>142</v>
       </c>
       <c r="B152" s="17" t="s">
@@ -6266,17 +6405,18 @@
       <c r="F152" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G152" s="26" t="s">
+      <c r="G152" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I152" s="3" t="n"/>
+      <c r="J152" s="3" t="n"/>
+      <c r="K152" s="3" t="n"/>
+      <c r="L152" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
       <c r="A153" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A152+1</f>
         <v>143</v>
       </c>
       <c r="B153" s="17" t="s">
@@ -6300,11 +6440,12 @@
       <c r="H153" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I153" s="3" t="n"/>
+      <c r="J153" s="3" t="n"/>
+      <c r="K153" s="3" t="n"/>
+      <c r="L153" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
       <c r="A154" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A153+1</f>
         <v>144</v>
       </c>
       <c r="B154" s="17" t="s">
@@ -6328,11 +6469,12 @@
       <c r="H154" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I154" s="3" t="n"/>
+      <c r="J154" s="3" t="n"/>
+      <c r="K154" s="3" t="n"/>
+      <c r="L154" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
       <c r="A155" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A154+1</f>
         <v>145</v>
       </c>
       <c r="B155" s="17" t="s">
@@ -6356,11 +6498,12 @@
       <c r="H155" s="26" t="n">
         <v>31.85</v>
       </c>
-      <c r="I155" s="3" t="n"/>
+      <c r="J155" s="3" t="n"/>
+      <c r="K155" s="3" t="n"/>
+      <c r="L155" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
       <c r="A156" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A155+1</f>
         <v>146</v>
       </c>
       <c r="B156" s="17" t="s">
@@ -6384,11 +6527,12 @@
       <c r="H156" s="26" t="n">
         <v>25.9</v>
       </c>
-      <c r="I156" s="3" t="n"/>
+      <c r="J156" s="3" t="n"/>
+      <c r="K156" s="3" t="n"/>
+      <c r="L156" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
       <c r="A157" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A156+1</f>
         <v>147</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -6412,11 +6556,12 @@
       <c r="H157" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="I157" s="3" t="n"/>
+      <c r="J157" s="3" t="n"/>
+      <c r="K157" s="3" t="n"/>
+      <c r="L157" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
       <c r="A158" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A157+1</f>
         <v>148</v>
       </c>
       <c r="B158" s="17" t="s">
@@ -6440,11 +6585,12 @@
       <c r="H158" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I158" s="3" t="n"/>
+      <c r="J158" s="3" t="n"/>
+      <c r="K158" s="3" t="n"/>
+      <c r="L158" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
       <c r="A159" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A158+1</f>
         <v>149</v>
       </c>
       <c r="B159" s="17" t="s">
@@ -6468,11 +6614,12 @@
       <c r="H159" s="26" t="n">
         <v>8.2</v>
       </c>
-      <c r="I159" s="3" t="n"/>
+      <c r="J159" s="3" t="n"/>
+      <c r="K159" s="3" t="n"/>
+      <c r="L159" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
       <c r="A160" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A159+1</f>
         <v>150</v>
       </c>
       <c r="B160" s="17" t="s">
@@ -6496,17 +6643,18 @@
       <c r="H160" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I160" s="3" t="n"/>
+      <c r="J160" s="3" t="n"/>
+      <c r="K160" s="3" t="n"/>
+      <c r="L160" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
       <c r="A161" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A160+1</f>
         <v>151</v>
       </c>
       <c r="B161" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C161" s="33" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="25" t="n">
@@ -6524,11 +6672,12 @@
       <c r="H161" s="26" t="n">
         <v>1.75</v>
       </c>
-      <c r="I161" s="3" t="n"/>
+      <c r="J161" s="3" t="n"/>
+      <c r="K161" s="3" t="n"/>
+      <c r="L161" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
       <c r="A162" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A161+1</f>
         <v>152</v>
       </c>
       <c r="B162" s="17" t="s">
@@ -6552,11 +6701,12 @@
       <c r="H162" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I162" s="3" t="n"/>
+      <c r="J162" s="3" t="n"/>
+      <c r="K162" s="3" t="n"/>
+      <c r="L162" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
       <c r="A163" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A162+1</f>
         <v>153</v>
       </c>
       <c r="B163" s="17" t="s">
@@ -6580,11 +6730,12 @@
       <c r="H163" s="26" t="n">
         <v>10.55</v>
       </c>
-      <c r="I163" s="3" t="n"/>
+      <c r="J163" s="3" t="n"/>
+      <c r="K163" s="3" t="n"/>
+      <c r="L163" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
       <c r="A164" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A163+1</f>
         <v>154</v>
       </c>
       <c r="B164" s="17" t="s">
@@ -6608,11 +6759,12 @@
       <c r="H164" s="26" t="n">
         <v>21.8</v>
       </c>
-      <c r="I164" s="3" t="n"/>
+      <c r="J164" s="3" t="n"/>
+      <c r="K164" s="3" t="n"/>
+      <c r="L164" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
       <c r="A165" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A164+1</f>
         <v>155</v>
       </c>
       <c r="B165" s="17" t="s">
@@ -6636,11 +6788,12 @@
       <c r="H165" s="26" t="n">
         <v>26.85</v>
       </c>
-      <c r="I165" s="3" t="n"/>
+      <c r="J165" s="3" t="n"/>
+      <c r="K165" s="3" t="n"/>
+      <c r="L165" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
       <c r="A166" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A165+1</f>
         <v>156</v>
       </c>
       <c r="B166" s="17" t="s">
@@ -6649,26 +6802,27 @@
       <c r="C166" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="D166" s="33" t="n">
+      <c r="D166" s="30" t="n">
         <v>34.6</v>
       </c>
-      <c r="E166" s="33" t="n">
+      <c r="E166" s="30" t="n">
         <v>62.6</v>
       </c>
-      <c r="F166" s="33" t="n">
+      <c r="F166" s="30" t="n">
         <v>34.6</v>
       </c>
-      <c r="G166" s="33" t="n">
+      <c r="G166" s="30" t="n">
         <v>65.1</v>
       </c>
-      <c r="H166" s="33" t="n">
+      <c r="H166" s="30" t="n">
         <v>40.05</v>
       </c>
-      <c r="I166" s="3" t="n"/>
+      <c r="J166" s="3" t="n"/>
+      <c r="K166" s="3" t="n"/>
+      <c r="L166" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
       <c r="A167" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A166+1</f>
         <v>157</v>
       </c>
       <c r="B167" s="17" t="s">
@@ -6692,11 +6846,12 @@
       <c r="H167" s="26" t="n">
         <v>29.9</v>
       </c>
-      <c r="I167" s="3" t="n"/>
+      <c r="J167" s="3" t="n"/>
+      <c r="K167" s="3" t="n"/>
+      <c r="L167" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
       <c r="A168" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A167+1</f>
         <v>158</v>
       </c>
       <c r="B168" s="17" t="s">
@@ -6720,7 +6875,9 @@
       <c r="H168" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I168" s="3" t="n"/>
+      <c r="J168" s="3" t="n"/>
+      <c r="K168" s="3" t="n"/>
+      <c r="L168" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
       <c r="A169" s="17" t="n">
@@ -6747,11 +6904,12 @@
       <c r="H169" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I169" s="3" t="n"/>
+      <c r="J169" s="3" t="n"/>
+      <c r="K169" s="3" t="n"/>
+      <c r="L169" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
       <c r="A170" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A169+1</f>
         <v>159</v>
       </c>
       <c r="B170" s="17" t="s">
@@ -6775,11 +6933,12 @@
       <c r="H170" s="26" t="n">
         <v>11.05</v>
       </c>
-      <c r="I170" s="3" t="n"/>
+      <c r="J170" s="3" t="n"/>
+      <c r="K170" s="3" t="n"/>
+      <c r="L170" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
       <c r="A171" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A170+1</f>
         <v>160</v>
       </c>
       <c r="B171" s="17" t="s">
@@ -6803,11 +6962,12 @@
       <c r="H171" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I171" s="3" t="n"/>
+      <c r="J171" s="3" t="n"/>
+      <c r="K171" s="3" t="n"/>
+      <c r="L171" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
       <c r="A172" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A171+1</f>
         <v>161</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -6831,11 +6991,12 @@
       <c r="H172" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I172" s="3" t="n"/>
+      <c r="J172" s="3" t="n"/>
+      <c r="K172" s="3" t="n"/>
+      <c r="L172" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
       <c r="A173" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A172+1</f>
         <v>162</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -6859,17 +7020,18 @@
       <c r="H173" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I173" s="3" t="n"/>
+      <c r="J173" s="3" t="n"/>
+      <c r="K173" s="3" t="n"/>
+      <c r="L173" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15.75" outlineLevel="0" r="174">
       <c r="A174" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A173+1</f>
         <v>163</v>
       </c>
       <c r="B174" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C174" s="32" t="s">
+      <c r="C174" s="29" t="s">
         <v>343</v>
       </c>
       <c r="D174" s="25" t="s">
@@ -6887,11 +7049,12 @@
       <c r="H174" s="26" t="n">
         <v>27.9</v>
       </c>
-      <c r="I174" s="3" t="n"/>
+      <c r="J174" s="3" t="n"/>
+      <c r="K174" s="3" t="n"/>
+      <c r="L174" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
       <c r="A175" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A174+1</f>
         <v>164</v>
       </c>
       <c r="B175" s="17" t="s">
@@ -6915,11 +7078,12 @@
       <c r="H175" s="26" t="n">
         <v>29.9</v>
       </c>
-      <c r="I175" s="3" t="n"/>
+      <c r="J175" s="3" t="n"/>
+      <c r="K175" s="3" t="n"/>
+      <c r="L175" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
       <c r="A176" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A175+1</f>
         <v>165</v>
       </c>
       <c r="B176" s="17" t="s">
@@ -6943,11 +7107,12 @@
       <c r="H176" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I176" s="3" t="n"/>
+      <c r="J176" s="3" t="n"/>
+      <c r="K176" s="3" t="n"/>
+      <c r="L176" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
       <c r="A177" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A176+1</f>
         <v>166</v>
       </c>
       <c r="B177" s="17" t="s">
@@ -6971,11 +7136,12 @@
       <c r="H177" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I177" s="3" t="n"/>
+      <c r="J177" s="3" t="n"/>
+      <c r="K177" s="3" t="n"/>
+      <c r="L177" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
       <c r="A178" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A177+1</f>
         <v>167</v>
       </c>
       <c r="B178" s="17" t="s">
@@ -6999,11 +7165,12 @@
       <c r="H178" s="26" t="n">
         <v>15.9</v>
       </c>
-      <c r="I178" s="3" t="n"/>
+      <c r="J178" s="3" t="n"/>
+      <c r="K178" s="3" t="n"/>
+      <c r="L178" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
       <c r="A179" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A178+1</f>
         <v>168</v>
       </c>
       <c r="B179" s="17" t="s">
@@ -7021,17 +7188,18 @@
       <c r="F179" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G179" s="26" t="s">
+      <c r="G179" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H179" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I179" s="3" t="n"/>
+      <c r="J179" s="3" t="n"/>
+      <c r="K179" s="3" t="n"/>
+      <c r="L179" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
       <c r="A180" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A179+1</f>
         <v>169</v>
       </c>
       <c r="B180" s="17" t="s">
@@ -7055,11 +7223,12 @@
       <c r="H180" s="26" t="n">
         <v>7.3</v>
       </c>
-      <c r="I180" s="3" t="n"/>
+      <c r="J180" s="3" t="n"/>
+      <c r="K180" s="3" t="n"/>
+      <c r="L180" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
       <c r="A181" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A180+1</f>
         <v>170</v>
       </c>
       <c r="B181" s="17" t="s">
@@ -7083,11 +7252,12 @@
       <c r="H181" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I181" s="3" t="n"/>
+      <c r="J181" s="3" t="n"/>
+      <c r="K181" s="3" t="n"/>
+      <c r="L181" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
       <c r="A182" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A181+1</f>
         <v>171</v>
       </c>
       <c r="B182" s="17" t="s">
@@ -7096,26 +7266,27 @@
       <c r="C182" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D182" s="33" t="n">
+      <c r="D182" s="30" t="n">
         <v>33.7</v>
       </c>
-      <c r="E182" s="33" t="n">
+      <c r="E182" s="30" t="n">
         <v>52.9</v>
       </c>
-      <c r="F182" s="33" t="n">
+      <c r="F182" s="30" t="n">
         <v>33.7</v>
       </c>
-      <c r="G182" s="33" t="n">
+      <c r="G182" s="30" t="n">
         <v>62.9</v>
       </c>
-      <c r="H182" s="33" t="n">
+      <c r="H182" s="30" t="n">
         <v>41.65</v>
       </c>
-      <c r="I182" s="3" t="n"/>
+      <c r="J182" s="3" t="n"/>
+      <c r="K182" s="3" t="n"/>
+      <c r="L182" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
       <c r="A183" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A182+1</f>
         <v>172</v>
       </c>
       <c r="B183" s="17" t="s">
@@ -7139,11 +7310,12 @@
       <c r="H183" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I183" s="3" t="n"/>
+      <c r="J183" s="3" t="n"/>
+      <c r="K183" s="3" t="n"/>
+      <c r="L183" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
       <c r="A184" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A183+1</f>
         <v>173</v>
       </c>
       <c r="B184" s="17" t="s">
@@ -7167,11 +7339,12 @@
       <c r="H184" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I184" s="3" t="n"/>
+      <c r="J184" s="3" t="n"/>
+      <c r="K184" s="3" t="n"/>
+      <c r="L184" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
       <c r="A185" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A184+1</f>
         <v>174</v>
       </c>
       <c r="B185" s="17" t="s">
@@ -7195,11 +7368,12 @@
       <c r="H185" s="26" t="n">
         <v>22.9</v>
       </c>
-      <c r="I185" s="3" t="n"/>
+      <c r="J185" s="3" t="n"/>
+      <c r="K185" s="3" t="n"/>
+      <c r="L185" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
       <c r="A186" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A185+1</f>
         <v>175</v>
       </c>
       <c r="B186" s="17" t="s">
@@ -7223,11 +7397,12 @@
       <c r="H186" s="26" t="n">
         <v>23.65</v>
       </c>
-      <c r="I186" s="3" t="n"/>
+      <c r="J186" s="3" t="n"/>
+      <c r="K186" s="3" t="n"/>
+      <c r="L186" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
       <c r="A187" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A186+1</f>
         <v>176</v>
       </c>
       <c r="B187" s="17" t="s">
@@ -7251,11 +7426,12 @@
       <c r="H187" s="26" t="n">
         <v>13.55</v>
       </c>
-      <c r="I187" s="3" t="n"/>
+      <c r="J187" s="3" t="n"/>
+      <c r="K187" s="3" t="n"/>
+      <c r="L187" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
       <c r="A188" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A187+1</f>
         <v>177</v>
       </c>
       <c r="B188" s="17" t="s">
@@ -7279,11 +7455,12 @@
       <c r="H188" s="26" t="n">
         <v>24.75</v>
       </c>
-      <c r="I188" s="3" t="n"/>
+      <c r="J188" s="3" t="n"/>
+      <c r="K188" s="3" t="n"/>
+      <c r="L188" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
       <c r="A189" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A188+1</f>
         <v>178</v>
       </c>
       <c r="B189" s="17" t="s">
@@ -7307,11 +7484,12 @@
       <c r="H189" s="26" t="n">
         <v>9.35</v>
       </c>
-      <c r="I189" s="3" t="n"/>
+      <c r="J189" s="3" t="n"/>
+      <c r="K189" s="3" t="n"/>
+      <c r="L189" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
       <c r="A190" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A189+1</f>
         <v>179</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -7335,11 +7513,12 @@
       <c r="H190" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I190" s="3" t="n"/>
+      <c r="J190" s="3" t="n"/>
+      <c r="K190" s="3" t="n"/>
+      <c r="L190" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
       <c r="A191" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A190+1</f>
         <v>180</v>
       </c>
       <c r="B191" s="17" t="s">
@@ -7348,26 +7527,27 @@
       <c r="C191" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H191" s="33" t="n">
+      <c r="D191" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="30" t="n">
         <v>17.4</v>
       </c>
-      <c r="I191" s="3" t="n"/>
+      <c r="J191" s="3" t="n"/>
+      <c r="K191" s="3" t="n"/>
+      <c r="L191" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
       <c r="A192" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A191+1</f>
         <v>181</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -7376,26 +7556,27 @@
       <c r="C192" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D192" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="33" t="n">
+      <c r="D192" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="30" t="n">
         <v>33.6</v>
       </c>
-      <c r="G192" s="33" t="n">
+      <c r="G192" s="30" t="n">
         <v>69.55</v>
       </c>
-      <c r="H192" s="33" t="n">
+      <c r="H192" s="30" t="n">
         <v>41.65</v>
       </c>
-      <c r="I192" s="3" t="n"/>
+      <c r="J192" s="3" t="n"/>
+      <c r="K192" s="3" t="n"/>
+      <c r="L192" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
       <c r="A193" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A192+1</f>
         <v>182</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -7419,11 +7600,12 @@
       <c r="H193" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I193" s="3" t="n"/>
+      <c r="J193" s="3" t="n"/>
+      <c r="K193" s="3" t="n"/>
+      <c r="L193" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
       <c r="A194" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A193+1</f>
         <v>183</v>
       </c>
       <c r="B194" s="17" t="s">
@@ -7447,11 +7629,12 @@
       <c r="H194" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="I194" s="3" t="n"/>
+      <c r="J194" s="3" t="n"/>
+      <c r="K194" s="3" t="n"/>
+      <c r="L194" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
       <c r="A195" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A194+1</f>
         <v>184</v>
       </c>
       <c r="B195" s="17" t="s">
@@ -7475,17 +7658,18 @@
       <c r="H195" s="26" t="n">
         <v>30.45</v>
       </c>
-      <c r="I195" s="3" t="n"/>
+      <c r="J195" s="3" t="n"/>
+      <c r="K195" s="3" t="n"/>
+      <c r="L195" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
       <c r="A196" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A195+1</f>
         <v>185</v>
       </c>
-      <c r="B196" s="35" t="s">
+      <c r="B196" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="C196" s="37" t="s">
+      <c r="C196" s="35" t="s">
         <v>387</v>
       </c>
       <c r="D196" s="25" t="s">
@@ -7497,17 +7681,18 @@
       <c r="F196" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G196" s="26" t="s">
-        <v>222</v>
+      <c r="G196" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="H196" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I196" s="3" t="n"/>
+      <c r="J196" s="3" t="n"/>
+      <c r="K196" s="3" t="n"/>
+      <c r="L196" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
       <c r="A197" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A196+1</f>
         <v>186</v>
       </c>
       <c r="B197" s="17" t="s">
@@ -7531,11 +7716,12 @@
       <c r="H197" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="I197" s="3" t="n"/>
+      <c r="J197" s="3" t="n"/>
+      <c r="K197" s="3" t="n"/>
+      <c r="L197" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
       <c r="A198" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A197+1</f>
         <v>187</v>
       </c>
       <c r="B198" s="17" t="s">
@@ -7559,11 +7745,12 @@
       <c r="H198" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I198" s="3" t="n"/>
+      <c r="J198" s="3" t="n"/>
+      <c r="K198" s="3" t="n"/>
+      <c r="L198" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
       <c r="A199" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A198+1</f>
         <v>188</v>
       </c>
       <c r="B199" s="17" t="s">
@@ -7587,11 +7774,12 @@
       <c r="H199" s="26" t="n">
         <v>10.2</v>
       </c>
-      <c r="I199" s="3" t="n"/>
+      <c r="J199" s="3" t="n"/>
+      <c r="K199" s="3" t="n"/>
+      <c r="L199" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
       <c r="A200" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A199+1</f>
         <v>189</v>
       </c>
       <c r="B200" s="17" t="s">
@@ -7615,11 +7803,12 @@
       <c r="H200" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="I200" s="3" t="n"/>
+      <c r="J200" s="3" t="n"/>
+      <c r="K200" s="3" t="n"/>
+      <c r="L200" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
       <c r="A201" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A200+1</f>
         <v>190</v>
       </c>
       <c r="B201" s="17" t="s">
@@ -7643,11 +7832,12 @@
       <c r="H201" s="26" t="n">
         <v>19.95</v>
       </c>
-      <c r="I201" s="3" t="n"/>
+      <c r="J201" s="3" t="n"/>
+      <c r="K201" s="3" t="n"/>
+      <c r="L201" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
       <c r="A202" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A201+1</f>
         <v>191</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -7671,11 +7861,12 @@
       <c r="H202" s="26" t="n">
         <v>6.4</v>
       </c>
-      <c r="I202" s="3" t="n"/>
+      <c r="J202" s="3" t="n"/>
+      <c r="K202" s="3" t="n"/>
+      <c r="L202" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
       <c r="A203" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A202+1</f>
         <v>192</v>
       </c>
       <c r="B203" s="17" t="s">
@@ -7693,17 +7884,18 @@
       <c r="F203" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G203" s="26" t="s">
-        <v>222</v>
+      <c r="G203" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="H203" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="I203" s="3" t="n"/>
+      <c r="J203" s="3" t="n"/>
+      <c r="K203" s="3" t="n"/>
+      <c r="L203" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
       <c r="A204" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A203+1</f>
         <v>193</v>
       </c>
       <c r="B204" s="17" t="s">
@@ -7727,11 +7919,12 @@
       <c r="H204" s="26" t="n">
         <v>40.05</v>
       </c>
-      <c r="I204" s="3" t="n"/>
+      <c r="J204" s="3" t="n"/>
+      <c r="K204" s="3" t="n"/>
+      <c r="L204" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
       <c r="A205" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A204+1</f>
         <v>194</v>
       </c>
       <c r="B205" s="17" t="s">
@@ -7755,11 +7948,12 @@
       <c r="H205" s="26" t="n">
         <v>31.05</v>
       </c>
-      <c r="I205" s="3" t="n"/>
+      <c r="J205" s="3" t="n"/>
+      <c r="K205" s="3" t="n"/>
+      <c r="L205" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
       <c r="A206" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A205+1</f>
         <v>195</v>
       </c>
       <c r="B206" s="17" t="s">
@@ -7783,11 +7977,12 @@
       <c r="H206" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I206" s="3" t="n"/>
+      <c r="J206" s="3" t="n"/>
+      <c r="K206" s="3" t="n"/>
+      <c r="L206" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
       <c r="A207" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A206+1</f>
         <v>196</v>
       </c>
       <c r="B207" s="17" t="s">
@@ -7811,11 +8006,12 @@
       <c r="H207" s="24" t="n">
         <v>40.05</v>
       </c>
-      <c r="I207" s="3" t="n"/>
+      <c r="J207" s="3" t="n"/>
+      <c r="K207" s="3" t="n"/>
+      <c r="L207" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
       <c r="A208" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A207+1</f>
         <v>197</v>
       </c>
       <c r="B208" s="17" t="s">
@@ -7839,11 +8035,12 @@
       <c r="H208" s="26" t="n">
         <v>14.85</v>
       </c>
-      <c r="I208" s="3" t="n"/>
+      <c r="J208" s="3" t="n"/>
+      <c r="K208" s="3" t="n"/>
+      <c r="L208" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
       <c r="A209" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A208+1</f>
         <v>198</v>
       </c>
       <c r="B209" s="17" t="s">
@@ -7852,26 +8049,27 @@
       <c r="C209" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="D209" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G209" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="H209" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="I209" s="3" t="n"/>
+      <c r="D209" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E209" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F209" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G209" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H209" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J209" s="3" t="n"/>
+      <c r="K209" s="3" t="n"/>
+      <c r="L209" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
       <c r="A210" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A209+1</f>
         <v>199</v>
       </c>
       <c r="B210" s="17" t="s">
@@ -7880,26 +8078,27 @@
       <c r="C210" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="33" t="n">
+      <c r="D210" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="30" t="n">
         <v>39.55</v>
       </c>
-      <c r="G210" s="33" t="n">
+      <c r="G210" s="30" t="n">
         <v>51.9</v>
       </c>
-      <c r="H210" s="33" t="n">
+      <c r="H210" s="30" t="n">
         <v>8.2</v>
       </c>
-      <c r="I210" s="3" t="n"/>
+      <c r="J210" s="3" t="n"/>
+      <c r="K210" s="3" t="n"/>
+      <c r="L210" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
       <c r="A211" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A210+1</f>
         <v>200</v>
       </c>
       <c r="B211" s="17" t="s">
@@ -7923,11 +8122,12 @@
       <c r="H211" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I211" s="3" t="n"/>
+      <c r="J211" s="3" t="n"/>
+      <c r="K211" s="3" t="n"/>
+      <c r="L211" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
       <c r="A212" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A211+1</f>
         <v>201</v>
       </c>
       <c r="B212" s="17" t="s">
@@ -7951,11 +8151,12 @@
       <c r="H212" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I212" s="3" t="n"/>
+      <c r="J212" s="3" t="n"/>
+      <c r="K212" s="3" t="n"/>
+      <c r="L212" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
       <c r="A213" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A212+1</f>
         <v>202</v>
       </c>
       <c r="B213" s="17" t="s">
@@ -7979,11 +8180,12 @@
       <c r="H213" s="26" t="n">
         <v>33.6</v>
       </c>
-      <c r="I213" s="3" t="n"/>
+      <c r="J213" s="3" t="n"/>
+      <c r="K213" s="3" t="n"/>
+      <c r="L213" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
       <c r="A214" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A213+1</f>
         <v>203</v>
       </c>
       <c r="B214" s="17" t="s">
@@ -8007,11 +8209,12 @@
       <c r="H214" s="26" t="n">
         <v>7.9</v>
       </c>
-      <c r="I214" s="3" t="n"/>
+      <c r="J214" s="3" t="n"/>
+      <c r="K214" s="3" t="n"/>
+      <c r="L214" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
       <c r="A215" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A214+1</f>
         <v>204</v>
       </c>
       <c r="B215" s="17" t="s">
@@ -8035,11 +8238,12 @@
       <c r="H215" s="26" t="n">
         <v>29.15</v>
       </c>
-      <c r="I215" s="3" t="n"/>
+      <c r="J215" s="3" t="n"/>
+      <c r="K215" s="3" t="n"/>
+      <c r="L215" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
       <c r="A216" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A215+1</f>
         <v>205</v>
       </c>
       <c r="B216" s="17" t="s">
@@ -8063,11 +8267,12 @@
       <c r="H216" s="26" t="n">
         <v>27.4</v>
       </c>
-      <c r="I216" s="3" t="n"/>
+      <c r="J216" s="3" t="n"/>
+      <c r="K216" s="3" t="n"/>
+      <c r="L216" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
       <c r="A217" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A216+1</f>
         <v>206</v>
       </c>
       <c r="B217" s="17" t="s">
@@ -8091,11 +8296,12 @@
       <c r="H217" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I217" s="3" t="n"/>
+      <c r="J217" s="3" t="n"/>
+      <c r="K217" s="3" t="n"/>
+      <c r="L217" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="218">
       <c r="A218" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A217+1</f>
         <v>207</v>
       </c>
       <c r="B218" s="17" t="s">
@@ -8119,11 +8325,12 @@
       <c r="H218" s="26" t="n">
         <v>7.55</v>
       </c>
-      <c r="I218" s="3" t="n"/>
+      <c r="J218" s="3" t="n"/>
+      <c r="K218" s="3" t="n"/>
+      <c r="L218" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="219">
       <c r="A219" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A218+1</f>
         <v>208</v>
       </c>
       <c r="B219" s="17" t="s">
@@ -8147,11 +8354,12 @@
       <c r="H219" s="26" t="n">
         <v>24.85</v>
       </c>
-      <c r="I219" s="3" t="n"/>
+      <c r="J219" s="3" t="n"/>
+      <c r="K219" s="3" t="n"/>
+      <c r="L219" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="220">
       <c r="A220" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A219+1</f>
         <v>209</v>
       </c>
       <c r="B220" s="17" t="s">
@@ -8175,11 +8383,12 @@
       <c r="H220" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I220" s="3" t="n"/>
+      <c r="J220" s="3" t="n"/>
+      <c r="K220" s="3" t="n"/>
+      <c r="L220" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="221">
       <c r="A221" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A220+1</f>
         <v>210</v>
       </c>
       <c r="B221" s="17" t="s">
@@ -8203,11 +8412,12 @@
       <c r="H221" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I221" s="3" t="n"/>
+      <c r="J221" s="3" t="n"/>
+      <c r="K221" s="3" t="n"/>
+      <c r="L221" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="222">
       <c r="A222" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A221+1</f>
         <v>211</v>
       </c>
       <c r="B222" s="17" t="s">
@@ -8231,11 +8441,12 @@
       <c r="H222" s="26" t="n">
         <v>8.5</v>
       </c>
-      <c r="I222" s="3" t="n"/>
+      <c r="J222" s="3" t="n"/>
+      <c r="K222" s="3" t="n"/>
+      <c r="L222" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="223">
       <c r="A223" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A222+1</f>
         <v>212</v>
       </c>
       <c r="B223" s="17" t="s">
@@ -8259,11 +8470,12 @@
       <c r="H223" s="26" t="n">
         <v>29.05</v>
       </c>
-      <c r="I223" s="3" t="n"/>
+      <c r="J223" s="3" t="n"/>
+      <c r="K223" s="3" t="n"/>
+      <c r="L223" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="224">
       <c r="A224" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A223+1</f>
         <v>213</v>
       </c>
       <c r="B224" s="17" t="s">
@@ -8287,11 +8499,12 @@
       <c r="H224" s="26" t="n">
         <v>6.7</v>
       </c>
-      <c r="I224" s="3" t="n"/>
+      <c r="J224" s="3" t="n"/>
+      <c r="K224" s="3" t="n"/>
+      <c r="L224" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="225">
       <c r="A225" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A224+1</f>
         <v>214</v>
       </c>
       <c r="B225" s="17" t="s">
@@ -8315,11 +8528,12 @@
       <c r="H225" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I225" s="3" t="n"/>
+      <c r="J225" s="3" t="n"/>
+      <c r="K225" s="3" t="n"/>
+      <c r="L225" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="226">
       <c r="A226" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A225+1</f>
         <v>215</v>
       </c>
       <c r="B226" s="17" t="s">
@@ -8343,11 +8557,12 @@
       <c r="H226" s="26" t="n">
         <v>6.3</v>
       </c>
-      <c r="I226" s="3" t="n"/>
+      <c r="J226" s="3" t="n"/>
+      <c r="K226" s="3" t="n"/>
+      <c r="L226" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="227">
       <c r="A227" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A226+1</f>
         <v>216</v>
       </c>
       <c r="B227" s="17" t="s">
@@ -8371,11 +8586,12 @@
       <c r="H227" s="26" t="n">
         <v>6.8</v>
       </c>
-      <c r="I227" s="3" t="n"/>
+      <c r="J227" s="3" t="n"/>
+      <c r="K227" s="3" t="n"/>
+      <c r="L227" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="228">
       <c r="A228" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A227+1</f>
         <v>217</v>
       </c>
       <c r="B228" s="17" t="s">
@@ -8399,11 +8615,12 @@
       <c r="H228" s="26" t="n">
         <v>23.75</v>
       </c>
-      <c r="I228" s="3" t="n"/>
+      <c r="J228" s="3" t="n"/>
+      <c r="K228" s="3" t="n"/>
+      <c r="L228" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="229">
       <c r="A229" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A228+1</f>
         <v>218</v>
       </c>
       <c r="B229" s="17" t="s">
@@ -8427,11 +8644,12 @@
       <c r="H229" s="24" t="n">
         <v>6.8</v>
       </c>
-      <c r="I229" s="3" t="n"/>
+      <c r="J229" s="3" t="n"/>
+      <c r="K229" s="3" t="n"/>
+      <c r="L229" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="230">
       <c r="A230" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A229+1</f>
         <v>219</v>
       </c>
       <c r="B230" s="17" t="s">
@@ -8455,11 +8673,12 @@
       <c r="H230" s="26" t="n">
         <v>29.05</v>
       </c>
-      <c r="I230" s="3" t="n"/>
+      <c r="J230" s="3" t="n"/>
+      <c r="K230" s="3" t="n"/>
+      <c r="L230" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="231">
       <c r="A231" s="17" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A230+1</f>
         <v>220</v>
       </c>
       <c r="B231" s="17" t="s">
@@ -8483,13 +8702,14 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="38" t="s">
+      <c r="I231" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="J231" s="39" t="n"/>
-      <c r="K231" s="40" t="s">
+      <c r="J231" s="38" t="n"/>
+      <c r="K231" s="39" t="s">
         <v>459</v>
       </c>
+      <c r="L231" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8539,7 +8759,7 @@
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -8551,40 +8771,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="43" t="s"/>
+      <c r="C2" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="45" t="s"/>
+      <c r="C3" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="45" t="s"/>
+      <c r="C4" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="46" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8593,109 +8813,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="47" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="49" t="n"/>
+      <c r="D6" s="48" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="43" t="s"/>
-      <c r="D7" s="49" t="n"/>
+      <c r="C7" s="42" t="s"/>
+      <c r="D7" s="48" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="43" t="s"/>
-      <c r="D8" s="49" t="n"/>
+      <c r="C8" s="42" t="s"/>
+      <c r="D8" s="48" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="30" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="49" t="n"/>
+      <c r="D9" s="48" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="45" t="s"/>
-      <c r="D10" s="49" t="n"/>
+      <c r="C10" s="44" t="s"/>
+      <c r="D10" s="48" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="51" t="n">
+      <c r="C11" s="50" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="52" t="n"/>
+      <c r="D11" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="45" t="s"/>
-      <c r="D12" s="53" t="n"/>
+      <c r="C12" s="44" t="s"/>
+      <c r="D12" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="45" t="s"/>
-      <c r="D13" s="53" t="n"/>
+      <c r="C13" s="44" t="s"/>
+      <c r="D13" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="54" t="n"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="53" t="n"/>
+      <c r="B14" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="56" t="s"/>
-      <c r="D14" s="53" t="n"/>
+      <c r="C14" s="55" t="s"/>
+      <c r="D14" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="45" t="s"/>
+      <c r="C15" s="44" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -1790,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1877,17 +1877,11 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -4433,7 +4427,7 @@
       <c r="F84" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H84" s="26" t="s">
@@ -4462,7 +4456,7 @@
       <c r="F85" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G85" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H85" s="26" t="s">
@@ -4650,7 +4644,7 @@
       <c r="A92" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="22" t="s">
@@ -5303,7 +5297,7 @@
       <c r="F114" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G114" s="26" t="s">
         <v>223</v>
       </c>
       <c r="H114" s="26" t="s">
@@ -5941,7 +5935,7 @@
       <c r="F136" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G136" s="32" t="s">
+      <c r="G136" s="26" t="s">
         <v>223</v>
       </c>
       <c r="H136" s="26" t="s">
@@ -6274,10 +6268,10 @@
       <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="34" t="s">
         <v>291</v>
       </c>
       <c r="D148" s="25" t="s">
@@ -6405,7 +6399,7 @@
       <c r="F152" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G152" s="32" t="s">
+      <c r="G152" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="26" t="s">
@@ -6654,7 +6648,7 @@
       <c r="B161" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="32" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="25" t="n">
@@ -7188,7 +7182,7 @@
       <c r="F179" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G179" s="32" t="s">
+      <c r="G179" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H179" s="26" t="s">
@@ -7666,10 +7660,10 @@
       <c r="A196" s="17" t="n">
         <v>185</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="C196" s="35" t="s">
+      <c r="C196" s="34" t="s">
         <v>387</v>
       </c>
       <c r="D196" s="25" t="s">
@@ -7681,7 +7675,7 @@
       <c r="F196" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G196" s="32" t="s">
+      <c r="G196" s="26" t="s">
         <v>223</v>
       </c>
       <c r="H196" s="26" t="s">
@@ -7884,7 +7878,7 @@
       <c r="F203" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G203" s="32" t="s">
+      <c r="G203" s="26" t="s">
         <v>223</v>
       </c>
       <c r="H203" s="26" t="s">
@@ -8049,19 +8043,19 @@
       <c r="C209" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="D209" s="36" t="s">
+      <c r="D209" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E209" s="32" t="s">
+      <c r="E209" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F209" s="32" t="s">
+      <c r="F209" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G209" s="32" t="s">
+      <c r="G209" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="H209" s="32" t="s">
+      <c r="H209" s="26" t="s">
         <v>223</v>
       </c>
       <c r="J209" s="3" t="n"/>
@@ -8702,11 +8696,11 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="37" t="s">
+      <c r="I231" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="J231" s="38" t="n"/>
-      <c r="K231" s="39" t="s">
+      <c r="J231" s="36" t="n"/>
+      <c r="K231" s="37" t="s">
         <v>459</v>
       </c>
       <c r="L231" s="3" t="n"/>
@@ -8759,7 +8753,7 @@
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -8771,40 +8765,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="42" t="s"/>
+      <c r="C2" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="44" t="s"/>
+      <c r="C3" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="44" t="s"/>
+      <c r="C4" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="46" t="n">
+      <c r="C5" s="44" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8813,109 +8807,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="45" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="48" t="n"/>
+      <c r="D6" s="46" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="42" t="s"/>
-      <c r="D7" s="48" t="n"/>
+      <c r="C7" s="40" t="s"/>
+      <c r="D7" s="46" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="42" t="s"/>
-      <c r="D8" s="48" t="n"/>
+      <c r="C8" s="40" t="s"/>
+      <c r="D8" s="46" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>470</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="48" t="n"/>
+      <c r="D9" s="46" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="44" t="s"/>
-      <c r="D10" s="48" t="n"/>
+      <c r="C10" s="42" t="s"/>
+      <c r="D10" s="46" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="50" t="n">
+      <c r="C11" s="48" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="51" t="n"/>
+      <c r="D11" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="44" t="s"/>
-      <c r="D12" s="52" t="n"/>
+      <c r="C12" s="42" t="s"/>
+      <c r="D12" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="44" t="s"/>
-      <c r="D13" s="52" t="n"/>
+      <c r="C13" s="42" t="s"/>
+      <c r="D13" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="53" t="n"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="51" t="n"/>
+      <c r="B14" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="55" t="s"/>
-      <c r="D14" s="52" t="n"/>
+      <c r="C14" s="53" t="s"/>
+      <c r="D14" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="44" t="s"/>
+      <c r="C15" s="42" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -1790,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1868,6 +1868,15 @@
     </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
@@ -2385,22 +2394,22 @@
       <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="30" t="n">
         <v>53</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="31" t="n">
         <v>14.8</v>
       </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="31" t="n">
         <v>53</v>
       </c>
-      <c r="G14" s="26" t="n">
+      <c r="G14" s="31" t="n">
         <v>16.3</v>
       </c>
-      <c r="H14" s="26" t="n">
+      <c r="H14" s="31" t="n">
         <v>4.65</v>
       </c>
       <c r="J14" s="3" t="n"/>
@@ -2907,7 +2916,7 @@
       <c r="B32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -3084,19 +3093,19 @@
       <c r="C38" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="30" t="n">
+      <c r="D38" s="33" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="30" t="n">
+      <c r="E38" s="33" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="30" t="n">
+      <c r="F38" s="33" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="30" t="n">
+      <c r="G38" s="33" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="30" t="n">
+      <c r="H38" s="33" t="n">
         <v>22.9</v>
       </c>
       <c r="J38" s="3" t="n"/>
@@ -3177,13 +3186,13 @@
       <c r="E41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="30" t="n">
+      <c r="F41" s="33" t="n">
         <v>50.65</v>
       </c>
-      <c r="G41" s="30" t="n">
+      <c r="G41" s="33" t="n">
         <v>16.6</v>
       </c>
-      <c r="H41" s="30" t="n">
+      <c r="H41" s="33" t="n">
         <v>6.8</v>
       </c>
       <c r="J41" s="3" t="n"/>
@@ -3255,7 +3264,7 @@
       <c r="B44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="25" t="n">
@@ -3838,19 +3847,19 @@
       <c r="C64" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="30" t="n">
+      <c r="D64" s="33" t="n">
         <v>38.55</v>
       </c>
-      <c r="E64" s="30" t="n">
+      <c r="E64" s="33" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="30" t="n">
+      <c r="F64" s="33" t="n">
         <v>39.05</v>
       </c>
-      <c r="G64" s="30" t="n">
+      <c r="G64" s="33" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="30" t="n">
+      <c r="H64" s="33" t="n">
         <v>6.7</v>
       </c>
       <c r="J64" s="3" t="n"/>
@@ -4009,7 +4018,7 @@
       <c r="B70" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="32" t="s">
         <v>133</v>
       </c>
       <c r="D70" s="25" t="s">
@@ -4534,19 +4543,19 @@
       <c r="C88" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="30" t="n">
+      <c r="D88" s="33" t="n">
         <v>51.8</v>
       </c>
-      <c r="E88" s="30" t="n">
+      <c r="E88" s="33" t="n">
         <v>33.15</v>
       </c>
-      <c r="F88" s="30" t="n">
+      <c r="F88" s="33" t="n">
         <v>56.3</v>
       </c>
-      <c r="G88" s="30" t="n">
+      <c r="G88" s="33" t="n">
         <v>35</v>
       </c>
-      <c r="H88" s="30" t="n">
+      <c r="H88" s="33" t="n">
         <v>27.9</v>
       </c>
       <c r="J88" s="3" t="n"/>
@@ -4644,7 +4653,7 @@
       <c r="A92" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="22" t="s">
@@ -6268,10 +6277,10 @@
       <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="C148" s="34" t="s">
+      <c r="C148" s="37" t="s">
         <v>291</v>
       </c>
       <c r="D148" s="25" t="s">
@@ -6648,7 +6657,7 @@
       <c r="B161" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="32" t="s">
+      <c r="C161" s="35" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="25" t="n">
@@ -6796,19 +6805,19 @@
       <c r="C166" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="D166" s="30" t="n">
+      <c r="D166" s="33" t="n">
         <v>34.6</v>
       </c>
-      <c r="E166" s="30" t="n">
+      <c r="E166" s="33" t="n">
         <v>62.6</v>
       </c>
-      <c r="F166" s="30" t="n">
+      <c r="F166" s="33" t="n">
         <v>34.6</v>
       </c>
-      <c r="G166" s="30" t="n">
+      <c r="G166" s="33" t="n">
         <v>65.1</v>
       </c>
-      <c r="H166" s="30" t="n">
+      <c r="H166" s="33" t="n">
         <v>40.05</v>
       </c>
       <c r="J166" s="3" t="n"/>
@@ -7025,7 +7034,7 @@
       <c r="B174" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="32" t="s">
         <v>343</v>
       </c>
       <c r="D174" s="25" t="s">
@@ -7260,19 +7269,19 @@
       <c r="C182" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D182" s="30" t="n">
+      <c r="D182" s="33" t="n">
         <v>33.7</v>
       </c>
-      <c r="E182" s="30" t="n">
+      <c r="E182" s="33" t="n">
         <v>52.9</v>
       </c>
-      <c r="F182" s="30" t="n">
+      <c r="F182" s="33" t="n">
         <v>33.7</v>
       </c>
-      <c r="G182" s="30" t="n">
+      <c r="G182" s="33" t="n">
         <v>62.9</v>
       </c>
-      <c r="H182" s="30" t="n">
+      <c r="H182" s="33" t="n">
         <v>41.65</v>
       </c>
       <c r="J182" s="3" t="n"/>
@@ -7521,19 +7530,19 @@
       <c r="C191" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D191" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H191" s="30" t="n">
+      <c r="D191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="33" t="n">
         <v>17.4</v>
       </c>
       <c r="J191" s="3" t="n"/>
@@ -7550,19 +7559,19 @@
       <c r="C192" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D192" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="30" t="n">
+      <c r="D192" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="33" t="n">
         <v>33.6</v>
       </c>
-      <c r="G192" s="30" t="n">
+      <c r="G192" s="33" t="n">
         <v>69.55</v>
       </c>
-      <c r="H192" s="30" t="n">
+      <c r="H192" s="33" t="n">
         <v>41.65</v>
       </c>
       <c r="J192" s="3" t="n"/>
@@ -7660,10 +7669,10 @@
       <c r="A196" s="17" t="n">
         <v>185</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="C196" s="34" t="s">
+      <c r="C196" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D196" s="25" t="s">
@@ -8072,19 +8081,19 @@
       <c r="C210" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="30" t="n">
+      <c r="D210" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="33" t="n">
         <v>39.55</v>
       </c>
-      <c r="G210" s="30" t="n">
+      <c r="G210" s="33" t="n">
         <v>51.9</v>
       </c>
-      <c r="H210" s="30" t="n">
+      <c r="H210" s="33" t="n">
         <v>8.2</v>
       </c>
       <c r="J210" s="3" t="n"/>
@@ -8696,11 +8705,11 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="35" t="s">
+      <c r="I231" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J231" s="36" t="n"/>
-      <c r="K231" s="37" t="s">
+      <c r="J231" s="39" t="n"/>
+      <c r="K231" s="40" t="s">
         <v>459</v>
       </c>
       <c r="L231" s="3" t="n"/>
@@ -8753,7 +8762,7 @@
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -8765,40 +8774,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="40" t="s"/>
+      <c r="C2" s="43" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="42" t="s"/>
+      <c r="C3" s="45" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="42" t="s"/>
+      <c r="C4" s="45" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="47" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8807,109 +8816,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="48" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="46" t="n"/>
+      <c r="D6" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="40" t="s"/>
-      <c r="D7" s="46" t="n"/>
+      <c r="C7" s="43" t="s"/>
+      <c r="D7" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="40" t="s"/>
-      <c r="D8" s="46" t="n"/>
+      <c r="C8" s="43" t="s"/>
+      <c r="D8" s="49" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="33" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="46" t="n"/>
+      <c r="D9" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="42" t="s"/>
-      <c r="D10" s="46" t="n"/>
+      <c r="C10" s="45" t="s"/>
+      <c r="D10" s="49" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="48" t="n">
+      <c r="C11" s="51" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="49" t="n"/>
+      <c r="D11" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="42" t="s"/>
-      <c r="D12" s="50" t="n"/>
+      <c r="C12" s="45" t="s"/>
+      <c r="D12" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="42" t="s"/>
-      <c r="D13" s="50" t="n"/>
+      <c r="C13" s="45" t="s"/>
+      <c r="D13" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="51" t="n"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="54" t="n"/>
+      <c r="B14" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="53" t="s"/>
-      <c r="D14" s="50" t="n"/>
+      <c r="C14" s="56" t="s"/>
+      <c r="D14" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="42" t="s"/>
+      <c r="C15" s="45" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -1569,11 +1569,13 @@
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.000000;-0.000000" formatCode="0.000000;-0.000000" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.0000000;-0.0000000" formatCode="0.0000000;-0.0000000" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.000000;-0.000000" formatCode="0.000000;-0.000000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.0000000000;-0.0000000000" formatCode="0.0000000000;-0.0000000000" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1009"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1604,7 +1606,7 @@
     </font>
     <font>
       <name val="Arial Cyr"/>
-      <b val="true"/>
+      <b val="false"/>
       <color rgb="FB290D" tint="0"/>
       <sz val="12"/>
     </font>
@@ -1790,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1868,15 +1870,14 @@
     </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="3" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
@@ -1891,7 +1892,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
@@ -1918,13 +1919,13 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1933,10 +1934,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1009" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -2353,10 +2354,13 @@
       <c r="H12" s="26" t="n">
         <v>7.35</v>
       </c>
-      <c r="I12" s="27" t="n"/>
+      <c r="I12" s="27" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12*1.05+D12</f>
+        <v>59.685</v>
+      </c>
       <c r="J12" s="3" t="n"/>
-      <c r="K12" s="27" t="n"/>
-      <c r="L12" s="28" t="n"/>
+      <c r="K12" s="28" t="n"/>
+      <c r="L12" s="29" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
@@ -2383,8 +2387,12 @@
       <c r="H13" s="26" t="n">
         <v>4.65</v>
       </c>
+      <c r="I13" s="27" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(I12+5.85+1.25*0.03, 2)</f>
+        <v>65.57000000000001</v>
+      </c>
       <c r="J13" s="3" t="n"/>
-      <c r="K13" s="28" t="n"/>
+      <c r="K13" s="29" t="n"/>
       <c r="L13" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
@@ -2394,7 +2402,7 @@
       <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="30" t="n">
@@ -2412,7 +2420,13 @@
       <c r="H14" s="31" t="n">
         <v>4.65</v>
       </c>
-      <c r="J14" s="3" t="n"/>
+      <c r="I14" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13*0.2</f>
+        <v>13.114000000000003</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>13.11</v>
+      </c>
       <c r="K14" s="3" t="n"/>
       <c r="L14" s="3" t="n"/>
     </row>
@@ -2441,7 +2455,14 @@
       <c r="H15" s="26" t="n">
         <v>4.65</v>
       </c>
-      <c r="J15" s="3" t="n"/>
+      <c r="I15" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13+I14</f>
+        <v>78.68400000000001</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13+J14</f>
+        <v>78.68</v>
+      </c>
       <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="n"/>
     </row>
@@ -2470,6 +2491,10 @@
       <c r="H16" s="26" t="n">
         <v>6.7</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.03*1.25</f>
+        <v>0.0375</v>
+      </c>
       <c r="J16" s="3" t="n"/>
       <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
@@ -2499,6 +2524,10 @@
       <c r="H17" s="26" t="n">
         <v>7.35</v>
       </c>
+      <c r="I17" s="32" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16*1.2</f>
+        <v>0.045</v>
+      </c>
       <c r="J17" s="3" t="n"/>
       <c r="K17" s="3" t="n"/>
       <c r="L17" s="3" t="n"/>
@@ -2916,7 +2945,7 @@
       <c r="B32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -3093,19 +3122,19 @@
       <c r="C38" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="33" t="n">
+      <c r="D38" s="34" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="33" t="n">
+      <c r="E38" s="34" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="33" t="n">
+      <c r="F38" s="34" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="33" t="n">
+      <c r="G38" s="34" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="33" t="n">
+      <c r="H38" s="34" t="n">
         <v>22.9</v>
       </c>
       <c r="J38" s="3" t="n"/>
@@ -3186,13 +3215,13 @@
       <c r="E41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="33" t="n">
+      <c r="F41" s="34" t="n">
         <v>50.65</v>
       </c>
-      <c r="G41" s="33" t="n">
+      <c r="G41" s="34" t="n">
         <v>16.6</v>
       </c>
-      <c r="H41" s="33" t="n">
+      <c r="H41" s="34" t="n">
         <v>6.8</v>
       </c>
       <c r="J41" s="3" t="n"/>
@@ -3264,7 +3293,7 @@
       <c r="B44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="25" t="n">
@@ -3847,19 +3876,19 @@
       <c r="C64" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="33" t="n">
+      <c r="D64" s="34" t="n">
         <v>38.55</v>
       </c>
-      <c r="E64" s="33" t="n">
+      <c r="E64" s="34" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="33" t="n">
+      <c r="F64" s="34" t="n">
         <v>39.05</v>
       </c>
-      <c r="G64" s="33" t="n">
+      <c r="G64" s="34" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="33" t="n">
+      <c r="H64" s="34" t="n">
         <v>6.7</v>
       </c>
       <c r="J64" s="3" t="n"/>
@@ -4018,7 +4047,7 @@
       <c r="B70" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D70" s="25" t="s">
@@ -4543,19 +4572,19 @@
       <c r="C88" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="33" t="n">
+      <c r="D88" s="34" t="n">
         <v>51.8</v>
       </c>
-      <c r="E88" s="33" t="n">
+      <c r="E88" s="34" t="n">
         <v>33.15</v>
       </c>
-      <c r="F88" s="33" t="n">
+      <c r="F88" s="34" t="n">
         <v>56.3</v>
       </c>
-      <c r="G88" s="33" t="n">
+      <c r="G88" s="34" t="n">
         <v>35</v>
       </c>
-      <c r="H88" s="33" t="n">
+      <c r="H88" s="34" t="n">
         <v>27.9</v>
       </c>
       <c r="J88" s="3" t="n"/>
@@ -4653,7 +4682,7 @@
       <c r="A92" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="36" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="22" t="s">
@@ -6277,10 +6306,10 @@
       <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="36" t="s">
+      <c r="B148" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="38" t="s">
         <v>291</v>
       </c>
       <c r="D148" s="25" t="s">
@@ -6657,7 +6686,7 @@
       <c r="B161" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="35" t="s">
+      <c r="C161" s="36" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="25" t="n">
@@ -6805,19 +6834,19 @@
       <c r="C166" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="D166" s="33" t="n">
+      <c r="D166" s="34" t="n">
         <v>34.6</v>
       </c>
-      <c r="E166" s="33" t="n">
+      <c r="E166" s="34" t="n">
         <v>62.6</v>
       </c>
-      <c r="F166" s="33" t="n">
+      <c r="F166" s="34" t="n">
         <v>34.6</v>
       </c>
-      <c r="G166" s="33" t="n">
+      <c r="G166" s="34" t="n">
         <v>65.1</v>
       </c>
-      <c r="H166" s="33" t="n">
+      <c r="H166" s="34" t="n">
         <v>40.05</v>
       </c>
       <c r="J166" s="3" t="n"/>
@@ -7034,7 +7063,7 @@
       <c r="B174" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C174" s="32" t="s">
+      <c r="C174" s="33" t="s">
         <v>343</v>
       </c>
       <c r="D174" s="25" t="s">
@@ -7269,19 +7298,19 @@
       <c r="C182" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D182" s="33" t="n">
+      <c r="D182" s="34" t="n">
         <v>33.7</v>
       </c>
-      <c r="E182" s="33" t="n">
+      <c r="E182" s="34" t="n">
         <v>52.9</v>
       </c>
-      <c r="F182" s="33" t="n">
+      <c r="F182" s="34" t="n">
         <v>33.7</v>
       </c>
-      <c r="G182" s="33" t="n">
+      <c r="G182" s="34" t="n">
         <v>62.9</v>
       </c>
-      <c r="H182" s="33" t="n">
+      <c r="H182" s="34" t="n">
         <v>41.65</v>
       </c>
       <c r="J182" s="3" t="n"/>
@@ -7530,19 +7559,19 @@
       <c r="C191" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H191" s="33" t="n">
+      <c r="D191" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="34" t="n">
         <v>17.4</v>
       </c>
       <c r="J191" s="3" t="n"/>
@@ -7559,19 +7588,19 @@
       <c r="C192" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D192" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="33" t="n">
+      <c r="D192" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="34" t="n">
         <v>33.6</v>
       </c>
-      <c r="G192" s="33" t="n">
+      <c r="G192" s="34" t="n">
         <v>69.55</v>
       </c>
-      <c r="H192" s="33" t="n">
+      <c r="H192" s="34" t="n">
         <v>41.65</v>
       </c>
       <c r="J192" s="3" t="n"/>
@@ -7669,10 +7698,10 @@
       <c r="A196" s="17" t="n">
         <v>185</v>
       </c>
-      <c r="B196" s="35" t="s">
+      <c r="B196" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="C196" s="37" t="s">
+      <c r="C196" s="38" t="s">
         <v>387</v>
       </c>
       <c r="D196" s="25" t="s">
@@ -8081,19 +8110,19 @@
       <c r="C210" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="D210" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="33" t="n">
+      <c r="D210" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="34" t="n">
         <v>39.55</v>
       </c>
-      <c r="G210" s="33" t="n">
+      <c r="G210" s="34" t="n">
         <v>51.9</v>
       </c>
-      <c r="H210" s="33" t="n">
+      <c r="H210" s="34" t="n">
         <v>8.2</v>
       </c>
       <c r="J210" s="3" t="n"/>
@@ -8705,11 +8734,11 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="38" t="s">
+      <c r="I231" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="J231" s="39" t="n"/>
-      <c r="K231" s="40" t="s">
+      <c r="J231" s="40" t="n"/>
+      <c r="K231" s="41" t="s">
         <v>459</v>
       </c>
       <c r="L231" s="3" t="n"/>
@@ -8762,7 +8791,7 @@
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -8774,40 +8803,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="43" t="s"/>
+      <c r="C2" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="45" t="s"/>
+      <c r="C3" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="45" t="s"/>
+      <c r="C4" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="48" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8816,109 +8845,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="49" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="49" t="n"/>
+      <c r="D6" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="43" t="s"/>
-      <c r="D7" s="49" t="n"/>
+      <c r="C7" s="44" t="s"/>
+      <c r="D7" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="43" t="s"/>
-      <c r="D8" s="49" t="n"/>
+      <c r="C8" s="44" t="s"/>
+      <c r="D8" s="50" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="49" t="n"/>
+      <c r="D9" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="45" t="s"/>
-      <c r="D10" s="49" t="n"/>
+      <c r="C10" s="46" t="s"/>
+      <c r="D10" s="50" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="51" t="n">
+      <c r="C11" s="52" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="52" t="n"/>
+      <c r="D11" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="45" t="s"/>
-      <c r="D12" s="53" t="n"/>
+      <c r="C12" s="46" t="s"/>
+      <c r="D12" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="45" t="s"/>
-      <c r="D13" s="53" t="n"/>
+      <c r="C13" s="46" t="s"/>
+      <c r="D13" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="54" t="n"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="55" t="n"/>
+      <c r="B14" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="56" t="s"/>
-      <c r="D14" s="53" t="n"/>
+      <c r="C14" s="57" t="s"/>
+      <c r="D14" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="45" t="s"/>
+      <c r="C15" s="46" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -1792,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1892,6 +1892,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -6686,7 +6687,7 @@
       <c r="B161" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="36" t="s">
+      <c r="C161" s="39" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="25" t="n">
@@ -8734,11 +8735,11 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="39" t="s">
+      <c r="I231" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="J231" s="40" t="n"/>
-      <c r="K231" s="41" t="s">
+      <c r="J231" s="41" t="n"/>
+      <c r="K231" s="42" t="s">
         <v>459</v>
       </c>
       <c r="L231" s="3" t="n"/>
@@ -8791,7 +8792,7 @@
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -8803,40 +8804,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="44" t="s"/>
+      <c r="C2" s="45" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="46" t="s"/>
+      <c r="C3" s="47" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="46" t="s"/>
+      <c r="C4" s="47" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="48" t="n">
+      <c r="C5" s="49" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8845,109 +8846,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="49" t="n">
+      <c r="C6" s="50" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="50" t="n"/>
+      <c r="D6" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="44" t="s"/>
-      <c r="D7" s="50" t="n"/>
+      <c r="C7" s="45" t="s"/>
+      <c r="D7" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="44" t="s"/>
-      <c r="D8" s="50" t="n"/>
+      <c r="C8" s="45" t="s"/>
+      <c r="D8" s="51" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>470</v>
       </c>
       <c r="C9" s="34" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="50" t="n"/>
+      <c r="D9" s="51" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="46" t="s"/>
-      <c r="D10" s="50" t="n"/>
+      <c r="C10" s="47" t="s"/>
+      <c r="D10" s="51" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="52" t="n">
+      <c r="C11" s="53" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="53" t="n"/>
+      <c r="D11" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="46" t="s"/>
-      <c r="D12" s="54" t="n"/>
+      <c r="C12" s="47" t="s"/>
+      <c r="D12" s="55" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="46" t="s"/>
-      <c r="D13" s="54" t="n"/>
+      <c r="C13" s="47" t="s"/>
+      <c r="D13" s="55" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="55" t="n"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="56" t="n"/>
+      <c r="B14" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="57" t="s"/>
-      <c r="D14" s="54" t="n"/>
+      <c r="C14" s="58" t="s"/>
+      <c r="D14" s="55" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="46" t="s"/>
+      <c r="C15" s="47" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -1792,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -1892,7 +1892,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -6687,7 +6686,7 @@
       <c r="B161" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C161" s="39" t="s">
+      <c r="C161" s="36" t="s">
         <v>317</v>
       </c>
       <c r="D161" s="25" t="n">
@@ -8735,11 +8734,11 @@
       <c r="H231" s="26" t="n">
         <v>17.4</v>
       </c>
-      <c r="I231" s="40" t="s">
+      <c r="I231" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="J231" s="41" t="n"/>
-      <c r="K231" s="42" t="s">
+      <c r="J231" s="40" t="n"/>
+      <c r="K231" s="41" t="s">
         <v>459</v>
       </c>
       <c r="L231" s="3" t="n"/>
@@ -8792,7 +8791,7 @@
       <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>461</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -8804,40 +8803,40 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">222</f>
         <v>222</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="45" t="s"/>
+      <c r="C2" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
       <c r="A3" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A2+1</f>
         <v>223</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="47" t="s"/>
+      <c r="C3" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
       <c r="A4" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A3+1</f>
         <v>224</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="47" t="s"/>
+      <c r="C4" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
       <c r="A5" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A4+1</f>
         <v>225</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="49" t="n">
+      <c r="C5" s="48" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -8846,109 +8845,109 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A5+1</f>
         <v>226</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="50" t="n">
+      <c r="C6" s="49" t="n">
         <v>5.85</v>
       </c>
-      <c r="D6" s="51" t="n"/>
+      <c r="D6" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
       <c r="A7" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A6+1</f>
         <v>227</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="45" t="s"/>
-      <c r="D7" s="51" t="n"/>
+      <c r="C7" s="44" t="s"/>
+      <c r="D7" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
       <c r="A8" s="17" t="n"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="45" t="s"/>
-      <c r="D8" s="51" t="n"/>
+      <c r="C8" s="44" t="s"/>
+      <c r="D8" s="50" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
       <c r="A9" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A7+1</f>
         <v>228</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>470</v>
       </c>
       <c r="C9" s="34" t="n">
         <v>7.45</v>
       </c>
-      <c r="D9" s="51" t="n"/>
+      <c r="D9" s="50" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
       <c r="A10" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A9+1</f>
         <v>229</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="47" t="s"/>
-      <c r="D10" s="51" t="n"/>
+      <c r="C10" s="46" t="s"/>
+      <c r="D10" s="50" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
       <c r="A11" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A10+1</f>
         <v>230</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="53" t="n">
+      <c r="C11" s="52" t="n">
         <v>0.33</v>
       </c>
-      <c r="D11" s="54" t="n"/>
+      <c r="D11" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
       <c r="A12" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A11+1</f>
         <v>231</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="47" t="s"/>
-      <c r="D12" s="55" t="n"/>
+      <c r="C12" s="46" t="s"/>
+      <c r="D12" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
       <c r="A13" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A12+1</f>
         <v>232</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="47" t="s"/>
-      <c r="D13" s="55" t="n"/>
+      <c r="C13" s="46" t="s"/>
+      <c r="D13" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="56" t="n"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="55" t="n"/>
+      <c r="B14" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="58" t="s"/>
-      <c r="D14" s="55" t="n"/>
+      <c r="C14" s="57" t="s"/>
+      <c r="D14" s="54" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
       <c r="A15" s="17" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A13+1</f>
         <v>233</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="47" t="s"/>
+      <c r="C15" s="46" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -3012,14 +3012,12 @@
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.0000000;-0.0000000" formatCode="0.0000000;-0.0000000" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.000000;-0.000000" formatCode="0.000000;-0.000000" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.0000000000;-0.0000000000" formatCode="0.0000000000;-0.0000000000" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1008"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -3096,7 +3094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -3208,18 +3206,25 @@
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,11 +3287,9 @@
     </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1003" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -3300,7 +3303,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="1" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
@@ -3312,7 +3315,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
@@ -3321,19 +3324,25 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1009" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1010" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
@@ -3345,13 +3354,19 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1010" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1010" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
@@ -3612,7 +3627,7 @@
       <c r="L2" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="n"/>
@@ -3625,16 +3640,16 @@
       <c r="L4" s="3" t="n"/>
     </row>
     <row ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s"/>
-      <c r="C5" s="5" t="s"/>
-      <c r="D5" s="5" t="s"/>
-      <c r="E5" s="5" t="s"/>
-      <c r="F5" s="5" t="s"/>
-      <c r="G5" s="5" t="s"/>
-      <c r="H5" s="5" t="s"/>
+      <c r="B5" s="4" t="s"/>
+      <c r="C5" s="4" t="s"/>
+      <c r="D5" s="4" t="s"/>
+      <c r="E5" s="4" t="s"/>
+      <c r="F5" s="4" t="s"/>
+      <c r="G5" s="4" t="s"/>
+      <c r="H5" s="4" t="s"/>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="3" t="n"/>
@@ -3645,69 +3660,69 @@
       <c r="L6" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="7">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7" t="s"/>
-      <c r="G7" s="7" t="s"/>
-      <c r="H7" s="8" t="s"/>
+      <c r="F7" s="6" t="s"/>
+      <c r="G7" s="6" t="s"/>
+      <c r="H7" s="7" t="s"/>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="13.8999996185303" outlineLevel="0" r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s"/>
-      <c r="F8" s="12" t="s"/>
-      <c r="G8" s="12" t="s"/>
-      <c r="H8" s="13" t="s"/>
+      <c r="E8" s="11" t="s"/>
+      <c r="F8" s="11" t="s"/>
+      <c r="G8" s="11" t="s"/>
+      <c r="H8" s="12" t="s"/>
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="n"/>
       <c r="L8" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="28.5" outlineLevel="0" r="9">
-      <c r="A9" s="14" t="s"/>
-      <c r="B9" s="15" t="s"/>
-      <c r="C9" s="14" t="s"/>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="13" t="s"/>
+      <c r="B9" s="14" t="s"/>
+      <c r="C9" s="13" t="s"/>
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="17" t="s"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="16" t="s"/>
+      <c r="F9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="19" t="s"/>
-      <c r="H9" s="20" t="s"/>
+      <c r="G9" s="18" t="s"/>
+      <c r="H9" s="19" t="s"/>
       <c r="J9" s="3" t="n"/>
       <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="25.5" outlineLevel="0" r="10">
-      <c r="A10" s="21" t="s"/>
-      <c r="B10" s="22" t="s"/>
-      <c r="C10" s="21" t="s"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="20" t="s"/>
+      <c r="B10" s="21" t="s"/>
+      <c r="C10" s="20" t="s"/>
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="3" t="n"/>
@@ -3715,266 +3730,268 @@
       <c r="L10" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D11" s="23" t="n">
         <v>42.4</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="23" t="n">
         <v>50.05</v>
       </c>
-      <c r="F11" s="24" t="n">
+      <c r="F11" s="23" t="n">
         <v>43.3</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="23" t="n">
         <v>52.7</v>
       </c>
-      <c r="H11" s="24" t="n">
+      <c r="H11" s="23" t="n">
         <v>34.35</v>
       </c>
-      <c r="J11" s="3" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
       <c r="K11" s="3" t="n"/>
       <c r="L11" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="23" t="n">
         <v>50.85</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="23" t="n">
         <v>11.25</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="23" t="n">
         <v>52.4</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="23" t="n">
         <v>11.25</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="23" t="n">
         <v>7.55</v>
       </c>
-      <c r="I12" s="25" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="26" t="n"/>
-      <c r="L12" s="27" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="24" t="n">
+      <c r="D13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="G13" s="24" t="n">
+      <c r="G13" s="23" t="n">
         <v>10.25</v>
       </c>
-      <c r="H13" s="24" t="n">
+      <c r="H13" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="25" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="27" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
       <c r="L13" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="23" t="n">
         <v>55.65</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="23" t="n">
         <v>14.8</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="23" t="n">
         <v>55.65</v>
       </c>
-      <c r="G14" s="24" t="n">
+      <c r="G14" s="23" t="n">
         <v>16.3</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="23" t="n">
         <v>3.45</v>
       </c>
-      <c r="I14" s="1" t="n"/>
-      <c r="J14" s="3" t="n"/>
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="24" t="n"/>
       <c r="K14" s="3" t="n"/>
       <c r="L14" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="24" t="n">
+      <c r="D15" s="23" t="n">
         <v>51.65</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="23" t="n">
         <v>17.9</v>
       </c>
-      <c r="F15" s="24" t="n">
+      <c r="F15" s="23" t="n">
         <v>51.65</v>
       </c>
-      <c r="G15" s="24" t="n">
+      <c r="G15" s="23" t="n">
         <v>21.4</v>
       </c>
-      <c r="H15" s="24" t="n">
+      <c r="H15" s="23" t="n">
         <v>3.45</v>
       </c>
-      <c r="I15" s="1" t="n"/>
-      <c r="J15" s="3" t="n"/>
+      <c r="I15" s="24" t="n"/>
+      <c r="J15" s="24" t="n"/>
       <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="24" t="n">
+      <c r="D16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="23" t="n">
         <v>46.65</v>
       </c>
-      <c r="G16" s="24" t="n">
+      <c r="G16" s="23" t="n">
         <v>38.15</v>
       </c>
-      <c r="H16" s="24" t="n">
+      <c r="H16" s="23" t="n">
         <v>6.85</v>
       </c>
-      <c r="I16" s="1" t="n"/>
-      <c r="J16" s="3" t="n"/>
+      <c r="I16" s="24" t="n"/>
+      <c r="J16" s="24" t="n"/>
       <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="24" t="n">
+      <c r="D17" s="23" t="n">
         <v>61.95</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="23" t="n">
         <v>26.1</v>
       </c>
-      <c r="F17" s="24" t="n">
+      <c r="F17" s="23" t="n">
         <v>61.95</v>
       </c>
-      <c r="G17" s="24" t="n">
+      <c r="G17" s="23" t="n">
         <v>30.7</v>
       </c>
-      <c r="H17" s="24" t="n">
+      <c r="H17" s="23" t="n">
         <v>7.55</v>
       </c>
-      <c r="I17" s="29" t="n"/>
-      <c r="J17" s="3" t="n"/>
+      <c r="I17" s="24" t="n"/>
+      <c r="J17" s="24" t="n"/>
       <c r="K17" s="3" t="n"/>
       <c r="L17" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="24" t="n">
+      <c r="D18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="23" t="n">
         <v>55.85</v>
       </c>
-      <c r="G18" s="24" t="n">
+      <c r="G18" s="23" t="n">
         <v>11.7</v>
       </c>
-      <c r="H18" s="24" t="n">
+      <c r="H18" s="23" t="n">
         <v>7.75</v>
       </c>
-      <c r="J18" s="3" t="n"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="24" t="n"/>
       <c r="K18" s="3" t="n"/>
       <c r="L18" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="18" t="n">
+      <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="24" t="n">
+      <c r="D19" s="23" t="n">
         <v>40.3</v>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="23" t="n">
         <v>36.25</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="G19" s="24" t="n">
+      <c r="G19" s="23" t="n">
         <v>36.25</v>
       </c>
-      <c r="H19" s="24" t="n">
+      <c r="H19" s="23" t="n">
         <v>33.75</v>
       </c>
       <c r="J19" s="3" t="n"/>
@@ -3982,28 +3999,28 @@
       <c r="L19" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="18" t="n">
+      <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="24" t="n">
+      <c r="D20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="23" t="n">
         <v>51.1</v>
       </c>
-      <c r="G20" s="24" t="n">
+      <c r="G20" s="23" t="n">
         <v>42.05</v>
       </c>
-      <c r="H20" s="24" t="n">
+      <c r="H20" s="23" t="n">
         <v>28.3</v>
       </c>
       <c r="J20" s="3" t="n"/>
@@ -4011,28 +4028,28 @@
       <c r="L20" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="24" t="n">
+      <c r="D21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="23" t="n">
         <v>47.6</v>
       </c>
-      <c r="G21" s="24" t="n">
+      <c r="G21" s="23" t="n">
         <v>13.45</v>
       </c>
-      <c r="H21" s="24" t="n">
+      <c r="H21" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J21" s="3" t="n"/>
@@ -4040,28 +4057,28 @@
       <c r="L21" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="24" t="n">
+      <c r="D22" s="23" t="n">
         <v>46.65</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="23" t="n">
         <v>30.35</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="23" t="n">
         <v>52.75</v>
       </c>
-      <c r="G22" s="24" t="n">
+      <c r="G22" s="23" t="n">
         <v>47.05</v>
       </c>
-      <c r="H22" s="24" t="n">
+      <c r="H22" s="23" t="n">
         <v>25</v>
       </c>
       <c r="J22" s="3" t="n"/>
@@ -4069,28 +4086,28 @@
       <c r="L22" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="24" t="n">
+      <c r="D23" s="23" t="n">
         <v>58.85</v>
       </c>
-      <c r="E23" s="24" t="n">
+      <c r="E23" s="23" t="n">
         <v>26.65</v>
       </c>
-      <c r="F23" s="24" t="n">
+      <c r="F23" s="23" t="n">
         <v>58.85</v>
       </c>
-      <c r="G23" s="24" t="n">
+      <c r="G23" s="23" t="n">
         <v>29.25</v>
       </c>
-      <c r="H23" s="24" t="n">
+      <c r="H23" s="23" t="n">
         <v>12.55</v>
       </c>
       <c r="J23" s="3" t="n"/>
@@ -4098,28 +4115,28 @@
       <c r="L23" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="18" t="n">
+      <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="24" t="n">
+      <c r="D24" s="23" t="n">
         <v>40.75</v>
       </c>
-      <c r="E24" s="24" t="n">
+      <c r="E24" s="23" t="n">
         <v>35.8</v>
       </c>
-      <c r="F24" s="24" t="n">
+      <c r="F24" s="23" t="n">
         <v>43.9</v>
       </c>
-      <c r="G24" s="24" t="n">
+      <c r="G24" s="23" t="n">
         <v>42</v>
       </c>
-      <c r="H24" s="24" t="n">
+      <c r="H24" s="23" t="n">
         <v>33.25</v>
       </c>
       <c r="J24" s="3" t="n"/>
@@ -4127,28 +4144,28 @@
       <c r="L24" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="18" t="n">
+      <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="D25" s="23" t="n">
         <v>43.5</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="23" t="n">
         <v>26.25</v>
       </c>
-      <c r="F25" s="24" t="n">
+      <c r="F25" s="23" t="n">
         <v>50.95</v>
       </c>
-      <c r="G25" s="24" t="n">
+      <c r="G25" s="23" t="n">
         <v>36.2</v>
       </c>
-      <c r="H25" s="24" t="n">
+      <c r="H25" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J25" s="3" t="n"/>
@@ -4156,28 +4173,28 @@
       <c r="L25" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="18" t="n">
+      <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="24" t="n">
+      <c r="D26" s="23" t="n">
         <v>47.5</v>
       </c>
-      <c r="E26" s="24" t="n">
+      <c r="E26" s="23" t="n">
         <v>27.7</v>
       </c>
-      <c r="F26" s="24" t="n">
+      <c r="F26" s="23" t="n">
         <v>50.1</v>
       </c>
-      <c r="G26" s="24" t="n">
+      <c r="G26" s="23" t="n">
         <v>37.25</v>
       </c>
-      <c r="H26" s="24" t="n">
+      <c r="H26" s="23" t="n">
         <v>23.9</v>
       </c>
       <c r="J26" s="3" t="n"/>
@@ -4185,28 +4202,28 @@
       <c r="L26" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="18" t="n">
+      <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="24" t="n">
+      <c r="D27" s="23" t="n">
         <v>50.8</v>
       </c>
-      <c r="E27" s="24" t="n">
+      <c r="E27" s="23" t="n">
         <v>20.35</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="23" t="n">
         <v>50.8</v>
       </c>
-      <c r="G27" s="24" t="n">
+      <c r="G27" s="23" t="n">
         <v>33.3</v>
       </c>
-      <c r="H27" s="24" t="n">
+      <c r="H27" s="23" t="n">
         <v>3.45</v>
       </c>
       <c r="J27" s="3" t="n"/>
@@ -4214,28 +4231,28 @@
       <c r="L27" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="18" t="n">
+      <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="D28" s="23" t="n">
         <v>52.2</v>
       </c>
-      <c r="E28" s="24" t="n">
+      <c r="E28" s="23" t="n">
         <v>38.15</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="23" t="n">
         <v>61.55</v>
       </c>
-      <c r="G28" s="24" t="n">
+      <c r="G28" s="23" t="n">
         <v>44.85</v>
       </c>
-      <c r="H28" s="24" t="n">
+      <c r="H28" s="23" t="n">
         <v>32.4</v>
       </c>
       <c r="J28" s="3" t="n"/>
@@ -4243,28 +4260,28 @@
       <c r="L28" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="24" t="n">
+      <c r="D29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="23" t="n">
         <v>66.6</v>
       </c>
-      <c r="G29" s="24" t="n">
+      <c r="G29" s="23" t="n">
         <v>12.25</v>
       </c>
-      <c r="H29" s="24" t="n">
+      <c r="H29" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J29" s="3" t="n"/>
@@ -4272,28 +4289,28 @@
       <c r="L29" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="18" t="n">
+      <c r="A30" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="24" t="n">
+      <c r="D30" s="23" t="n">
         <v>50.25</v>
       </c>
-      <c r="E30" s="24" t="n">
+      <c r="E30" s="23" t="n">
         <v>24.8</v>
       </c>
-      <c r="F30" s="24" t="n">
+      <c r="F30" s="23" t="n">
         <v>50.25</v>
       </c>
-      <c r="G30" s="24" t="n">
+      <c r="G30" s="23" t="n">
         <v>32.85</v>
       </c>
-      <c r="H30" s="24" t="n">
+      <c r="H30" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J30" s="3" t="n"/>
@@ -4301,28 +4318,28 @@
       <c r="L30" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="18" t="n">
+      <c r="A31" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="24" t="n">
+      <c r="D31" s="23" t="n">
         <v>53.35</v>
       </c>
-      <c r="E31" s="24" t="n">
+      <c r="E31" s="23" t="n">
         <v>33.5</v>
       </c>
-      <c r="F31" s="24" t="n">
+      <c r="F31" s="23" t="n">
         <v>53.9</v>
       </c>
-      <c r="G31" s="24" t="n">
+      <c r="G31" s="23" t="n">
         <v>33.5</v>
       </c>
-      <c r="H31" s="24" t="n">
+      <c r="H31" s="23" t="n">
         <v>30.05</v>
       </c>
       <c r="J31" s="3" t="n"/>
@@ -4330,28 +4347,28 @@
       <c r="L31" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="24" t="n">
+      <c r="D32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="23" t="n">
         <v>53.7</v>
       </c>
-      <c r="G32" s="24" t="n">
+      <c r="G32" s="23" t="n">
         <v>41.6</v>
       </c>
-      <c r="H32" s="24" t="n">
+      <c r="H32" s="23" t="n">
         <v>25.65</v>
       </c>
       <c r="J32" s="3" t="n"/>
@@ -4359,28 +4376,28 @@
       <c r="L32" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="18" t="n">
+      <c r="A33" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="24" t="n">
+      <c r="D33" s="23" t="n">
         <v>37.5</v>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="23" t="n">
         <v>13.55</v>
       </c>
-      <c r="F33" s="24" t="n">
+      <c r="F33" s="23" t="n">
         <v>41.75</v>
       </c>
-      <c r="G33" s="24" t="n">
+      <c r="G33" s="23" t="n">
         <v>13.55</v>
       </c>
-      <c r="H33" s="24" t="n">
+      <c r="H33" s="23" t="n">
         <v>10.05</v>
       </c>
       <c r="J33" s="3" t="n"/>
@@ -4388,28 +4405,28 @@
       <c r="L33" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="18" t="n">
+      <c r="A34" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="24" t="n">
+      <c r="D34" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="23" t="n">
         <v>48.85</v>
       </c>
-      <c r="F34" s="24" t="n">
+      <c r="F34" s="23" t="n">
         <v>63.65</v>
       </c>
-      <c r="G34" s="24" t="n">
+      <c r="G34" s="23" t="n">
         <v>56.3</v>
       </c>
-      <c r="H34" s="24" t="n">
+      <c r="H34" s="23" t="n">
         <v>38.95</v>
       </c>
       <c r="J34" s="3" t="n"/>
@@ -4417,28 +4434,28 @@
       <c r="L34" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="18" t="n">
+      <c r="A35" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="24" t="n">
+      <c r="D35" s="23" t="n">
         <v>49.15</v>
       </c>
-      <c r="E35" s="24" t="n">
+      <c r="E35" s="23" t="n">
         <v>17.35</v>
       </c>
-      <c r="F35" s="24" t="n">
+      <c r="F35" s="23" t="n">
         <v>49.15</v>
       </c>
-      <c r="G35" s="24" t="n">
+      <c r="G35" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="H35" s="24" t="n">
+      <c r="H35" s="23" t="n">
         <v>3.45</v>
       </c>
       <c r="J35" s="3" t="n"/>
@@ -4446,28 +4463,28 @@
       <c r="L35" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="18" t="n">
+      <c r="A36" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="24" t="n">
+      <c r="D36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="23" t="n">
         <v>62.65</v>
       </c>
-      <c r="G36" s="24" t="n">
+      <c r="G36" s="23" t="n">
         <v>44.35</v>
       </c>
-      <c r="H36" s="24" t="n">
+      <c r="H36" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J36" s="3" t="n"/>
@@ -4475,28 +4492,28 @@
       <c r="L36" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="18" t="n">
+      <c r="A37" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="24" t="n">
+      <c r="D37" s="23" t="n">
         <v>49.65</v>
       </c>
-      <c r="E37" s="24" t="n">
+      <c r="E37" s="23" t="n">
         <v>43.85</v>
       </c>
-      <c r="F37" s="24" t="n">
+      <c r="F37" s="23" t="n">
         <v>51.35</v>
       </c>
-      <c r="G37" s="24" t="n">
+      <c r="G37" s="23" t="n">
         <v>43.85</v>
       </c>
-      <c r="H37" s="24" t="n">
+      <c r="H37" s="23" t="n">
         <v>31.8</v>
       </c>
       <c r="J37" s="3" t="n"/>
@@ -4504,28 +4521,28 @@
       <c r="L37" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="18" t="n">
+      <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="24" t="n">
+      <c r="D38" s="23" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="24" t="n">
+      <c r="E38" s="23" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="24" t="n">
+      <c r="F38" s="23" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="24" t="n">
+      <c r="G38" s="23" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="24" t="n">
+      <c r="H38" s="23" t="n">
         <v>21.9</v>
       </c>
       <c r="J38" s="3" t="n"/>
@@ -4533,28 +4550,28 @@
       <c r="L38" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="18" t="n">
+      <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="24" t="n">
+      <c r="D39" s="23" t="n">
         <v>58.05</v>
       </c>
-      <c r="E39" s="24" t="n">
+      <c r="E39" s="23" t="n">
         <v>28.65</v>
       </c>
-      <c r="F39" s="24" t="n">
+      <c r="F39" s="23" t="n">
         <v>58.05</v>
       </c>
-      <c r="G39" s="24" t="n">
+      <c r="G39" s="23" t="n">
         <v>34.2</v>
       </c>
-      <c r="H39" s="24" t="n">
+      <c r="H39" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J39" s="3" t="n"/>
@@ -4562,28 +4579,28 @@
       <c r="L39" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="18" t="n">
+      <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="24" t="n">
+      <c r="D40" s="23" t="n">
         <v>61.7</v>
       </c>
-      <c r="E40" s="24" t="n">
+      <c r="E40" s="23" t="n">
         <v>28.4</v>
       </c>
-      <c r="F40" s="24" t="n">
+      <c r="F40" s="23" t="n">
         <v>65.75</v>
       </c>
-      <c r="G40" s="24" t="n">
+      <c r="G40" s="23" t="n">
         <v>28.4</v>
       </c>
-      <c r="H40" s="24" t="n">
+      <c r="H40" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J40" s="3" t="n"/>
@@ -4591,28 +4608,28 @@
       <c r="L40" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="18" t="n">
+      <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="24" t="n">
+      <c r="D41" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="23" t="n">
         <v>53.2</v>
       </c>
-      <c r="G41" s="24" t="n">
+      <c r="G41" s="23" t="n">
         <v>17.45</v>
       </c>
-      <c r="H41" s="24" t="n">
+      <c r="H41" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J41" s="3" t="n"/>
@@ -4620,28 +4637,28 @@
       <c r="L41" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="18" t="n">
+      <c r="A42" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="24" t="n">
+      <c r="D42" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="23" t="n">
         <v>34.5</v>
       </c>
-      <c r="G42" s="24" t="n">
+      <c r="G42" s="23" t="n">
         <v>66.7</v>
       </c>
-      <c r="H42" s="24" t="n">
+      <c r="H42" s="23" t="n">
         <v>34.35</v>
       </c>
       <c r="J42" s="3" t="n"/>
@@ -4649,28 +4666,28 @@
       <c r="L42" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="18" t="n">
+      <c r="A43" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="24" t="n">
+      <c r="D43" s="23" t="n">
         <v>54.55</v>
       </c>
-      <c r="E43" s="24" t="n">
+      <c r="E43" s="23" t="n">
         <v>12.1</v>
       </c>
-      <c r="F43" s="24" t="n">
+      <c r="F43" s="23" t="n">
         <v>57.35</v>
       </c>
-      <c r="G43" s="24" t="n">
+      <c r="G43" s="23" t="n">
         <v>17.8</v>
       </c>
-      <c r="H43" s="24" t="n">
+      <c r="H43" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J43" s="3" t="n"/>
@@ -4678,28 +4695,28 @@
       <c r="L43" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="44">
-      <c r="A44" s="18" t="n">
+      <c r="A44" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="31" t="n">
+      <c r="D44" s="28" t="n">
         <v>66.25</v>
       </c>
-      <c r="E44" s="31" t="n">
+      <c r="E44" s="28" t="n">
         <v>19.7</v>
       </c>
-      <c r="F44" s="31" t="n">
+      <c r="F44" s="28" t="n">
         <v>66.25</v>
       </c>
-      <c r="G44" s="31" t="n">
+      <c r="G44" s="28" t="n">
         <v>19.7</v>
       </c>
-      <c r="H44" s="31" t="n">
+      <c r="H44" s="28" t="n">
         <v>8.45</v>
       </c>
       <c r="J44" s="3" t="n"/>
@@ -4707,28 +4724,28 @@
       <c r="L44" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="18" t="n">
+      <c r="A45" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="24" t="n">
+      <c r="D45" s="23" t="n">
         <v>53.7</v>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="23" t="n">
         <v>12.6</v>
       </c>
-      <c r="F45" s="24" t="n">
+      <c r="F45" s="23" t="n">
         <v>55.2</v>
       </c>
-      <c r="G45" s="24" t="n">
+      <c r="G45" s="23" t="n">
         <v>12.65</v>
       </c>
-      <c r="H45" s="24" t="n">
+      <c r="H45" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J45" s="3" t="n"/>
@@ -4736,28 +4753,28 @@
       <c r="L45" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="18" t="n">
+      <c r="A46" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="24" t="n">
+      <c r="D46" s="23" t="n">
         <v>47.2</v>
       </c>
-      <c r="E46" s="24" t="n">
+      <c r="E46" s="23" t="n">
         <v>37.35</v>
       </c>
-      <c r="F46" s="24" t="n">
+      <c r="F46" s="23" t="n">
         <v>55.3</v>
       </c>
-      <c r="G46" s="24" t="n">
+      <c r="G46" s="23" t="n">
         <v>54.25</v>
       </c>
-      <c r="H46" s="24" t="n">
+      <c r="H46" s="23" t="n">
         <v>34.25</v>
       </c>
       <c r="J46" s="3" t="n"/>
@@ -4765,28 +4782,28 @@
       <c r="L46" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="18" t="n">
+      <c r="A47" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="24" t="n">
+      <c r="D47" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="23" t="n">
         <v>47.65</v>
       </c>
-      <c r="G47" s="24" t="n">
+      <c r="G47" s="23" t="n">
         <v>37.3</v>
       </c>
-      <c r="H47" s="24" t="n">
+      <c r="H47" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J47" s="3" t="n"/>
@@ -4794,28 +4811,28 @@
       <c r="L47" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="18" t="n">
+      <c r="A48" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="24" t="n">
+      <c r="D48" s="23" t="n">
         <v>37.85</v>
       </c>
-      <c r="E48" s="24" t="n">
+      <c r="E48" s="23" t="n">
         <v>18.85</v>
       </c>
-      <c r="F48" s="24" t="n">
+      <c r="F48" s="23" t="n">
         <v>37.95</v>
       </c>
-      <c r="G48" s="24" t="n">
+      <c r="G48" s="23" t="n">
         <v>20.45</v>
       </c>
-      <c r="H48" s="24" t="n">
+      <c r="H48" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J48" s="3" t="n"/>
@@ -4823,28 +4840,28 @@
       <c r="L48" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="18" t="n">
+      <c r="A49" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="24" t="n">
+      <c r="D49" s="23" t="n">
         <v>55.05</v>
       </c>
-      <c r="E49" s="24" t="n">
+      <c r="E49" s="23" t="n">
         <v>30.25</v>
       </c>
-      <c r="F49" s="24" t="n">
+      <c r="F49" s="23" t="n">
         <v>55.05</v>
       </c>
-      <c r="G49" s="24" t="n">
+      <c r="G49" s="23" t="n">
         <v>36.35</v>
       </c>
-      <c r="H49" s="24" t="n">
+      <c r="H49" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J49" s="3" t="n"/>
@@ -4852,28 +4869,28 @@
       <c r="L49" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="18" t="n">
+      <c r="A50" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="24" t="n">
+      <c r="D50" s="23" t="n">
         <v>42.2</v>
       </c>
-      <c r="E50" s="24" t="n">
+      <c r="E50" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="F50" s="24" t="n">
+      <c r="F50" s="23" t="n">
         <v>44.65</v>
       </c>
-      <c r="G50" s="24" t="n">
+      <c r="G50" s="23" t="n">
         <v>37.1</v>
       </c>
-      <c r="H50" s="24" t="n">
+      <c r="H50" s="23" t="n">
         <v>34.35</v>
       </c>
       <c r="J50" s="3" t="n"/>
@@ -4881,28 +4898,28 @@
       <c r="L50" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="18" t="n">
+      <c r="A51" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="24" t="n">
+      <c r="D51" s="23" t="n">
         <v>51.25</v>
       </c>
-      <c r="E51" s="24" t="n">
+      <c r="E51" s="23" t="n">
         <v>39.25</v>
       </c>
-      <c r="F51" s="24" t="n">
+      <c r="F51" s="23" t="n">
         <v>55.6</v>
       </c>
-      <c r="G51" s="24" t="n">
+      <c r="G51" s="23" t="n">
         <v>40.55</v>
       </c>
-      <c r="H51" s="24" t="n">
+      <c r="H51" s="23" t="n">
         <v>27.65</v>
       </c>
       <c r="J51" s="3" t="n"/>
@@ -4910,28 +4927,28 @@
       <c r="L51" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="18" t="n">
+      <c r="A52" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="24" t="n">
+      <c r="D52" s="23" t="n">
         <v>52.35</v>
       </c>
-      <c r="E52" s="24" t="n">
+      <c r="E52" s="23" t="n">
         <v>27.35</v>
       </c>
-      <c r="F52" s="24" t="n">
+      <c r="F52" s="23" t="n">
         <v>57.15</v>
       </c>
-      <c r="G52" s="24" t="n">
+      <c r="G52" s="23" t="n">
         <v>33.15</v>
       </c>
-      <c r="H52" s="24" t="n">
+      <c r="H52" s="23" t="n">
         <v>25.4</v>
       </c>
       <c r="J52" s="3" t="n"/>
@@ -4939,28 +4956,28 @@
       <c r="L52" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="18" t="n">
+      <c r="A53" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="24" t="n">
+      <c r="D53" s="23" t="n">
         <v>70.3</v>
       </c>
-      <c r="E53" s="24" t="n">
+      <c r="E53" s="23" t="n">
         <v>26.55</v>
       </c>
-      <c r="F53" s="24" t="n">
+      <c r="F53" s="23" t="n">
         <v>73.2</v>
       </c>
-      <c r="G53" s="24" t="n">
+      <c r="G53" s="23" t="n">
         <v>35.9</v>
       </c>
-      <c r="H53" s="24" t="n">
+      <c r="H53" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J53" s="3" t="n"/>
@@ -4968,28 +4985,28 @@
       <c r="L53" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="18" t="n">
+      <c r="A54" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="24" t="n">
+      <c r="D54" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="23" t="n">
         <v>73.2</v>
       </c>
-      <c r="G54" s="24" t="n">
+      <c r="G54" s="23" t="n">
         <v>38.2</v>
       </c>
-      <c r="H54" s="24" t="n">
+      <c r="H54" s="23" t="n">
         <v>21.5</v>
       </c>
       <c r="J54" s="3" t="n"/>
@@ -4997,28 +5014,28 @@
       <c r="L54" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="18" t="n">
+      <c r="A55" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="24" t="n">
+      <c r="D55" s="23" t="n">
         <v>41.1</v>
       </c>
-      <c r="E55" s="24" t="n">
+      <c r="E55" s="23" t="n">
         <v>37.75</v>
       </c>
-      <c r="F55" s="24" t="n">
+      <c r="F55" s="23" t="n">
         <v>49.05</v>
       </c>
-      <c r="G55" s="24" t="n">
+      <c r="G55" s="23" t="n">
         <v>40.85</v>
       </c>
-      <c r="H55" s="24" t="n">
+      <c r="H55" s="23" t="n">
         <v>31.35</v>
       </c>
       <c r="J55" s="3" t="n"/>
@@ -5026,28 +5043,28 @@
       <c r="L55" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="18" t="n">
+      <c r="A56" s="17" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="24" t="n">
+      <c r="D56" s="23" t="n">
         <v>53.35</v>
       </c>
-      <c r="E56" s="24" t="n">
+      <c r="E56" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="F56" s="24" t="n">
+      <c r="F56" s="23" t="n">
         <v>53.35</v>
       </c>
-      <c r="G56" s="24" t="n">
+      <c r="G56" s="23" t="n">
         <v>33.15</v>
       </c>
-      <c r="H56" s="24" t="n">
+      <c r="H56" s="23" t="n">
         <v>22.35</v>
       </c>
       <c r="J56" s="3" t="n"/>
@@ -5055,28 +5072,28 @@
       <c r="L56" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="57">
-      <c r="A57" s="18" t="n">
+      <c r="A57" s="17" t="n">
         <v>47</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="24" t="n">
+      <c r="D57" s="23" t="n">
         <v>60.45</v>
       </c>
-      <c r="E57" s="24" t="n">
+      <c r="E57" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="F57" s="24" t="n">
+      <c r="F57" s="23" t="n">
         <v>64.55</v>
       </c>
-      <c r="G57" s="24" t="n">
+      <c r="G57" s="23" t="n">
         <v>35.45</v>
       </c>
-      <c r="H57" s="24" t="n">
+      <c r="H57" s="23" t="n">
         <v>28.85</v>
       </c>
       <c r="J57" s="3" t="n"/>
@@ -5084,28 +5101,28 @@
       <c r="L57" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="18" t="n">
+      <c r="A58" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="24" t="n">
+      <c r="D58" s="23" t="n">
         <v>68.4</v>
       </c>
-      <c r="E58" s="24" t="n">
+      <c r="E58" s="23" t="n">
         <v>12.3</v>
       </c>
-      <c r="F58" s="24" t="n">
+      <c r="F58" s="23" t="n">
         <v>68.4</v>
       </c>
-      <c r="G58" s="24" t="n">
+      <c r="G58" s="23" t="n">
         <v>12.3</v>
       </c>
-      <c r="H58" s="24" t="n">
+      <c r="H58" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J58" s="3" t="n"/>
@@ -5113,28 +5130,28 @@
       <c r="L58" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="18" t="n">
+      <c r="A59" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="24" t="n">
+      <c r="D59" s="23" t="n">
         <v>47.95</v>
       </c>
-      <c r="E59" s="24" t="n">
+      <c r="E59" s="23" t="n">
         <v>29.2</v>
       </c>
-      <c r="F59" s="24" t="n">
+      <c r="F59" s="23" t="n">
         <v>58.15</v>
       </c>
-      <c r="G59" s="24" t="n">
+      <c r="G59" s="23" t="n">
         <v>42.3</v>
       </c>
-      <c r="H59" s="24" t="n">
+      <c r="H59" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J59" s="3" t="n"/>
@@ -5142,28 +5159,28 @@
       <c r="L59" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="60">
-      <c r="A60" s="18" t="n">
+      <c r="A60" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="24" t="n">
+      <c r="D60" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="23" t="n">
         <v>55.4</v>
       </c>
-      <c r="G60" s="24" t="n">
+      <c r="G60" s="23" t="n">
         <v>50.95</v>
       </c>
-      <c r="H60" s="24" t="n">
+      <c r="H60" s="23" t="n">
         <v>32.65</v>
       </c>
       <c r="J60" s="3" t="n"/>
@@ -5171,28 +5188,28 @@
       <c r="L60" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="18" t="n">
+      <c r="A61" s="17" t="n">
         <v>51</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="24" t="n">
+      <c r="D61" s="23" t="n">
         <v>55.25</v>
       </c>
-      <c r="E61" s="24" t="n">
+      <c r="E61" s="23" t="n">
         <v>24.05</v>
       </c>
-      <c r="F61" s="24" t="n">
+      <c r="F61" s="23" t="n">
         <v>56.3</v>
       </c>
-      <c r="G61" s="24" t="n">
+      <c r="G61" s="23" t="n">
         <v>24.05</v>
       </c>
-      <c r="H61" s="24" t="n">
+      <c r="H61" s="23" t="n">
         <v>13.7</v>
       </c>
       <c r="J61" s="3" t="n"/>
@@ -5200,28 +5217,28 @@
       <c r="L61" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="18" t="n">
+      <c r="A62" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="24" t="n">
+      <c r="D62" s="23" t="n">
         <v>44.05</v>
       </c>
-      <c r="E62" s="24" t="n">
+      <c r="E62" s="23" t="n">
         <v>34.2</v>
       </c>
-      <c r="F62" s="24" t="n">
+      <c r="F62" s="23" t="n">
         <v>49.35</v>
       </c>
-      <c r="G62" s="24" t="n">
+      <c r="G62" s="23" t="n">
         <v>34.25</v>
       </c>
-      <c r="H62" s="24" t="n">
+      <c r="H62" s="23" t="n">
         <v>31.35</v>
       </c>
       <c r="J62" s="3" t="n"/>
@@ -5229,28 +5246,28 @@
       <c r="L62" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="18" t="n">
+      <c r="A63" s="17" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="24" t="n">
+      <c r="D63" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="23" t="n">
         <v>109.75</v>
       </c>
-      <c r="G63" s="24" t="n">
+      <c r="G63" s="23" t="n">
         <v>33.9</v>
       </c>
-      <c r="H63" s="24" t="n">
+      <c r="H63" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J63" s="3" t="n"/>
@@ -5258,28 +5275,28 @@
       <c r="L63" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="18" t="n">
+      <c r="A64" s="17" t="n">
         <v>54</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="24" t="n">
+      <c r="D64" s="23" t="n">
         <v>40.5</v>
       </c>
-      <c r="E64" s="24" t="n">
+      <c r="E64" s="23" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="24" t="n">
+      <c r="F64" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="G64" s="24" t="n">
+      <c r="G64" s="23" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="24" t="n">
+      <c r="H64" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J64" s="3" t="n"/>
@@ -5287,28 +5304,28 @@
       <c r="L64" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="18" t="n">
+      <c r="A65" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="24" t="n">
+      <c r="D65" s="23" t="n">
         <v>55.8</v>
       </c>
-      <c r="E65" s="24" t="n">
+      <c r="E65" s="23" t="n">
         <v>12.85</v>
       </c>
-      <c r="F65" s="24" t="n">
+      <c r="F65" s="23" t="n">
         <v>56.45</v>
       </c>
-      <c r="G65" s="24" t="n">
+      <c r="G65" s="23" t="n">
         <v>13.3</v>
       </c>
-      <c r="H65" s="24" t="n">
+      <c r="H65" s="23" t="n">
         <v>5</v>
       </c>
       <c r="J65" s="3" t="n"/>
@@ -5316,28 +5333,28 @@
       <c r="L65" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="18" t="n">
+      <c r="A66" s="17" t="n">
         <v>56</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="24" t="n">
+      <c r="D66" s="23" t="n">
         <v>52.55</v>
       </c>
-      <c r="E66" s="24" t="n">
+      <c r="E66" s="23" t="n">
         <v>10.95</v>
       </c>
-      <c r="F66" s="24" t="n">
+      <c r="F66" s="23" t="n">
         <v>54.65</v>
       </c>
-      <c r="G66" s="24" t="n">
+      <c r="G66" s="23" t="n">
         <v>10.95</v>
       </c>
-      <c r="H66" s="24" t="n">
+      <c r="H66" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J66" s="3" t="n"/>
@@ -5345,28 +5362,28 @@
       <c r="L66" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="18" t="n">
+      <c r="A67" s="17" t="n">
         <v>57</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="24" t="n">
+      <c r="F67" s="23" t="n">
         <v>54.65</v>
       </c>
-      <c r="G67" s="24" t="n">
+      <c r="G67" s="23" t="n">
         <v>21.95</v>
       </c>
-      <c r="H67" s="24" t="n">
+      <c r="H67" s="23" t="n">
         <v>8.45</v>
       </c>
       <c r="J67" s="3" t="n"/>
@@ -5374,28 +5391,28 @@
       <c r="L67" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="18" t="n">
+      <c r="A68" s="17" t="n">
         <v>58</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="24" t="n">
+      <c r="D68" s="23" t="n">
         <v>47.7</v>
       </c>
-      <c r="E68" s="24" t="n">
+      <c r="E68" s="23" t="n">
         <v>30.65</v>
       </c>
-      <c r="F68" s="24" t="n">
+      <c r="F68" s="23" t="n">
         <v>53.75</v>
       </c>
-      <c r="G68" s="24" t="n">
+      <c r="G68" s="23" t="n">
         <v>42.35</v>
       </c>
-      <c r="H68" s="24" t="n">
+      <c r="H68" s="23" t="n">
         <v>25.8</v>
       </c>
       <c r="J68" s="3" t="n"/>
@@ -5403,28 +5420,28 @@
       <c r="L68" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="18" t="n">
+      <c r="A69" s="17" t="n">
         <v>59</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="24" t="n">
+      <c r="D69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="23" t="n">
         <v>47.9</v>
       </c>
-      <c r="G69" s="24" t="n">
+      <c r="G69" s="23" t="n">
         <v>37.6</v>
       </c>
-      <c r="H69" s="24" t="n">
+      <c r="H69" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J69" s="3" t="n"/>
@@ -5432,28 +5449,28 @@
       <c r="L69" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="70">
-      <c r="A70" s="18" t="n">
+      <c r="A70" s="17" t="n">
         <v>60</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="24" t="n">
+      <c r="D70" s="23" t="n">
         <v>43.55</v>
       </c>
-      <c r="E70" s="24" t="n">
+      <c r="E70" s="23" t="n">
         <v>29.25</v>
       </c>
-      <c r="F70" s="24" t="n">
+      <c r="F70" s="23" t="n">
         <v>51.6</v>
       </c>
-      <c r="G70" s="24" t="n">
+      <c r="G70" s="23" t="n">
         <v>42.95</v>
       </c>
-      <c r="H70" s="24" t="n">
+      <c r="H70" s="23" t="n">
         <v>21.3</v>
       </c>
       <c r="J70" s="3" t="n"/>
@@ -5461,28 +5478,28 @@
       <c r="L70" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="71">
-      <c r="A71" s="18" t="n">
+      <c r="A71" s="17" t="n">
         <v>61</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="24" t="n">
+      <c r="D71" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="23" t="n">
         <v>61.3</v>
       </c>
-      <c r="G71" s="24" t="n">
+      <c r="G71" s="23" t="n">
         <v>37.05</v>
       </c>
-      <c r="H71" s="24" t="n">
+      <c r="H71" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J71" s="3" t="n"/>
@@ -5490,28 +5507,28 @@
       <c r="L71" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="72">
-      <c r="A72" s="18" t="n">
+      <c r="A72" s="17" t="n">
         <v>62</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="24" t="n">
+      <c r="D72" s="23" t="n">
         <v>46.7</v>
       </c>
-      <c r="E72" s="24" t="n">
+      <c r="E72" s="23" t="n">
         <v>16.2</v>
       </c>
-      <c r="F72" s="24" t="n">
+      <c r="F72" s="23" t="n">
         <v>46.7</v>
       </c>
-      <c r="G72" s="24" t="n">
+      <c r="G72" s="23" t="n">
         <v>23.4</v>
       </c>
-      <c r="H72" s="24" t="n">
+      <c r="H72" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J72" s="3" t="n"/>
@@ -5519,28 +5536,28 @@
       <c r="L72" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="73">
-      <c r="A73" s="18" t="n">
+      <c r="A73" s="17" t="n">
         <v>63</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="24" t="n">
+      <c r="D73" s="23" t="n">
         <v>59.45</v>
       </c>
-      <c r="E73" s="24" t="n">
+      <c r="E73" s="23" t="n">
         <v>32.1</v>
       </c>
-      <c r="F73" s="24" t="n">
+      <c r="F73" s="23" t="n">
         <v>59.45</v>
       </c>
-      <c r="G73" s="24" t="n">
+      <c r="G73" s="23" t="n">
         <v>36.05</v>
       </c>
-      <c r="H73" s="24" t="n">
+      <c r="H73" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J73" s="3" t="n"/>
@@ -5548,28 +5565,28 @@
       <c r="L73" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="74">
-      <c r="A74" s="18" t="n">
+      <c r="A74" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="24" t="n">
+      <c r="D74" s="23" t="n">
         <v>67.15</v>
       </c>
-      <c r="E74" s="24" t="n">
+      <c r="E74" s="23" t="n">
         <v>34.35</v>
       </c>
-      <c r="F74" s="24" t="n">
+      <c r="F74" s="23" t="n">
         <v>67.15</v>
       </c>
-      <c r="G74" s="24" t="n">
+      <c r="G74" s="23" t="n">
         <v>38.5</v>
       </c>
-      <c r="H74" s="24" t="n">
+      <c r="H74" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J74" s="3" t="n"/>
@@ -5577,28 +5594,28 @@
       <c r="L74" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="75">
-      <c r="A75" s="18" t="n">
+      <c r="A75" s="17" t="n">
         <v>65</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="24" t="n">
+      <c r="D75" s="23" t="n">
         <v>45.8</v>
       </c>
-      <c r="E75" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="F75" s="24" t="n">
+      <c r="E75" s="23" t="n">
+        <v>19</v>
+      </c>
+      <c r="F75" s="23" t="n">
         <v>45.8</v>
       </c>
-      <c r="G75" s="24" t="n">
+      <c r="G75" s="23" t="n">
         <v>19.05</v>
       </c>
-      <c r="H75" s="24" t="n">
+      <c r="H75" s="23" t="n">
         <v>14.75</v>
       </c>
       <c r="J75" s="3" t="n"/>
@@ -5606,28 +5623,28 @@
       <c r="L75" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="76">
-      <c r="A76" s="18" t="n">
+      <c r="A76" s="17" t="n">
         <v>66</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="24" t="n">
+      <c r="D76" s="23" t="n">
         <v>50.25</v>
       </c>
-      <c r="E76" s="24" t="n">
+      <c r="E76" s="23" t="n">
         <v>13.55</v>
       </c>
-      <c r="F76" s="24" t="n">
+      <c r="F76" s="23" t="n">
         <v>50.25</v>
       </c>
-      <c r="G76" s="24" t="n">
+      <c r="G76" s="23" t="n">
         <v>15.5</v>
       </c>
-      <c r="H76" s="24" t="n">
+      <c r="H76" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J76" s="3" t="n"/>
@@ -5635,28 +5652,28 @@
       <c r="L76" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="18" t="n">
+      <c r="A77" s="17" t="n">
         <v>67</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="24" t="n">
+      <c r="D77" s="23" t="n">
         <v>41.15</v>
       </c>
-      <c r="E77" s="24" t="n">
+      <c r="E77" s="23" t="n">
         <v>23.8</v>
       </c>
-      <c r="F77" s="24" t="n">
+      <c r="F77" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="G77" s="24" t="n">
+      <c r="G77" s="23" t="n">
         <v>30.2</v>
       </c>
-      <c r="H77" s="24" t="n">
+      <c r="H77" s="23" t="n">
         <v>15.3</v>
       </c>
       <c r="J77" s="3" t="n"/>
@@ -5664,28 +5681,28 @@
       <c r="L77" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="78">
-      <c r="A78" s="18" t="n">
+      <c r="A78" s="17" t="n">
         <v>68</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="24" t="n">
+      <c r="D78" s="23" t="n">
         <v>49.85</v>
       </c>
-      <c r="E78" s="24" t="n">
+      <c r="E78" s="23" t="n">
         <v>18.9</v>
       </c>
-      <c r="F78" s="24" t="n">
+      <c r="F78" s="23" t="n">
         <v>49.85</v>
       </c>
-      <c r="G78" s="24" t="n">
+      <c r="G78" s="23" t="n">
         <v>29.05</v>
       </c>
-      <c r="H78" s="24" t="n">
+      <c r="H78" s="23" t="n">
         <v>2.3</v>
       </c>
       <c r="J78" s="3" t="n"/>
@@ -5693,28 +5710,28 @@
       <c r="L78" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="79">
-      <c r="A79" s="18" t="n">
+      <c r="A79" s="17" t="n">
         <v>69</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="24" t="n">
+      <c r="D79" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="E79" s="24" t="n">
+      <c r="E79" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="F79" s="24" t="n">
+      <c r="F79" s="23" t="n">
         <v>38.5</v>
       </c>
-      <c r="G79" s="24" t="n">
+      <c r="G79" s="23" t="n">
         <v>23.8</v>
       </c>
-      <c r="H79" s="24" t="n">
+      <c r="H79" s="23" t="n">
         <v>15.95</v>
       </c>
       <c r="J79" s="3" t="n"/>
@@ -5722,28 +5739,28 @@
       <c r="L79" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="80">
-      <c r="A80" s="18" t="n">
+      <c r="A80" s="17" t="n">
         <v>70</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="24" t="n">
+      <c r="D80" s="23" t="n">
         <v>56.4</v>
       </c>
-      <c r="E80" s="24" t="n">
+      <c r="E80" s="23" t="n">
         <v>17.65</v>
       </c>
-      <c r="F80" s="24" t="n">
+      <c r="F80" s="23" t="n">
         <v>60.7</v>
       </c>
-      <c r="G80" s="24" t="n">
+      <c r="G80" s="23" t="n">
         <v>18.45</v>
       </c>
-      <c r="H80" s="24" t="n">
+      <c r="H80" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J80" s="3" t="n"/>
@@ -5751,28 +5768,28 @@
       <c r="L80" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="18" t="n">
+      <c r="A81" s="17" t="n">
         <v>71</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="24" t="n">
+      <c r="D81" s="23" t="n">
         <v>57.05</v>
       </c>
-      <c r="E81" s="24" t="n">
+      <c r="E81" s="23" t="n">
         <v>11.9</v>
       </c>
-      <c r="F81" s="24" t="n">
+      <c r="F81" s="23" t="n">
         <v>57.05</v>
       </c>
-      <c r="G81" s="24" t="n">
+      <c r="G81" s="23" t="n">
         <v>11.9</v>
       </c>
-      <c r="H81" s="24" t="n">
+      <c r="H81" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J81" s="3" t="n"/>
@@ -5780,28 +5797,28 @@
       <c r="L81" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="18" t="n">
+      <c r="A82" s="17" t="n">
         <v>72</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="24" t="n">
+      <c r="D82" s="23" t="n">
         <v>70.3</v>
       </c>
-      <c r="E82" s="24" t="n">
+      <c r="E82" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="F82" s="24" t="n">
+      <c r="F82" s="23" t="n">
         <v>71.35</v>
       </c>
-      <c r="G82" s="24" t="n">
+      <c r="G82" s="23" t="n">
         <v>19.6</v>
       </c>
-      <c r="H82" s="24" t="n">
+      <c r="H82" s="23" t="n">
         <v>10.95</v>
       </c>
       <c r="J82" s="3" t="n"/>
@@ -5809,28 +5826,28 @@
       <c r="L82" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="18" t="n">
+      <c r="A83" s="17" t="n">
         <v>73</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="24" t="n">
+      <c r="D83" s="23" t="n">
         <v>48.2</v>
       </c>
-      <c r="E83" s="24" t="n">
+      <c r="E83" s="23" t="n">
         <v>12.75</v>
       </c>
-      <c r="F83" s="24" t="n">
+      <c r="F83" s="23" t="n">
         <v>51.85</v>
       </c>
-      <c r="G83" s="24" t="n">
+      <c r="G83" s="23" t="n">
         <v>17.3</v>
       </c>
-      <c r="H83" s="24" t="n">
+      <c r="H83" s="23" t="n">
         <v>13.7</v>
       </c>
       <c r="J83" s="3" t="n"/>
@@ -5838,28 +5855,28 @@
       <c r="L83" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="18" t="n">
+      <c r="A84" s="17" t="n">
         <v>74</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="24" t="n">
+      <c r="D84" s="23" t="n">
         <v>45.75</v>
       </c>
-      <c r="E84" s="24" t="n">
+      <c r="E84" s="23" t="n">
         <v>12.3</v>
       </c>
-      <c r="F84" s="24" t="n">
+      <c r="F84" s="23" t="n">
         <v>45.8</v>
       </c>
-      <c r="G84" s="24" t="n">
+      <c r="G84" s="23" t="n">
         <v>12.3</v>
       </c>
-      <c r="H84" s="24" t="n">
+      <c r="H84" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J84" s="3" t="n"/>
@@ -5867,28 +5884,28 @@
       <c r="L84" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="18" t="n">
+      <c r="A85" s="17" t="n">
         <v>75</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="28" t="s">
+      <c r="D85" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="26" t="s">
         <v>19</v>
       </c>
       <c r="J85" s="3" t="n"/>
@@ -5896,28 +5913,28 @@
       <c r="L85" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="18" t="n">
+      <c r="A86" s="17" t="n">
         <v>76</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="28" t="s">
+      <c r="D86" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="26" t="s">
         <v>19</v>
       </c>
       <c r="J86" s="3" t="n"/>
@@ -5925,28 +5942,28 @@
       <c r="L86" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="18" t="n">
+      <c r="A87" s="17" t="n">
         <v>77</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="24" t="n">
+      <c r="D87" s="23" t="n">
         <v>57.95</v>
       </c>
-      <c r="E87" s="24" t="n">
+      <c r="E87" s="23" t="n">
         <v>30.5</v>
       </c>
-      <c r="F87" s="24" t="n">
+      <c r="F87" s="23" t="n">
         <v>57.95</v>
       </c>
-      <c r="G87" s="24" t="n">
+      <c r="G87" s="23" t="n">
         <v>32.75</v>
       </c>
-      <c r="H87" s="24" t="n">
+      <c r="H87" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J87" s="3" t="n"/>
@@ -5954,28 +5971,28 @@
       <c r="L87" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="88">
-      <c r="A88" s="18" t="n">
+      <c r="A88" s="17" t="n">
         <v>78</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="24" t="n">
+      <c r="D88" s="23" t="n">
         <v>53.3</v>
       </c>
-      <c r="E88" s="24" t="n">
+      <c r="E88" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="F88" s="24" t="n">
+      <c r="F88" s="23" t="n">
         <v>53.3</v>
       </c>
-      <c r="G88" s="24" t="n">
+      <c r="G88" s="23" t="n">
         <v>21.45</v>
       </c>
-      <c r="H88" s="24" t="n">
+      <c r="H88" s="23" t="n">
         <v>6.3</v>
       </c>
       <c r="J88" s="3" t="n"/>
@@ -5983,28 +6000,28 @@
       <c r="L88" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="89">
-      <c r="A89" s="18" t="n">
+      <c r="A89" s="17" t="n">
         <v>79</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="24" t="n">
+      <c r="D89" s="23" t="n">
         <v>51.8</v>
       </c>
-      <c r="E89" s="24" t="n">
+      <c r="E89" s="23" t="n">
         <v>35.95</v>
       </c>
-      <c r="F89" s="24" t="n">
+      <c r="F89" s="23" t="n">
         <v>56.3</v>
       </c>
-      <c r="G89" s="24" t="n">
+      <c r="G89" s="23" t="n">
         <v>36.75</v>
       </c>
-      <c r="H89" s="24" t="n">
+      <c r="H89" s="23" t="n">
         <v>30.05</v>
       </c>
       <c r="J89" s="3" t="n"/>
@@ -6012,28 +6029,28 @@
       <c r="L89" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="90">
-      <c r="A90" s="18" t="n">
+      <c r="A90" s="17" t="n">
         <v>80</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="24" t="n">
+      <c r="D90" s="23" t="n">
         <v>46.25</v>
       </c>
-      <c r="E90" s="24" t="n">
+      <c r="E90" s="23" t="n">
         <v>27.2</v>
       </c>
-      <c r="F90" s="24" t="n">
+      <c r="F90" s="23" t="n">
         <v>46.25</v>
       </c>
-      <c r="G90" s="24" t="n">
+      <c r="G90" s="23" t="n">
         <v>27.2</v>
       </c>
-      <c r="H90" s="24" t="n">
+      <c r="H90" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J90" s="3" t="n"/>
@@ -6041,28 +6058,28 @@
       <c r="L90" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="91">
-      <c r="A91" s="18" t="n">
+      <c r="A91" s="17" t="n">
         <v>81</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="24" t="n">
+      <c r="D91" s="23" t="n">
         <v>56.95</v>
       </c>
-      <c r="E91" s="24" t="n">
+      <c r="E91" s="23" t="n">
         <v>28.95</v>
       </c>
-      <c r="F91" s="24" t="n">
+      <c r="F91" s="23" t="n">
         <v>56.95</v>
       </c>
-      <c r="G91" s="24" t="n">
+      <c r="G91" s="23" t="n">
         <v>33.9</v>
       </c>
-      <c r="H91" s="24" t="n">
+      <c r="H91" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J91" s="3" t="n"/>
@@ -6070,28 +6087,28 @@
       <c r="L91" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="92">
-      <c r="A92" s="18" t="n">
+      <c r="A92" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="24" t="n">
+      <c r="D92" s="23" t="n">
         <v>46.95</v>
       </c>
-      <c r="E92" s="24" t="n">
+      <c r="E92" s="23" t="n">
         <v>38.45</v>
       </c>
-      <c r="F92" s="24" t="n">
+      <c r="F92" s="23" t="n">
         <v>47.6</v>
       </c>
-      <c r="G92" s="24" t="n">
+      <c r="G92" s="23" t="n">
         <v>40.2</v>
       </c>
-      <c r="H92" s="24" t="n">
+      <c r="H92" s="23" t="n">
         <v>22.35</v>
       </c>
       <c r="J92" s="3" t="n"/>
@@ -6099,28 +6116,28 @@
       <c r="L92" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="18" t="n">
+      <c r="A93" s="17" t="n">
         <v>83</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="24" t="n">
+      <c r="D93" s="23" t="n">
         <v>50.25</v>
       </c>
-      <c r="E93" s="24" t="n">
+      <c r="E93" s="23" t="n">
         <v>17.3</v>
       </c>
-      <c r="F93" s="24" t="n">
+      <c r="F93" s="23" t="n">
         <v>53.55</v>
       </c>
-      <c r="G93" s="24" t="n">
+      <c r="G93" s="23" t="n">
         <v>17.3</v>
       </c>
-      <c r="H93" s="24" t="n">
+      <c r="H93" s="23" t="n">
         <v>13.7</v>
       </c>
       <c r="J93" s="3" t="n"/>
@@ -6128,28 +6145,28 @@
       <c r="L93" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="94">
-      <c r="A94" s="18" t="n">
+      <c r="A94" s="17" t="n">
         <v>84</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="24" t="n">
+      <c r="D94" s="23" t="n">
         <v>51.15</v>
       </c>
-      <c r="E94" s="24" t="n">
+      <c r="E94" s="23" t="n">
         <v>13.1</v>
       </c>
-      <c r="F94" s="24" t="n">
+      <c r="F94" s="23" t="n">
         <v>51.15</v>
       </c>
-      <c r="G94" s="24" t="n">
+      <c r="G94" s="23" t="n">
         <v>32.85</v>
       </c>
-      <c r="H94" s="24" t="n">
+      <c r="H94" s="23" t="n">
         <v>3.45</v>
       </c>
       <c r="J94" s="3" t="n"/>
@@ -6157,28 +6174,28 @@
       <c r="L94" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="95">
-      <c r="A95" s="18" t="n">
+      <c r="A95" s="17" t="n">
         <v>85</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D95" s="24" t="n">
+      <c r="D95" s="23" t="n">
         <v>51.05</v>
       </c>
-      <c r="E95" s="24" t="n">
+      <c r="E95" s="23" t="n">
         <v>24.45</v>
       </c>
-      <c r="F95" s="24" t="n">
+      <c r="F95" s="23" t="n">
         <v>51.05</v>
       </c>
-      <c r="G95" s="24" t="n">
+      <c r="G95" s="23" t="n">
         <v>37.15</v>
       </c>
-      <c r="H95" s="24" t="n">
+      <c r="H95" s="23" t="n">
         <v>14.85</v>
       </c>
       <c r="J95" s="3" t="n"/>
@@ -6186,28 +6203,28 @@
       <c r="L95" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="96">
-      <c r="A96" s="18" t="n">
+      <c r="A96" s="17" t="n">
         <v>86</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="24" t="n">
+      <c r="D96" s="23" t="n">
         <v>45.15</v>
       </c>
-      <c r="E96" s="24" t="n">
+      <c r="E96" s="23" t="n">
         <v>12.2</v>
       </c>
-      <c r="F96" s="24" t="n">
+      <c r="F96" s="23" t="n">
         <v>47.65</v>
       </c>
-      <c r="G96" s="24" t="n">
+      <c r="G96" s="23" t="n">
         <v>12.2</v>
       </c>
-      <c r="H96" s="24" t="n">
+      <c r="H96" s="23" t="n">
         <v>8.45</v>
       </c>
       <c r="J96" s="3" t="n"/>
@@ -6215,28 +6232,28 @@
       <c r="L96" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="97">
-      <c r="A97" s="18" t="n">
+      <c r="A97" s="17" t="n">
         <v>87</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="24" t="n">
+      <c r="D97" s="23" t="n">
         <v>31.85</v>
       </c>
-      <c r="E97" s="24" t="n">
+      <c r="E97" s="23" t="n">
         <v>13.75</v>
       </c>
-      <c r="F97" s="24" t="n">
+      <c r="F97" s="23" t="n">
         <v>32.8</v>
       </c>
-      <c r="G97" s="24" t="n">
+      <c r="G97" s="23" t="n">
         <v>13.75</v>
       </c>
-      <c r="H97" s="24" t="n">
+      <c r="H97" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J97" s="3" t="n"/>
@@ -6244,28 +6261,28 @@
       <c r="L97" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="98">
-      <c r="A98" s="18" t="n">
+      <c r="A98" s="17" t="n">
         <v>88</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="24" t="n">
+      <c r="D98" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="23" t="n">
         <v>39.7</v>
       </c>
-      <c r="G98" s="24" t="n">
+      <c r="G98" s="23" t="n">
         <v>75.6</v>
       </c>
-      <c r="H98" s="24" t="n">
+      <c r="H98" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J98" s="3" t="n"/>
@@ -6273,28 +6290,28 @@
       <c r="L98" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="99">
-      <c r="A99" s="18" t="n">
+      <c r="A99" s="17" t="n">
         <v>89</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="24" t="n">
+      <c r="D99" s="23" t="n">
         <v>36.7</v>
       </c>
-      <c r="E99" s="24" t="n">
+      <c r="E99" s="23" t="n">
         <v>15.4</v>
       </c>
-      <c r="F99" s="24" t="n">
+      <c r="F99" s="23" t="n">
         <v>38.25</v>
       </c>
-      <c r="G99" s="24" t="n">
+      <c r="G99" s="23" t="n">
         <v>19.3</v>
       </c>
-      <c r="H99" s="24" t="n">
+      <c r="H99" s="23" t="n">
         <v>11.4</v>
       </c>
       <c r="J99" s="3" t="n"/>
@@ -6302,28 +6319,28 @@
       <c r="L99" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="100">
-      <c r="A100" s="18" t="n">
+      <c r="A100" s="17" t="n">
         <v>90</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="24" t="n">
+      <c r="D100" s="23" t="n">
         <v>55.5</v>
       </c>
-      <c r="E100" s="24" t="n">
+      <c r="E100" s="23" t="n">
         <v>36.9</v>
       </c>
-      <c r="F100" s="24" t="n">
+      <c r="F100" s="23" t="n">
         <v>58.05</v>
       </c>
-      <c r="G100" s="24" t="n">
+      <c r="G100" s="23" t="n">
         <v>45.95</v>
       </c>
-      <c r="H100" s="24" t="n">
+      <c r="H100" s="23" t="n">
         <v>23.3</v>
       </c>
       <c r="J100" s="3" t="n"/>
@@ -6331,28 +6348,28 @@
       <c r="L100" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="101">
-      <c r="A101" s="18" t="n">
+      <c r="A101" s="17" t="n">
         <v>91</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="24" t="n">
+      <c r="D101" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="23" t="n">
         <v>48.55</v>
       </c>
-      <c r="G101" s="24" t="n">
+      <c r="G101" s="23" t="n">
         <v>42.3</v>
       </c>
-      <c r="H101" s="24" t="n">
+      <c r="H101" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J101" s="3" t="n"/>
@@ -6360,28 +6377,28 @@
       <c r="L101" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="102">
-      <c r="A102" s="18" t="n">
+      <c r="A102" s="17" t="n">
         <v>92</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="24" t="n">
+      <c r="D102" s="23" t="n">
         <v>44.6</v>
       </c>
-      <c r="E102" s="24" t="n">
+      <c r="E102" s="23" t="n">
         <v>31.6</v>
       </c>
-      <c r="F102" s="24" t="n">
+      <c r="F102" s="23" t="n">
         <v>48.85</v>
       </c>
-      <c r="G102" s="24" t="n">
+      <c r="G102" s="23" t="n">
         <v>36.3</v>
       </c>
-      <c r="H102" s="24" t="n">
+      <c r="H102" s="23" t="n">
         <v>25.4</v>
       </c>
       <c r="J102" s="3" t="n"/>
@@ -6389,28 +6406,28 @@
       <c r="L102" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="103">
-      <c r="A103" s="18" t="n">
+      <c r="A103" s="17" t="n">
         <v>93</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="24" t="n">
+      <c r="D103" s="23" t="n">
         <v>48.45</v>
       </c>
-      <c r="E103" s="24" t="n">
+      <c r="E103" s="23" t="n">
         <v>26.15</v>
       </c>
-      <c r="F103" s="24" t="n">
+      <c r="F103" s="23" t="n">
         <v>48.45</v>
       </c>
-      <c r="G103" s="24" t="n">
+      <c r="G103" s="23" t="n">
         <v>26.15</v>
       </c>
-      <c r="H103" s="24" t="n">
+      <c r="H103" s="23" t="n">
         <v>15.75</v>
       </c>
       <c r="J103" s="3" t="n"/>
@@ -6418,28 +6435,28 @@
       <c r="L103" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="104">
-      <c r="A104" s="18" t="n">
+      <c r="A104" s="17" t="n">
         <v>94</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="24" t="n">
+      <c r="D104" s="23" t="n">
         <v>53.1</v>
       </c>
-      <c r="E104" s="24" t="n">
+      <c r="E104" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="F104" s="24" t="n">
+      <c r="F104" s="23" t="n">
         <v>58.55</v>
       </c>
-      <c r="G104" s="24" t="n">
+      <c r="G104" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="H104" s="24" t="n">
+      <c r="H104" s="23" t="n">
         <v>3.45</v>
       </c>
       <c r="J104" s="3" t="n"/>
@@ -6447,28 +6464,28 @@
       <c r="L104" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="105">
-      <c r="A105" s="18" t="n">
+      <c r="A105" s="17" t="n">
         <v>95</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D105" s="24" t="n">
+      <c r="D105" s="23" t="n">
         <v>66.8</v>
       </c>
-      <c r="E105" s="24" t="n">
+      <c r="E105" s="23" t="n">
         <v>32.35</v>
       </c>
-      <c r="F105" s="24" t="n">
+      <c r="F105" s="23" t="n">
         <v>66.95</v>
       </c>
-      <c r="G105" s="24" t="n">
+      <c r="G105" s="23" t="n">
         <v>39.9</v>
       </c>
-      <c r="H105" s="24" t="n">
+      <c r="H105" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J105" s="3" t="n"/>
@@ -6476,28 +6493,28 @@
       <c r="L105" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="106">
-      <c r="A106" s="18" t="n">
+      <c r="A106" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D106" s="24" t="n">
+      <c r="D106" s="23" t="n">
         <v>58.15</v>
       </c>
-      <c r="E106" s="24" t="n">
+      <c r="E106" s="23" t="n">
         <v>25.35</v>
       </c>
-      <c r="F106" s="24" t="n">
+      <c r="F106" s="23" t="n">
         <v>59.95</v>
       </c>
-      <c r="G106" s="24" t="n">
+      <c r="G106" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="H106" s="24" t="n">
+      <c r="H106" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J106" s="3" t="n"/>
@@ -6505,28 +6522,28 @@
       <c r="L106" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="107">
-      <c r="A107" s="18" t="n">
+      <c r="A107" s="17" t="n">
         <v>97</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="24" t="n">
+      <c r="D107" s="23" t="n">
         <v>49</v>
       </c>
-      <c r="E107" s="24" t="n">
+      <c r="E107" s="23" t="n">
         <v>39.8</v>
       </c>
-      <c r="F107" s="24" t="n">
+      <c r="F107" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="G107" s="24" t="n">
+      <c r="G107" s="23" t="n">
         <v>40.55</v>
       </c>
-      <c r="H107" s="24" t="n">
+      <c r="H107" s="23" t="n">
         <v>35.45</v>
       </c>
       <c r="J107" s="3" t="n"/>
@@ -6534,28 +6551,28 @@
       <c r="L107" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="108">
-      <c r="A108" s="18" t="n">
+      <c r="A108" s="17" t="n">
         <v>98</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="24" t="n">
+      <c r="D108" s="23" t="n">
         <v>54.1</v>
       </c>
-      <c r="E108" s="24" t="n">
+      <c r="E108" s="23" t="n">
         <v>17.6</v>
       </c>
-      <c r="F108" s="24" t="n">
+      <c r="F108" s="23" t="n">
         <v>57.3</v>
       </c>
-      <c r="G108" s="24" t="n">
+      <c r="G108" s="23" t="n">
         <v>28.4</v>
       </c>
-      <c r="H108" s="24" t="n">
+      <c r="H108" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J108" s="3" t="n"/>
@@ -6563,28 +6580,28 @@
       <c r="L108" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="109">
-      <c r="A109" s="18" t="n">
+      <c r="A109" s="17" t="n">
         <v>99</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="24" t="n">
+      <c r="D109" s="23" t="n">
         <v>50.15</v>
       </c>
-      <c r="E109" s="24" t="n">
+      <c r="E109" s="23" t="n">
         <v>37.6</v>
       </c>
-      <c r="F109" s="24" t="n">
+      <c r="F109" s="23" t="n">
         <v>53.45</v>
       </c>
-      <c r="G109" s="24" t="n">
+      <c r="G109" s="23" t="n">
         <v>41.7</v>
       </c>
-      <c r="H109" s="24" t="n">
+      <c r="H109" s="23" t="n">
         <v>24.35</v>
       </c>
       <c r="J109" s="3" t="n"/>
@@ -6592,28 +6609,28 @@
       <c r="L109" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="110">
-      <c r="A110" s="18" t="n">
+      <c r="A110" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="24" t="n">
+      <c r="D110" s="23" t="n">
         <v>46.45</v>
       </c>
-      <c r="E110" s="24" t="n">
+      <c r="E110" s="23" t="n">
         <v>30.5</v>
       </c>
-      <c r="F110" s="24" t="n">
+      <c r="F110" s="23" t="n">
         <v>51.7</v>
       </c>
-      <c r="G110" s="24" t="n">
+      <c r="G110" s="23" t="n">
         <v>30.5</v>
       </c>
-      <c r="H110" s="24" t="n">
+      <c r="H110" s="23" t="n">
         <v>10.05</v>
       </c>
       <c r="J110" s="3" t="n"/>
@@ -6621,28 +6638,28 @@
       <c r="L110" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="111">
-      <c r="A111" s="18" t="n">
+      <c r="A111" s="17" t="n">
         <v>101</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="24" t="n">
+      <c r="D111" s="23" t="n">
         <v>33.65</v>
       </c>
-      <c r="E111" s="24" t="n">
+      <c r="E111" s="23" t="n">
         <v>11.15</v>
       </c>
-      <c r="F111" s="24" t="n">
+      <c r="F111" s="23" t="n">
         <v>34.2</v>
       </c>
-      <c r="G111" s="24" t="n">
+      <c r="G111" s="23" t="n">
         <v>11.2</v>
       </c>
-      <c r="H111" s="24" t="n">
+      <c r="H111" s="23" t="n">
         <v>6.4</v>
       </c>
       <c r="J111" s="3" t="n"/>
@@ -6650,28 +6667,28 @@
       <c r="L111" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="112">
-      <c r="A112" s="18" t="n">
+      <c r="A112" s="17" t="n">
         <v>102</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="24" t="n">
+      <c r="D112" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="23" t="n">
         <v>60.85</v>
       </c>
-      <c r="G112" s="24" t="n">
+      <c r="G112" s="23" t="n">
         <v>39.4</v>
       </c>
-      <c r="H112" s="24" t="n">
+      <c r="H112" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J112" s="3" t="n"/>
@@ -6679,28 +6696,28 @@
       <c r="L112" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="113">
-      <c r="A113" s="18" t="n">
+      <c r="A113" s="17" t="n">
         <v>103</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="24" t="n">
+      <c r="D113" s="23" t="n">
         <v>47.3</v>
       </c>
-      <c r="E113" s="24" t="n">
+      <c r="E113" s="23" t="n">
         <v>28.15</v>
       </c>
-      <c r="F113" s="24" t="n">
+      <c r="F113" s="23" t="n">
         <v>47.3</v>
       </c>
-      <c r="G113" s="24" t="n">
+      <c r="G113" s="23" t="n">
         <v>30.3</v>
       </c>
-      <c r="H113" s="24" t="n">
+      <c r="H113" s="23" t="n">
         <v>25.4</v>
       </c>
       <c r="J113" s="3" t="n"/>
@@ -6708,28 +6725,28 @@
       <c r="L113" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="114">
-      <c r="A114" s="18" t="n">
+      <c r="A114" s="17" t="n">
         <v>104</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="28" t="s">
+      <c r="D114" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G114" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J114" s="3" t="n"/>
@@ -6737,28 +6754,28 @@
       <c r="L114" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="115">
-      <c r="A115" s="18" t="n">
+      <c r="A115" s="17" t="n">
         <v>105</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C115" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="28" t="s">
+      <c r="D115" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G115" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J115" s="3" t="n"/>
@@ -6766,28 +6783,28 @@
       <c r="L115" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="116">
-      <c r="A116" s="18" t="n">
+      <c r="A116" s="17" t="n">
         <v>106</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="24" t="n">
+      <c r="D116" s="23" t="n">
         <v>50.4</v>
       </c>
-      <c r="E116" s="24" t="n">
+      <c r="E116" s="23" t="n">
         <v>6.3</v>
       </c>
-      <c r="F116" s="24" t="n">
+      <c r="F116" s="23" t="n">
         <v>51.2</v>
       </c>
-      <c r="G116" s="24" t="n">
+      <c r="G116" s="23" t="n">
         <v>6.45</v>
       </c>
-      <c r="H116" s="24" t="n">
+      <c r="H116" s="23" t="n">
         <v>1.9</v>
       </c>
       <c r="J116" s="3" t="n"/>
@@ -6795,28 +6812,28 @@
       <c r="L116" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="117">
-      <c r="A117" s="18" t="n">
+      <c r="A117" s="17" t="n">
         <v>107</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="28" t="s">
+      <c r="D117" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H117" s="28" t="s">
+      <c r="H117" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J117" s="3" t="n"/>
@@ -6824,28 +6841,28 @@
       <c r="L117" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="118">
-      <c r="A118" s="18" t="n">
+      <c r="A118" s="17" t="n">
         <v>108</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D118" s="24" t="n">
+      <c r="D118" s="23" t="n">
         <v>51.35</v>
       </c>
-      <c r="E118" s="24" t="n">
+      <c r="E118" s="23" t="n">
         <v>11.35</v>
       </c>
-      <c r="F118" s="24" t="n">
+      <c r="F118" s="23" t="n">
         <v>51.35</v>
       </c>
-      <c r="G118" s="24" t="n">
+      <c r="G118" s="23" t="n">
         <v>11.35</v>
       </c>
-      <c r="H118" s="24" t="n">
+      <c r="H118" s="23" t="n">
         <v>8.9</v>
       </c>
       <c r="J118" s="3" t="n"/>
@@ -6853,28 +6870,28 @@
       <c r="L118" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="119">
-      <c r="A119" s="18" t="n">
+      <c r="A119" s="17" t="n">
         <v>109</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D119" s="24" t="n">
+      <c r="D119" s="23" t="n">
         <v>54.6</v>
       </c>
-      <c r="E119" s="24" t="n">
+      <c r="E119" s="23" t="n">
         <v>31.45</v>
       </c>
-      <c r="F119" s="24" t="n">
+      <c r="F119" s="23" t="n">
         <v>61.8</v>
       </c>
-      <c r="G119" s="24" t="n">
+      <c r="G119" s="23" t="n">
         <v>40.9</v>
       </c>
-      <c r="H119" s="24" t="n">
+      <c r="H119" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J119" s="3" t="n"/>
@@ -6882,28 +6899,28 @@
       <c r="L119" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="120">
-      <c r="A120" s="18" t="n">
+      <c r="A120" s="17" t="n">
         <v>110</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="24" t="n">
+      <c r="D120" s="23" t="n">
         <v>60.6</v>
       </c>
-      <c r="E120" s="24" t="n">
+      <c r="E120" s="23" t="n">
         <v>28.35</v>
       </c>
-      <c r="F120" s="24" t="n">
+      <c r="F120" s="23" t="n">
         <v>62.15</v>
       </c>
-      <c r="G120" s="24" t="n">
+      <c r="G120" s="23" t="n">
         <v>32.35</v>
       </c>
-      <c r="H120" s="24" t="n">
+      <c r="H120" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J120" s="3" t="n"/>
@@ -6911,28 +6928,28 @@
       <c r="L120" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="121">
-      <c r="A121" s="18" t="n">
+      <c r="A121" s="17" t="n">
         <v>111</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="D121" s="24" t="n">
+      <c r="D121" s="23" t="n">
         <v>69.35</v>
       </c>
-      <c r="E121" s="24" t="n">
+      <c r="E121" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="F121" s="24" t="n">
+      <c r="F121" s="23" t="n">
         <v>69.35</v>
       </c>
-      <c r="G121" s="24" t="n">
+      <c r="G121" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="H121" s="24" t="n">
+      <c r="H121" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J121" s="3" t="n"/>
@@ -6940,28 +6957,28 @@
       <c r="L121" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="122">
-      <c r="A122" s="18" t="n">
+      <c r="A122" s="17" t="n">
         <v>112</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="24" t="n">
+      <c r="D122" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="23" t="n">
         <v>80.75</v>
       </c>
-      <c r="G122" s="24" t="n">
+      <c r="G122" s="23" t="n">
         <v>42.25</v>
       </c>
-      <c r="H122" s="24" t="n">
+      <c r="H122" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J122" s="3" t="n"/>
@@ -6969,28 +6986,28 @@
       <c r="L122" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="123">
-      <c r="A123" s="18" t="n">
+      <c r="A123" s="17" t="n">
         <v>113</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D123" s="24" t="n">
+      <c r="D123" s="23" t="n">
         <v>59.2</v>
       </c>
-      <c r="E123" s="24" t="n">
+      <c r="E123" s="23" t="n">
         <v>33.5</v>
       </c>
-      <c r="F123" s="24" t="n">
+      <c r="F123" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="G123" s="24" t="n">
+      <c r="G123" s="23" t="n">
         <v>33.55</v>
       </c>
-      <c r="H123" s="24" t="n">
+      <c r="H123" s="23" t="n">
         <v>28.3</v>
       </c>
       <c r="J123" s="3" t="n"/>
@@ -6998,28 +7015,28 @@
       <c r="L123" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="124">
-      <c r="A124" s="18" t="n">
+      <c r="A124" s="17" t="n">
         <v>114</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="24" t="n">
+      <c r="D124" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="E124" s="24" t="n">
+      <c r="E124" s="23" t="n">
         <v>18.7</v>
       </c>
-      <c r="F124" s="24" t="n">
+      <c r="F124" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="G124" s="24" t="n">
+      <c r="G124" s="23" t="n">
         <v>18.7</v>
       </c>
-      <c r="H124" s="24" t="n">
+      <c r="H124" s="23" t="n">
         <v>3.45</v>
       </c>
       <c r="J124" s="3" t="n"/>
@@ -7027,28 +7044,28 @@
       <c r="L124" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="125">
-      <c r="A125" s="18" t="n">
+      <c r="A125" s="17" t="n">
         <v>115</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="24" t="n">
+      <c r="D125" s="23" t="n">
         <v>61.8</v>
       </c>
-      <c r="E125" s="24" t="n">
+      <c r="E125" s="23" t="n">
         <v>32.45</v>
       </c>
-      <c r="F125" s="24" t="n">
+      <c r="F125" s="23" t="n">
         <v>61.8</v>
       </c>
-      <c r="G125" s="24" t="n">
+      <c r="G125" s="23" t="n">
         <v>34.7</v>
       </c>
-      <c r="H125" s="24" t="n">
+      <c r="H125" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J125" s="3" t="n"/>
@@ -7056,28 +7073,28 @@
       <c r="L125" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="126">
-      <c r="A126" s="18" t="n">
+      <c r="A126" s="17" t="n">
         <v>116</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D126" s="24" t="n">
+      <c r="D126" s="23" t="n">
         <v>43.25</v>
       </c>
-      <c r="E126" s="24" t="n">
+      <c r="E126" s="23" t="n">
         <v>20.15</v>
       </c>
-      <c r="F126" s="24" t="n">
+      <c r="F126" s="23" t="n">
         <v>43.85</v>
       </c>
-      <c r="G126" s="24" t="n">
+      <c r="G126" s="23" t="n">
         <v>20.8</v>
       </c>
-      <c r="H126" s="24" t="n">
+      <c r="H126" s="23" t="n">
         <v>14.4</v>
       </c>
       <c r="J126" s="3" t="n"/>
@@ -7085,28 +7102,28 @@
       <c r="L126" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="127">
-      <c r="A127" s="18" t="n">
+      <c r="A127" s="17" t="n">
         <v>117</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="24" t="n">
+      <c r="D127" s="23" t="n">
         <v>49.8</v>
       </c>
-      <c r="E127" s="24" t="n">
+      <c r="E127" s="23" t="n">
         <v>28.95</v>
       </c>
-      <c r="F127" s="24" t="n">
+      <c r="F127" s="23" t="n">
         <v>51.55</v>
       </c>
-      <c r="G127" s="24" t="n">
+      <c r="G127" s="23" t="n">
         <v>35.3</v>
       </c>
-      <c r="H127" s="24" t="n">
+      <c r="H127" s="23" t="n">
         <v>24.5</v>
       </c>
       <c r="J127" s="3" t="n"/>
@@ -7114,28 +7131,28 @@
       <c r="L127" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="128">
-      <c r="A128" s="18" t="n">
+      <c r="A128" s="17" t="n">
         <v>118</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D128" s="24" t="n">
+      <c r="D128" s="23" t="n">
         <v>48.15</v>
       </c>
-      <c r="E128" s="24" t="n">
+      <c r="E128" s="23" t="n">
         <v>26.5</v>
       </c>
-      <c r="F128" s="24" t="n">
+      <c r="F128" s="23" t="n">
         <v>59.05</v>
       </c>
-      <c r="G128" s="24" t="n">
+      <c r="G128" s="23" t="n">
         <v>30</v>
       </c>
-      <c r="H128" s="24" t="n">
+      <c r="H128" s="23" t="n">
         <v>8.2</v>
       </c>
       <c r="J128" s="3" t="n"/>
@@ -7143,28 +7160,28 @@
       <c r="L128" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="129">
-      <c r="A129" s="18" t="n">
+      <c r="A129" s="17" t="n">
         <v>119</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D129" s="24" t="n">
+      <c r="D129" s="23" t="n">
         <v>61.25</v>
       </c>
-      <c r="E129" s="24" t="n">
+      <c r="E129" s="23" t="n">
         <v>18.55</v>
       </c>
-      <c r="F129" s="24" t="n">
+      <c r="F129" s="23" t="n">
         <v>61.35</v>
       </c>
-      <c r="G129" s="24" t="n">
+      <c r="G129" s="23" t="n">
         <v>27.7</v>
       </c>
-      <c r="H129" s="24" t="n">
+      <c r="H129" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J129" s="3" t="n"/>
@@ -7172,28 +7189,28 @@
       <c r="L129" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="130">
-      <c r="A130" s="18" t="n">
+      <c r="A130" s="17" t="n">
         <v>120</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D130" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="24" t="n">
+      <c r="D130" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="23" t="n">
         <v>59.1</v>
       </c>
-      <c r="G130" s="24" t="n">
+      <c r="G130" s="23" t="n">
         <v>21.3</v>
       </c>
-      <c r="H130" s="24" t="n">
+      <c r="H130" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J130" s="3" t="n"/>
@@ -7201,28 +7218,28 @@
       <c r="L130" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="131">
-      <c r="A131" s="18" t="n">
+      <c r="A131" s="17" t="n">
         <v>121</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D131" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="24" t="n">
+      <c r="D131" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="23" t="n">
         <v>77.95</v>
       </c>
-      <c r="G131" s="24" t="n">
+      <c r="G131" s="23" t="n">
         <v>38.4</v>
       </c>
-      <c r="H131" s="24" t="n">
+      <c r="H131" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J131" s="3" t="n"/>
@@ -7230,28 +7247,28 @@
       <c r="L131" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="132">
-      <c r="A132" s="18" t="n">
+      <c r="A132" s="17" t="n">
         <v>122</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D132" s="24" t="n">
+      <c r="D132" s="23" t="n">
         <v>38.05</v>
       </c>
-      <c r="E132" s="24" t="n">
+      <c r="E132" s="23" t="n">
         <v>32.9</v>
       </c>
-      <c r="F132" s="24" t="n">
+      <c r="F132" s="23" t="n">
         <v>38.05</v>
       </c>
-      <c r="G132" s="24" t="n">
+      <c r="G132" s="23" t="n">
         <v>33.55</v>
       </c>
-      <c r="H132" s="24" t="n">
+      <c r="H132" s="23" t="n">
         <v>23.9</v>
       </c>
       <c r="J132" s="3" t="n"/>
@@ -7259,28 +7276,28 @@
       <c r="L132" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="133">
-      <c r="A133" s="18" t="n">
+      <c r="A133" s="17" t="n">
         <v>123</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D133" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="24" t="n">
+      <c r="D133" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="23" t="n">
         <v>66.25</v>
       </c>
-      <c r="G133" s="24" t="n">
+      <c r="G133" s="23" t="n">
         <v>38.5</v>
       </c>
-      <c r="H133" s="24" t="n">
+      <c r="H133" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J133" s="3" t="n"/>
@@ -7288,28 +7305,28 @@
       <c r="L133" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="134">
-      <c r="A134" s="18" t="n">
+      <c r="A134" s="17" t="n">
         <v>124</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="24" t="n">
+      <c r="D134" s="23" t="n">
         <v>45.3</v>
       </c>
-      <c r="E134" s="24" t="n">
+      <c r="E134" s="23" t="n">
         <v>22.05</v>
       </c>
-      <c r="F134" s="24" t="n">
+      <c r="F134" s="23" t="n">
         <v>45.35</v>
       </c>
-      <c r="G134" s="24" t="n">
+      <c r="G134" s="23" t="n">
         <v>22.05</v>
       </c>
-      <c r="H134" s="24" t="n">
+      <c r="H134" s="23" t="n">
         <v>11.15</v>
       </c>
       <c r="J134" s="3" t="n"/>
@@ -7317,28 +7334,28 @@
       <c r="L134" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="135">
-      <c r="A135" s="18" t="n">
+      <c r="A135" s="17" t="n">
         <v>125</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="24" t="n">
+      <c r="D135" s="23" t="n">
         <v>55.85</v>
       </c>
-      <c r="E135" s="24" t="n">
+      <c r="E135" s="23" t="n">
         <v>11.05</v>
       </c>
-      <c r="F135" s="24" t="n">
+      <c r="F135" s="23" t="n">
         <v>55.85</v>
       </c>
-      <c r="G135" s="24" t="n">
+      <c r="G135" s="23" t="n">
         <v>11.7</v>
       </c>
-      <c r="H135" s="24" t="n">
+      <c r="H135" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J135" s="3" t="n"/>
@@ -7346,28 +7363,28 @@
       <c r="L135" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="136">
-      <c r="A136" s="18" t="n">
+      <c r="A136" s="17" t="n">
         <v>126</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D136" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="24" t="n">
+      <c r="D136" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="23" t="n">
         <v>59</v>
       </c>
-      <c r="G136" s="24" t="n">
+      <c r="G136" s="23" t="n">
         <v>43.55</v>
       </c>
-      <c r="H136" s="24" t="n">
+      <c r="H136" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J136" s="3" t="n"/>
@@ -7375,28 +7392,28 @@
       <c r="L136" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="137">
-      <c r="A137" s="18" t="n">
+      <c r="A137" s="17" t="n">
         <v>127</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D137" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="28" t="s">
+      <c r="D137" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G137" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H137" s="28" t="s">
+      <c r="H137" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J137" s="3" t="n"/>
@@ -7404,28 +7421,28 @@
       <c r="L137" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="138">
-      <c r="A138" s="18" t="n">
+      <c r="A138" s="17" t="n">
         <v>128</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D138" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="24" t="n">
+      <c r="D138" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="23" t="n">
         <v>53.45</v>
       </c>
-      <c r="G138" s="24" t="n">
+      <c r="G138" s="23" t="n">
         <v>29</v>
       </c>
-      <c r="H138" s="24" t="n">
+      <c r="H138" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J138" s="3" t="n"/>
@@ -7433,28 +7450,28 @@
       <c r="L138" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="139">
-      <c r="A139" s="18" t="n">
+      <c r="A139" s="17" t="n">
         <v>129</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D139" s="24" t="n">
+      <c r="D139" s="23" t="n">
         <v>60.55</v>
       </c>
-      <c r="E139" s="24" t="n">
+      <c r="E139" s="23" t="n">
         <v>29.3</v>
       </c>
-      <c r="F139" s="24" t="n">
+      <c r="F139" s="23" t="n">
         <v>60.55</v>
       </c>
-      <c r="G139" s="24" t="n">
+      <c r="G139" s="23" t="n">
         <v>34.8</v>
       </c>
-      <c r="H139" s="24" t="n">
+      <c r="H139" s="23" t="n">
         <v>26</v>
       </c>
       <c r="J139" s="3" t="n"/>
@@ -7462,28 +7479,28 @@
       <c r="L139" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="140">
-      <c r="A140" s="18" t="n">
+      <c r="A140" s="17" t="n">
         <v>130</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="E140" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F140" s="24" t="n">
+      <c r="F140" s="23" t="n">
         <v>35.75</v>
       </c>
-      <c r="G140" s="24" t="n">
+      <c r="G140" s="23" t="n">
         <v>68.75</v>
       </c>
-      <c r="H140" s="24" t="n">
+      <c r="H140" s="23" t="n">
         <v>34.35</v>
       </c>
       <c r="J140" s="3" t="n"/>
@@ -7491,28 +7508,28 @@
       <c r="L140" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="141">
-      <c r="A141" s="18" t="n">
+      <c r="A141" s="17" t="n">
         <v>131</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D141" s="24" t="n">
+      <c r="D141" s="23" t="n">
         <v>41.1</v>
       </c>
-      <c r="E141" s="24" t="n">
+      <c r="E141" s="23" t="n">
         <v>32.95</v>
       </c>
-      <c r="F141" s="24" t="n">
+      <c r="F141" s="23" t="n">
         <v>49.95</v>
       </c>
-      <c r="G141" s="24" t="n">
+      <c r="G141" s="23" t="n">
         <v>32.95</v>
       </c>
-      <c r="H141" s="24" t="n">
+      <c r="H141" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J141" s="3" t="n"/>
@@ -7520,28 +7537,28 @@
       <c r="L141" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="142">
-      <c r="A142" s="18" t="n">
+      <c r="A142" s="17" t="n">
         <v>132</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D142" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E142" s="28" t="s">
+      <c r="E142" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F142" s="24" t="n">
+      <c r="F142" s="23" t="n">
         <v>47.65</v>
       </c>
-      <c r="G142" s="24" t="n">
+      <c r="G142" s="23" t="n">
         <v>32.35</v>
       </c>
-      <c r="H142" s="24" t="n">
+      <c r="H142" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J142" s="3" t="n"/>
@@ -7549,28 +7566,28 @@
       <c r="L142" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="18" t="n">
+      <c r="A143" s="17" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="24" t="n">
+      <c r="D143" s="23" t="n">
         <v>68.15</v>
       </c>
-      <c r="E143" s="24" t="n">
+      <c r="E143" s="23" t="n">
         <v>25.1</v>
       </c>
-      <c r="F143" s="24" t="n">
+      <c r="F143" s="23" t="n">
         <v>68.15</v>
       </c>
-      <c r="G143" s="24" t="n">
+      <c r="G143" s="23" t="n">
         <v>30.05</v>
       </c>
-      <c r="H143" s="24" t="n">
+      <c r="H143" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J143" s="3" t="n"/>
@@ -7578,28 +7595,28 @@
       <c r="L143" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="18" t="n">
+      <c r="A144" s="17" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C144" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="24" t="n">
+      <c r="D144" s="23" t="n">
         <v>46.4</v>
       </c>
-      <c r="E144" s="24" t="n">
+      <c r="E144" s="23" t="n">
         <v>11.25</v>
       </c>
-      <c r="F144" s="24" t="n">
+      <c r="F144" s="23" t="n">
         <v>46.4</v>
       </c>
-      <c r="G144" s="24" t="n">
+      <c r="G144" s="23" t="n">
         <v>11.25</v>
       </c>
-      <c r="H144" s="24" t="n">
+      <c r="H144" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J144" s="3" t="n"/>
@@ -7607,28 +7624,28 @@
       <c r="L144" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="18" t="n">
+      <c r="A145" s="17" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="24" t="n">
+      <c r="D145" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="23" t="n">
         <v>56.4</v>
       </c>
-      <c r="G145" s="24" t="n">
+      <c r="G145" s="23" t="n">
         <v>38.95</v>
       </c>
-      <c r="H145" s="24" t="n">
+      <c r="H145" s="23" t="n">
         <v>31.15</v>
       </c>
       <c r="J145" s="3" t="n"/>
@@ -7636,28 +7653,28 @@
       <c r="L145" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="18" t="n">
+      <c r="A146" s="17" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="24" t="n">
+      <c r="D146" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="23" t="n">
         <v>55.25</v>
       </c>
-      <c r="G146" s="24" t="n">
+      <c r="G146" s="23" t="n">
         <v>51.1</v>
       </c>
-      <c r="H146" s="24" t="n">
+      <c r="H146" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J146" s="3" t="n"/>
@@ -7665,28 +7682,28 @@
       <c r="L146" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="18" t="n">
+      <c r="A147" s="17" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="24" t="n">
+      <c r="D147" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="23" t="n">
         <v>66.05</v>
       </c>
-      <c r="G147" s="24" t="n">
+      <c r="G147" s="23" t="n">
         <v>58.7</v>
       </c>
-      <c r="H147" s="24" t="n">
+      <c r="H147" s="23" t="n">
         <v>15.95</v>
       </c>
       <c r="J147" s="3" t="n"/>
@@ -7694,28 +7711,28 @@
       <c r="L147" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="18" t="n">
+      <c r="A148" s="17" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="24" t="n">
+      <c r="D148" s="23" t="n">
         <v>67.8</v>
       </c>
-      <c r="E148" s="24" t="n">
+      <c r="E148" s="23" t="n">
         <v>13.4</v>
       </c>
-      <c r="F148" s="24" t="n">
+      <c r="F148" s="23" t="n">
         <v>68.95</v>
       </c>
-      <c r="G148" s="24" t="n">
+      <c r="G148" s="23" t="n">
         <v>13.4</v>
       </c>
-      <c r="H148" s="24" t="n">
+      <c r="H148" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J148" s="3" t="n"/>
@@ -7723,28 +7740,28 @@
       <c r="L148" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="18" t="n">
+      <c r="A149" s="17" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="34" t="s">
+      <c r="C149" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="28" t="s">
+      <c r="D149" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E149" s="28" t="s">
+      <c r="E149" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F149" s="28" t="s">
+      <c r="F149" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G149" s="28" t="s">
+      <c r="G149" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H149" s="28" t="s">
+      <c r="H149" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J149" s="3" t="n"/>
@@ -7752,28 +7769,28 @@
       <c r="L149" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="18" t="n">
+      <c r="A150" s="17" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="24" t="n">
+      <c r="D150" s="23" t="n">
         <v>32.75</v>
       </c>
-      <c r="E150" s="24" t="n">
+      <c r="E150" s="23" t="n">
         <v>11.05</v>
       </c>
-      <c r="F150" s="24" t="n">
+      <c r="F150" s="23" t="n">
         <v>36.25</v>
       </c>
-      <c r="G150" s="24" t="n">
+      <c r="G150" s="23" t="n">
         <v>12.35</v>
       </c>
-      <c r="H150" s="24" t="n">
+      <c r="H150" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J150" s="3" t="n"/>
@@ -7781,28 +7798,28 @@
       <c r="L150" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="18" t="n">
+      <c r="A151" s="17" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C151" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="24" t="n">
+      <c r="D151" s="23" t="n">
         <v>45.3</v>
       </c>
-      <c r="E151" s="24" t="n">
+      <c r="E151" s="23" t="n">
         <v>23.75</v>
       </c>
-      <c r="F151" s="24" t="n">
+      <c r="F151" s="23" t="n">
         <v>46.05</v>
       </c>
-      <c r="G151" s="24" t="n">
+      <c r="G151" s="23" t="n">
         <v>24.1</v>
       </c>
-      <c r="H151" s="24" t="n">
+      <c r="H151" s="23" t="n">
         <v>14.6</v>
       </c>
       <c r="J151" s="3" t="n"/>
@@ -7810,28 +7827,28 @@
       <c r="L151" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="18" t="n">
+      <c r="A152" s="17" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C152" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="24" t="n">
+      <c r="D152" s="23" t="n">
         <v>46.55</v>
       </c>
-      <c r="E152" s="24" t="n">
+      <c r="E152" s="23" t="n">
         <v>22.6</v>
       </c>
-      <c r="F152" s="24" t="n">
+      <c r="F152" s="23" t="n">
         <v>46.55</v>
       </c>
-      <c r="G152" s="24" t="n">
+      <c r="G152" s="23" t="n">
         <v>23.3</v>
       </c>
-      <c r="H152" s="24" t="n">
+      <c r="H152" s="23" t="n">
         <v>13.7</v>
       </c>
       <c r="J152" s="3" t="n"/>
@@ -7839,28 +7856,28 @@
       <c r="L152" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="18" t="n">
+      <c r="A153" s="17" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="23" t="s">
+      <c r="C153" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" s="28" t="s">
+      <c r="D153" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="26" t="s">
         <v>19</v>
       </c>
       <c r="J153" s="3" t="n"/>
@@ -7868,28 +7885,28 @@
       <c r="L153" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="18" t="n">
+      <c r="A154" s="17" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="23" t="s">
+      <c r="C154" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="24" t="n">
+      <c r="D154" s="23" t="n">
         <v>47.9</v>
       </c>
-      <c r="E154" s="24" t="n">
+      <c r="E154" s="23" t="n">
         <v>30.3</v>
       </c>
-      <c r="F154" s="24" t="n">
+      <c r="F154" s="23" t="n">
         <v>47.9</v>
       </c>
-      <c r="G154" s="24" t="n">
+      <c r="G154" s="23" t="n">
         <v>31.8</v>
       </c>
-      <c r="H154" s="24" t="n">
+      <c r="H154" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J154" s="3" t="n"/>
@@ -7897,28 +7914,28 @@
       <c r="L154" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="18" t="n">
+      <c r="A155" s="17" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="24" t="n">
+      <c r="D155" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="23" t="n">
         <v>73</v>
       </c>
-      <c r="G155" s="24" t="n">
+      <c r="G155" s="23" t="n">
         <v>57.35</v>
       </c>
-      <c r="H155" s="24" t="n">
+      <c r="H155" s="23" t="n">
         <v>15.95</v>
       </c>
       <c r="J155" s="3" t="n"/>
@@ -7926,28 +7943,28 @@
       <c r="L155" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="18" t="n">
+      <c r="A156" s="17" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C156" s="23" t="s">
+      <c r="C156" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D156" s="24" t="n">
+      <c r="D156" s="23" t="n">
         <v>42.95</v>
       </c>
-      <c r="E156" s="24" t="n">
+      <c r="E156" s="23" t="n">
         <v>38.65</v>
       </c>
-      <c r="F156" s="24" t="n">
+      <c r="F156" s="23" t="n">
         <v>48.9</v>
       </c>
-      <c r="G156" s="24" t="n">
+      <c r="G156" s="23" t="n">
         <v>49.3</v>
       </c>
-      <c r="H156" s="24" t="n">
+      <c r="H156" s="23" t="n">
         <v>34.35</v>
       </c>
       <c r="J156" s="3" t="n"/>
@@ -7955,28 +7972,28 @@
       <c r="L156" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="18" t="n">
+      <c r="A157" s="17" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="C157" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D157" s="24" t="n">
+      <c r="D157" s="23" t="n">
         <v>54.3</v>
       </c>
-      <c r="E157" s="24" t="n">
+      <c r="E157" s="23" t="n">
         <v>39.05</v>
       </c>
-      <c r="F157" s="24" t="n">
+      <c r="F157" s="23" t="n">
         <v>64.9</v>
       </c>
-      <c r="G157" s="24" t="n">
+      <c r="G157" s="23" t="n">
         <v>43.4</v>
       </c>
-      <c r="H157" s="24" t="n">
+      <c r="H157" s="23" t="n">
         <v>27.85</v>
       </c>
       <c r="J157" s="3" t="n"/>
@@ -7984,28 +8001,28 @@
       <c r="L157" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="18" t="n">
+      <c r="A158" s="17" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="23" t="s">
+      <c r="C158" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D158" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="24" t="n">
+      <c r="D158" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="23" t="n">
         <v>56.55</v>
       </c>
-      <c r="G158" s="24" t="n">
+      <c r="G158" s="23" t="n">
         <v>75.25</v>
       </c>
-      <c r="H158" s="24" t="n">
+      <c r="H158" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J158" s="3" t="n"/>
@@ -8013,28 +8030,28 @@
       <c r="L158" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="18" t="n">
+      <c r="A159" s="17" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C159" s="23" t="s">
+      <c r="C159" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D159" s="24" t="n">
+      <c r="D159" s="23" t="n">
         <v>47.8</v>
       </c>
-      <c r="E159" s="24" t="n">
+      <c r="E159" s="23" t="n">
         <v>9.55</v>
       </c>
-      <c r="F159" s="24" t="n">
+      <c r="F159" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="G159" s="24" t="n">
+      <c r="G159" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="H159" s="24" t="n">
+      <c r="H159" s="23" t="n">
         <v>1.85</v>
       </c>
       <c r="J159" s="3" t="n"/>
@@ -8042,28 +8059,28 @@
       <c r="L159" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="18" t="n">
+      <c r="A160" s="17" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D160" s="24" t="n">
+      <c r="D160" s="23" t="n">
         <v>57.8</v>
       </c>
-      <c r="E160" s="24" t="n">
+      <c r="E160" s="23" t="n">
         <v>13.75</v>
       </c>
-      <c r="F160" s="24" t="n">
+      <c r="F160" s="23" t="n">
         <v>57.8</v>
       </c>
-      <c r="G160" s="24" t="n">
+      <c r="G160" s="23" t="n">
         <v>13.75</v>
       </c>
-      <c r="H160" s="24" t="n">
+      <c r="H160" s="23" t="n">
         <v>8.45</v>
       </c>
       <c r="J160" s="3" t="n"/>
@@ -8071,28 +8088,28 @@
       <c r="L160" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="18" t="n">
+      <c r="A161" s="17" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D161" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" s="24" t="n">
+      <c r="D161" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="23" t="n">
         <v>75.7</v>
       </c>
-      <c r="G161" s="24" t="n">
+      <c r="G161" s="23" t="n">
         <v>43.4</v>
       </c>
-      <c r="H161" s="24" t="n">
+      <c r="H161" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J161" s="3" t="n"/>
@@ -8100,28 +8117,28 @@
       <c r="L161" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="18" t="n">
+      <c r="A162" s="17" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C162" s="23" t="s">
+      <c r="C162" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="D162" s="24" t="n">
+      <c r="D162" s="23" t="n">
         <v>62.65</v>
       </c>
-      <c r="E162" s="24" t="n">
+      <c r="E162" s="23" t="n">
         <v>7.55</v>
       </c>
-      <c r="F162" s="24" t="n">
+      <c r="F162" s="23" t="n">
         <v>62.65</v>
       </c>
-      <c r="G162" s="24" t="n">
+      <c r="G162" s="23" t="n">
         <v>13.75</v>
       </c>
-      <c r="H162" s="24" t="n">
+      <c r="H162" s="23" t="n">
         <v>4.15</v>
       </c>
       <c r="J162" s="3" t="n"/>
@@ -8129,28 +8146,28 @@
       <c r="L162" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="18" t="n">
+      <c r="A163" s="17" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="23" t="s">
+      <c r="C163" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D163" s="24" t="n">
+      <c r="D163" s="23" t="n">
         <v>54.95</v>
       </c>
-      <c r="E163" s="24" t="n">
+      <c r="E163" s="23" t="n">
         <v>30.8</v>
       </c>
-      <c r="F163" s="24" t="n">
+      <c r="F163" s="23" t="n">
         <v>54.95</v>
       </c>
-      <c r="G163" s="24" t="n">
+      <c r="G163" s="23" t="n">
         <v>36.55</v>
       </c>
-      <c r="H163" s="24" t="n">
+      <c r="H163" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J163" s="3" t="n"/>
@@ -8158,28 +8175,28 @@
       <c r="L163" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="18" t="n">
+      <c r="A164" s="17" t="n">
         <v>154</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C164" s="23" t="s">
+      <c r="C164" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D164" s="24" t="n">
+      <c r="D164" s="23" t="n">
         <v>61.85</v>
       </c>
-      <c r="E164" s="24" t="n">
+      <c r="E164" s="23" t="n">
         <v>16.8</v>
       </c>
-      <c r="F164" s="24" t="n">
+      <c r="F164" s="23" t="n">
         <v>61.85</v>
       </c>
-      <c r="G164" s="24" t="n">
+      <c r="G164" s="23" t="n">
         <v>18.45</v>
       </c>
-      <c r="H164" s="24" t="n">
+      <c r="H164" s="23" t="n">
         <v>10.95</v>
       </c>
       <c r="J164" s="3" t="n"/>
@@ -8187,28 +8204,28 @@
       <c r="L164" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="18" t="n">
+      <c r="A165" s="17" t="n">
         <v>155</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="23" t="s">
+      <c r="C165" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D165" s="24" t="n">
+      <c r="D165" s="23" t="n">
         <v>37.45</v>
       </c>
-      <c r="E165" s="24" t="n">
+      <c r="E165" s="23" t="n">
         <v>36.8</v>
       </c>
-      <c r="F165" s="24" t="n">
+      <c r="F165" s="23" t="n">
         <v>40.1</v>
       </c>
-      <c r="G165" s="24" t="n">
+      <c r="G165" s="23" t="n">
         <v>41.2</v>
       </c>
-      <c r="H165" s="24" t="n">
+      <c r="H165" s="23" t="n">
         <v>23.4</v>
       </c>
       <c r="J165" s="3" t="n"/>
@@ -8216,28 +8233,28 @@
       <c r="L165" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="18" t="n">
+      <c r="A166" s="17" t="n">
         <v>156</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C166" s="23" t="s">
+      <c r="C166" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="D166" s="24" t="n">
+      <c r="D166" s="23" t="n">
         <v>46.7</v>
       </c>
-      <c r="E166" s="24" t="n">
+      <c r="E166" s="23" t="n">
         <v>37.4</v>
       </c>
-      <c r="F166" s="24" t="n">
+      <c r="F166" s="23" t="n">
         <v>48.65</v>
       </c>
-      <c r="G166" s="24" t="n">
+      <c r="G166" s="23" t="n">
         <v>43.1</v>
       </c>
-      <c r="H166" s="24" t="n">
+      <c r="H166" s="23" t="n">
         <v>28.95</v>
       </c>
       <c r="J166" s="3" t="n"/>
@@ -8245,28 +8262,28 @@
       <c r="L166" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="18" t="n">
+      <c r="A167" s="17" t="n">
         <v>157</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C167" s="23" t="s">
+      <c r="C167" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D167" s="24" t="n">
+      <c r="D167" s="23" t="n">
         <v>36.35</v>
       </c>
-      <c r="E167" s="24" t="n">
+      <c r="E167" s="23" t="n">
         <v>62.6</v>
       </c>
-      <c r="F167" s="24" t="n">
+      <c r="F167" s="23" t="n">
         <v>36.35</v>
       </c>
-      <c r="G167" s="24" t="n">
+      <c r="G167" s="23" t="n">
         <v>68.35</v>
       </c>
-      <c r="H167" s="24" t="n">
+      <c r="H167" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J167" s="3" t="n"/>
@@ -8274,28 +8291,28 @@
       <c r="L167" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="18" t="n">
+      <c r="A168" s="17" t="n">
         <v>158</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="C168" s="23" t="s">
+      <c r="C168" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="D168" s="24" t="n">
+      <c r="D168" s="23" t="n">
         <v>44.95</v>
       </c>
-      <c r="E168" s="24" t="n">
+      <c r="E168" s="23" t="n">
         <v>34.9</v>
       </c>
-      <c r="F168" s="24" t="n">
+      <c r="F168" s="23" t="n">
         <v>48.5</v>
       </c>
-      <c r="G168" s="24" t="n">
+      <c r="G168" s="23" t="n">
         <v>42.35</v>
       </c>
-      <c r="H168" s="24" t="n">
+      <c r="H168" s="23" t="n">
         <v>32.2</v>
       </c>
       <c r="J168" s="3" t="n"/>
@@ -8303,28 +8320,28 @@
       <c r="L168" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="18" t="n">
+      <c r="A169" s="17" t="n">
         <v>159</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C169" s="23" t="s">
+      <c r="C169" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D169" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="24" t="n">
+      <c r="D169" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="23" t="n">
         <v>49.15</v>
       </c>
-      <c r="G169" s="24" t="n">
+      <c r="G169" s="23" t="n">
         <v>36.1</v>
       </c>
-      <c r="H169" s="24" t="n">
+      <c r="H169" s="23" t="n">
         <v>2.3</v>
       </c>
       <c r="J169" s="3" t="n"/>
@@ -8332,28 +8349,28 @@
       <c r="L169" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="18" t="n">
+      <c r="A170" s="17" t="n">
         <v>160</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C170" s="23" t="s">
+      <c r="C170" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D170" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="24" t="n">
+      <c r="D170" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="23" t="n">
         <v>47.7</v>
       </c>
-      <c r="G170" s="24" t="n">
+      <c r="G170" s="23" t="n">
         <v>42.05</v>
       </c>
-      <c r="H170" s="24" t="n">
+      <c r="H170" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J170" s="3" t="n"/>
@@ -8361,28 +8378,28 @@
       <c r="L170" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="18" t="n">
+      <c r="A171" s="17" t="n">
         <v>161</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C171" s="23" t="s">
+      <c r="C171" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="D171" s="24" t="n">
+      <c r="D171" s="23" t="n">
         <v>43.3</v>
       </c>
-      <c r="E171" s="24" t="n">
+      <c r="E171" s="23" t="n">
         <v>25.85</v>
       </c>
-      <c r="F171" s="24" t="n">
+      <c r="F171" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="G171" s="24" t="n">
+      <c r="G171" s="23" t="n">
         <v>36.5</v>
       </c>
-      <c r="H171" s="24" t="n">
+      <c r="H171" s="23" t="n">
         <v>11.85</v>
       </c>
       <c r="J171" s="3" t="n"/>
@@ -8390,28 +8407,28 @@
       <c r="L171" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="18" t="n">
+      <c r="A172" s="17" t="n">
         <v>162</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="C172" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D172" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F172" s="24" t="n">
+      <c r="D172" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="23" t="n">
         <v>84.35</v>
       </c>
-      <c r="G172" s="24" t="n">
+      <c r="G172" s="23" t="n">
         <v>46.9</v>
       </c>
-      <c r="H172" s="24" t="n">
+      <c r="H172" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J172" s="3" t="n"/>
@@ -8419,28 +8436,28 @@
       <c r="L172" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="18" t="n">
+      <c r="A173" s="17" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C173" s="23" t="s">
+      <c r="C173" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D173" s="24" t="n">
+      <c r="D173" s="23" t="n">
         <v>53.8</v>
       </c>
-      <c r="E173" s="24" t="n">
+      <c r="E173" s="23" t="n">
         <v>32.95</v>
       </c>
-      <c r="F173" s="24" t="n">
+      <c r="F173" s="23" t="n">
         <v>54.85</v>
       </c>
-      <c r="G173" s="24" t="n">
+      <c r="G173" s="23" t="n">
         <v>32.95</v>
       </c>
-      <c r="H173" s="24" t="n">
+      <c r="H173" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J173" s="3" t="n"/>
@@ -8448,28 +8465,28 @@
       <c r="L173" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15.75" outlineLevel="0" r="174">
-      <c r="A174" s="18" t="n">
+      <c r="A174" s="17" t="n">
         <v>164</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="D174" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" s="24" t="n">
+      <c r="D174" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="23" t="n">
         <v>52.2</v>
       </c>
-      <c r="G174" s="24" t="n">
+      <c r="G174" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="H174" s="24" t="n">
+      <c r="H174" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J174" s="3" t="n"/>
@@ -8477,28 +8494,28 @@
       <c r="L174" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="18" t="n">
+      <c r="A175" s="17" t="n">
         <v>165</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C175" s="23" t="s">
+      <c r="C175" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D175" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175" s="24" t="n">
+      <c r="D175" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="23" t="n">
         <v>49.05</v>
       </c>
-      <c r="G175" s="24" t="n">
+      <c r="G175" s="23" t="n">
         <v>39.75</v>
       </c>
-      <c r="H175" s="24" t="n">
+      <c r="H175" s="23" t="n">
         <v>30.05</v>
       </c>
       <c r="J175" s="3" t="n"/>
@@ -8506,28 +8523,28 @@
       <c r="L175" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="18" t="n">
+      <c r="A176" s="17" t="n">
         <v>166</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D176" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" s="24" t="n">
+      <c r="D176" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="23" t="n">
         <v>48.7</v>
       </c>
-      <c r="G176" s="24" t="n">
+      <c r="G176" s="23" t="n">
         <v>41.2</v>
       </c>
-      <c r="H176" s="24" t="n">
+      <c r="H176" s="23" t="n">
         <v>32.2</v>
       </c>
       <c r="J176" s="3" t="n"/>
@@ -8535,28 +8552,28 @@
       <c r="L176" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="18" t="n">
+      <c r="A177" s="17" t="n">
         <v>167</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D177" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" s="24" t="n">
+      <c r="D177" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" s="23" t="n">
         <v>48.75</v>
       </c>
-      <c r="G177" s="24" t="n">
+      <c r="G177" s="23" t="n">
         <v>36.9</v>
       </c>
-      <c r="H177" s="24" t="n">
+      <c r="H177" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J177" s="3" t="n"/>
@@ -8564,28 +8581,28 @@
       <c r="L177" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="18" t="n">
+      <c r="A178" s="17" t="n">
         <v>168</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D178" s="24" t="n">
+      <c r="D178" s="23" t="n">
         <v>54.9</v>
       </c>
-      <c r="E178" s="24" t="n">
+      <c r="E178" s="23" t="n">
         <v>11.75</v>
       </c>
-      <c r="F178" s="24" t="n">
+      <c r="F178" s="23" t="n">
         <v>54.9</v>
       </c>
-      <c r="G178" s="24" t="n">
+      <c r="G178" s="23" t="n">
         <v>12.05</v>
       </c>
-      <c r="H178" s="24" t="n">
+      <c r="H178" s="23" t="n">
         <v>2.3</v>
       </c>
       <c r="J178" s="3" t="n"/>
@@ -8593,28 +8610,28 @@
       <c r="L178" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="18" t="n">
+      <c r="A179" s="17" t="n">
         <v>169</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D179" s="24" t="n">
+      <c r="D179" s="23" t="n">
         <v>43.95</v>
       </c>
-      <c r="E179" s="24" t="n">
+      <c r="E179" s="23" t="n">
         <v>20.15</v>
       </c>
-      <c r="F179" s="24" t="n">
+      <c r="F179" s="23" t="n">
         <v>43.95</v>
       </c>
-      <c r="G179" s="24" t="n">
+      <c r="G179" s="23" t="n">
         <v>22.75</v>
       </c>
-      <c r="H179" s="24" t="n">
+      <c r="H179" s="23" t="n">
         <v>14.4</v>
       </c>
       <c r="J179" s="3" t="n"/>
@@ -8622,28 +8639,28 @@
       <c r="L179" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="18" t="n">
+      <c r="A180" s="17" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="D180" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H180" s="28" t="s">
+      <c r="D180" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="26" t="s">
         <v>19</v>
       </c>
       <c r="J180" s="3" t="n"/>
@@ -8651,28 +8668,28 @@
       <c r="L180" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="18" t="n">
+      <c r="A181" s="17" t="n">
         <v>171</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="D181" s="24" t="n">
+      <c r="D181" s="23" t="n">
         <v>41.95</v>
       </c>
-      <c r="E181" s="24" t="n">
+      <c r="E181" s="23" t="n">
         <v>11.35</v>
       </c>
-      <c r="F181" s="24" t="n">
+      <c r="F181" s="23" t="n">
         <v>41.95</v>
       </c>
-      <c r="G181" s="24" t="n">
+      <c r="G181" s="23" t="n">
         <v>11.35</v>
       </c>
-      <c r="H181" s="24" t="n">
+      <c r="H181" s="23" t="n">
         <v>8</v>
       </c>
       <c r="J181" s="3" t="n"/>
@@ -8680,28 +8697,28 @@
       <c r="L181" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="18" t="n">
+      <c r="A182" s="17" t="n">
         <v>172</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B182" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="D182" s="24" t="n">
+      <c r="D182" s="23" t="n">
         <v>43.25</v>
       </c>
-      <c r="E182" s="24" t="n">
+      <c r="E182" s="23" t="n">
         <v>11.7</v>
       </c>
-      <c r="F182" s="24" t="n">
+      <c r="F182" s="23" t="n">
         <v>43.25</v>
       </c>
-      <c r="G182" s="24" t="n">
+      <c r="G182" s="23" t="n">
         <v>11.7</v>
       </c>
-      <c r="H182" s="24" t="n">
+      <c r="H182" s="23" t="n">
         <v>8.25</v>
       </c>
       <c r="J182" s="3" t="n"/>
@@ -8709,28 +8726,28 @@
       <c r="L182" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="18" t="n">
+      <c r="A183" s="17" t="n">
         <v>173</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="C183" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="D183" s="24" t="n">
+      <c r="D183" s="23" t="n">
         <v>35.4</v>
       </c>
-      <c r="E183" s="24" t="n">
+      <c r="E183" s="23" t="n">
         <v>52.9</v>
       </c>
-      <c r="F183" s="24" t="n">
+      <c r="F183" s="23" t="n">
         <v>35.4</v>
       </c>
-      <c r="G183" s="24" t="n">
+      <c r="G183" s="23" t="n">
         <v>62.9</v>
       </c>
-      <c r="H183" s="24" t="n">
+      <c r="H183" s="23" t="n">
         <v>34.35</v>
       </c>
       <c r="J183" s="3" t="n"/>
@@ -8738,28 +8755,28 @@
       <c r="L183" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="18" t="n">
+      <c r="A184" s="17" t="n">
         <v>174</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="D184" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E184" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" s="28" t="s">
+      <c r="D184" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G184" s="28" t="s">
+      <c r="G184" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H184" s="28" t="s">
+      <c r="H184" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J184" s="3" t="n"/>
@@ -8767,28 +8784,28 @@
       <c r="L184" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="18" t="n">
+      <c r="A185" s="17" t="n">
         <v>175</v>
       </c>
-      <c r="B185" s="18" t="s">
+      <c r="B185" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D185" s="24" t="n">
+      <c r="D185" s="23" t="n">
         <v>57.4</v>
       </c>
-      <c r="E185" s="24" t="n">
+      <c r="E185" s="23" t="n">
         <v>25.75</v>
       </c>
-      <c r="F185" s="24" t="n">
+      <c r="F185" s="23" t="n">
         <v>57.4</v>
       </c>
-      <c r="G185" s="24" t="n">
+      <c r="G185" s="23" t="n">
         <v>35.75</v>
       </c>
-      <c r="H185" s="24" t="n">
+      <c r="H185" s="23" t="n">
         <v>7.9</v>
       </c>
       <c r="J185" s="3" t="n"/>
@@ -8796,28 +8813,28 @@
       <c r="L185" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="18" t="n">
+      <c r="A186" s="17" t="n">
         <v>176</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D186" s="24" t="n">
+      <c r="D186" s="23" t="n">
         <v>42.4</v>
       </c>
-      <c r="E186" s="24" t="n">
+      <c r="E186" s="23" t="n">
         <v>34.2</v>
       </c>
-      <c r="F186" s="24" t="n">
+      <c r="F186" s="23" t="n">
         <v>44.85</v>
       </c>
-      <c r="G186" s="24" t="n">
+      <c r="G186" s="23" t="n">
         <v>38.7</v>
       </c>
-      <c r="H186" s="24" t="n">
+      <c r="H186" s="23" t="n">
         <v>24.6</v>
       </c>
       <c r="J186" s="3" t="n"/>
@@ -8825,28 +8842,28 @@
       <c r="L186" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="18" t="n">
+      <c r="A187" s="17" t="n">
         <v>177</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="23" t="s">
+      <c r="C187" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D187" s="24" t="n">
+      <c r="D187" s="23" t="n">
         <v>49.55</v>
       </c>
-      <c r="E187" s="24" t="n">
+      <c r="E187" s="23" t="n">
         <v>28.6</v>
       </c>
-      <c r="F187" s="24" t="n">
+      <c r="F187" s="23" t="n">
         <v>49.55</v>
       </c>
-      <c r="G187" s="24" t="n">
+      <c r="G187" s="23" t="n">
         <v>35.8</v>
       </c>
-      <c r="H187" s="24" t="n">
+      <c r="H187" s="23" t="n">
         <v>25.4</v>
       </c>
       <c r="J187" s="3" t="n"/>
@@ -8854,28 +8871,28 @@
       <c r="L187" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="18" t="n">
+      <c r="A188" s="17" t="n">
         <v>178</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C188" s="23" t="s">
+      <c r="C188" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D188" s="24" t="n">
+      <c r="D188" s="23" t="n">
         <v>34.8</v>
       </c>
-      <c r="E188" s="24" t="n">
+      <c r="E188" s="23" t="n">
         <v>19.3</v>
       </c>
-      <c r="F188" s="24" t="n">
+      <c r="F188" s="23" t="n">
         <v>34.8</v>
       </c>
-      <c r="G188" s="24" t="n">
+      <c r="G188" s="23" t="n">
         <v>20.75</v>
       </c>
-      <c r="H188" s="24" t="n">
+      <c r="H188" s="23" t="n">
         <v>14.55</v>
       </c>
       <c r="J188" s="3" t="n"/>
@@ -8883,28 +8900,28 @@
       <c r="L188" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="18" t="n">
+      <c r="A189" s="17" t="n">
         <v>179</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C189" s="23" t="s">
+      <c r="C189" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="D189" s="24" t="n">
+      <c r="D189" s="23" t="n">
         <v>51.9</v>
       </c>
-      <c r="E189" s="24" t="n">
+      <c r="E189" s="23" t="n">
         <v>28.95</v>
       </c>
-      <c r="F189" s="24" t="n">
+      <c r="F189" s="23" t="n">
         <v>55.75</v>
       </c>
-      <c r="G189" s="24" t="n">
+      <c r="G189" s="23" t="n">
         <v>29</v>
       </c>
-      <c r="H189" s="24" t="n">
+      <c r="H189" s="23" t="n">
         <v>15</v>
       </c>
       <c r="J189" s="3" t="n"/>
@@ -8912,28 +8929,28 @@
       <c r="L189" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="18" t="n">
+      <c r="A190" s="17" t="n">
         <v>180</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D190" s="24" t="n">
+      <c r="D190" s="23" t="n">
         <v>38.35</v>
       </c>
-      <c r="E190" s="24" t="n">
+      <c r="E190" s="23" t="n">
         <v>14.05</v>
       </c>
-      <c r="F190" s="24" t="n">
+      <c r="F190" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="G190" s="24" t="n">
+      <c r="G190" s="23" t="n">
         <v>17.45</v>
       </c>
-      <c r="H190" s="24" t="n">
+      <c r="H190" s="23" t="n">
         <v>10.05</v>
       </c>
       <c r="J190" s="3" t="n"/>
@@ -8941,28 +8958,28 @@
       <c r="L190" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="18" t="n">
+      <c r="A191" s="17" t="n">
         <v>181</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="C191" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="D191" s="24" t="n">
+      <c r="D191" s="23" t="n">
         <v>53.2</v>
       </c>
-      <c r="E191" s="24" t="n">
+      <c r="E191" s="23" t="n">
         <v>27.3</v>
       </c>
-      <c r="F191" s="24" t="n">
+      <c r="F191" s="23" t="n">
         <v>59</v>
       </c>
-      <c r="G191" s="24" t="n">
+      <c r="G191" s="23" t="n">
         <v>40.95</v>
       </c>
-      <c r="H191" s="24" t="n">
+      <c r="H191" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J191" s="3" t="n"/>
@@ -8970,28 +8987,28 @@
       <c r="L191" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="18" t="n">
+      <c r="A192" s="17" t="n">
         <v>182</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C192" s="23" t="s">
+      <c r="C192" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="D192" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="24" t="n">
+      <c r="D192" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="23" t="n">
         <v>34.7</v>
       </c>
-      <c r="G192" s="24" t="n">
+      <c r="G192" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="H192" s="24" t="n">
+      <c r="H192" s="23" t="n">
         <v>15.95</v>
       </c>
       <c r="J192" s="3" t="n"/>
@@ -8999,28 +9016,28 @@
       <c r="L192" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="18" t="n">
+      <c r="A193" s="17" t="n">
         <v>183</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C193" s="23" t="s">
+      <c r="C193" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="D193" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193" s="24" t="n">
+      <c r="D193" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="23" t="n">
         <v>35.3</v>
       </c>
-      <c r="G193" s="24" t="n">
+      <c r="G193" s="23" t="n">
         <v>69.55</v>
       </c>
-      <c r="H193" s="24" t="n">
+      <c r="H193" s="23" t="n">
         <v>34.35</v>
       </c>
       <c r="J193" s="3" t="n"/>
@@ -9028,28 +9045,28 @@
       <c r="L193" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="18" t="n">
+      <c r="A194" s="17" t="n">
         <v>184</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C194" s="23" t="s">
+      <c r="C194" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="D194" s="24" t="n">
+      <c r="D194" s="23" t="n">
         <v>56.7</v>
       </c>
-      <c r="E194" s="24" t="n">
+      <c r="E194" s="23" t="n">
         <v>33</v>
       </c>
-      <c r="F194" s="24" t="n">
+      <c r="F194" s="23" t="n">
         <v>56.7</v>
       </c>
-      <c r="G194" s="24" t="n">
+      <c r="G194" s="23" t="n">
         <v>33</v>
       </c>
-      <c r="H194" s="24" t="n">
+      <c r="H194" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J194" s="3" t="n"/>
@@ -9057,28 +9074,28 @@
       <c r="L194" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="18" t="n">
+      <c r="A195" s="17" t="n">
         <v>185</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C195" s="23" t="s">
+      <c r="C195" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="D195" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E195" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" s="24" t="n">
+      <c r="D195" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="23" t="n">
         <v>41.85</v>
       </c>
-      <c r="G195" s="24" t="n">
+      <c r="G195" s="23" t="n">
         <v>55.6</v>
       </c>
-      <c r="H195" s="24" t="n">
+      <c r="H195" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J195" s="3" t="n"/>
@@ -9086,28 +9103,28 @@
       <c r="L195" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="18" t="n">
+      <c r="A196" s="17" t="n">
         <v>186</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="C196" s="23" t="s">
+      <c r="C196" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D196" s="24" t="n">
+      <c r="D196" s="23" t="n">
         <v>43.2</v>
       </c>
-      <c r="E196" s="24" t="n">
+      <c r="E196" s="23" t="n">
         <v>36.05</v>
       </c>
-      <c r="F196" s="24" t="n">
+      <c r="F196" s="23" t="n">
         <v>44.75</v>
       </c>
-      <c r="G196" s="24" t="n">
+      <c r="G196" s="23" t="n">
         <v>36.1</v>
       </c>
-      <c r="H196" s="24" t="n">
+      <c r="H196" s="23" t="n">
         <v>32.85</v>
       </c>
       <c r="J196" s="3" t="n"/>
@@ -9115,28 +9132,28 @@
       <c r="L196" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="18" t="n">
+      <c r="A197" s="17" t="n">
         <v>187</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="B197" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C197" s="34" t="s">
+      <c r="C197" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="D197" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" s="28" t="s">
+      <c r="D197" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G197" s="28" t="s">
+      <c r="G197" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H197" s="28" t="s">
+      <c r="H197" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J197" s="3" t="n"/>
@@ -9144,28 +9161,28 @@
       <c r="L197" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="18" t="n">
+      <c r="A198" s="17" t="n">
         <v>188</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C198" s="23" t="s">
+      <c r="C198" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="D198" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="24" t="n">
+      <c r="D198" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="23" t="n">
         <v>36.7</v>
       </c>
-      <c r="G198" s="24" t="n">
+      <c r="G198" s="23" t="n">
         <v>68.95</v>
       </c>
-      <c r="H198" s="24" t="n">
+      <c r="H198" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J198" s="3" t="n"/>
@@ -9173,28 +9190,28 @@
       <c r="L198" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="18" t="n">
+      <c r="A199" s="17" t="n">
         <v>189</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C199" s="23" t="s">
+      <c r="C199" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D199" s="24" t="n">
+      <c r="D199" s="23" t="n">
         <v>60.05</v>
       </c>
-      <c r="E199" s="24" t="n">
+      <c r="E199" s="23" t="n">
         <v>20.4</v>
       </c>
-      <c r="F199" s="24" t="n">
+      <c r="F199" s="23" t="n">
         <v>60.05</v>
       </c>
-      <c r="G199" s="24" t="n">
+      <c r="G199" s="23" t="n">
         <v>30.5</v>
       </c>
-      <c r="H199" s="24" t="n">
+      <c r="H199" s="23" t="n">
         <v>2.3</v>
       </c>
       <c r="J199" s="3" t="n"/>
@@ -9202,28 +9219,28 @@
       <c r="L199" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="18" t="n">
+      <c r="A200" s="17" t="n">
         <v>190</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C200" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="D200" s="24" t="n">
+      <c r="D200" s="23" t="n">
         <v>31.4</v>
       </c>
-      <c r="E200" s="24" t="n">
+      <c r="E200" s="23" t="n">
         <v>13.3</v>
       </c>
-      <c r="F200" s="24" t="n">
+      <c r="F200" s="23" t="n">
         <v>31.4</v>
       </c>
-      <c r="G200" s="24" t="n">
+      <c r="G200" s="23" t="n">
         <v>14.35</v>
       </c>
-      <c r="H200" s="24" t="n">
+      <c r="H200" s="23" t="n">
         <v>4.2</v>
       </c>
       <c r="J200" s="3" t="n"/>
@@ -9231,28 +9248,28 @@
       <c r="L200" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="18" t="n">
+      <c r="A201" s="17" t="n">
         <v>191</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C201" s="23" t="s">
+      <c r="C201" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="D201" s="24" t="n">
+      <c r="D201" s="23" t="n">
         <v>55.2</v>
       </c>
-      <c r="E201" s="24" t="n">
+      <c r="E201" s="23" t="n">
         <v>11.85</v>
       </c>
-      <c r="F201" s="24" t="n">
+      <c r="F201" s="23" t="n">
         <v>55.2</v>
       </c>
-      <c r="G201" s="24" t="n">
+      <c r="G201" s="23" t="n">
         <v>13.9</v>
       </c>
-      <c r="H201" s="24" t="n">
+      <c r="H201" s="23" t="n">
         <v>3.45</v>
       </c>
       <c r="J201" s="3" t="n"/>
@@ -9260,28 +9277,28 @@
       <c r="L201" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="18" t="n">
+      <c r="A202" s="17" t="n">
         <v>192</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C202" s="23" t="s">
+      <c r="C202" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D202" s="24" t="n">
+      <c r="D202" s="23" t="n">
         <v>47.3</v>
       </c>
-      <c r="E202" s="24" t="n">
+      <c r="E202" s="23" t="n">
         <v>27.9</v>
       </c>
-      <c r="F202" s="24" t="n">
+      <c r="F202" s="23" t="n">
         <v>50.45</v>
       </c>
-      <c r="G202" s="24" t="n">
+      <c r="G202" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="H202" s="24" t="n">
+      <c r="H202" s="23" t="n">
         <v>18.7</v>
       </c>
       <c r="J202" s="3" t="n"/>
@@ -9289,28 +9306,28 @@
       <c r="L202" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="18" t="n">
+      <c r="A203" s="17" t="n">
         <v>193</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="D203" s="24" t="n">
+      <c r="D203" s="23" t="n">
         <v>65.2</v>
       </c>
-      <c r="E203" s="24" t="n">
+      <c r="E203" s="23" t="n">
         <v>16.1</v>
       </c>
-      <c r="F203" s="24" t="n">
+      <c r="F203" s="23" t="n">
         <v>65.2</v>
       </c>
-      <c r="G203" s="24" t="n">
+      <c r="G203" s="23" t="n">
         <v>16.8</v>
       </c>
-      <c r="H203" s="24" t="n">
+      <c r="H203" s="23" t="n">
         <v>6.9</v>
       </c>
       <c r="J203" s="3" t="n"/>
@@ -9318,28 +9335,28 @@
       <c r="L203" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="18" t="n">
+      <c r="A204" s="17" t="n">
         <v>194</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="C204" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D204" s="28" t="s">
+      <c r="D204" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E204" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="28" t="s">
+      <c r="E204" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G204" s="28" t="s">
+      <c r="G204" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H204" s="28" t="s">
+      <c r="H204" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J204" s="3" t="n"/>
@@ -9347,28 +9364,28 @@
       <c r="L204" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="18" t="n">
+      <c r="A205" s="17" t="n">
         <v>195</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="C205" s="23" t="s">
+      <c r="C205" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D205" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E205" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F205" s="24" t="n">
+      <c r="D205" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" s="23" t="n">
         <v>55.9</v>
       </c>
-      <c r="G205" s="24" t="n">
+      <c r="G205" s="23" t="n">
         <v>75.6</v>
       </c>
-      <c r="H205" s="24" t="n">
+      <c r="H205" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J205" s="3" t="n"/>
@@ -9376,28 +9393,28 @@
       <c r="L205" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="18" t="n">
+      <c r="A206" s="17" t="n">
         <v>196</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="C206" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D206" s="24" t="n">
+      <c r="D206" s="23" t="n">
         <v>61.9</v>
       </c>
-      <c r="E206" s="24" t="n">
+      <c r="E206" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="F206" s="24" t="n">
+      <c r="F206" s="23" t="n">
         <v>67.4</v>
       </c>
-      <c r="G206" s="24" t="n">
+      <c r="G206" s="23" t="n">
         <v>48.25</v>
       </c>
-      <c r="H206" s="24" t="n">
+      <c r="H206" s="23" t="n">
         <v>33.5</v>
       </c>
       <c r="J206" s="3" t="n"/>
@@ -9405,28 +9422,28 @@
       <c r="L206" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="18" t="n">
+      <c r="A207" s="17" t="n">
         <v>197</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D207" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" s="24" t="n">
+      <c r="D207" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" s="23" t="n">
         <v>61.95</v>
       </c>
-      <c r="G207" s="24" t="n">
+      <c r="G207" s="23" t="n">
         <v>20.2</v>
       </c>
-      <c r="H207" s="24" t="n">
+      <c r="H207" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J207" s="3" t="n"/>
@@ -9434,28 +9451,28 @@
       <c r="L207" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="18" t="n">
+      <c r="A208" s="17" t="n">
         <v>198</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="B208" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C208" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D208" s="24" t="n">
+      <c r="D208" s="23" t="n">
         <v>39.9</v>
       </c>
-      <c r="E208" s="24" t="n">
+      <c r="E208" s="23" t="n">
         <v>35.5</v>
       </c>
-      <c r="F208" s="24" t="n">
+      <c r="F208" s="23" t="n">
         <v>42.8</v>
       </c>
-      <c r="G208" s="24" t="n">
+      <c r="G208" s="23" t="n">
         <v>52.05</v>
       </c>
-      <c r="H208" s="24" t="n">
+      <c r="H208" s="23" t="n">
         <v>40.9</v>
       </c>
       <c r="J208" s="3" t="n"/>
@@ -9463,28 +9480,28 @@
       <c r="L208" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="18" t="n">
+      <c r="A209" s="17" t="n">
         <v>199</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B209" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C209" s="23" t="s">
+      <c r="C209" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D209" s="24" t="n">
+      <c r="D209" s="23" t="n">
         <v>42.35</v>
       </c>
-      <c r="E209" s="24" t="n">
+      <c r="E209" s="23" t="n">
         <v>22.15</v>
       </c>
-      <c r="F209" s="24" t="n">
+      <c r="F209" s="23" t="n">
         <v>49.05</v>
       </c>
-      <c r="G209" s="24" t="n">
+      <c r="G209" s="23" t="n">
         <v>28.1</v>
       </c>
-      <c r="H209" s="24" t="n">
+      <c r="H209" s="23" t="n">
         <v>13.25</v>
       </c>
       <c r="J209" s="3" t="n"/>
@@ -9492,28 +9509,28 @@
       <c r="L209" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="18" t="n">
+      <c r="A210" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="C210" s="23" t="s">
+      <c r="C210" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="D210" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="28" t="s">
+      <c r="D210" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G210" s="28" t="s">
+      <c r="G210" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H210" s="28" t="s">
+      <c r="H210" s="26" t="s">
         <v>128</v>
       </c>
       <c r="J210" s="3" t="n"/>
@@ -9521,28 +9538,28 @@
       <c r="L210" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="18" t="n">
+      <c r="A211" s="17" t="n">
         <v>201</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="D211" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F211" s="24" t="n">
+      <c r="D211" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="23" t="n">
         <v>41.55</v>
       </c>
-      <c r="G211" s="24" t="n">
+      <c r="G211" s="23" t="n">
         <v>54.5</v>
       </c>
-      <c r="H211" s="24" t="n">
+      <c r="H211" s="23" t="n">
         <v>8.45</v>
       </c>
       <c r="J211" s="3" t="n"/>
@@ -9550,28 +9567,28 @@
       <c r="L211" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="18" t="n">
+      <c r="A212" s="17" t="n">
         <v>202</v>
       </c>
-      <c r="B212" s="18" t="s">
+      <c r="B212" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C212" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="D212" s="24" t="n">
+      <c r="D212" s="23" t="n">
         <v>54.9</v>
       </c>
-      <c r="E212" s="24" t="n">
+      <c r="E212" s="23" t="n">
         <v>11.05</v>
       </c>
-      <c r="F212" s="24" t="n">
+      <c r="F212" s="23" t="n">
         <v>55.3</v>
       </c>
-      <c r="G212" s="24" t="n">
+      <c r="G212" s="23" t="n">
         <v>11.05</v>
       </c>
-      <c r="H212" s="24" t="n">
+      <c r="H212" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J212" s="3" t="n"/>
@@ -9579,28 +9596,28 @@
       <c r="L212" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="18" t="n">
+      <c r="A213" s="17" t="n">
         <v>203</v>
       </c>
-      <c r="B213" s="18" t="s">
+      <c r="B213" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="C213" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="D213" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F213" s="24" t="n">
+      <c r="D213" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" s="23" t="n">
         <v>75.7</v>
       </c>
-      <c r="G213" s="24" t="n">
+      <c r="G213" s="23" t="n">
         <v>38.45</v>
       </c>
-      <c r="H213" s="24" t="n">
+      <c r="H213" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J213" s="3" t="n"/>
@@ -9608,28 +9625,28 @@
       <c r="L213" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="18" t="n">
+      <c r="A214" s="17" t="n">
         <v>204</v>
       </c>
-      <c r="B214" s="18" t="s">
+      <c r="B214" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C214" s="23" t="s">
+      <c r="C214" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D214" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E214" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F214" s="24" t="n">
+      <c r="D214" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" s="23" t="n">
         <v>59.95</v>
       </c>
-      <c r="G214" s="24" t="n">
+      <c r="G214" s="23" t="n">
         <v>54.5</v>
       </c>
-      <c r="H214" s="24" t="n">
+      <c r="H214" s="23" t="n">
         <v>36.35</v>
       </c>
       <c r="J214" s="3" t="n"/>
@@ -9637,28 +9654,28 @@
       <c r="L214" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="18" t="n">
+      <c r="A215" s="17" t="n">
         <v>205</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="B215" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C215" s="23" t="s">
+      <c r="C215" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="D215" s="24" t="n">
+      <c r="D215" s="23" t="n">
         <v>38.55</v>
       </c>
-      <c r="E215" s="24" t="n">
+      <c r="E215" s="23" t="n">
         <v>11.55</v>
       </c>
-      <c r="F215" s="24" t="n">
+      <c r="F215" s="23" t="n">
         <v>38.55</v>
       </c>
-      <c r="G215" s="24" t="n">
+      <c r="G215" s="23" t="n">
         <v>12.3</v>
       </c>
-      <c r="H215" s="24" t="n">
+      <c r="H215" s="23" t="n">
         <v>8.65</v>
       </c>
       <c r="J215" s="3" t="n"/>
@@ -9666,28 +9683,28 @@
       <c r="L215" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="18" t="n">
+      <c r="A216" s="17" t="n">
         <v>206</v>
       </c>
-      <c r="B216" s="18" t="s">
+      <c r="B216" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D216" s="24" t="n">
+      <c r="D216" s="23" t="n">
         <v>55.05</v>
       </c>
-      <c r="E216" s="24" t="n">
+      <c r="E216" s="23" t="n">
         <v>34.1</v>
       </c>
-      <c r="F216" s="24" t="n">
+      <c r="F216" s="23" t="n">
         <v>56.25</v>
       </c>
-      <c r="G216" s="24" t="n">
+      <c r="G216" s="23" t="n">
         <v>34.1</v>
       </c>
-      <c r="H216" s="24" t="n">
+      <c r="H216" s="23" t="n">
         <v>31.45</v>
       </c>
       <c r="J216" s="3" t="n"/>
@@ -9695,28 +9712,28 @@
       <c r="L216" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="18" t="n">
+      <c r="A217" s="17" t="n">
         <v>207</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C217" s="23" t="s">
+      <c r="C217" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="D217" s="24" t="n">
+      <c r="D217" s="23" t="n">
         <v>46.2</v>
       </c>
-      <c r="E217" s="24" t="n">
+      <c r="E217" s="23" t="n">
         <v>32.5</v>
       </c>
-      <c r="F217" s="24" t="n">
+      <c r="F217" s="23" t="n">
         <v>50.15</v>
       </c>
-      <c r="G217" s="24" t="n">
+      <c r="G217" s="23" t="n">
         <v>41.6</v>
       </c>
-      <c r="H217" s="24" t="n">
+      <c r="H217" s="23" t="n">
         <v>29.5</v>
       </c>
       <c r="J217" s="3" t="n"/>
@@ -9724,28 +9741,28 @@
       <c r="L217" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="218">
-      <c r="A218" s="18" t="n">
+      <c r="A218" s="17" t="n">
         <v>208</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="C218" s="23" t="s">
+      <c r="C218" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D218" s="24" t="n">
+      <c r="D218" s="23" t="n">
         <v>55.45</v>
       </c>
-      <c r="E218" s="24" t="n">
+      <c r="E218" s="23" t="n">
         <v>16.8</v>
       </c>
-      <c r="F218" s="24" t="n">
+      <c r="F218" s="23" t="n">
         <v>57</v>
       </c>
-      <c r="G218" s="24" t="n">
+      <c r="G218" s="23" t="n">
         <v>16.8</v>
       </c>
-      <c r="H218" s="24" t="n">
+      <c r="H218" s="23" t="n">
         <v>2.3</v>
       </c>
       <c r="J218" s="3" t="n"/>
@@ -9753,28 +9770,28 @@
       <c r="L218" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="219">
-      <c r="A219" s="18" t="n">
+      <c r="A219" s="17" t="n">
         <v>209</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="C219" s="23" t="s">
+      <c r="C219" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D219" s="24" t="n">
+      <c r="D219" s="23" t="n">
         <v>39</v>
       </c>
-      <c r="E219" s="24" t="n">
+      <c r="E219" s="23" t="n">
         <v>11.2</v>
       </c>
-      <c r="F219" s="24" t="n">
+      <c r="F219" s="23" t="n">
         <v>40.5</v>
       </c>
-      <c r="G219" s="24" t="n">
+      <c r="G219" s="23" t="n">
         <v>11.2</v>
       </c>
-      <c r="H219" s="24" t="n">
+      <c r="H219" s="23" t="n">
         <v>7.75</v>
       </c>
       <c r="J219" s="3" t="n"/>
@@ -9782,28 +9799,28 @@
       <c r="L219" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="220">
-      <c r="A220" s="18" t="n">
+      <c r="A220" s="17" t="n">
         <v>210</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C220" s="23" t="s">
+      <c r="C220" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="D220" s="24" t="n">
+      <c r="D220" s="23" t="n">
         <v>57.85</v>
       </c>
-      <c r="E220" s="24" t="n">
+      <c r="E220" s="23" t="n">
         <v>44.55</v>
       </c>
-      <c r="F220" s="24" t="n">
+      <c r="F220" s="23" t="n">
         <v>65</v>
       </c>
-      <c r="G220" s="24" t="n">
+      <c r="G220" s="23" t="n">
         <v>53.15</v>
       </c>
-      <c r="H220" s="24" t="n">
+      <c r="H220" s="23" t="n">
         <v>26.75</v>
       </c>
       <c r="J220" s="3" t="n"/>
@@ -9811,28 +9828,28 @@
       <c r="L220" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="221">
-      <c r="A221" s="18" t="n">
+      <c r="A221" s="17" t="n">
         <v>211</v>
       </c>
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="C221" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="D221" s="24" t="n">
+      <c r="D221" s="23" t="n">
         <v>45.15</v>
       </c>
-      <c r="E221" s="24" t="n">
+      <c r="E221" s="23" t="n">
         <v>11.85</v>
       </c>
-      <c r="F221" s="24" t="n">
+      <c r="F221" s="23" t="n">
         <v>47.2</v>
       </c>
-      <c r="G221" s="24" t="n">
+      <c r="G221" s="23" t="n">
         <v>11.85</v>
       </c>
-      <c r="H221" s="24" t="n">
+      <c r="H221" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J221" s="3" t="n"/>
@@ -9840,28 +9857,28 @@
       <c r="L221" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="222">
-      <c r="A222" s="18" t="n">
+      <c r="A222" s="17" t="n">
         <v>212</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="B222" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D222" s="24" t="n">
+      <c r="D222" s="23" t="n">
         <v>61.8</v>
       </c>
-      <c r="E222" s="24" t="n">
+      <c r="E222" s="23" t="n">
         <v>12.3</v>
       </c>
-      <c r="F222" s="24" t="n">
+      <c r="F222" s="23" t="n">
         <v>61.8</v>
       </c>
-      <c r="G222" s="24" t="n">
+      <c r="G222" s="23" t="n">
         <v>12.35</v>
       </c>
-      <c r="H222" s="24" t="n">
+      <c r="H222" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J222" s="3" t="n"/>
@@ -9869,28 +9886,28 @@
       <c r="L222" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="223">
-      <c r="A223" s="18" t="n">
+      <c r="A223" s="17" t="n">
         <v>213</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C223" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D223" s="24" t="n">
+      <c r="D223" s="23" t="n">
         <v>43.9</v>
       </c>
-      <c r="E223" s="24" t="n">
+      <c r="E223" s="23" t="n">
         <v>20.45</v>
       </c>
-      <c r="F223" s="24" t="n">
+      <c r="F223" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="G223" s="24" t="n">
+      <c r="G223" s="23" t="n">
         <v>27.5</v>
       </c>
-      <c r="H223" s="24" t="n">
+      <c r="H223" s="23" t="n">
         <v>9.15</v>
       </c>
       <c r="J223" s="3" t="n"/>
@@ -9898,28 +9915,28 @@
       <c r="L223" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="224">
-      <c r="A224" s="18" t="n">
+      <c r="A224" s="17" t="n">
         <v>214</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="B224" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C224" s="23" t="s">
+      <c r="C224" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D224" s="24" t="n">
+      <c r="D224" s="23" t="n">
         <v>48.3</v>
       </c>
-      <c r="E224" s="24" t="n">
+      <c r="E224" s="23" t="n">
         <v>35.55</v>
       </c>
-      <c r="F224" s="24" t="n">
+      <c r="F224" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="G224" s="24" t="n">
+      <c r="G224" s="23" t="n">
         <v>43.2</v>
       </c>
-      <c r="H224" s="24" t="n">
+      <c r="H224" s="23" t="n">
         <v>31.35</v>
       </c>
       <c r="J224" s="3" t="n"/>
@@ -9927,28 +9944,28 @@
       <c r="L224" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="225">
-      <c r="A225" s="18" t="n">
+      <c r="A225" s="17" t="n">
         <v>215</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B225" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="C225" s="23" t="s">
+      <c r="C225" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="D225" s="24" t="n">
+      <c r="D225" s="23" t="n">
         <v>46.3</v>
       </c>
-      <c r="E225" s="24" t="n">
+      <c r="E225" s="23" t="n">
         <v>28.55</v>
       </c>
-      <c r="F225" s="24" t="n">
+      <c r="F225" s="23" t="n">
         <v>46.3</v>
       </c>
-      <c r="G225" s="24" t="n">
+      <c r="G225" s="23" t="n">
         <v>40.85</v>
       </c>
-      <c r="H225" s="24" t="n">
+      <c r="H225" s="23" t="n">
         <v>6.85</v>
       </c>
       <c r="J225" s="3" t="n"/>
@@ -9956,28 +9973,28 @@
       <c r="L225" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="226">
-      <c r="A226" s="18" t="n">
+      <c r="A226" s="17" t="n">
         <v>216</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B226" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C226" s="23" t="s">
+      <c r="C226" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D226" s="24" t="n">
+      <c r="D226" s="23" t="n">
         <v>61</v>
       </c>
-      <c r="E226" s="24" t="n">
+      <c r="E226" s="23" t="n">
         <v>29.1</v>
       </c>
-      <c r="F226" s="24" t="n">
+      <c r="F226" s="23" t="n">
         <v>62.55</v>
       </c>
-      <c r="G226" s="24" t="n">
+      <c r="G226" s="23" t="n">
         <v>35.25</v>
       </c>
-      <c r="H226" s="24" t="n">
+      <c r="H226" s="23" t="n">
         <v>7.55</v>
       </c>
       <c r="J226" s="3" t="n"/>
@@ -9985,28 +10002,28 @@
       <c r="L226" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="227">
-      <c r="A227" s="18" t="n">
+      <c r="A227" s="17" t="n">
         <v>217</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="C227" s="23" t="s">
+      <c r="C227" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="D227" s="24" t="n">
+      <c r="D227" s="23" t="n">
         <v>43.95</v>
       </c>
-      <c r="E227" s="24" t="n">
+      <c r="E227" s="23" t="n">
         <v>10.95</v>
       </c>
-      <c r="F227" s="24" t="n">
+      <c r="F227" s="23" t="n">
         <v>43.95</v>
       </c>
-      <c r="G227" s="24" t="n">
+      <c r="G227" s="23" t="n">
         <v>10.95</v>
       </c>
-      <c r="H227" s="24" t="n">
+      <c r="H227" s="23" t="n">
         <v>6.4</v>
       </c>
       <c r="J227" s="3" t="n"/>
@@ -10014,28 +10031,28 @@
       <c r="L227" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="228">
-      <c r="A228" s="18" t="n">
+      <c r="A228" s="17" t="n">
         <v>218</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B228" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C228" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="D228" s="24" t="n">
+      <c r="D228" s="23" t="n">
         <v>45.45</v>
       </c>
-      <c r="E228" s="24" t="n">
+      <c r="E228" s="23" t="n">
         <v>31.45</v>
       </c>
-      <c r="F228" s="24" t="n">
+      <c r="F228" s="23" t="n">
         <v>45.45</v>
       </c>
-      <c r="G228" s="24" t="n">
+      <c r="G228" s="23" t="n">
         <v>41.3</v>
       </c>
-      <c r="H228" s="24" t="n">
+      <c r="H228" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J228" s="3" t="n"/>
@@ -10043,28 +10060,28 @@
       <c r="L228" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="229">
-      <c r="A229" s="18" t="n">
+      <c r="A229" s="17" t="n">
         <v>219</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C229" s="23" t="s">
+      <c r="C229" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D229" s="24" t="n">
+      <c r="D229" s="23" t="n">
         <v>47.7</v>
       </c>
-      <c r="E229" s="24" t="n">
+      <c r="E229" s="23" t="n">
         <v>34.25</v>
       </c>
-      <c r="F229" s="24" t="n">
+      <c r="F229" s="23" t="n">
         <v>48.55</v>
       </c>
-      <c r="G229" s="24" t="n">
+      <c r="G229" s="23" t="n">
         <v>40.45</v>
       </c>
-      <c r="H229" s="24" t="n">
+      <c r="H229" s="23" t="n">
         <v>22.8</v>
       </c>
       <c r="J229" s="3" t="n"/>
@@ -10072,28 +10089,28 @@
       <c r="L229" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="230">
-      <c r="A230" s="18" t="n">
+      <c r="A230" s="17" t="n">
         <v>220</v>
       </c>
-      <c r="B230" s="18" t="s">
+      <c r="B230" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C230" s="23" t="s">
+      <c r="C230" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="D230" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E230" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="24" t="n">
+      <c r="D230" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="G230" s="24" t="n">
+      <c r="G230" s="23" t="n">
         <v>28.65</v>
       </c>
-      <c r="H230" s="24" t="n">
+      <c r="H230" s="23" t="n">
         <v>7.3</v>
       </c>
       <c r="J230" s="3" t="n"/>
@@ -10101,59 +10118,59 @@
       <c r="L230" s="3" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="231">
-      <c r="A231" s="18" t="n">
+      <c r="A231" s="17" t="n">
         <v>221</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="C231" s="23" t="s">
+      <c r="C231" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="D231" s="24" t="n">
+      <c r="D231" s="23" t="n">
         <v>49.65</v>
       </c>
-      <c r="E231" s="24" t="n">
+      <c r="E231" s="23" t="n">
         <v>35.75</v>
       </c>
-      <c r="F231" s="24" t="n">
+      <c r="F231" s="23" t="n">
         <v>54.25</v>
       </c>
-      <c r="G231" s="24" t="n">
+      <c r="G231" s="23" t="n">
         <v>43.8</v>
       </c>
-      <c r="H231" s="24" t="n">
+      <c r="H231" s="23" t="n">
         <v>31.35</v>
       </c>
-      <c r="I231" s="35" t="s">
+      <c r="I231" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="J231" s="36" t="n"/>
-      <c r="K231" s="37" t="s">
+      <c r="J231" s="33" t="n"/>
+      <c r="K231" s="34" t="s">
         <v>458</v>
       </c>
       <c r="L231" s="3" t="n"/>
     </row>
     <row outlineLevel="0" r="232">
-      <c r="A232" s="18" t="n">
+      <c r="A232" s="17" t="n">
         <v>222</v>
       </c>
-      <c r="C232" s="23" t="s">
+      <c r="C232" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="D232" s="24" t="n">
+      <c r="D232" s="23" t="n">
         <v>44.55</v>
       </c>
-      <c r="E232" s="24" t="n">
+      <c r="E232" s="23" t="n">
         <v>23.45</v>
       </c>
-      <c r="F232" s="24" t="n">
+      <c r="F232" s="23" t="n">
         <v>44.55</v>
       </c>
-      <c r="G232" s="24" t="n">
+      <c r="G232" s="23" t="n">
         <v>23.45</v>
       </c>
-      <c r="H232" s="24" t="n">
+      <c r="H232" s="23" t="n">
         <v>15.95</v>
       </c>
     </row>
@@ -10202,154 +10219,154 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="32.4500007629395" outlineLevel="0" r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
-      <c r="A2" s="39" t="n">
+      <c r="A2" s="36" t="n">
         <v>223</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="41" t="s"/>
+      <c r="C2" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
-      <c r="A3" s="39" t="n">
+      <c r="A3" s="36" t="n">
         <v>224</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="41" t="s"/>
+      <c r="C3" s="38" t="s"/>
     </row>
     <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
-      <c r="A4" s="39" t="n">
+      <c r="A4" s="36" t="n">
         <v>225</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="1" t="n"/>
+      <c r="C4" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
-      <c r="A5" s="39" t="n">
+      <c r="A5" s="36" t="n">
         <v>226</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="43" t="n">
+      <c r="C5" s="42" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="6">
-      <c r="A6" s="44" t="n">
+      <c r="A6" s="43" t="n">
         <v>227</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="44" t="n">
         <v>6.15</v>
       </c>
-      <c r="D6" s="46" t="n"/>
+      <c r="D6" s="45" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="7">
-      <c r="A7" s="44" t="n">
+      <c r="A7" s="43" t="n">
         <v>228</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="47" t="s"/>
-      <c r="D7" s="46" t="n"/>
+      <c r="C7" s="46" t="s"/>
+      <c r="D7" s="45" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
-      <c r="A8" s="48" t="n"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="47" t="n"/>
+      <c r="B8" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="46" t="n"/>
+      <c r="C8" s="40" t="s"/>
+      <c r="D8" s="45" t="n"/>
     </row>
     <row ht="38.25" outlineLevel="0" r="9">
-      <c r="A9" s="44" t="n">
+      <c r="A9" s="43" t="n">
         <v>229</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="49" t="n">
+      <c r="C9" s="48" t="n">
         <v>8.2</v>
       </c>
-      <c r="D9" s="46" t="n"/>
+      <c r="D9" s="45" t="n"/>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
-      <c r="A10" s="44" t="n">
+      <c r="A10" s="43" t="n">
         <v>230</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="46" t="n"/>
+      <c r="C10" s="50" t="s"/>
+      <c r="D10" s="45" t="n"/>
     </row>
     <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
-      <c r="A11" s="39" t="n">
+      <c r="A11" s="36" t="n">
         <v>231</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="50" t="n">
+      <c r="C11" s="51" t="n">
         <v>0.35</v>
       </c>
-      <c r="D11" s="51" t="n"/>
+      <c r="D11" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
-      <c r="A12" s="39" t="n">
+      <c r="A12" s="36" t="n">
         <v>232</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="41" t="s"/>
-      <c r="D12" s="52" t="n"/>
+      <c r="C12" s="38" t="s"/>
+      <c r="D12" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
-      <c r="A13" s="44" t="n">
+      <c r="A13" s="43" t="n">
         <v>233</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="47" t="s"/>
-      <c r="D13" s="52" t="n"/>
+      <c r="C13" s="46" t="s"/>
+      <c r="D13" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="53" t="n"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="54" t="n"/>
+      <c r="B14" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="55" t="s"/>
-      <c r="D14" s="52" t="n"/>
+      <c r="C14" s="56" t="s"/>
+      <c r="D14" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
-      <c r="A15" s="44" t="n">
+      <c r="A15" s="43" t="n">
         <v>234</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="41" t="s"/>
+      <c r="C15" s="38" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -2783,9 +2783,6 @@
     </r>
   </si>
   <si>
-    <t>х</t>
-  </si>
-  <si>
     <t>JP</t>
   </si>
   <si>
@@ -2796,9 +2793,6 @@
       </rPr>
       <t>Ямайка</t>
     </r>
-  </si>
-  <si>
-    <t>посылки не принимаются</t>
   </si>
   <si>
     <r>
@@ -3020,12 +3014,11 @@
     <numFmt co:extendedFormatCode="0;-0" formatCode="0;-0" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.000000;-0.000000" formatCode="0.000000;-0.000000" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1008"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -3201,11 +3194,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
@@ -3227,11 +3215,16 @@
         <color rgb="000000" tint="0"/>
       </top>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -3298,17 +3291,16 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="5" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment vertical="top"/>
+    </xf>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1004" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
@@ -3321,7 +3313,7 @@
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="6" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
@@ -3331,14 +3323,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1002" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="1" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
@@ -3347,25 +3335,25 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1009" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
@@ -3377,19 +3365,19 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1009" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1009" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1008" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
@@ -3613,7 +3601,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -3629,7 +3617,7 @@
     <col customWidth="true" max="8" min="8" outlineLevel="0" style="1" width="10.0061620473303"/>
     <col customWidth="true" max="9" min="9" outlineLevel="0" style="3" width="5.8070338283305"/>
     <col customWidth="true" max="10" min="10" outlineLevel="0" style="3" width="4.83773596779211"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="16.5489347859295"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" style="1" width="5.11405877543646"/>
     <col bestFit="true" customWidth="true" max="16384" min="12" outlineLevel="0" style="1" width="9.01963900951847"/>
   </cols>
   <sheetData>
@@ -3757,10 +3745,10 @@
       <c r="H10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="5" t="n"/>
@@ -3773,22 +3761,22 @@
       <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="25" t="n">
         <v>42.4</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="25" t="n">
         <v>50.05</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="25" t="n">
         <v>43.3</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="25" t="n">
         <v>52.7</v>
       </c>
-      <c r="H11" s="26" t="n">
+      <c r="H11" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -3797,7 +3785,10 @@
       <c r="J11" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="5" t="n"/>
+      <c r="K11" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J11-I11</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
@@ -3807,22 +3798,22 @@
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="26" t="n">
+      <c r="D12" s="25" t="n">
         <v>50.85</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="25" t="n">
         <v>11.25</v>
       </c>
-      <c r="F12" s="26" t="n">
+      <c r="F12" s="25" t="n">
         <v>52.4</v>
       </c>
-      <c r="G12" s="26" t="n">
+      <c r="G12" s="25" t="n">
         <v>11.25</v>
       </c>
-      <c r="H12" s="26" t="n">
+      <c r="H12" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -3831,8 +3822,11 @@
       <c r="J12" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K12" s="27" t="n"/>
-      <c r="L12" s="28" t="n"/>
+      <c r="K12" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J12-I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="27" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="19" t="n">
@@ -3841,22 +3835,22 @@
       <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="26" t="n">
+      <c r="C13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="G13" s="26" t="n">
+      <c r="G13" s="25" t="n">
         <v>10.25</v>
       </c>
-      <c r="H13" s="26" t="n">
+      <c r="H13" s="25" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -3865,7 +3859,10 @@
       <c r="J13" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K13" s="28" t="n"/>
+      <c r="K13" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J13-I13</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
@@ -3875,22 +3872,22 @@
       <c r="B14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="25" t="n">
         <v>55.65</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="25" t="n">
         <v>14.8</v>
       </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="25" t="n">
         <v>55.65</v>
       </c>
-      <c r="G14" s="26" t="n">
+      <c r="G14" s="25" t="n">
         <v>16.3</v>
       </c>
-      <c r="H14" s="26" t="n">
+      <c r="H14" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I14" s="4" t="n">
@@ -3899,7 +3896,10 @@
       <c r="J14" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K14" s="5" t="n"/>
+      <c r="K14" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J14-I14</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
@@ -3909,22 +3909,22 @@
       <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="25" t="n">
         <v>51.65</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="25" t="n">
         <v>17.9</v>
       </c>
-      <c r="F15" s="26" t="n">
+      <c r="F15" s="25" t="n">
         <v>51.65</v>
       </c>
-      <c r="G15" s="26" t="n">
+      <c r="G15" s="25" t="n">
         <v>21.4</v>
       </c>
-      <c r="H15" s="26" t="n">
+      <c r="H15" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I15" s="4" t="n">
@@ -3933,7 +3933,10 @@
       <c r="J15" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K15" s="5" t="n"/>
+      <c r="K15" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J15-I15</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="16">
@@ -3943,22 +3946,22 @@
       <c r="B16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="26" t="n">
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="25" t="n">
         <v>46.65</v>
       </c>
-      <c r="G16" s="26" t="n">
+      <c r="G16" s="25" t="n">
         <v>38.15</v>
       </c>
-      <c r="H16" s="26" t="n">
+      <c r="H16" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I16" s="4" t="n">
@@ -3967,7 +3970,10 @@
       <c r="J16" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K16" s="5" t="n"/>
+      <c r="K16" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J16-I16</f>
+        <v>-5</v>
+      </c>
       <c r="L16" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="17">
@@ -3977,22 +3983,22 @@
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="26" t="n">
+      <c r="D17" s="25" t="n">
         <v>61.95</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="25" t="n">
         <v>26.1</v>
       </c>
-      <c r="F17" s="26" t="n">
+      <c r="F17" s="25" t="n">
         <v>61.95</v>
       </c>
-      <c r="G17" s="26" t="n">
+      <c r="G17" s="25" t="n">
         <v>30.7</v>
       </c>
-      <c r="H17" s="26" t="n">
+      <c r="H17" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I17" s="4" t="n">
@@ -4001,7 +4007,10 @@
       <c r="J17" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K17" s="5" t="n"/>
+      <c r="K17" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J17-I17</f>
+        <v>0</v>
+      </c>
       <c r="L17" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="18">
@@ -4011,22 +4020,22 @@
       <c r="B18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="26" t="n">
+      <c r="D18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="25" t="n">
         <v>55.85</v>
       </c>
-      <c r="G18" s="26" t="n">
+      <c r="G18" s="25" t="n">
         <v>11.7</v>
       </c>
-      <c r="H18" s="26" t="n">
+      <c r="H18" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I18" s="4" t="n">
@@ -4035,7 +4044,10 @@
       <c r="J18" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K18" s="5" t="n"/>
+      <c r="K18" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J18-I18</f>
+        <v>0</v>
+      </c>
       <c r="L18" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="19">
@@ -4045,22 +4057,22 @@
       <c r="B19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="26" t="n">
+      <c r="D19" s="25" t="n">
         <v>40.3</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="25" t="n">
         <v>36.25</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="G19" s="26" t="n">
+      <c r="G19" s="25" t="n">
         <v>36.25</v>
       </c>
-      <c r="H19" s="26" t="n">
+      <c r="H19" s="25" t="n">
         <v>33.75</v>
       </c>
       <c r="I19" s="4" t="n">
@@ -4069,7 +4081,10 @@
       <c r="J19" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K19" s="5" t="n"/>
+      <c r="K19" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J19-I19</f>
+        <v>0</v>
+      </c>
       <c r="L19" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="20">
@@ -4079,22 +4094,22 @@
       <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="26" t="n">
+      <c r="D20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="25" t="n">
         <v>51.1</v>
       </c>
-      <c r="G20" s="26" t="n">
+      <c r="G20" s="25" t="n">
         <v>42.05</v>
       </c>
-      <c r="H20" s="26" t="n">
+      <c r="H20" s="25" t="n">
         <v>28.3</v>
       </c>
       <c r="I20" s="4" t="n">
@@ -4103,7 +4118,10 @@
       <c r="J20" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K20" s="5" t="n"/>
+      <c r="K20" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J20-I20</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="21">
@@ -4113,22 +4131,22 @@
       <c r="B21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="26" t="n">
+      <c r="D21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="25" t="n">
         <v>47.6</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="25" t="n">
         <v>13.45</v>
       </c>
-      <c r="H21" s="26" t="n">
+      <c r="H21" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I21" s="4" t="n">
@@ -4137,7 +4155,10 @@
       <c r="J21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K21" s="5" t="n"/>
+      <c r="K21" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J21-I21</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="22">
@@ -4147,22 +4168,22 @@
       <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="26" t="n">
+      <c r="D22" s="25" t="n">
         <v>46.65</v>
       </c>
-      <c r="E22" s="26" t="n">
+      <c r="E22" s="25" t="n">
         <v>30.35</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="25" t="n">
         <v>52.75</v>
       </c>
-      <c r="G22" s="26" t="n">
+      <c r="G22" s="25" t="n">
         <v>47.05</v>
       </c>
-      <c r="H22" s="26" t="n">
+      <c r="H22" s="25" t="n">
         <v>25</v>
       </c>
       <c r="I22" s="4" t="n">
@@ -4171,7 +4192,10 @@
       <c r="J22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K22" s="5" t="n"/>
+      <c r="K22" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J22-I22</f>
+        <v>0</v>
+      </c>
       <c r="L22" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="23">
@@ -4181,22 +4205,22 @@
       <c r="B23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="26" t="n">
+      <c r="D23" s="25" t="n">
         <v>58.85</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="25" t="n">
         <v>26.65</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="F23" s="25" t="n">
         <v>58.85</v>
       </c>
-      <c r="G23" s="26" t="n">
+      <c r="G23" s="25" t="n">
         <v>29.25</v>
       </c>
-      <c r="H23" s="26" t="n">
+      <c r="H23" s="25" t="n">
         <v>12.55</v>
       </c>
       <c r="I23" s="4" t="n">
@@ -4205,7 +4229,10 @@
       <c r="J23" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K23" s="5" t="n"/>
+      <c r="K23" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J23-I23</f>
+        <v>0</v>
+      </c>
       <c r="L23" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="24">
@@ -4215,22 +4242,22 @@
       <c r="B24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="26" t="n">
+      <c r="D24" s="25" t="n">
         <v>40.75</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="25" t="n">
         <v>35.8</v>
       </c>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="25" t="n">
         <v>43.9</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="G24" s="25" t="n">
         <v>42</v>
       </c>
-      <c r="H24" s="26" t="n">
+      <c r="H24" s="25" t="n">
         <v>33.25</v>
       </c>
       <c r="I24" s="4" t="n">
@@ -4239,7 +4266,10 @@
       <c r="J24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="n"/>
+      <c r="K24" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J24-I24</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="25">
@@ -4249,22 +4279,22 @@
       <c r="B25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="26" t="n">
+      <c r="D25" s="25" t="n">
         <v>43.5</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="25" t="n">
         <v>26.25</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="25" t="n">
         <v>50.95</v>
       </c>
-      <c r="G25" s="26" t="n">
+      <c r="G25" s="25" t="n">
         <v>36.2</v>
       </c>
-      <c r="H25" s="26" t="n">
+      <c r="H25" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I25" s="4" t="n">
@@ -4273,7 +4303,10 @@
       <c r="J25" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K25" s="5" t="n"/>
+      <c r="K25" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J25-I25</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="26">
@@ -4283,22 +4316,22 @@
       <c r="B26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="26" t="n">
+      <c r="D26" s="25" t="n">
         <v>47.5</v>
       </c>
-      <c r="E26" s="26" t="n">
+      <c r="E26" s="25" t="n">
         <v>27.7</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="25" t="n">
         <v>50.1</v>
       </c>
-      <c r="G26" s="26" t="n">
+      <c r="G26" s="25" t="n">
         <v>37.25</v>
       </c>
-      <c r="H26" s="26" t="n">
+      <c r="H26" s="25" t="n">
         <v>23.9</v>
       </c>
       <c r="I26" s="4" t="n">
@@ -4307,7 +4340,10 @@
       <c r="J26" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K26" s="5" t="n"/>
+      <c r="K26" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J26-I26</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="27">
@@ -4317,22 +4353,22 @@
       <c r="B27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="26" t="n">
+      <c r="D27" s="25" t="n">
         <v>50.8</v>
       </c>
-      <c r="E27" s="26" t="n">
+      <c r="E27" s="25" t="n">
         <v>20.35</v>
       </c>
-      <c r="F27" s="26" t="n">
+      <c r="F27" s="25" t="n">
         <v>50.8</v>
       </c>
-      <c r="G27" s="26" t="n">
+      <c r="G27" s="25" t="n">
         <v>33.3</v>
       </c>
-      <c r="H27" s="26" t="n">
+      <c r="H27" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I27" s="4" t="n">
@@ -4341,7 +4377,10 @@
       <c r="J27" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K27" s="5" t="n"/>
+      <c r="K27" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J27-I27</f>
+        <v>0</v>
+      </c>
       <c r="L27" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="28">
@@ -4351,22 +4390,22 @@
       <c r="B28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="26" t="n">
+      <c r="D28" s="25" t="n">
         <v>52.2</v>
       </c>
-      <c r="E28" s="26" t="n">
+      <c r="E28" s="25" t="n">
         <v>38.15</v>
       </c>
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="25" t="n">
         <v>61.55</v>
       </c>
-      <c r="G28" s="26" t="n">
+      <c r="G28" s="25" t="n">
         <v>44.85</v>
       </c>
-      <c r="H28" s="26" t="n">
+      <c r="H28" s="25" t="n">
         <v>32.4</v>
       </c>
       <c r="I28" s="4" t="n">
@@ -4375,7 +4414,10 @@
       <c r="J28" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="K28" s="5" t="n"/>
+      <c r="K28" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J28-I28</f>
+        <v>0</v>
+      </c>
       <c r="L28" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="29">
@@ -4385,22 +4427,22 @@
       <c r="B29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="26" t="n">
+      <c r="D29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="25" t="n">
         <v>66.6</v>
       </c>
-      <c r="G29" s="26" t="n">
+      <c r="G29" s="25" t="n">
         <v>12.25</v>
       </c>
-      <c r="H29" s="26" t="n">
+      <c r="H29" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I29" s="4" t="n">
@@ -4409,7 +4451,10 @@
       <c r="J29" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K29" s="5" t="n"/>
+      <c r="K29" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J29-I29</f>
+        <v>0</v>
+      </c>
       <c r="L29" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="30">
@@ -4419,22 +4464,22 @@
       <c r="B30" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="26" t="n">
+      <c r="D30" s="25" t="n">
         <v>50.25</v>
       </c>
-      <c r="E30" s="26" t="n">
+      <c r="E30" s="25" t="n">
         <v>24.8</v>
       </c>
-      <c r="F30" s="26" t="n">
+      <c r="F30" s="25" t="n">
         <v>50.25</v>
       </c>
-      <c r="G30" s="26" t="n">
+      <c r="G30" s="25" t="n">
         <v>32.85</v>
       </c>
-      <c r="H30" s="26" t="n">
+      <c r="H30" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I30" s="4" t="n">
@@ -4443,7 +4488,10 @@
       <c r="J30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K30" s="5" t="n"/>
+      <c r="K30" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J30-I30</f>
+        <v>0</v>
+      </c>
       <c r="L30" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="31">
@@ -4453,22 +4501,22 @@
       <c r="B31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="26" t="n">
+      <c r="D31" s="25" t="n">
         <v>53.35</v>
       </c>
-      <c r="E31" s="26" t="n">
+      <c r="E31" s="25" t="n">
         <v>33.5</v>
       </c>
-      <c r="F31" s="26" t="n">
+      <c r="F31" s="25" t="n">
         <v>53.9</v>
       </c>
-      <c r="G31" s="26" t="n">
+      <c r="G31" s="25" t="n">
         <v>33.5</v>
       </c>
-      <c r="H31" s="26" t="n">
+      <c r="H31" s="25" t="n">
         <v>30.05</v>
       </c>
       <c r="I31" s="4" t="n">
@@ -4477,7 +4525,10 @@
       <c r="J31" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K31" s="5" t="n"/>
+      <c r="K31" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J31-I31</f>
+        <v>0</v>
+      </c>
       <c r="L31" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="32">
@@ -4487,22 +4538,22 @@
       <c r="B32" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="26" t="n">
+      <c r="D32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="25" t="n">
         <v>53.7</v>
       </c>
-      <c r="G32" s="26" t="n">
+      <c r="G32" s="25" t="n">
         <v>41.6</v>
       </c>
-      <c r="H32" s="26" t="n">
+      <c r="H32" s="25" t="n">
         <v>25.65</v>
       </c>
       <c r="I32" s="4" t="n">
@@ -4511,7 +4562,10 @@
       <c r="J32" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K32" s="5" t="n"/>
+      <c r="K32" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J32-I32</f>
+        <v>0</v>
+      </c>
       <c r="L32" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="33">
@@ -4521,22 +4575,22 @@
       <c r="B33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="26" t="n">
+      <c r="D33" s="25" t="n">
         <v>37.5</v>
       </c>
-      <c r="E33" s="26" t="n">
+      <c r="E33" s="25" t="n">
         <v>13.55</v>
       </c>
-      <c r="F33" s="26" t="n">
+      <c r="F33" s="25" t="n">
         <v>41.75</v>
       </c>
-      <c r="G33" s="26" t="n">
+      <c r="G33" s="25" t="n">
         <v>13.55</v>
       </c>
-      <c r="H33" s="26" t="n">
+      <c r="H33" s="25" t="n">
         <v>10.05</v>
       </c>
       <c r="I33" s="4" t="n">
@@ -4545,7 +4599,10 @@
       <c r="J33" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K33" s="5" t="n"/>
+      <c r="K33" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J33-I33</f>
+        <v>0</v>
+      </c>
       <c r="L33" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="34">
@@ -4555,22 +4612,22 @@
       <c r="B34" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="26" t="n">
+      <c r="D34" s="25" t="n">
         <v>56</v>
       </c>
-      <c r="E34" s="26" t="n">
+      <c r="E34" s="25" t="n">
         <v>48.85</v>
       </c>
-      <c r="F34" s="26" t="n">
+      <c r="F34" s="25" t="n">
         <v>63.65</v>
       </c>
-      <c r="G34" s="26" t="n">
+      <c r="G34" s="25" t="n">
         <v>56.3</v>
       </c>
-      <c r="H34" s="26" t="n">
+      <c r="H34" s="25" t="n">
         <v>38.95</v>
       </c>
       <c r="I34" s="4" t="n">
@@ -4579,7 +4636,10 @@
       <c r="J34" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K34" s="5" t="n"/>
+      <c r="K34" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J34-I34</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="35">
@@ -4589,22 +4649,22 @@
       <c r="B35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="26" t="n">
+      <c r="D35" s="25" t="n">
         <v>49.15</v>
       </c>
-      <c r="E35" s="26" t="n">
+      <c r="E35" s="25" t="n">
         <v>17.35</v>
       </c>
-      <c r="F35" s="26" t="n">
+      <c r="F35" s="25" t="n">
         <v>49.15</v>
       </c>
-      <c r="G35" s="26" t="n">
+      <c r="G35" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="H35" s="26" t="n">
+      <c r="H35" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I35" s="4" t="n">
@@ -4613,7 +4673,10 @@
       <c r="J35" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K35" s="5" t="n"/>
+      <c r="K35" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J35-I35</f>
+        <v>0</v>
+      </c>
       <c r="L35" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="36">
@@ -4623,22 +4686,22 @@
       <c r="B36" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="26" t="n">
+      <c r="D36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="25" t="n">
         <v>62.65</v>
       </c>
-      <c r="G36" s="26" t="n">
+      <c r="G36" s="25" t="n">
         <v>44.35</v>
       </c>
-      <c r="H36" s="26" t="n">
+      <c r="H36" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I36" s="4" t="n">
@@ -4647,7 +4710,10 @@
       <c r="J36" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K36" s="5" t="n"/>
+      <c r="K36" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J36-I36</f>
+        <v>0</v>
+      </c>
       <c r="L36" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
@@ -4657,22 +4723,22 @@
       <c r="B37" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="26" t="n">
+      <c r="D37" s="25" t="n">
         <v>49.65</v>
       </c>
-      <c r="E37" s="26" t="n">
+      <c r="E37" s="25" t="n">
         <v>43.85</v>
       </c>
-      <c r="F37" s="26" t="n">
+      <c r="F37" s="25" t="n">
         <v>51.35</v>
       </c>
-      <c r="G37" s="26" t="n">
+      <c r="G37" s="25" t="n">
         <v>43.85</v>
       </c>
-      <c r="H37" s="26" t="n">
+      <c r="H37" s="25" t="n">
         <v>31.8</v>
       </c>
       <c r="I37" s="4" t="n">
@@ -4681,7 +4747,10 @@
       <c r="J37" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K37" s="5" t="n"/>
+      <c r="K37" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J37-I37</f>
+        <v>0</v>
+      </c>
       <c r="L37" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="38">
@@ -4691,22 +4760,22 @@
       <c r="B38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="26" t="n">
+      <c r="D38" s="25" t="n">
         <v>44.2</v>
       </c>
-      <c r="E38" s="26" t="n">
+      <c r="E38" s="25" t="n">
         <v>51.25</v>
       </c>
-      <c r="F38" s="26" t="n">
+      <c r="F38" s="25" t="n">
         <v>44.2</v>
       </c>
-      <c r="G38" s="26" t="n">
+      <c r="G38" s="25" t="n">
         <v>51.25</v>
       </c>
-      <c r="H38" s="26" t="n">
+      <c r="H38" s="25" t="n">
         <v>21.9</v>
       </c>
       <c r="I38" s="4" t="n">
@@ -4715,7 +4784,10 @@
       <c r="J38" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K38" s="5" t="n"/>
+      <c r="K38" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J38-I38</f>
+        <v>0</v>
+      </c>
       <c r="L38" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="39">
@@ -4725,22 +4797,22 @@
       <c r="B39" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="26" t="n">
+      <c r="D39" s="25" t="n">
         <v>58.05</v>
       </c>
-      <c r="E39" s="26" t="n">
+      <c r="E39" s="25" t="n">
         <v>28.65</v>
       </c>
-      <c r="F39" s="26" t="n">
+      <c r="F39" s="25" t="n">
         <v>58.05</v>
       </c>
-      <c r="G39" s="26" t="n">
+      <c r="G39" s="25" t="n">
         <v>34.2</v>
       </c>
-      <c r="H39" s="26" t="n">
+      <c r="H39" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I39" s="4" t="n">
@@ -4749,7 +4821,10 @@
       <c r="J39" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K39" s="5" t="n"/>
+      <c r="K39" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J39-I39</f>
+        <v>0</v>
+      </c>
       <c r="L39" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="40">
@@ -4759,22 +4834,22 @@
       <c r="B40" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="26" t="n">
+      <c r="D40" s="25" t="n">
         <v>61.7</v>
       </c>
-      <c r="E40" s="26" t="n">
+      <c r="E40" s="25" t="n">
         <v>28.4</v>
       </c>
-      <c r="F40" s="26" t="n">
+      <c r="F40" s="25" t="n">
         <v>65.75</v>
       </c>
-      <c r="G40" s="26" t="n">
+      <c r="G40" s="25" t="n">
         <v>28.4</v>
       </c>
-      <c r="H40" s="26" t="n">
+      <c r="H40" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I40" s="4" t="n">
@@ -4783,7 +4858,10 @@
       <c r="J40" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K40" s="5" t="n"/>
+      <c r="K40" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J40-I40</f>
+        <v>0</v>
+      </c>
       <c r="L40" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="41">
@@ -4793,22 +4871,22 @@
       <c r="B41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="26" t="n">
+      <c r="D41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="25" t="n">
         <v>53.2</v>
       </c>
-      <c r="G41" s="26" t="n">
+      <c r="G41" s="25" t="n">
         <v>17.45</v>
       </c>
-      <c r="H41" s="26" t="n">
+      <c r="H41" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I41" s="4" t="n">
@@ -4817,7 +4895,10 @@
       <c r="J41" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K41" s="5" t="n"/>
+      <c r="K41" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J41-I41</f>
+        <v>0</v>
+      </c>
       <c r="L41" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="42">
@@ -4827,22 +4908,22 @@
       <c r="B42" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="26" t="n">
+      <c r="D42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="25" t="n">
         <v>34.5</v>
       </c>
-      <c r="G42" s="26" t="n">
+      <c r="G42" s="25" t="n">
         <v>66.7</v>
       </c>
-      <c r="H42" s="26" t="n">
+      <c r="H42" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I42" s="4" t="n">
@@ -4851,7 +4932,10 @@
       <c r="J42" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="K42" s="5" t="n"/>
+      <c r="K42" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J42-I42</f>
+        <v>0</v>
+      </c>
       <c r="L42" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="43">
@@ -4861,22 +4945,22 @@
       <c r="B43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="26" t="n">
+      <c r="D43" s="25" t="n">
         <v>54.55</v>
       </c>
-      <c r="E43" s="26" t="n">
+      <c r="E43" s="25" t="n">
         <v>12.1</v>
       </c>
-      <c r="F43" s="26" t="n">
+      <c r="F43" s="25" t="n">
         <v>57.35</v>
       </c>
-      <c r="G43" s="26" t="n">
+      <c r="G43" s="25" t="n">
         <v>17.8</v>
       </c>
-      <c r="H43" s="26" t="n">
+      <c r="H43" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I43" s="4" t="n">
@@ -4885,7 +4969,10 @@
       <c r="J43" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K43" s="5" t="n"/>
+      <c r="K43" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J43-I43</f>
+        <v>0</v>
+      </c>
       <c r="L43" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="42" outlineLevel="0" r="44">
@@ -4895,22 +4982,22 @@
       <c r="B44" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="31" t="n">
+      <c r="D44" s="30" t="n">
         <v>66.25</v>
       </c>
-      <c r="E44" s="31" t="n">
+      <c r="E44" s="30" t="n">
         <v>19.7</v>
       </c>
-      <c r="F44" s="31" t="n">
+      <c r="F44" s="30" t="n">
         <v>66.25</v>
       </c>
-      <c r="G44" s="31" t="n">
+      <c r="G44" s="30" t="n">
         <v>19.7</v>
       </c>
-      <c r="H44" s="31" t="n">
+      <c r="H44" s="30" t="n">
         <v>8.45</v>
       </c>
       <c r="I44" s="4" t="n">
@@ -4919,7 +5006,10 @@
       <c r="J44" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K44" s="5" t="n"/>
+      <c r="K44" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J44-I44</f>
+        <v>0</v>
+      </c>
       <c r="L44" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="45">
@@ -4929,22 +5019,22 @@
       <c r="B45" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="26" t="n">
+      <c r="D45" s="25" t="n">
         <v>53.7</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="25" t="n">
         <v>12.6</v>
       </c>
-      <c r="F45" s="26" t="n">
+      <c r="F45" s="25" t="n">
         <v>55.2</v>
       </c>
-      <c r="G45" s="26" t="n">
+      <c r="G45" s="25" t="n">
         <v>12.65</v>
       </c>
-      <c r="H45" s="26" t="n">
+      <c r="H45" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I45" s="4" t="n">
@@ -4953,7 +5043,10 @@
       <c r="J45" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K45" s="5" t="n"/>
+      <c r="K45" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J45-I45</f>
+        <v>0</v>
+      </c>
       <c r="L45" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="46">
@@ -4963,22 +5056,22 @@
       <c r="B46" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="26" t="n">
+      <c r="D46" s="25" t="n">
         <v>47.2</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="25" t="n">
         <v>37.35</v>
       </c>
-      <c r="F46" s="26" t="n">
+      <c r="F46" s="25" t="n">
         <v>55.3</v>
       </c>
-      <c r="G46" s="26" t="n">
+      <c r="G46" s="25" t="n">
         <v>54.25</v>
       </c>
-      <c r="H46" s="26" t="n">
+      <c r="H46" s="25" t="n">
         <v>34.25</v>
       </c>
       <c r="I46" s="4" t="n">
@@ -4987,7 +5080,10 @@
       <c r="J46" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K46" s="5" t="n"/>
+      <c r="K46" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J46-I46</f>
+        <v>0</v>
+      </c>
       <c r="L46" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="47">
@@ -4997,22 +5093,22 @@
       <c r="B47" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="26" t="n">
+      <c r="D47" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="25" t="n">
         <v>47.65</v>
       </c>
-      <c r="G47" s="26" t="n">
+      <c r="G47" s="25" t="n">
         <v>37.3</v>
       </c>
-      <c r="H47" s="26" t="n">
+      <c r="H47" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I47" s="4" t="n">
@@ -5021,7 +5117,10 @@
       <c r="J47" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K47" s="5" t="n"/>
+      <c r="K47" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J47-I47</f>
+        <v>0</v>
+      </c>
       <c r="L47" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="48">
@@ -5031,22 +5130,22 @@
       <c r="B48" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="26" t="n">
+      <c r="D48" s="25" t="n">
         <v>37.85</v>
       </c>
-      <c r="E48" s="26" t="n">
+      <c r="E48" s="25" t="n">
         <v>18.85</v>
       </c>
-      <c r="F48" s="26" t="n">
+      <c r="F48" s="25" t="n">
         <v>37.95</v>
       </c>
-      <c r="G48" s="26" t="n">
+      <c r="G48" s="25" t="n">
         <v>20.45</v>
       </c>
-      <c r="H48" s="26" t="n">
+      <c r="H48" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I48" s="4" t="n">
@@ -5055,7 +5154,10 @@
       <c r="J48" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K48" s="5" t="n"/>
+      <c r="K48" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J48-I48</f>
+        <v>0</v>
+      </c>
       <c r="L48" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="49">
@@ -5065,22 +5167,22 @@
       <c r="B49" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="26" t="n">
+      <c r="D49" s="25" t="n">
         <v>55.05</v>
       </c>
-      <c r="E49" s="26" t="n">
+      <c r="E49" s="25" t="n">
         <v>30.25</v>
       </c>
-      <c r="F49" s="26" t="n">
+      <c r="F49" s="25" t="n">
         <v>55.05</v>
       </c>
-      <c r="G49" s="26" t="n">
+      <c r="G49" s="25" t="n">
         <v>36.35</v>
       </c>
-      <c r="H49" s="26" t="n">
+      <c r="H49" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I49" s="4" t="n">
@@ -5089,7 +5191,10 @@
       <c r="J49" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K49" s="5" t="n"/>
+      <c r="K49" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J49-I49</f>
+        <v>0</v>
+      </c>
       <c r="L49" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="50">
@@ -5099,22 +5204,22 @@
       <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="26" t="n">
+      <c r="D50" s="25" t="n">
         <v>42.2</v>
       </c>
-      <c r="E50" s="26" t="n">
+      <c r="E50" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="F50" s="26" t="n">
+      <c r="F50" s="25" t="n">
         <v>44.65</v>
       </c>
-      <c r="G50" s="26" t="n">
+      <c r="G50" s="25" t="n">
         <v>37.1</v>
       </c>
-      <c r="H50" s="26" t="n">
+      <c r="H50" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I50" s="4" t="n">
@@ -5123,7 +5228,10 @@
       <c r="J50" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K50" s="5" t="n"/>
+      <c r="K50" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J50-I50</f>
+        <v>0</v>
+      </c>
       <c r="L50" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="51">
@@ -5133,22 +5241,22 @@
       <c r="B51" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="26" t="n">
+      <c r="D51" s="25" t="n">
         <v>51.25</v>
       </c>
-      <c r="E51" s="26" t="n">
+      <c r="E51" s="25" t="n">
         <v>39.25</v>
       </c>
-      <c r="F51" s="26" t="n">
+      <c r="F51" s="25" t="n">
         <v>55.6</v>
       </c>
-      <c r="G51" s="26" t="n">
+      <c r="G51" s="25" t="n">
         <v>40.55</v>
       </c>
-      <c r="H51" s="26" t="n">
+      <c r="H51" s="25" t="n">
         <v>27.65</v>
       </c>
       <c r="I51" s="4" t="n">
@@ -5157,7 +5265,10 @@
       <c r="J51" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K51" s="5" t="n"/>
+      <c r="K51" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J51-I51</f>
+        <v>0</v>
+      </c>
       <c r="L51" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="52">
@@ -5167,22 +5278,22 @@
       <c r="B52" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="26" t="n">
+      <c r="D52" s="25" t="n">
         <v>52.35</v>
       </c>
-      <c r="E52" s="26" t="n">
+      <c r="E52" s="25" t="n">
         <v>27.35</v>
       </c>
-      <c r="F52" s="26" t="n">
+      <c r="F52" s="25" t="n">
         <v>57.15</v>
       </c>
-      <c r="G52" s="26" t="n">
+      <c r="G52" s="25" t="n">
         <v>33.15</v>
       </c>
-      <c r="H52" s="26" t="n">
+      <c r="H52" s="25" t="n">
         <v>25.4</v>
       </c>
       <c r="I52" s="4" t="n">
@@ -5191,7 +5302,10 @@
       <c r="J52" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K52" s="5" t="n"/>
+      <c r="K52" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J52-I52</f>
+        <v>0</v>
+      </c>
       <c r="L52" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="53">
@@ -5201,22 +5315,22 @@
       <c r="B53" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="26" t="n">
+      <c r="D53" s="25" t="n">
         <v>70.3</v>
       </c>
-      <c r="E53" s="26" t="n">
+      <c r="E53" s="25" t="n">
         <v>26.55</v>
       </c>
-      <c r="F53" s="26" t="n">
+      <c r="F53" s="25" t="n">
         <v>73.2</v>
       </c>
-      <c r="G53" s="26" t="n">
+      <c r="G53" s="25" t="n">
         <v>35.9</v>
       </c>
-      <c r="H53" s="26" t="n">
+      <c r="H53" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I53" s="4" t="n">
@@ -5225,7 +5339,10 @@
       <c r="J53" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K53" s="5" t="n"/>
+      <c r="K53" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J53-I53</f>
+        <v>0</v>
+      </c>
       <c r="L53" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="54">
@@ -5235,22 +5352,22 @@
       <c r="B54" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="26" t="n">
+      <c r="D54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="25" t="n">
         <v>73.2</v>
       </c>
-      <c r="G54" s="26" t="n">
+      <c r="G54" s="25" t="n">
         <v>38.2</v>
       </c>
-      <c r="H54" s="26" t="n">
+      <c r="H54" s="25" t="n">
         <v>21.5</v>
       </c>
       <c r="I54" s="4" t="n">
@@ -5259,7 +5376,10 @@
       <c r="J54" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K54" s="5" t="n"/>
+      <c r="K54" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J54-I54</f>
+        <v>0</v>
+      </c>
       <c r="L54" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="55">
@@ -5269,22 +5389,22 @@
       <c r="B55" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="26" t="n">
+      <c r="D55" s="25" t="n">
         <v>41.1</v>
       </c>
-      <c r="E55" s="26" t="n">
+      <c r="E55" s="25" t="n">
         <v>37.75</v>
       </c>
-      <c r="F55" s="26" t="n">
+      <c r="F55" s="25" t="n">
         <v>49.05</v>
       </c>
-      <c r="G55" s="26" t="n">
+      <c r="G55" s="25" t="n">
         <v>40.85</v>
       </c>
-      <c r="H55" s="26" t="n">
+      <c r="H55" s="25" t="n">
         <v>31.35</v>
       </c>
       <c r="I55" s="4" t="n">
@@ -5293,7 +5413,10 @@
       <c r="J55" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K55" s="5" t="n"/>
+      <c r="K55" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J55-I55</f>
+        <v>0</v>
+      </c>
       <c r="L55" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
@@ -5303,31 +5426,34 @@
       <c r="B56" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="26" t="n">
+      <c r="D56" s="25" t="n">
         <v>53.35</v>
       </c>
-      <c r="E56" s="26" t="n">
+      <c r="E56" s="25" t="n">
         <v>27</v>
       </c>
-      <c r="F56" s="26" t="n">
+      <c r="F56" s="25" t="n">
         <v>53.35</v>
       </c>
-      <c r="G56" s="26" t="n">
+      <c r="G56" s="25" t="n">
         <v>33.15</v>
       </c>
-      <c r="H56" s="26" t="n">
+      <c r="H56" s="25" t="n">
         <v>22.35</v>
       </c>
-      <c r="I56" s="32" t="n">
+      <c r="I56" s="31" t="n">
         <v>30</v>
       </c>
       <c r="J56" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K56" s="5" t="n"/>
+      <c r="K56" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J56-I56</f>
+        <v>0</v>
+      </c>
       <c r="L56" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="57">
@@ -5337,22 +5463,22 @@
       <c r="B57" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="26" t="n">
+      <c r="D57" s="25" t="n">
         <v>60.45</v>
       </c>
-      <c r="E57" s="26" t="n">
+      <c r="E57" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="F57" s="26" t="n">
+      <c r="F57" s="25" t="n">
         <v>64.55</v>
       </c>
-      <c r="G57" s="26" t="n">
+      <c r="G57" s="25" t="n">
         <v>35.45</v>
       </c>
-      <c r="H57" s="26" t="n">
+      <c r="H57" s="25" t="n">
         <v>28.85</v>
       </c>
       <c r="I57" s="4" t="n">
@@ -5361,7 +5487,10 @@
       <c r="J57" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K57" s="5" t="n"/>
+      <c r="K57" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J57-I57</f>
+        <v>0</v>
+      </c>
       <c r="L57" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="58">
@@ -5371,22 +5500,22 @@
       <c r="B58" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="26" t="n">
+      <c r="D58" s="25" t="n">
         <v>68.4</v>
       </c>
-      <c r="E58" s="26" t="n">
+      <c r="E58" s="25" t="n">
         <v>12.3</v>
       </c>
-      <c r="F58" s="26" t="n">
+      <c r="F58" s="25" t="n">
         <v>68.4</v>
       </c>
-      <c r="G58" s="26" t="n">
+      <c r="G58" s="25" t="n">
         <v>12.3</v>
       </c>
-      <c r="H58" s="26" t="n">
+      <c r="H58" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I58" s="4" t="n">
@@ -5395,7 +5524,10 @@
       <c r="J58" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K58" s="5" t="n"/>
+      <c r="K58" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J58-I58</f>
+        <v>0</v>
+      </c>
       <c r="L58" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="59">
@@ -5405,22 +5537,22 @@
       <c r="B59" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="26" t="n">
+      <c r="D59" s="25" t="n">
         <v>47.95</v>
       </c>
-      <c r="E59" s="26" t="n">
+      <c r="E59" s="25" t="n">
         <v>29.2</v>
       </c>
-      <c r="F59" s="26" t="n">
+      <c r="F59" s="25" t="n">
         <v>58.15</v>
       </c>
-      <c r="G59" s="26" t="n">
+      <c r="G59" s="25" t="n">
         <v>42.3</v>
       </c>
-      <c r="H59" s="26" t="n">
+      <c r="H59" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I59" s="4" t="n">
@@ -5429,7 +5561,10 @@
       <c r="J59" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K59" s="5" t="n"/>
+      <c r="K59" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J59-I59</f>
+        <v>0</v>
+      </c>
       <c r="L59" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="60">
@@ -5439,22 +5574,22 @@
       <c r="B60" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="26" t="n">
+      <c r="D60" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="25" t="n">
         <v>55.4</v>
       </c>
-      <c r="G60" s="26" t="n">
+      <c r="G60" s="25" t="n">
         <v>50.95</v>
       </c>
-      <c r="H60" s="26" t="n">
+      <c r="H60" s="25" t="n">
         <v>32.65</v>
       </c>
       <c r="I60" s="4" t="n">
@@ -5463,7 +5598,10 @@
       <c r="J60" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K60" s="5" t="n"/>
+      <c r="K60" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J60-I60</f>
+        <v>0</v>
+      </c>
       <c r="L60" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="61">
@@ -5473,31 +5611,34 @@
       <c r="B61" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="26" t="n">
+      <c r="D61" s="25" t="n">
         <v>55.25</v>
       </c>
-      <c r="E61" s="26" t="n">
+      <c r="E61" s="25" t="n">
         <v>24.05</v>
       </c>
-      <c r="F61" s="26" t="n">
+      <c r="F61" s="25" t="n">
         <v>56.3</v>
       </c>
-      <c r="G61" s="26" t="n">
+      <c r="G61" s="25" t="n">
         <v>24.05</v>
       </c>
-      <c r="H61" s="26" t="n">
+      <c r="H61" s="25" t="n">
         <v>13.7</v>
       </c>
-      <c r="I61" s="24" t="n">
+      <c r="I61" s="4" t="n">
         <v>30</v>
       </c>
       <c r="J61" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K61" s="5" t="n"/>
+      <c r="K61" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J61-I61</f>
+        <v>0</v>
+      </c>
       <c r="L61" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="62">
@@ -5507,22 +5648,22 @@
       <c r="B62" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="26" t="n">
+      <c r="D62" s="25" t="n">
         <v>44.05</v>
       </c>
-      <c r="E62" s="26" t="n">
+      <c r="E62" s="25" t="n">
         <v>34.2</v>
       </c>
-      <c r="F62" s="26" t="n">
+      <c r="F62" s="25" t="n">
         <v>49.35</v>
       </c>
-      <c r="G62" s="26" t="n">
+      <c r="G62" s="25" t="n">
         <v>34.25</v>
       </c>
-      <c r="H62" s="26" t="n">
+      <c r="H62" s="25" t="n">
         <v>31.35</v>
       </c>
       <c r="I62" s="4" t="n">
@@ -5531,7 +5672,10 @@
       <c r="J62" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K62" s="5" t="n"/>
+      <c r="K62" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J62-I62</f>
+        <v>0</v>
+      </c>
       <c r="L62" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
@@ -5541,22 +5685,22 @@
       <c r="B63" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="26" t="n">
+      <c r="D63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="25" t="n">
         <v>109.75</v>
       </c>
-      <c r="G63" s="26" t="n">
+      <c r="G63" s="25" t="n">
         <v>33.9</v>
       </c>
-      <c r="H63" s="26" t="n">
+      <c r="H63" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I63" s="4" t="n">
@@ -5565,7 +5709,10 @@
       <c r="J63" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K63" s="5" t="n"/>
+      <c r="K63" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J63-I63</f>
+        <v>0</v>
+      </c>
       <c r="L63" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="64">
@@ -5575,22 +5722,22 @@
       <c r="B64" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="26" t="n">
+      <c r="D64" s="25" t="n">
         <v>40.5</v>
       </c>
-      <c r="E64" s="26" t="n">
+      <c r="E64" s="25" t="n">
         <v>16.45</v>
       </c>
-      <c r="F64" s="26" t="n">
+      <c r="F64" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="G64" s="26" t="n">
+      <c r="G64" s="25" t="n">
         <v>16.45</v>
       </c>
-      <c r="H64" s="26" t="n">
+      <c r="H64" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I64" s="4" t="n">
@@ -5599,7 +5746,10 @@
       <c r="J64" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K64" s="5" t="n"/>
+      <c r="K64" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J64-I64</f>
+        <v>0</v>
+      </c>
       <c r="L64" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="65">
@@ -5609,22 +5759,22 @@
       <c r="B65" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="26" t="n">
+      <c r="D65" s="25" t="n">
         <v>55.8</v>
       </c>
-      <c r="E65" s="26" t="n">
+      <c r="E65" s="25" t="n">
         <v>12.85</v>
       </c>
-      <c r="F65" s="26" t="n">
+      <c r="F65" s="25" t="n">
         <v>56.45</v>
       </c>
-      <c r="G65" s="26" t="n">
+      <c r="G65" s="25" t="n">
         <v>13.3</v>
       </c>
-      <c r="H65" s="26" t="n">
+      <c r="H65" s="25" t="n">
         <v>5</v>
       </c>
       <c r="I65" s="4" t="n">
@@ -5633,7 +5783,10 @@
       <c r="J65" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K65" s="5" t="n"/>
+      <c r="K65" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J65-I65</f>
+        <v>0</v>
+      </c>
       <c r="L65" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="66">
@@ -5643,22 +5796,22 @@
       <c r="B66" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="26" t="n">
+      <c r="D66" s="25" t="n">
         <v>52.55</v>
       </c>
-      <c r="E66" s="26" t="n">
+      <c r="E66" s="25" t="n">
         <v>10.95</v>
       </c>
-      <c r="F66" s="26" t="n">
+      <c r="F66" s="25" t="n">
         <v>54.65</v>
       </c>
-      <c r="G66" s="26" t="n">
+      <c r="G66" s="25" t="n">
         <v>10.95</v>
       </c>
-      <c r="H66" s="26" t="n">
+      <c r="H66" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I66" s="4" t="n">
@@ -5667,7 +5820,10 @@
       <c r="J66" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K66" s="5" t="n"/>
+      <c r="K66" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J66-I66</f>
+        <v>0</v>
+      </c>
       <c r="L66" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="67">
@@ -5677,22 +5833,22 @@
       <c r="B67" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="26" t="n">
+      <c r="F67" s="25" t="n">
         <v>54.65</v>
       </c>
-      <c r="G67" s="26" t="n">
+      <c r="G67" s="25" t="n">
         <v>21.95</v>
       </c>
-      <c r="H67" s="26" t="n">
+      <c r="H67" s="25" t="n">
         <v>8.45</v>
       </c>
       <c r="I67" s="4" t="n">
@@ -5701,7 +5857,10 @@
       <c r="J67" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K67" s="5" t="n"/>
+      <c r="K67" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J67-I67</f>
+        <v>0</v>
+      </c>
       <c r="L67" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="68">
@@ -5711,22 +5870,22 @@
       <c r="B68" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="26" t="n">
+      <c r="D68" s="25" t="n">
         <v>47.7</v>
       </c>
-      <c r="E68" s="26" t="n">
+      <c r="E68" s="25" t="n">
         <v>30.65</v>
       </c>
-      <c r="F68" s="26" t="n">
+      <c r="F68" s="25" t="n">
         <v>53.75</v>
       </c>
-      <c r="G68" s="26" t="n">
+      <c r="G68" s="25" t="n">
         <v>42.35</v>
       </c>
-      <c r="H68" s="26" t="n">
+      <c r="H68" s="25" t="n">
         <v>25.8</v>
       </c>
       <c r="I68" s="4" t="n">
@@ -5735,7 +5894,10 @@
       <c r="J68" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K68" s="5" t="n"/>
+      <c r="K68" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J68-I68</f>
+        <v>0</v>
+      </c>
       <c r="L68" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="69">
@@ -5745,22 +5907,22 @@
       <c r="B69" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="26" t="n">
+      <c r="D69" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="25" t="n">
         <v>47.9</v>
       </c>
-      <c r="G69" s="26" t="n">
+      <c r="G69" s="25" t="n">
         <v>37.6</v>
       </c>
-      <c r="H69" s="26" t="n">
+      <c r="H69" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I69" s="4" t="n">
@@ -5769,7 +5931,10 @@
       <c r="J69" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="K69" s="5" t="n"/>
+      <c r="K69" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J69-I69</f>
+        <v>0</v>
+      </c>
       <c r="L69" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="33.75" outlineLevel="0" r="70">
@@ -5779,22 +5944,22 @@
       <c r="B70" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="26" t="n">
+      <c r="D70" s="25" t="n">
         <v>43.55</v>
       </c>
-      <c r="E70" s="26" t="n">
+      <c r="E70" s="25" t="n">
         <v>29.25</v>
       </c>
-      <c r="F70" s="26" t="n">
+      <c r="F70" s="25" t="n">
         <v>51.6</v>
       </c>
-      <c r="G70" s="26" t="n">
+      <c r="G70" s="25" t="n">
         <v>42.95</v>
       </c>
-      <c r="H70" s="26" t="n">
+      <c r="H70" s="25" t="n">
         <v>21.3</v>
       </c>
       <c r="I70" s="4" t="n">
@@ -5803,7 +5968,10 @@
       <c r="J70" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="K70" s="5" t="n"/>
+      <c r="K70" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J70-I70</f>
+        <v>0</v>
+      </c>
       <c r="L70" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="71">
@@ -5813,22 +5981,22 @@
       <c r="B71" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="26" t="n">
+      <c r="D71" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="25" t="n">
         <v>61.3</v>
       </c>
-      <c r="G71" s="26" t="n">
+      <c r="G71" s="25" t="n">
         <v>37.05</v>
       </c>
-      <c r="H71" s="26" t="n">
+      <c r="H71" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I71" s="4" t="n">
@@ -5837,7 +6005,10 @@
       <c r="J71" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K71" s="5" t="n"/>
+      <c r="K71" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J71-I71</f>
+        <v>0</v>
+      </c>
       <c r="L71" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="72">
@@ -5847,22 +6018,22 @@
       <c r="B72" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="26" t="n">
+      <c r="D72" s="25" t="n">
         <v>46.7</v>
       </c>
-      <c r="E72" s="26" t="n">
+      <c r="E72" s="25" t="n">
         <v>16.2</v>
       </c>
-      <c r="F72" s="26" t="n">
+      <c r="F72" s="25" t="n">
         <v>46.7</v>
       </c>
-      <c r="G72" s="26" t="n">
+      <c r="G72" s="25" t="n">
         <v>23.4</v>
       </c>
-      <c r="H72" s="26" t="n">
+      <c r="H72" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I72" s="4" t="n">
@@ -5871,7 +6042,10 @@
       <c r="J72" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K72" s="5" t="n"/>
+      <c r="K72" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J72-I72</f>
+        <v>0</v>
+      </c>
       <c r="L72" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="73">
@@ -5881,22 +6055,22 @@
       <c r="B73" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="26" t="n">
+      <c r="D73" s="25" t="n">
         <v>59.45</v>
       </c>
-      <c r="E73" s="26" t="n">
+      <c r="E73" s="25" t="n">
         <v>32.1</v>
       </c>
-      <c r="F73" s="26" t="n">
+      <c r="F73" s="25" t="n">
         <v>59.45</v>
       </c>
-      <c r="G73" s="26" t="n">
+      <c r="G73" s="25" t="n">
         <v>36.05</v>
       </c>
-      <c r="H73" s="26" t="n">
+      <c r="H73" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I73" s="4" t="n">
@@ -5905,7 +6079,10 @@
       <c r="J73" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K73" s="5" t="n"/>
+      <c r="K73" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J73-I73</f>
+        <v>0</v>
+      </c>
       <c r="L73" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="74">
@@ -5915,22 +6092,22 @@
       <c r="B74" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="26" t="n">
+      <c r="D74" s="25" t="n">
         <v>67.15</v>
       </c>
-      <c r="E74" s="26" t="n">
+      <c r="E74" s="25" t="n">
         <v>34.35</v>
       </c>
-      <c r="F74" s="26" t="n">
+      <c r="F74" s="25" t="n">
         <v>67.15</v>
       </c>
-      <c r="G74" s="26" t="n">
+      <c r="G74" s="25" t="n">
         <v>38.5</v>
       </c>
-      <c r="H74" s="26" t="n">
+      <c r="H74" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I74" s="4" t="n">
@@ -5939,7 +6116,10 @@
       <c r="J74" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K74" s="5" t="n"/>
+      <c r="K74" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J74-I74</f>
+        <v>0</v>
+      </c>
       <c r="L74" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="75">
@@ -5949,22 +6129,22 @@
       <c r="B75" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="26" t="n">
+      <c r="D75" s="25" t="n">
         <v>45.8</v>
       </c>
-      <c r="E75" s="26" t="n">
+      <c r="E75" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="F75" s="26" t="n">
+      <c r="F75" s="25" t="n">
         <v>45.8</v>
       </c>
-      <c r="G75" s="26" t="n">
+      <c r="G75" s="25" t="n">
         <v>19.05</v>
       </c>
-      <c r="H75" s="26" t="n">
+      <c r="H75" s="25" t="n">
         <v>14.75</v>
       </c>
       <c r="I75" s="4" t="n">
@@ -5973,7 +6153,10 @@
       <c r="J75" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K75" s="5" t="n"/>
+      <c r="K75" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J75-I75</f>
+        <v>0</v>
+      </c>
       <c r="L75" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="76">
@@ -5983,22 +6166,22 @@
       <c r="B76" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="26" t="n">
+      <c r="D76" s="25" t="n">
         <v>50.25</v>
       </c>
-      <c r="E76" s="26" t="n">
+      <c r="E76" s="25" t="n">
         <v>13.55</v>
       </c>
-      <c r="F76" s="26" t="n">
+      <c r="F76" s="25" t="n">
         <v>50.25</v>
       </c>
-      <c r="G76" s="26" t="n">
+      <c r="G76" s="25" t="n">
         <v>15.5</v>
       </c>
-      <c r="H76" s="26" t="n">
+      <c r="H76" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I76" s="4" t="n">
@@ -6007,7 +6190,10 @@
       <c r="J76" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K76" s="5" t="n"/>
+      <c r="K76" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J76-I76</f>
+        <v>0</v>
+      </c>
       <c r="L76" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="77">
@@ -6017,22 +6203,22 @@
       <c r="B77" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="26" t="n">
+      <c r="D77" s="25" t="n">
         <v>41.15</v>
       </c>
-      <c r="E77" s="26" t="n">
+      <c r="E77" s="25" t="n">
         <v>23.8</v>
       </c>
-      <c r="F77" s="26" t="n">
+      <c r="F77" s="25" t="n">
         <v>47</v>
       </c>
-      <c r="G77" s="26" t="n">
+      <c r="G77" s="25" t="n">
         <v>30.2</v>
       </c>
-      <c r="H77" s="26" t="n">
+      <c r="H77" s="25" t="n">
         <v>15.3</v>
       </c>
       <c r="I77" s="4" t="n">
@@ -6041,7 +6227,10 @@
       <c r="J77" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K77" s="5" t="n"/>
+      <c r="K77" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J77-I77</f>
+        <v>0</v>
+      </c>
       <c r="L77" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="78">
@@ -6051,31 +6240,34 @@
       <c r="B78" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="26" t="n">
+      <c r="D78" s="25" t="n">
         <v>49.85</v>
       </c>
-      <c r="E78" s="26" t="n">
+      <c r="E78" s="25" t="n">
         <v>18.9</v>
       </c>
-      <c r="F78" s="26" t="n">
+      <c r="F78" s="25" t="n">
         <v>49.85</v>
       </c>
-      <c r="G78" s="26" t="n">
+      <c r="G78" s="25" t="n">
         <v>29.05</v>
       </c>
-      <c r="H78" s="26" t="n">
+      <c r="H78" s="25" t="n">
         <v>2.3</v>
       </c>
-      <c r="I78" s="33" t="n">
+      <c r="I78" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="J78" s="33" t="n">
+      <c r="J78" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="K78" s="5" t="n"/>
+      <c r="K78" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J78-I78</f>
+        <v>0</v>
+      </c>
       <c r="L78" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="79">
@@ -6085,22 +6277,22 @@
       <c r="B79" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="26" t="n">
+      <c r="D79" s="25" t="n">
         <v>35</v>
       </c>
-      <c r="E79" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="F79" s="26" t="n">
+      <c r="E79" s="25" t="n">
+        <v>21</v>
+      </c>
+      <c r="F79" s="25" t="n">
         <v>38.5</v>
       </c>
-      <c r="G79" s="26" t="n">
+      <c r="G79" s="25" t="n">
         <v>23.8</v>
       </c>
-      <c r="H79" s="26" t="n">
+      <c r="H79" s="25" t="n">
         <v>15.95</v>
       </c>
       <c r="I79" s="4" t="n">
@@ -6109,7 +6301,10 @@
       <c r="J79" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K79" s="5" t="n"/>
+      <c r="K79" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J79-I79</f>
+        <v>0</v>
+      </c>
       <c r="L79" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="80">
@@ -6119,22 +6314,22 @@
       <c r="B80" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D80" s="26" t="n">
+      <c r="D80" s="25" t="n">
         <v>56.4</v>
       </c>
-      <c r="E80" s="26" t="n">
+      <c r="E80" s="25" t="n">
         <v>17.65</v>
       </c>
-      <c r="F80" s="26" t="n">
+      <c r="F80" s="25" t="n">
         <v>60.7</v>
       </c>
-      <c r="G80" s="26" t="n">
+      <c r="G80" s="25" t="n">
         <v>18.45</v>
       </c>
-      <c r="H80" s="26" t="n">
+      <c r="H80" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I80" s="4" t="n">
@@ -6143,7 +6338,10 @@
       <c r="J80" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K80" s="5" t="n"/>
+      <c r="K80" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J80-I80</f>
+        <v>-10</v>
+      </c>
       <c r="L80" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="81">
@@ -6153,22 +6351,22 @@
       <c r="B81" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D81" s="26" t="n">
+      <c r="D81" s="25" t="n">
         <v>57.05</v>
       </c>
-      <c r="E81" s="26" t="n">
+      <c r="E81" s="25" t="n">
         <v>11.9</v>
       </c>
-      <c r="F81" s="26" t="n">
+      <c r="F81" s="25" t="n">
         <v>57.05</v>
       </c>
-      <c r="G81" s="26" t="n">
+      <c r="G81" s="25" t="n">
         <v>11.9</v>
       </c>
-      <c r="H81" s="26" t="n">
+      <c r="H81" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I81" s="4" t="n">
@@ -6177,7 +6375,10 @@
       <c r="J81" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K81" s="5" t="n"/>
+      <c r="K81" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J81-I81</f>
+        <v>0</v>
+      </c>
       <c r="L81" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="82">
@@ -6187,31 +6388,34 @@
       <c r="B82" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D82" s="26" t="n">
+      <c r="D82" s="25" t="n">
         <v>70.3</v>
       </c>
-      <c r="E82" s="26" t="n">
+      <c r="E82" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="F82" s="26" t="n">
+      <c r="F82" s="25" t="n">
         <v>71.35</v>
       </c>
-      <c r="G82" s="26" t="n">
+      <c r="G82" s="25" t="n">
         <v>19.6</v>
       </c>
-      <c r="H82" s="26" t="n">
+      <c r="H82" s="25" t="n">
         <v>10.95</v>
       </c>
-      <c r="I82" s="24" t="n">
+      <c r="I82" s="4" t="n">
         <v>30</v>
       </c>
       <c r="J82" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K82" s="5" t="n"/>
+      <c r="K82" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J82-I82</f>
+        <v>0</v>
+      </c>
       <c r="L82" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="83">
@@ -6221,22 +6425,22 @@
       <c r="B83" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="26" t="n">
+      <c r="D83" s="25" t="n">
         <v>48.2</v>
       </c>
-      <c r="E83" s="26" t="n">
+      <c r="E83" s="25" t="n">
         <v>12.75</v>
       </c>
-      <c r="F83" s="26" t="n">
+      <c r="F83" s="25" t="n">
         <v>51.85</v>
       </c>
-      <c r="G83" s="26" t="n">
+      <c r="G83" s="25" t="n">
         <v>17.3</v>
       </c>
-      <c r="H83" s="26" t="n">
+      <c r="H83" s="25" t="n">
         <v>13.7</v>
       </c>
       <c r="I83" s="4" t="n">
@@ -6245,7 +6449,10 @@
       <c r="J83" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K83" s="5" t="n"/>
+      <c r="K83" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J83-I83</f>
+        <v>0</v>
+      </c>
       <c r="L83" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="84">
@@ -6255,22 +6462,22 @@
       <c r="B84" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="26" t="n">
+      <c r="D84" s="25" t="n">
         <v>45.75</v>
       </c>
-      <c r="E84" s="26" t="n">
+      <c r="E84" s="25" t="n">
         <v>12.3</v>
       </c>
-      <c r="F84" s="26" t="n">
+      <c r="F84" s="25" t="n">
         <v>45.8</v>
       </c>
-      <c r="G84" s="26" t="n">
+      <c r="G84" s="25" t="n">
         <v>12.3</v>
       </c>
-      <c r="H84" s="26" t="n">
+      <c r="H84" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I84" s="4" t="n">
@@ -6279,7 +6486,10 @@
       <c r="J84" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K84" s="5" t="n"/>
+      <c r="K84" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J84-I84</f>
+        <v>0</v>
+      </c>
       <c r="L84" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="85">
@@ -6289,22 +6499,22 @@
       <c r="B85" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="29" t="s">
+      <c r="D85" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="28" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="4" t="n">
@@ -6313,7 +6523,10 @@
       <c r="J85" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K85" s="5" t="n"/>
+      <c r="K85" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J85-I85</f>
+        <v>0</v>
+      </c>
       <c r="L85" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="86">
@@ -6323,22 +6536,22 @@
       <c r="B86" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="29" t="s">
+      <c r="D86" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="4" t="n">
@@ -6347,7 +6560,10 @@
       <c r="J86" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K86" s="5" t="n"/>
+      <c r="K86" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J86-I86</f>
+        <v>0</v>
+      </c>
       <c r="L86" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="87">
@@ -6357,22 +6573,22 @@
       <c r="B87" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="26" t="n">
+      <c r="D87" s="25" t="n">
         <v>57.95</v>
       </c>
-      <c r="E87" s="26" t="n">
+      <c r="E87" s="25" t="n">
         <v>30.5</v>
       </c>
-      <c r="F87" s="26" t="n">
+      <c r="F87" s="25" t="n">
         <v>57.95</v>
       </c>
-      <c r="G87" s="26" t="n">
+      <c r="G87" s="25" t="n">
         <v>32.75</v>
       </c>
-      <c r="H87" s="26" t="n">
+      <c r="H87" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I87" s="4" t="n">
@@ -6381,7 +6597,10 @@
       <c r="J87" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K87" s="5" t="n"/>
+      <c r="K87" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J87-I87</f>
+        <v>-10</v>
+      </c>
       <c r="L87" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="88">
@@ -6391,22 +6610,22 @@
       <c r="B88" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="26" t="n">
+      <c r="D88" s="25" t="n">
         <v>53.3</v>
       </c>
-      <c r="E88" s="26" t="n">
+      <c r="E88" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="F88" s="26" t="n">
+      <c r="F88" s="25" t="n">
         <v>53.3</v>
       </c>
-      <c r="G88" s="26" t="n">
+      <c r="G88" s="25" t="n">
         <v>21.45</v>
       </c>
-      <c r="H88" s="26" t="n">
+      <c r="H88" s="25" t="n">
         <v>6.3</v>
       </c>
       <c r="I88" s="4" t="n">
@@ -6415,7 +6634,10 @@
       <c r="J88" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K88" s="5" t="n"/>
+      <c r="K88" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J88-I88</f>
+        <v>0</v>
+      </c>
       <c r="L88" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="89">
@@ -6425,22 +6647,22 @@
       <c r="B89" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="26" t="n">
+      <c r="D89" s="25" t="n">
         <v>51.8</v>
       </c>
-      <c r="E89" s="26" t="n">
+      <c r="E89" s="25" t="n">
         <v>35.95</v>
       </c>
-      <c r="F89" s="26" t="n">
+      <c r="F89" s="25" t="n">
         <v>56.3</v>
       </c>
-      <c r="G89" s="26" t="n">
+      <c r="G89" s="25" t="n">
         <v>36.75</v>
       </c>
-      <c r="H89" s="26" t="n">
+      <c r="H89" s="25" t="n">
         <v>30.05</v>
       </c>
       <c r="I89" s="4" t="n">
@@ -6449,7 +6671,10 @@
       <c r="J89" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K89" s="5" t="n"/>
+      <c r="K89" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J89-I89</f>
+        <v>0</v>
+      </c>
       <c r="L89" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="90">
@@ -6459,22 +6684,22 @@
       <c r="B90" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="26" t="n">
+      <c r="D90" s="25" t="n">
         <v>46.25</v>
       </c>
-      <c r="E90" s="26" t="n">
+      <c r="E90" s="25" t="n">
         <v>27.2</v>
       </c>
-      <c r="F90" s="26" t="n">
+      <c r="F90" s="25" t="n">
         <v>46.25</v>
       </c>
-      <c r="G90" s="26" t="n">
+      <c r="G90" s="25" t="n">
         <v>27.2</v>
       </c>
-      <c r="H90" s="26" t="n">
+      <c r="H90" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I90" s="4" t="n">
@@ -6483,7 +6708,10 @@
       <c r="J90" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K90" s="5" t="n"/>
+      <c r="K90" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J90-I90</f>
+        <v>0</v>
+      </c>
       <c r="L90" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="91">
@@ -6493,22 +6721,22 @@
       <c r="B91" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="26" t="n">
+      <c r="D91" s="25" t="n">
         <v>56.95</v>
       </c>
-      <c r="E91" s="26" t="n">
+      <c r="E91" s="25" t="n">
         <v>28.95</v>
       </c>
-      <c r="F91" s="26" t="n">
+      <c r="F91" s="25" t="n">
         <v>56.95</v>
       </c>
-      <c r="G91" s="26" t="n">
+      <c r="G91" s="25" t="n">
         <v>33.9</v>
       </c>
-      <c r="H91" s="26" t="n">
+      <c r="H91" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I91" s="4" t="n">
@@ -6517,32 +6745,35 @@
       <c r="J91" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K91" s="5" t="n"/>
+      <c r="K91" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J91-I91</f>
+        <v>0</v>
+      </c>
       <c r="L91" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="19" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="26" t="n">
+      <c r="D92" s="25" t="n">
         <v>46.95</v>
       </c>
-      <c r="E92" s="26" t="n">
+      <c r="E92" s="25" t="n">
         <v>38.45</v>
       </c>
-      <c r="F92" s="26" t="n">
+      <c r="F92" s="25" t="n">
         <v>47.6</v>
       </c>
-      <c r="G92" s="26" t="n">
+      <c r="G92" s="25" t="n">
         <v>40.2</v>
       </c>
-      <c r="H92" s="26" t="n">
+      <c r="H92" s="25" t="n">
         <v>22.35</v>
       </c>
       <c r="I92" s="4" t="n">
@@ -6551,7 +6782,10 @@
       <c r="J92" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K92" s="5" t="n"/>
+      <c r="K92" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J92-I92</f>
+        <v>0</v>
+      </c>
       <c r="L92" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="93">
@@ -6561,22 +6795,22 @@
       <c r="B93" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D93" s="26" t="n">
+      <c r="D93" s="25" t="n">
         <v>50.25</v>
       </c>
-      <c r="E93" s="26" t="n">
+      <c r="E93" s="25" t="n">
         <v>17.3</v>
       </c>
-      <c r="F93" s="26" t="n">
+      <c r="F93" s="25" t="n">
         <v>53.55</v>
       </c>
-      <c r="G93" s="26" t="n">
+      <c r="G93" s="25" t="n">
         <v>17.3</v>
       </c>
-      <c r="H93" s="26" t="n">
+      <c r="H93" s="25" t="n">
         <v>13.7</v>
       </c>
       <c r="I93" s="4" t="n">
@@ -6585,7 +6819,10 @@
       <c r="J93" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K93" s="5" t="n"/>
+      <c r="K93" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J93-I93</f>
+        <v>0</v>
+      </c>
       <c r="L93" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="94">
@@ -6595,22 +6832,22 @@
       <c r="B94" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="26" t="n">
+      <c r="D94" s="25" t="n">
         <v>51.15</v>
       </c>
-      <c r="E94" s="26" t="n">
+      <c r="E94" s="25" t="n">
         <v>13.1</v>
       </c>
-      <c r="F94" s="26" t="n">
+      <c r="F94" s="25" t="n">
         <v>51.15</v>
       </c>
-      <c r="G94" s="26" t="n">
+      <c r="G94" s="25" t="n">
         <v>32.85</v>
       </c>
-      <c r="H94" s="26" t="n">
+      <c r="H94" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I94" s="4" t="n">
@@ -6619,7 +6856,10 @@
       <c r="J94" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K94" s="5" t="n"/>
+      <c r="K94" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J94-I94</f>
+        <v>0</v>
+      </c>
       <c r="L94" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="95">
@@ -6629,22 +6869,22 @@
       <c r="B95" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D95" s="26" t="n">
+      <c r="D95" s="25" t="n">
         <v>51.05</v>
       </c>
-      <c r="E95" s="26" t="n">
+      <c r="E95" s="25" t="n">
         <v>24.45</v>
       </c>
-      <c r="F95" s="26" t="n">
+      <c r="F95" s="25" t="n">
         <v>51.05</v>
       </c>
-      <c r="G95" s="26" t="n">
+      <c r="G95" s="25" t="n">
         <v>37.15</v>
       </c>
-      <c r="H95" s="26" t="n">
+      <c r="H95" s="25" t="n">
         <v>14.85</v>
       </c>
       <c r="I95" s="4" t="n">
@@ -6653,7 +6893,10 @@
       <c r="J95" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K95" s="5" t="n"/>
+      <c r="K95" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J95-I95</f>
+        <v>0</v>
+      </c>
       <c r="L95" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="96">
@@ -6663,22 +6906,22 @@
       <c r="B96" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D96" s="26" t="n">
+      <c r="D96" s="25" t="n">
         <v>45.15</v>
       </c>
-      <c r="E96" s="26" t="n">
+      <c r="E96" s="25" t="n">
         <v>12.2</v>
       </c>
-      <c r="F96" s="26" t="n">
+      <c r="F96" s="25" t="n">
         <v>47.65</v>
       </c>
-      <c r="G96" s="26" t="n">
+      <c r="G96" s="25" t="n">
         <v>12.2</v>
       </c>
-      <c r="H96" s="26" t="n">
+      <c r="H96" s="25" t="n">
         <v>8.45</v>
       </c>
       <c r="I96" s="4" t="n">
@@ -6687,7 +6930,10 @@
       <c r="J96" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K96" s="5" t="n"/>
+      <c r="K96" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J96-I96</f>
+        <v>0</v>
+      </c>
       <c r="L96" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="97">
@@ -6697,22 +6943,22 @@
       <c r="B97" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="26" t="n">
+      <c r="D97" s="25" t="n">
         <v>31.85</v>
       </c>
-      <c r="E97" s="26" t="n">
+      <c r="E97" s="25" t="n">
         <v>13.75</v>
       </c>
-      <c r="F97" s="26" t="n">
+      <c r="F97" s="25" t="n">
         <v>32.8</v>
       </c>
-      <c r="G97" s="26" t="n">
+      <c r="G97" s="25" t="n">
         <v>13.75</v>
       </c>
-      <c r="H97" s="26" t="n">
+      <c r="H97" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I97" s="4" t="n">
@@ -6721,7 +6967,10 @@
       <c r="J97" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K97" s="5" t="n"/>
+      <c r="K97" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J97-I97</f>
+        <v>0</v>
+      </c>
       <c r="L97" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="98">
@@ -6731,22 +6980,22 @@
       <c r="B98" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" s="26" t="n">
+      <c r="D98" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="25" t="n">
         <v>39.7</v>
       </c>
-      <c r="G98" s="26" t="n">
+      <c r="G98" s="25" t="n">
         <v>75.6</v>
       </c>
-      <c r="H98" s="26" t="n">
+      <c r="H98" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I98" s="4" t="n">
@@ -6755,7 +7004,10 @@
       <c r="J98" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K98" s="5" t="n"/>
+      <c r="K98" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J98-I98</f>
+        <v>0</v>
+      </c>
       <c r="L98" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="99">
@@ -6765,22 +7017,22 @@
       <c r="B99" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="26" t="n">
+      <c r="D99" s="25" t="n">
         <v>36.7</v>
       </c>
-      <c r="E99" s="26" t="n">
+      <c r="E99" s="25" t="n">
         <v>15.4</v>
       </c>
-      <c r="F99" s="26" t="n">
+      <c r="F99" s="25" t="n">
         <v>38.25</v>
       </c>
-      <c r="G99" s="26" t="n">
+      <c r="G99" s="25" t="n">
         <v>19.3</v>
       </c>
-      <c r="H99" s="26" t="n">
+      <c r="H99" s="25" t="n">
         <v>11.4</v>
       </c>
       <c r="I99" s="4" t="n">
@@ -6789,7 +7041,10 @@
       <c r="J99" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K99" s="5" t="n"/>
+      <c r="K99" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J99-I99</f>
+        <v>0</v>
+      </c>
       <c r="L99" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="100">
@@ -6799,22 +7054,22 @@
       <c r="B100" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D100" s="26" t="n">
+      <c r="D100" s="25" t="n">
         <v>55.5</v>
       </c>
-      <c r="E100" s="26" t="n">
+      <c r="E100" s="25" t="n">
         <v>36.9</v>
       </c>
-      <c r="F100" s="26" t="n">
+      <c r="F100" s="25" t="n">
         <v>58.05</v>
       </c>
-      <c r="G100" s="26" t="n">
+      <c r="G100" s="25" t="n">
         <v>45.95</v>
       </c>
-      <c r="H100" s="26" t="n">
+      <c r="H100" s="25" t="n">
         <v>23.3</v>
       </c>
       <c r="I100" s="4" t="n">
@@ -6823,7 +7078,10 @@
       <c r="J100" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K100" s="5" t="n"/>
+      <c r="K100" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J100-I100</f>
+        <v>0</v>
+      </c>
       <c r="L100" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="101">
@@ -6833,22 +7091,22 @@
       <c r="B101" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D101" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F101" s="26" t="n">
+      <c r="D101" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="25" t="n">
         <v>48.55</v>
       </c>
-      <c r="G101" s="26" t="n">
+      <c r="G101" s="25" t="n">
         <v>42.3</v>
       </c>
-      <c r="H101" s="26" t="n">
+      <c r="H101" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I101" s="4" t="n">
@@ -6857,7 +7115,10 @@
       <c r="J101" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K101" s="5" t="n"/>
+      <c r="K101" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J101-I101</f>
+        <v>0</v>
+      </c>
       <c r="L101" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="102">
@@ -6867,22 +7128,22 @@
       <c r="B102" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D102" s="26" t="n">
+      <c r="D102" s="25" t="n">
         <v>44.6</v>
       </c>
-      <c r="E102" s="26" t="n">
+      <c r="E102" s="25" t="n">
         <v>31.6</v>
       </c>
-      <c r="F102" s="26" t="n">
+      <c r="F102" s="25" t="n">
         <v>48.85</v>
       </c>
-      <c r="G102" s="26" t="n">
+      <c r="G102" s="25" t="n">
         <v>36.3</v>
       </c>
-      <c r="H102" s="26" t="n">
+      <c r="H102" s="25" t="n">
         <v>25.4</v>
       </c>
       <c r="I102" s="4" t="n">
@@ -6891,7 +7152,10 @@
       <c r="J102" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K102" s="5" t="n"/>
+      <c r="K102" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J102-I102</f>
+        <v>0</v>
+      </c>
       <c r="L102" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="103">
@@ -6901,22 +7165,22 @@
       <c r="B103" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="26" t="n">
+      <c r="D103" s="25" t="n">
         <v>48.45</v>
       </c>
-      <c r="E103" s="26" t="n">
+      <c r="E103" s="25" t="n">
         <v>26.15</v>
       </c>
-      <c r="F103" s="26" t="n">
+      <c r="F103" s="25" t="n">
         <v>48.45</v>
       </c>
-      <c r="G103" s="26" t="n">
+      <c r="G103" s="25" t="n">
         <v>26.15</v>
       </c>
-      <c r="H103" s="26" t="n">
+      <c r="H103" s="25" t="n">
         <v>15.75</v>
       </c>
       <c r="I103" s="4" t="n">
@@ -6925,7 +7189,10 @@
       <c r="J103" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K103" s="5" t="n"/>
+      <c r="K103" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J103-I103</f>
+        <v>0</v>
+      </c>
       <c r="L103" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="104">
@@ -6935,31 +7202,34 @@
       <c r="B104" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D104" s="26" t="n">
+      <c r="D104" s="25" t="n">
         <v>53.1</v>
       </c>
-      <c r="E104" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F104" s="26" t="n">
+      <c r="E104" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F104" s="25" t="n">
         <v>58.55</v>
       </c>
-      <c r="G104" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="H104" s="26" t="n">
+      <c r="G104" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="H104" s="25" t="n">
         <v>3.45</v>
       </c>
-      <c r="I104" s="32" t="n">
+      <c r="I104" s="31" t="n">
         <v>20</v>
       </c>
       <c r="J104" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K104" s="5" t="n"/>
+      <c r="K104" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J104-I104</f>
+        <v>0</v>
+      </c>
       <c r="L104" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="105">
@@ -6969,22 +7239,22 @@
       <c r="B105" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D105" s="26" t="n">
+      <c r="D105" s="25" t="n">
         <v>66.8</v>
       </c>
-      <c r="E105" s="26" t="n">
+      <c r="E105" s="25" t="n">
         <v>32.35</v>
       </c>
-      <c r="F105" s="26" t="n">
+      <c r="F105" s="25" t="n">
         <v>66.95</v>
       </c>
-      <c r="G105" s="26" t="n">
+      <c r="G105" s="25" t="n">
         <v>39.9</v>
       </c>
-      <c r="H105" s="26" t="n">
+      <c r="H105" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I105" s="4" t="n">
@@ -6993,7 +7263,10 @@
       <c r="J105" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K105" s="5" t="n"/>
+      <c r="K105" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J105-I105</f>
+        <v>0</v>
+      </c>
       <c r="L105" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="106">
@@ -7003,22 +7276,22 @@
       <c r="B106" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D106" s="26" t="n">
+      <c r="D106" s="25" t="n">
         <v>58.15</v>
       </c>
-      <c r="E106" s="26" t="n">
+      <c r="E106" s="25" t="n">
         <v>25.35</v>
       </c>
-      <c r="F106" s="26" t="n">
+      <c r="F106" s="25" t="n">
         <v>59.95</v>
       </c>
-      <c r="G106" s="26" t="n">
+      <c r="G106" s="25" t="n">
         <v>38</v>
       </c>
-      <c r="H106" s="26" t="n">
+      <c r="H106" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I106" s="4" t="n">
@@ -7027,7 +7300,10 @@
       <c r="J106" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K106" s="5" t="n"/>
+      <c r="K106" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J106-I106</f>
+        <v>0</v>
+      </c>
       <c r="L106" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="107">
@@ -7037,22 +7313,22 @@
       <c r="B107" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D107" s="26" t="n">
+      <c r="D107" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="E107" s="26" t="n">
+      <c r="E107" s="25" t="n">
         <v>39.8</v>
       </c>
-      <c r="F107" s="26" t="n">
+      <c r="F107" s="25" t="n">
         <v>56</v>
       </c>
-      <c r="G107" s="26" t="n">
+      <c r="G107" s="25" t="n">
         <v>40.55</v>
       </c>
-      <c r="H107" s="26" t="n">
+      <c r="H107" s="25" t="n">
         <v>35.45</v>
       </c>
       <c r="I107" s="4" t="n">
@@ -7061,7 +7337,10 @@
       <c r="J107" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K107" s="5" t="n"/>
+      <c r="K107" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J107-I107</f>
+        <v>0</v>
+      </c>
       <c r="L107" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="108">
@@ -7071,22 +7350,22 @@
       <c r="B108" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D108" s="26" t="n">
+      <c r="D108" s="25" t="n">
         <v>54.1</v>
       </c>
-      <c r="E108" s="26" t="n">
+      <c r="E108" s="25" t="n">
         <v>17.6</v>
       </c>
-      <c r="F108" s="26" t="n">
+      <c r="F108" s="25" t="n">
         <v>57.3</v>
       </c>
-      <c r="G108" s="26" t="n">
+      <c r="G108" s="25" t="n">
         <v>28.4</v>
       </c>
-      <c r="H108" s="26" t="n">
+      <c r="H108" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I108" s="4" t="n">
@@ -7095,7 +7374,10 @@
       <c r="J108" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K108" s="5" t="n"/>
+      <c r="K108" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J108-I108</f>
+        <v>0</v>
+      </c>
       <c r="L108" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="109">
@@ -7105,22 +7387,22 @@
       <c r="B109" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D109" s="26" t="n">
+      <c r="D109" s="25" t="n">
         <v>50.15</v>
       </c>
-      <c r="E109" s="26" t="n">
+      <c r="E109" s="25" t="n">
         <v>37.6</v>
       </c>
-      <c r="F109" s="26" t="n">
+      <c r="F109" s="25" t="n">
         <v>53.45</v>
       </c>
-      <c r="G109" s="26" t="n">
+      <c r="G109" s="25" t="n">
         <v>41.7</v>
       </c>
-      <c r="H109" s="26" t="n">
+      <c r="H109" s="25" t="n">
         <v>24.35</v>
       </c>
       <c r="I109" s="4" t="n">
@@ -7129,7 +7411,10 @@
       <c r="J109" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K109" s="5" t="n"/>
+      <c r="K109" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J109-I109</f>
+        <v>0</v>
+      </c>
       <c r="L109" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="110">
@@ -7139,22 +7424,22 @@
       <c r="B110" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="26" t="n">
+      <c r="D110" s="25" t="n">
         <v>46.45</v>
       </c>
-      <c r="E110" s="26" t="n">
+      <c r="E110" s="25" t="n">
         <v>30.5</v>
       </c>
-      <c r="F110" s="26" t="n">
+      <c r="F110" s="25" t="n">
         <v>51.7</v>
       </c>
-      <c r="G110" s="26" t="n">
+      <c r="G110" s="25" t="n">
         <v>30.5</v>
       </c>
-      <c r="H110" s="26" t="n">
+      <c r="H110" s="25" t="n">
         <v>10.05</v>
       </c>
       <c r="I110" s="4" t="n">
@@ -7163,7 +7448,10 @@
       <c r="J110" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K110" s="5" t="n"/>
+      <c r="K110" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J110-I110</f>
+        <v>0</v>
+      </c>
       <c r="L110" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="111">
@@ -7173,22 +7461,22 @@
       <c r="B111" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D111" s="26" t="n">
+      <c r="D111" s="25" t="n">
         <v>33.65</v>
       </c>
-      <c r="E111" s="26" t="n">
+      <c r="E111" s="25" t="n">
         <v>11.15</v>
       </c>
-      <c r="F111" s="26" t="n">
+      <c r="F111" s="25" t="n">
         <v>34.2</v>
       </c>
-      <c r="G111" s="26" t="n">
+      <c r="G111" s="25" t="n">
         <v>11.2</v>
       </c>
-      <c r="H111" s="26" t="n">
+      <c r="H111" s="25" t="n">
         <v>6.4</v>
       </c>
       <c r="I111" s="4" t="n">
@@ -7197,7 +7485,10 @@
       <c r="J111" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K111" s="5" t="n"/>
+      <c r="K111" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J111-I111</f>
+        <v>0</v>
+      </c>
       <c r="L111" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="112">
@@ -7207,22 +7498,22 @@
       <c r="B112" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="26" t="n">
+      <c r="D112" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="25" t="n">
         <v>60.85</v>
       </c>
-      <c r="G112" s="26" t="n">
+      <c r="G112" s="25" t="n">
         <v>39.4</v>
       </c>
-      <c r="H112" s="26" t="n">
+      <c r="H112" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I112" s="4" t="n">
@@ -7231,7 +7522,10 @@
       <c r="J112" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K112" s="5" t="n"/>
+      <c r="K112" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J112-I112</f>
+        <v>0</v>
+      </c>
       <c r="L112" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="113">
@@ -7241,22 +7535,22 @@
       <c r="B113" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D113" s="26" t="n">
+      <c r="D113" s="25" t="n">
         <v>47.3</v>
       </c>
-      <c r="E113" s="26" t="n">
+      <c r="E113" s="25" t="n">
         <v>28.15</v>
       </c>
-      <c r="F113" s="26" t="n">
+      <c r="F113" s="25" t="n">
         <v>47.3</v>
       </c>
-      <c r="G113" s="26" t="n">
+      <c r="G113" s="25" t="n">
         <v>30.3</v>
       </c>
-      <c r="H113" s="26" t="n">
+      <c r="H113" s="25" t="n">
         <v>25.4</v>
       </c>
       <c r="I113" s="4" t="n">
@@ -7265,7 +7559,10 @@
       <c r="J113" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K113" s="5" t="n"/>
+      <c r="K113" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J113-I113</f>
+        <v>-30</v>
+      </c>
       <c r="L113" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="114">
@@ -7275,22 +7572,22 @@
       <c r="B114" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D114" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F114" s="29" t="s">
+      <c r="D114" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G114" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H114" s="29" t="s">
+      <c r="H114" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I114" s="4" t="n">
@@ -7299,7 +7596,10 @@
       <c r="J114" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K114" s="5" t="n"/>
+      <c r="K114" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J114-I114</f>
+        <v>0</v>
+      </c>
       <c r="L114" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="115">
@@ -7309,22 +7609,22 @@
       <c r="B115" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D115" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" s="29" t="s">
+      <c r="D115" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I115" s="4" t="n">
@@ -7333,7 +7633,10 @@
       <c r="J115" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K115" s="5" t="n"/>
+      <c r="K115" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J115-I115</f>
+        <v>0</v>
+      </c>
       <c r="L115" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="116">
@@ -7343,22 +7646,22 @@
       <c r="B116" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D116" s="26" t="n">
+      <c r="D116" s="25" t="n">
         <v>50.4</v>
       </c>
-      <c r="E116" s="26" t="n">
+      <c r="E116" s="25" t="n">
         <v>6.3</v>
       </c>
-      <c r="F116" s="26" t="n">
+      <c r="F116" s="25" t="n">
         <v>51.2</v>
       </c>
-      <c r="G116" s="26" t="n">
+      <c r="G116" s="25" t="n">
         <v>6.45</v>
       </c>
-      <c r="H116" s="26" t="n">
+      <c r="H116" s="25" t="n">
         <v>1.9</v>
       </c>
       <c r="I116" s="4" t="n">
@@ -7367,7 +7670,10 @@
       <c r="J116" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K116" s="5" t="n"/>
+      <c r="K116" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J116-I116</f>
+        <v>0</v>
+      </c>
       <c r="L116" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="117">
@@ -7377,22 +7683,22 @@
       <c r="B117" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D117" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="29" t="s">
+      <c r="D117" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G117" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="H117" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I117" s="4" t="n">
@@ -7401,7 +7707,10 @@
       <c r="J117" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K117" s="5" t="n"/>
+      <c r="K117" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J117-I117</f>
+        <v>0</v>
+      </c>
       <c r="L117" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="118">
@@ -7411,22 +7720,22 @@
       <c r="B118" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="D118" s="26" t="n">
+      <c r="D118" s="25" t="n">
         <v>51.35</v>
       </c>
-      <c r="E118" s="26" t="n">
+      <c r="E118" s="25" t="n">
         <v>11.35</v>
       </c>
-      <c r="F118" s="26" t="n">
+      <c r="F118" s="25" t="n">
         <v>51.35</v>
       </c>
-      <c r="G118" s="26" t="n">
+      <c r="G118" s="25" t="n">
         <v>11.35</v>
       </c>
-      <c r="H118" s="26" t="n">
+      <c r="H118" s="25" t="n">
         <v>8.9</v>
       </c>
       <c r="I118" s="4" t="n">
@@ -7435,7 +7744,10 @@
       <c r="J118" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K118" s="5" t="n"/>
+      <c r="K118" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J118-I118</f>
+        <v>0</v>
+      </c>
       <c r="L118" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="119">
@@ -7445,22 +7757,22 @@
       <c r="B119" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D119" s="26" t="n">
+      <c r="D119" s="25" t="n">
         <v>54.6</v>
       </c>
-      <c r="E119" s="26" t="n">
+      <c r="E119" s="25" t="n">
         <v>31.45</v>
       </c>
-      <c r="F119" s="26" t="n">
+      <c r="F119" s="25" t="n">
         <v>61.8</v>
       </c>
-      <c r="G119" s="26" t="n">
+      <c r="G119" s="25" t="n">
         <v>40.9</v>
       </c>
-      <c r="H119" s="26" t="n">
+      <c r="H119" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I119" s="4" t="n">
@@ -7469,7 +7781,10 @@
       <c r="J119" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K119" s="5" t="n"/>
+      <c r="K119" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J119-I119</f>
+        <v>0</v>
+      </c>
       <c r="L119" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="120">
@@ -7479,22 +7794,22 @@
       <c r="B120" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D120" s="26" t="n">
+      <c r="D120" s="25" t="n">
         <v>60.6</v>
       </c>
-      <c r="E120" s="26" t="n">
+      <c r="E120" s="25" t="n">
         <v>28.35</v>
       </c>
-      <c r="F120" s="26" t="n">
+      <c r="F120" s="25" t="n">
         <v>62.15</v>
       </c>
-      <c r="G120" s="26" t="n">
+      <c r="G120" s="25" t="n">
         <v>32.35</v>
       </c>
-      <c r="H120" s="26" t="n">
+      <c r="H120" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I120" s="4" t="n">
@@ -7503,7 +7818,10 @@
       <c r="J120" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K120" s="5" t="n"/>
+      <c r="K120" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J120-I120</f>
+        <v>0</v>
+      </c>
       <c r="L120" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="121">
@@ -7513,22 +7831,22 @@
       <c r="B121" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D121" s="26" t="n">
+      <c r="D121" s="25" t="n">
         <v>69.35</v>
       </c>
-      <c r="E121" s="26" t="n">
+      <c r="E121" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="F121" s="26" t="n">
+      <c r="F121" s="25" t="n">
         <v>69.35</v>
       </c>
-      <c r="G121" s="26" t="n">
+      <c r="G121" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="H121" s="26" t="n">
+      <c r="H121" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I121" s="4" t="n">
@@ -7537,7 +7855,10 @@
       <c r="J121" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K121" s="5" t="n"/>
+      <c r="K121" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J121-I121</f>
+        <v>0</v>
+      </c>
       <c r="L121" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="122">
@@ -7547,31 +7868,34 @@
       <c r="B122" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D122" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" s="26" t="n">
+      <c r="D122" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="25" t="n">
         <v>80.75</v>
       </c>
-      <c r="G122" s="26" t="n">
+      <c r="G122" s="25" t="n">
         <v>42.25</v>
       </c>
-      <c r="H122" s="26" t="n">
+      <c r="H122" s="25" t="n">
         <v>7.75</v>
       </c>
-      <c r="I122" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J122" s="32" t="n">
-        <v>20</v>
-      </c>
-      <c r="K122" s="5" t="n"/>
+      <c r="I122" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J122" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="K122" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J122-I122</f>
+        <v>0</v>
+      </c>
       <c r="L122" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="123">
@@ -7581,31 +7905,34 @@
       <c r="B123" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D123" s="26" t="n">
+      <c r="D123" s="25" t="n">
         <v>59.2</v>
       </c>
-      <c r="E123" s="26" t="n">
+      <c r="E123" s="25" t="n">
         <v>33.5</v>
       </c>
-      <c r="F123" s="26" t="n">
+      <c r="F123" s="25" t="n">
         <v>68</v>
       </c>
-      <c r="G123" s="26" t="n">
+      <c r="G123" s="25" t="n">
         <v>33.55</v>
       </c>
-      <c r="H123" s="26" t="n">
+      <c r="H123" s="25" t="n">
         <v>28.3</v>
       </c>
-      <c r="I123" s="33" t="n">
+      <c r="I123" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="J123" s="33" t="n">
+      <c r="J123" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="K123" s="5" t="n"/>
+      <c r="K123" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J123-I123</f>
+        <v>0</v>
+      </c>
       <c r="L123" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="124">
@@ -7615,22 +7942,22 @@
       <c r="B124" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D124" s="26" t="n">
+      <c r="D124" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="E124" s="26" t="n">
+      <c r="E124" s="25" t="n">
         <v>18.7</v>
       </c>
-      <c r="F124" s="26" t="n">
+      <c r="F124" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="G124" s="26" t="n">
+      <c r="G124" s="25" t="n">
         <v>18.7</v>
       </c>
-      <c r="H124" s="26" t="n">
+      <c r="H124" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I124" s="4" t="n">
@@ -7639,7 +7966,10 @@
       <c r="J124" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K124" s="5" t="n"/>
+      <c r="K124" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J124-I124</f>
+        <v>0</v>
+      </c>
       <c r="L124" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="125">
@@ -7649,22 +7979,22 @@
       <c r="B125" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D125" s="26" t="n">
+      <c r="D125" s="25" t="n">
         <v>61.8</v>
       </c>
-      <c r="E125" s="26" t="n">
+      <c r="E125" s="25" t="n">
         <v>32.45</v>
       </c>
-      <c r="F125" s="26" t="n">
+      <c r="F125" s="25" t="n">
         <v>61.8</v>
       </c>
-      <c r="G125" s="26" t="n">
+      <c r="G125" s="25" t="n">
         <v>34.7</v>
       </c>
-      <c r="H125" s="26" t="n">
+      <c r="H125" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I125" s="4" t="n">
@@ -7673,7 +8003,10 @@
       <c r="J125" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K125" s="5" t="n"/>
+      <c r="K125" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J125-I125</f>
+        <v>0</v>
+      </c>
       <c r="L125" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="126">
@@ -7683,22 +8016,22 @@
       <c r="B126" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D126" s="26" t="n">
+      <c r="D126" s="25" t="n">
         <v>43.25</v>
       </c>
-      <c r="E126" s="26" t="n">
+      <c r="E126" s="25" t="n">
         <v>20.15</v>
       </c>
-      <c r="F126" s="26" t="n">
+      <c r="F126" s="25" t="n">
         <v>43.85</v>
       </c>
-      <c r="G126" s="26" t="n">
+      <c r="G126" s="25" t="n">
         <v>20.8</v>
       </c>
-      <c r="H126" s="26" t="n">
+      <c r="H126" s="25" t="n">
         <v>14.4</v>
       </c>
       <c r="I126" s="4" t="n">
@@ -7707,7 +8040,10 @@
       <c r="J126" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K126" s="5" t="n"/>
+      <c r="K126" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J126-I126</f>
+        <v>0</v>
+      </c>
       <c r="L126" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="127">
@@ -7717,22 +8053,22 @@
       <c r="B127" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D127" s="26" t="n">
+      <c r="D127" s="25" t="n">
         <v>49.8</v>
       </c>
-      <c r="E127" s="26" t="n">
+      <c r="E127" s="25" t="n">
         <v>28.95</v>
       </c>
-      <c r="F127" s="26" t="n">
+      <c r="F127" s="25" t="n">
         <v>51.55</v>
       </c>
-      <c r="G127" s="26" t="n">
+      <c r="G127" s="25" t="n">
         <v>35.3</v>
       </c>
-      <c r="H127" s="26" t="n">
+      <c r="H127" s="25" t="n">
         <v>24.5</v>
       </c>
       <c r="I127" s="4" t="n">
@@ -7741,7 +8077,10 @@
       <c r="J127" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K127" s="5" t="n"/>
+      <c r="K127" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J127-I127</f>
+        <v>0</v>
+      </c>
       <c r="L127" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="128">
@@ -7751,22 +8090,22 @@
       <c r="B128" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="D128" s="26" t="n">
+      <c r="D128" s="25" t="n">
         <v>48.15</v>
       </c>
-      <c r="E128" s="26" t="n">
+      <c r="E128" s="25" t="n">
         <v>26.5</v>
       </c>
-      <c r="F128" s="26" t="n">
+      <c r="F128" s="25" t="n">
         <v>59.05</v>
       </c>
-      <c r="G128" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="H128" s="26" t="n">
+      <c r="G128" s="25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H128" s="25" t="n">
         <v>8.2</v>
       </c>
       <c r="I128" s="4" t="n">
@@ -7775,7 +8114,10 @@
       <c r="J128" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K128" s="5" t="n"/>
+      <c r="K128" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J128-I128</f>
+        <v>0</v>
+      </c>
       <c r="L128" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="129">
@@ -7785,22 +8127,22 @@
       <c r="B129" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D129" s="26" t="n">
+      <c r="D129" s="25" t="n">
         <v>61.25</v>
       </c>
-      <c r="E129" s="26" t="n">
+      <c r="E129" s="25" t="n">
         <v>18.55</v>
       </c>
-      <c r="F129" s="26" t="n">
+      <c r="F129" s="25" t="n">
         <v>61.35</v>
       </c>
-      <c r="G129" s="26" t="n">
+      <c r="G129" s="25" t="n">
         <v>27.7</v>
       </c>
-      <c r="H129" s="26" t="n">
+      <c r="H129" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I129" s="4" t="n">
@@ -7809,7 +8151,10 @@
       <c r="J129" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K129" s="5" t="n"/>
+      <c r="K129" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J129-I129</f>
+        <v>0</v>
+      </c>
       <c r="L129" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="130">
@@ -7819,22 +8164,22 @@
       <c r="B130" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" s="26" t="n">
+      <c r="D130" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="25" t="n">
         <v>59.1</v>
       </c>
-      <c r="G130" s="26" t="n">
+      <c r="G130" s="25" t="n">
         <v>21.3</v>
       </c>
-      <c r="H130" s="26" t="n">
+      <c r="H130" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I130" s="4" t="n">
@@ -7843,7 +8188,10 @@
       <c r="J130" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K130" s="5" t="n"/>
+      <c r="K130" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J130-I130</f>
+        <v>0</v>
+      </c>
       <c r="L130" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="131">
@@ -7853,22 +8201,22 @@
       <c r="B131" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D131" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" s="26" t="n">
+      <c r="D131" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="25" t="n">
         <v>77.95</v>
       </c>
-      <c r="G131" s="26" t="n">
+      <c r="G131" s="25" t="n">
         <v>38.4</v>
       </c>
-      <c r="H131" s="26" t="n">
+      <c r="H131" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I131" s="4" t="n">
@@ -7877,7 +8225,10 @@
       <c r="J131" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K131" s="5" t="n"/>
+      <c r="K131" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J131-I131</f>
+        <v>0</v>
+      </c>
       <c r="L131" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="132">
@@ -7887,31 +8238,34 @@
       <c r="B132" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D132" s="26" t="n">
+      <c r="D132" s="25" t="n">
         <v>38.05</v>
       </c>
-      <c r="E132" s="26" t="n">
+      <c r="E132" s="25" t="n">
         <v>32.9</v>
       </c>
-      <c r="F132" s="26" t="n">
+      <c r="F132" s="25" t="n">
         <v>38.05</v>
       </c>
-      <c r="G132" s="26" t="n">
+      <c r="G132" s="25" t="n">
         <v>33.55</v>
       </c>
-      <c r="H132" s="26" t="n">
+      <c r="H132" s="25" t="n">
         <v>23.9</v>
       </c>
-      <c r="I132" s="33" t="n">
+      <c r="I132" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="J132" s="33" t="n">
+      <c r="J132" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="K132" s="5" t="n"/>
+      <c r="K132" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J132-I132</f>
+        <v>0</v>
+      </c>
       <c r="L132" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="133">
@@ -7921,22 +8275,22 @@
       <c r="B133" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D133" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F133" s="26" t="n">
+      <c r="D133" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="25" t="n">
         <v>66.25</v>
       </c>
-      <c r="G133" s="26" t="n">
+      <c r="G133" s="25" t="n">
         <v>38.5</v>
       </c>
-      <c r="H133" s="26" t="n">
+      <c r="H133" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I133" s="4" t="n">
@@ -7945,7 +8299,10 @@
       <c r="J133" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K133" s="5" t="n"/>
+      <c r="K133" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J133-I133</f>
+        <v>0</v>
+      </c>
       <c r="L133" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="134">
@@ -7955,22 +8312,22 @@
       <c r="B134" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D134" s="26" t="n">
+      <c r="D134" s="25" t="n">
         <v>45.3</v>
       </c>
-      <c r="E134" s="26" t="n">
+      <c r="E134" s="25" t="n">
         <v>22.05</v>
       </c>
-      <c r="F134" s="26" t="n">
+      <c r="F134" s="25" t="n">
         <v>45.35</v>
       </c>
-      <c r="G134" s="26" t="n">
+      <c r="G134" s="25" t="n">
         <v>22.05</v>
       </c>
-      <c r="H134" s="26" t="n">
+      <c r="H134" s="25" t="n">
         <v>11.15</v>
       </c>
       <c r="I134" s="4" t="n">
@@ -7979,7 +8336,10 @@
       <c r="J134" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K134" s="5" t="n"/>
+      <c r="K134" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J134-I134</f>
+        <v>0</v>
+      </c>
       <c r="L134" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="135">
@@ -7989,22 +8349,22 @@
       <c r="B135" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="D135" s="26" t="n">
+      <c r="D135" s="25" t="n">
         <v>55.85</v>
       </c>
-      <c r="E135" s="26" t="n">
+      <c r="E135" s="25" t="n">
         <v>11.05</v>
       </c>
-      <c r="F135" s="26" t="n">
+      <c r="F135" s="25" t="n">
         <v>55.85</v>
       </c>
-      <c r="G135" s="26" t="n">
+      <c r="G135" s="25" t="n">
         <v>11.7</v>
       </c>
-      <c r="H135" s="26" t="n">
+      <c r="H135" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I135" s="4" t="n">
@@ -8013,7 +8373,10 @@
       <c r="J135" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K135" s="5" t="n"/>
+      <c r="K135" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J135-I135</f>
+        <v>0</v>
+      </c>
       <c r="L135" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="136">
@@ -8023,22 +8386,22 @@
       <c r="B136" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="D136" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F136" s="26" t="n">
+      <c r="D136" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="25" t="n">
         <v>59</v>
       </c>
-      <c r="G136" s="26" t="n">
+      <c r="G136" s="25" t="n">
         <v>43.55</v>
       </c>
-      <c r="H136" s="26" t="n">
+      <c r="H136" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I136" s="4" t="n">
@@ -8047,7 +8410,10 @@
       <c r="J136" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K136" s="5" t="n"/>
+      <c r="K136" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J136-I136</f>
+        <v>0</v>
+      </c>
       <c r="L136" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="137">
@@ -8057,22 +8423,22 @@
       <c r="B137" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D137" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" s="29" t="s">
+      <c r="D137" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H137" s="29" t="s">
+      <c r="H137" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I137" s="4" t="n">
@@ -8081,7 +8447,10 @@
       <c r="J137" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K137" s="5" t="n"/>
+      <c r="K137" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J137-I137</f>
+        <v>0</v>
+      </c>
       <c r="L137" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="138">
@@ -8091,22 +8460,22 @@
       <c r="B138" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D138" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F138" s="26" t="n">
+      <c r="D138" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="25" t="n">
         <v>53.45</v>
       </c>
-      <c r="G138" s="26" t="n">
+      <c r="G138" s="25" t="n">
         <v>29</v>
       </c>
-      <c r="H138" s="26" t="n">
+      <c r="H138" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I138" s="4" t="n">
@@ -8115,7 +8484,10 @@
       <c r="J138" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K138" s="5" t="n"/>
+      <c r="K138" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J138-I138</f>
+        <v>0</v>
+      </c>
       <c r="L138" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="139">
@@ -8125,22 +8497,22 @@
       <c r="B139" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="D139" s="26" t="n">
+      <c r="D139" s="25" t="n">
         <v>60.55</v>
       </c>
-      <c r="E139" s="26" t="n">
+      <c r="E139" s="25" t="n">
         <v>29.3</v>
       </c>
-      <c r="F139" s="26" t="n">
+      <c r="F139" s="25" t="n">
         <v>60.55</v>
       </c>
-      <c r="G139" s="26" t="n">
+      <c r="G139" s="25" t="n">
         <v>34.8</v>
       </c>
-      <c r="H139" s="26" t="n">
+      <c r="H139" s="25" t="n">
         <v>26</v>
       </c>
       <c r="I139" s="4" t="n">
@@ -8149,7 +8521,10 @@
       <c r="J139" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K139" s="5" t="n"/>
+      <c r="K139" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J139-I139</f>
+        <v>0</v>
+      </c>
       <c r="L139" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="140">
@@ -8159,22 +8534,22 @@
       <c r="B140" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D140" s="29" t="s">
+      <c r="D140" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E140" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F140" s="26" t="n">
+      <c r="F140" s="25" t="n">
         <v>35.75</v>
       </c>
-      <c r="G140" s="26" t="n">
+      <c r="G140" s="25" t="n">
         <v>68.75</v>
       </c>
-      <c r="H140" s="26" t="n">
+      <c r="H140" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I140" s="4" t="n">
@@ -8183,7 +8558,10 @@
       <c r="J140" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K140" s="5" t="n"/>
+      <c r="K140" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J140-I140</f>
+        <v>0</v>
+      </c>
       <c r="L140" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="141">
@@ -8193,22 +8571,22 @@
       <c r="B141" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D141" s="26" t="n">
+      <c r="D141" s="25" t="n">
         <v>41.1</v>
       </c>
-      <c r="E141" s="26" t="n">
+      <c r="E141" s="25" t="n">
         <v>32.95</v>
       </c>
-      <c r="F141" s="26" t="n">
+      <c r="F141" s="25" t="n">
         <v>49.95</v>
       </c>
-      <c r="G141" s="26" t="n">
+      <c r="G141" s="25" t="n">
         <v>32.95</v>
       </c>
-      <c r="H141" s="26" t="n">
+      <c r="H141" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I141" s="4" t="n">
@@ -8217,7 +8595,10 @@
       <c r="J141" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K141" s="5" t="n"/>
+      <c r="K141" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J141-I141</f>
+        <v>0</v>
+      </c>
       <c r="L141" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="142">
@@ -8227,22 +8608,22 @@
       <c r="B142" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D142" s="29" t="s">
+      <c r="D142" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E142" s="29" t="s">
+      <c r="E142" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F142" s="26" t="n">
+      <c r="F142" s="25" t="n">
         <v>47.65</v>
       </c>
-      <c r="G142" s="26" t="n">
+      <c r="G142" s="25" t="n">
         <v>32.35</v>
       </c>
-      <c r="H142" s="26" t="n">
+      <c r="H142" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I142" s="4" t="n">
@@ -8251,7 +8632,10 @@
       <c r="J142" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K142" s="5" t="n"/>
+      <c r="K142" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J142-I142</f>
+        <v>0</v>
+      </c>
       <c r="L142" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
@@ -8261,22 +8645,22 @@
       <c r="B143" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D143" s="26" t="n">
+      <c r="D143" s="25" t="n">
         <v>68.15</v>
       </c>
-      <c r="E143" s="26" t="n">
+      <c r="E143" s="25" t="n">
         <v>25.1</v>
       </c>
-      <c r="F143" s="26" t="n">
+      <c r="F143" s="25" t="n">
         <v>68.15</v>
       </c>
-      <c r="G143" s="26" t="n">
+      <c r="G143" s="25" t="n">
         <v>30.05</v>
       </c>
-      <c r="H143" s="26" t="n">
+      <c r="H143" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I143" s="4" t="n">
@@ -8285,7 +8669,10 @@
       <c r="J143" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K143" s="5" t="n"/>
+      <c r="K143" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J143-I143</f>
+        <v>0</v>
+      </c>
       <c r="L143" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
@@ -8295,22 +8682,22 @@
       <c r="B144" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="26" t="n">
+      <c r="D144" s="25" t="n">
         <v>46.4</v>
       </c>
-      <c r="E144" s="26" t="n">
+      <c r="E144" s="25" t="n">
         <v>11.25</v>
       </c>
-      <c r="F144" s="26" t="n">
+      <c r="F144" s="25" t="n">
         <v>46.4</v>
       </c>
-      <c r="G144" s="26" t="n">
+      <c r="G144" s="25" t="n">
         <v>11.25</v>
       </c>
-      <c r="H144" s="26" t="n">
+      <c r="H144" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I144" s="4" t="n">
@@ -8319,7 +8706,10 @@
       <c r="J144" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K144" s="5" t="n"/>
+      <c r="K144" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J144-I144</f>
+        <v>0</v>
+      </c>
       <c r="L144" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
@@ -8329,22 +8719,22 @@
       <c r="B145" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="25" t="s">
+      <c r="C145" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D145" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F145" s="26" t="n">
+      <c r="D145" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="25" t="n">
         <v>56.4</v>
       </c>
-      <c r="G145" s="26" t="n">
+      <c r="G145" s="25" t="n">
         <v>38.95</v>
       </c>
-      <c r="H145" s="26" t="n">
+      <c r="H145" s="25" t="n">
         <v>31.15</v>
       </c>
       <c r="I145" s="4" t="n">
@@ -8353,7 +8743,10 @@
       <c r="J145" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K145" s="5" t="n"/>
+      <c r="K145" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J145-I145</f>
+        <v>0</v>
+      </c>
       <c r="L145" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
@@ -8363,22 +8756,22 @@
       <c r="B146" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D146" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F146" s="26" t="n">
+      <c r="D146" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="25" t="n">
         <v>55.25</v>
       </c>
-      <c r="G146" s="26" t="n">
+      <c r="G146" s="25" t="n">
         <v>51.1</v>
       </c>
-      <c r="H146" s="26" t="n">
+      <c r="H146" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I146" s="4" t="n">
@@ -8387,7 +8780,10 @@
       <c r="J146" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K146" s="5" t="n"/>
+      <c r="K146" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J146-I146</f>
+        <v>0</v>
+      </c>
       <c r="L146" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
@@ -8397,22 +8793,22 @@
       <c r="B147" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D147" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" s="26" t="n">
+      <c r="D147" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="25" t="n">
         <v>66.05</v>
       </c>
-      <c r="G147" s="26" t="n">
+      <c r="G147" s="25" t="n">
         <v>58.7</v>
       </c>
-      <c r="H147" s="26" t="n">
+      <c r="H147" s="25" t="n">
         <v>15.95</v>
       </c>
       <c r="I147" s="4" t="n">
@@ -8421,32 +8817,35 @@
       <c r="J147" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K147" s="5" t="n"/>
+      <c r="K147" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J147-I147</f>
+        <v>0</v>
+      </c>
       <c r="L147" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
       <c r="A148" s="19" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D148" s="26" t="n">
+      <c r="D148" s="25" t="n">
         <v>67.8</v>
       </c>
-      <c r="E148" s="26" t="n">
+      <c r="E148" s="25" t="n">
         <v>13.4</v>
       </c>
-      <c r="F148" s="26" t="n">
+      <c r="F148" s="25" t="n">
         <v>68.95</v>
       </c>
-      <c r="G148" s="26" t="n">
+      <c r="G148" s="25" t="n">
         <v>13.4</v>
       </c>
-      <c r="H148" s="26" t="n">
+      <c r="H148" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I148" s="4" t="n">
@@ -8455,7 +8854,10 @@
       <c r="J148" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K148" s="5" t="n"/>
+      <c r="K148" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J148-I148</f>
+        <v>0</v>
+      </c>
       <c r="L148" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
@@ -8465,22 +8867,22 @@
       <c r="B149" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="D149" s="29" t="s">
+      <c r="D149" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E149" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F149" s="29" t="s">
+      <c r="F149" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G149" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H149" s="29" t="s">
+      <c r="H149" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I149" s="4" t="n">
@@ -8489,7 +8891,10 @@
       <c r="J149" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K149" s="5" t="n"/>
+      <c r="K149" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J149-I149</f>
+        <v>0</v>
+      </c>
       <c r="L149" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
@@ -8499,22 +8904,22 @@
       <c r="B150" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D150" s="26" t="n">
+      <c r="D150" s="25" t="n">
         <v>32.75</v>
       </c>
-      <c r="E150" s="26" t="n">
+      <c r="E150" s="25" t="n">
         <v>11.05</v>
       </c>
-      <c r="F150" s="26" t="n">
+      <c r="F150" s="25" t="n">
         <v>36.25</v>
       </c>
-      <c r="G150" s="26" t="n">
+      <c r="G150" s="25" t="n">
         <v>12.35</v>
       </c>
-      <c r="H150" s="26" t="n">
+      <c r="H150" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I150" s="4" t="n">
@@ -8523,7 +8928,10 @@
       <c r="J150" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K150" s="5" t="n"/>
+      <c r="K150" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J150-I150</f>
+        <v>0</v>
+      </c>
       <c r="L150" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
@@ -8533,22 +8941,22 @@
       <c r="B151" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="26" t="n">
+      <c r="D151" s="25" t="n">
         <v>45.3</v>
       </c>
-      <c r="E151" s="26" t="n">
+      <c r="E151" s="25" t="n">
         <v>23.75</v>
       </c>
-      <c r="F151" s="26" t="n">
+      <c r="F151" s="25" t="n">
         <v>46.05</v>
       </c>
-      <c r="G151" s="26" t="n">
+      <c r="G151" s="25" t="n">
         <v>24.1</v>
       </c>
-      <c r="H151" s="26" t="n">
+      <c r="H151" s="25" t="n">
         <v>14.6</v>
       </c>
       <c r="I151" s="4" t="n">
@@ -8557,7 +8965,10 @@
       <c r="J151" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K151" s="5" t="n"/>
+      <c r="K151" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J151-I151</f>
+        <v>0</v>
+      </c>
       <c r="L151" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
@@ -8567,22 +8978,22 @@
       <c r="B152" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="D152" s="26" t="n">
+      <c r="D152" s="25" t="n">
         <v>46.55</v>
       </c>
-      <c r="E152" s="26" t="n">
+      <c r="E152" s="25" t="n">
         <v>22.6</v>
       </c>
-      <c r="F152" s="26" t="n">
+      <c r="F152" s="25" t="n">
         <v>46.55</v>
       </c>
-      <c r="G152" s="26" t="n">
+      <c r="G152" s="25" t="n">
         <v>23.3</v>
       </c>
-      <c r="H152" s="26" t="n">
+      <c r="H152" s="25" t="n">
         <v>13.7</v>
       </c>
       <c r="I152" s="4" t="n">
@@ -8591,7 +9002,10 @@
       <c r="J152" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K152" s="5" t="n"/>
+      <c r="K152" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J152-I152</f>
+        <v>0</v>
+      </c>
       <c r="L152" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
@@ -8601,22 +9015,22 @@
       <c r="B153" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="D153" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F153" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" s="29" t="s">
+      <c r="D153" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" s="28" t="s">
         <v>21</v>
       </c>
       <c r="I153" s="4" t="n">
@@ -8625,7 +9039,10 @@
       <c r="J153" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K153" s="5" t="n"/>
+      <c r="K153" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J153-I153</f>
+        <v>0</v>
+      </c>
       <c r="L153" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
@@ -8635,22 +9052,22 @@
       <c r="B154" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D154" s="26" t="n">
+      <c r="D154" s="25" t="n">
         <v>47.9</v>
       </c>
-      <c r="E154" s="26" t="n">
+      <c r="E154" s="25" t="n">
         <v>30.3</v>
       </c>
-      <c r="F154" s="26" t="n">
+      <c r="F154" s="25" t="n">
         <v>47.9</v>
       </c>
-      <c r="G154" s="26" t="n">
+      <c r="G154" s="25" t="n">
         <v>31.8</v>
       </c>
-      <c r="H154" s="26" t="n">
+      <c r="H154" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I154" s="4" t="n">
@@ -8659,7 +9076,10 @@
       <c r="J154" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K154" s="5" t="n"/>
+      <c r="K154" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J154-I154</f>
+        <v>0</v>
+      </c>
       <c r="L154" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
@@ -8669,22 +9089,22 @@
       <c r="B155" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D155" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F155" s="26" t="n">
+      <c r="D155" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" s="25" t="n">
         <v>73</v>
       </c>
-      <c r="G155" s="26" t="n">
+      <c r="G155" s="25" t="n">
         <v>57.35</v>
       </c>
-      <c r="H155" s="26" t="n">
+      <c r="H155" s="25" t="n">
         <v>15.95</v>
       </c>
       <c r="I155" s="4" t="n">
@@ -8693,7 +9113,10 @@
       <c r="J155" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K155" s="5" t="n"/>
+      <c r="K155" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J155-I155</f>
+        <v>0</v>
+      </c>
       <c r="L155" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
@@ -8703,22 +9126,22 @@
       <c r="B156" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D156" s="26" t="n">
+      <c r="D156" s="25" t="n">
         <v>42.95</v>
       </c>
-      <c r="E156" s="26" t="n">
+      <c r="E156" s="25" t="n">
         <v>38.65</v>
       </c>
-      <c r="F156" s="26" t="n">
+      <c r="F156" s="25" t="n">
         <v>48.9</v>
       </c>
-      <c r="G156" s="26" t="n">
+      <c r="G156" s="25" t="n">
         <v>49.3</v>
       </c>
-      <c r="H156" s="26" t="n">
+      <c r="H156" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I156" s="4" t="n">
@@ -8727,7 +9150,10 @@
       <c r="J156" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K156" s="5" t="n"/>
+      <c r="K156" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J156-I156</f>
+        <v>0</v>
+      </c>
       <c r="L156" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
@@ -8737,31 +9163,34 @@
       <c r="B157" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D157" s="26" t="n">
+      <c r="D157" s="25" t="n">
         <v>54.3</v>
       </c>
-      <c r="E157" s="26" t="n">
+      <c r="E157" s="25" t="n">
         <v>39.05</v>
       </c>
-      <c r="F157" s="26" t="n">
+      <c r="F157" s="25" t="n">
         <v>64.9</v>
       </c>
-      <c r="G157" s="26" t="n">
+      <c r="G157" s="25" t="n">
         <v>43.4</v>
       </c>
-      <c r="H157" s="26" t="n">
+      <c r="H157" s="25" t="n">
         <v>27.85</v>
       </c>
-      <c r="I157" s="33" t="n">
+      <c r="I157" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="J157" s="33" t="n">
+      <c r="J157" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="K157" s="5" t="n"/>
+      <c r="K157" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J157-I157</f>
+        <v>0</v>
+      </c>
       <c r="L157" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
@@ -8771,22 +9200,22 @@
       <c r="B158" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D158" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F158" s="26" t="n">
+      <c r="D158" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" s="25" t="n">
         <v>56.55</v>
       </c>
-      <c r="G158" s="26" t="n">
+      <c r="G158" s="25" t="n">
         <v>75.25</v>
       </c>
-      <c r="H158" s="26" t="n">
+      <c r="H158" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I158" s="4" t="n">
@@ -8795,7 +9224,10 @@
       <c r="J158" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K158" s="5" t="n"/>
+      <c r="K158" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J158-I158</f>
+        <v>0</v>
+      </c>
       <c r="L158" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
@@ -8805,22 +9237,22 @@
       <c r="B159" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="D159" s="26" t="n">
+      <c r="D159" s="25" t="n">
         <v>47.8</v>
       </c>
-      <c r="E159" s="26" t="n">
+      <c r="E159" s="25" t="n">
         <v>9.55</v>
       </c>
-      <c r="F159" s="26" t="n">
+      <c r="F159" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="G159" s="26" t="n">
+      <c r="G159" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="H159" s="26" t="n">
+      <c r="H159" s="25" t="n">
         <v>1.85</v>
       </c>
       <c r="I159" s="4" t="n">
@@ -8829,7 +9261,10 @@
       <c r="J159" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K159" s="5" t="n"/>
+      <c r="K159" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J159-I159</f>
+        <v>0</v>
+      </c>
       <c r="L159" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
@@ -8839,22 +9274,22 @@
       <c r="B160" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D160" s="26" t="n">
+      <c r="D160" s="25" t="n">
         <v>57.8</v>
       </c>
-      <c r="E160" s="26" t="n">
+      <c r="E160" s="25" t="n">
         <v>13.75</v>
       </c>
-      <c r="F160" s="26" t="n">
+      <c r="F160" s="25" t="n">
         <v>57.8</v>
       </c>
-      <c r="G160" s="26" t="n">
+      <c r="G160" s="25" t="n">
         <v>13.75</v>
       </c>
-      <c r="H160" s="26" t="n">
+      <c r="H160" s="25" t="n">
         <v>8.45</v>
       </c>
       <c r="I160" s="4" t="n">
@@ -8863,7 +9298,10 @@
       <c r="J160" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K160" s="5" t="n"/>
+      <c r="K160" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J160-I160</f>
+        <v>0</v>
+      </c>
       <c r="L160" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
@@ -8873,22 +9311,22 @@
       <c r="B161" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="D161" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" s="26" t="n">
+      <c r="D161" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="25" t="n">
         <v>75.7</v>
       </c>
-      <c r="G161" s="26" t="n">
+      <c r="G161" s="25" t="n">
         <v>43.4</v>
       </c>
-      <c r="H161" s="26" t="n">
+      <c r="H161" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I161" s="4" t="n">
@@ -8897,7 +9335,10 @@
       <c r="J161" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K161" s="5" t="n"/>
+      <c r="K161" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J161-I161</f>
+        <v>0</v>
+      </c>
       <c r="L161" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
@@ -8907,22 +9348,22 @@
       <c r="B162" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="C162" s="25" t="s">
+      <c r="C162" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="D162" s="26" t="n">
+      <c r="D162" s="25" t="n">
         <v>62.65</v>
       </c>
-      <c r="E162" s="26" t="n">
+      <c r="E162" s="25" t="n">
         <v>7.55</v>
       </c>
-      <c r="F162" s="26" t="n">
+      <c r="F162" s="25" t="n">
         <v>62.65</v>
       </c>
-      <c r="G162" s="26" t="n">
+      <c r="G162" s="25" t="n">
         <v>13.75</v>
       </c>
-      <c r="H162" s="26" t="n">
+      <c r="H162" s="25" t="n">
         <v>4.15</v>
       </c>
       <c r="I162" s="4" t="n">
@@ -8931,7 +9372,10 @@
       <c r="J162" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K162" s="5" t="n"/>
+      <c r="K162" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J162-I162</f>
+        <v>0</v>
+      </c>
       <c r="L162" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
@@ -8941,22 +9385,22 @@
       <c r="B163" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D163" s="26" t="n">
+      <c r="D163" s="25" t="n">
         <v>54.95</v>
       </c>
-      <c r="E163" s="26" t="n">
+      <c r="E163" s="25" t="n">
         <v>30.8</v>
       </c>
-      <c r="F163" s="26" t="n">
+      <c r="F163" s="25" t="n">
         <v>54.95</v>
       </c>
-      <c r="G163" s="26" t="n">
+      <c r="G163" s="25" t="n">
         <v>36.55</v>
       </c>
-      <c r="H163" s="26" t="n">
+      <c r="H163" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I163" s="4" t="n">
@@ -8965,7 +9409,10 @@
       <c r="J163" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K163" s="5" t="n"/>
+      <c r="K163" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J163-I163</f>
+        <v>0</v>
+      </c>
       <c r="L163" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
@@ -8975,22 +9422,22 @@
       <c r="B164" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="D164" s="26" t="n">
+      <c r="D164" s="25" t="n">
         <v>61.85</v>
       </c>
-      <c r="E164" s="26" t="n">
+      <c r="E164" s="25" t="n">
         <v>16.8</v>
       </c>
-      <c r="F164" s="26" t="n">
+      <c r="F164" s="25" t="n">
         <v>61.85</v>
       </c>
-      <c r="G164" s="26" t="n">
+      <c r="G164" s="25" t="n">
         <v>18.45</v>
       </c>
-      <c r="H164" s="26" t="n">
+      <c r="H164" s="25" t="n">
         <v>10.95</v>
       </c>
       <c r="I164" s="4" t="n">
@@ -8999,7 +9446,10 @@
       <c r="J164" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K164" s="5" t="n"/>
+      <c r="K164" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J164-I164</f>
+        <v>0</v>
+      </c>
       <c r="L164" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
@@ -9009,22 +9459,22 @@
       <c r="B165" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D165" s="26" t="n">
+      <c r="D165" s="25" t="n">
         <v>37.45</v>
       </c>
-      <c r="E165" s="26" t="n">
+      <c r="E165" s="25" t="n">
         <v>36.8</v>
       </c>
-      <c r="F165" s="26" t="n">
+      <c r="F165" s="25" t="n">
         <v>40.1</v>
       </c>
-      <c r="G165" s="26" t="n">
+      <c r="G165" s="25" t="n">
         <v>41.2</v>
       </c>
-      <c r="H165" s="26" t="n">
+      <c r="H165" s="25" t="n">
         <v>23.4</v>
       </c>
       <c r="I165" s="4" t="n">
@@ -9033,7 +9483,10 @@
       <c r="J165" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K165" s="5" t="n"/>
+      <c r="K165" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J165-I165</f>
+        <v>0</v>
+      </c>
       <c r="L165" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
@@ -9043,22 +9496,22 @@
       <c r="B166" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D166" s="26" t="n">
+      <c r="D166" s="25" t="n">
         <v>46.7</v>
       </c>
-      <c r="E166" s="26" t="n">
+      <c r="E166" s="25" t="n">
         <v>37.4</v>
       </c>
-      <c r="F166" s="26" t="n">
+      <c r="F166" s="25" t="n">
         <v>48.65</v>
       </c>
-      <c r="G166" s="26" t="n">
+      <c r="G166" s="25" t="n">
         <v>43.1</v>
       </c>
-      <c r="H166" s="26" t="n">
+      <c r="H166" s="25" t="n">
         <v>28.95</v>
       </c>
       <c r="I166" s="4" t="n">
@@ -9067,7 +9520,10 @@
       <c r="J166" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K166" s="5" t="n"/>
+      <c r="K166" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J166-I166</f>
+        <v>0</v>
+      </c>
       <c r="L166" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
@@ -9077,22 +9533,22 @@
       <c r="B167" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D167" s="26" t="n">
+      <c r="D167" s="25" t="n">
         <v>36.35</v>
       </c>
-      <c r="E167" s="26" t="n">
+      <c r="E167" s="25" t="n">
         <v>62.6</v>
       </c>
-      <c r="F167" s="26" t="n">
+      <c r="F167" s="25" t="n">
         <v>36.35</v>
       </c>
-      <c r="G167" s="26" t="n">
+      <c r="G167" s="25" t="n">
         <v>68.35</v>
       </c>
-      <c r="H167" s="26" t="n">
+      <c r="H167" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I167" s="4" t="n">
@@ -9101,7 +9557,10 @@
       <c r="J167" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K167" s="5" t="n"/>
+      <c r="K167" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J167-I167</f>
+        <v>0</v>
+      </c>
       <c r="L167" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
@@ -9111,22 +9570,22 @@
       <c r="B168" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D168" s="26" t="n">
+      <c r="D168" s="25" t="n">
         <v>44.95</v>
       </c>
-      <c r="E168" s="26" t="n">
+      <c r="E168" s="25" t="n">
         <v>34.9</v>
       </c>
-      <c r="F168" s="26" t="n">
+      <c r="F168" s="25" t="n">
         <v>48.5</v>
       </c>
-      <c r="G168" s="26" t="n">
+      <c r="G168" s="25" t="n">
         <v>42.35</v>
       </c>
-      <c r="H168" s="26" t="n">
+      <c r="H168" s="25" t="n">
         <v>32.2</v>
       </c>
       <c r="I168" s="4" t="n">
@@ -9135,7 +9594,10 @@
       <c r="J168" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K168" s="5" t="n"/>
+      <c r="K168" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J168-I168</f>
+        <v>0</v>
+      </c>
       <c r="L168" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
@@ -9145,22 +9607,22 @@
       <c r="B169" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="D169" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F169" s="26" t="n">
+      <c r="D169" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" s="25" t="n">
         <v>49.15</v>
       </c>
-      <c r="G169" s="26" t="n">
+      <c r="G169" s="25" t="n">
         <v>36.1</v>
       </c>
-      <c r="H169" s="26" t="n">
+      <c r="H169" s="25" t="n">
         <v>2.3</v>
       </c>
       <c r="I169" s="4" t="n">
@@ -9169,7 +9631,10 @@
       <c r="J169" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K169" s="5" t="n"/>
+      <c r="K169" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J169-I169</f>
+        <v>0</v>
+      </c>
       <c r="L169" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
@@ -9179,31 +9644,34 @@
       <c r="B170" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D170" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F170" s="26" t="n">
+      <c r="D170" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" s="25" t="n">
         <v>47.7</v>
       </c>
-      <c r="G170" s="26" t="n">
+      <c r="G170" s="25" t="n">
         <v>42.05</v>
       </c>
-      <c r="H170" s="26" t="n">
+      <c r="H170" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I170" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J170" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K170" s="5" t="n"/>
+      <c r="K170" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J170-I170</f>
+        <v>-9</v>
+      </c>
       <c r="L170" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
@@ -9213,22 +9681,22 @@
       <c r="B171" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D171" s="26" t="n">
+      <c r="D171" s="25" t="n">
         <v>43.3</v>
       </c>
-      <c r="E171" s="26" t="n">
+      <c r="E171" s="25" t="n">
         <v>25.85</v>
       </c>
-      <c r="F171" s="26" t="n">
+      <c r="F171" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="G171" s="26" t="n">
+      <c r="G171" s="25" t="n">
         <v>36.5</v>
       </c>
-      <c r="H171" s="26" t="n">
+      <c r="H171" s="25" t="n">
         <v>11.85</v>
       </c>
       <c r="I171" s="4" t="n">
@@ -9237,7 +9705,10 @@
       <c r="J171" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K171" s="5" t="n"/>
+      <c r="K171" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J171-I171</f>
+        <v>0</v>
+      </c>
       <c r="L171" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
@@ -9247,22 +9718,22 @@
       <c r="B172" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D172" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E172" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F172" s="26" t="n">
+      <c r="D172" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" s="25" t="n">
         <v>84.35</v>
       </c>
-      <c r="G172" s="26" t="n">
+      <c r="G172" s="25" t="n">
         <v>46.9</v>
       </c>
-      <c r="H172" s="26" t="n">
+      <c r="H172" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I172" s="4" t="n">
@@ -9271,7 +9742,10 @@
       <c r="J172" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K172" s="5" t="n"/>
+      <c r="K172" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J172-I172</f>
+        <v>0</v>
+      </c>
       <c r="L172" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
@@ -9281,22 +9755,22 @@
       <c r="B173" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="D173" s="26" t="n">
+      <c r="D173" s="25" t="n">
         <v>53.8</v>
       </c>
-      <c r="E173" s="26" t="n">
+      <c r="E173" s="25" t="n">
         <v>32.95</v>
       </c>
-      <c r="F173" s="26" t="n">
+      <c r="F173" s="25" t="n">
         <v>54.85</v>
       </c>
-      <c r="G173" s="26" t="n">
+      <c r="G173" s="25" t="n">
         <v>32.95</v>
       </c>
-      <c r="H173" s="26" t="n">
+      <c r="H173" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I173" s="4" t="n">
@@ -9305,7 +9779,10 @@
       <c r="J173" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K173" s="5" t="n"/>
+      <c r="K173" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J173-I173</f>
+        <v>0</v>
+      </c>
       <c r="L173" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15.75" outlineLevel="0" r="174">
@@ -9315,22 +9792,22 @@
       <c r="B174" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D174" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E174" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F174" s="26" t="n">
+      <c r="D174" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" s="25" t="n">
         <v>52.2</v>
       </c>
-      <c r="G174" s="26" t="n">
+      <c r="G174" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="H174" s="26" t="n">
+      <c r="H174" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I174" s="4" t="n">
@@ -9339,7 +9816,10 @@
       <c r="J174" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K174" s="5" t="n"/>
+      <c r="K174" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J174-I174</f>
+        <v>0</v>
+      </c>
       <c r="L174" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
@@ -9349,22 +9829,22 @@
       <c r="B175" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="D175" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E175" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F175" s="26" t="n">
+      <c r="D175" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" s="25" t="n">
         <v>49.05</v>
       </c>
-      <c r="G175" s="26" t="n">
+      <c r="G175" s="25" t="n">
         <v>39.75</v>
       </c>
-      <c r="H175" s="26" t="n">
+      <c r="H175" s="25" t="n">
         <v>30.05</v>
       </c>
       <c r="I175" s="4" t="n">
@@ -9373,7 +9853,10 @@
       <c r="J175" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K175" s="5" t="n"/>
+      <c r="K175" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J175-I175</f>
+        <v>0</v>
+      </c>
       <c r="L175" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
@@ -9383,22 +9866,22 @@
       <c r="B176" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="D176" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F176" s="26" t="n">
+      <c r="D176" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" s="25" t="n">
         <v>48.7</v>
       </c>
-      <c r="G176" s="26" t="n">
+      <c r="G176" s="25" t="n">
         <v>41.2</v>
       </c>
-      <c r="H176" s="26" t="n">
+      <c r="H176" s="25" t="n">
         <v>32.2</v>
       </c>
       <c r="I176" s="4" t="n">
@@ -9407,7 +9890,10 @@
       <c r="J176" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K176" s="5" t="n"/>
+      <c r="K176" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J176-I176</f>
+        <v>0</v>
+      </c>
       <c r="L176" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
@@ -9417,22 +9903,22 @@
       <c r="B177" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="D177" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F177" s="26" t="n">
+      <c r="D177" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" s="25" t="n">
         <v>48.75</v>
       </c>
-      <c r="G177" s="26" t="n">
+      <c r="G177" s="25" t="n">
         <v>36.9</v>
       </c>
-      <c r="H177" s="26" t="n">
+      <c r="H177" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I177" s="4" t="n">
@@ -9441,7 +9927,10 @@
       <c r="J177" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K177" s="5" t="n"/>
+      <c r="K177" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J177-I177</f>
+        <v>0</v>
+      </c>
       <c r="L177" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
@@ -9451,22 +9940,22 @@
       <c r="B178" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="D178" s="26" t="n">
+      <c r="D178" s="25" t="n">
         <v>54.9</v>
       </c>
-      <c r="E178" s="26" t="n">
+      <c r="E178" s="25" t="n">
         <v>11.75</v>
       </c>
-      <c r="F178" s="26" t="n">
+      <c r="F178" s="25" t="n">
         <v>54.9</v>
       </c>
-      <c r="G178" s="26" t="n">
+      <c r="G178" s="25" t="n">
         <v>12.05</v>
       </c>
-      <c r="H178" s="26" t="n">
+      <c r="H178" s="25" t="n">
         <v>2.3</v>
       </c>
       <c r="I178" s="4" t="n">
@@ -9475,7 +9964,10 @@
       <c r="J178" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K178" s="5" t="n"/>
+      <c r="K178" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J178-I178</f>
+        <v>0</v>
+      </c>
       <c r="L178" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
@@ -9485,22 +9977,22 @@
       <c r="B179" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="D179" s="26" t="n">
+      <c r="D179" s="25" t="n">
         <v>43.95</v>
       </c>
-      <c r="E179" s="26" t="n">
+      <c r="E179" s="25" t="n">
         <v>20.15</v>
       </c>
-      <c r="F179" s="26" t="n">
+      <c r="F179" s="25" t="n">
         <v>43.95</v>
       </c>
-      <c r="G179" s="26" t="n">
+      <c r="G179" s="25" t="n">
         <v>22.75</v>
       </c>
-      <c r="H179" s="26" t="n">
+      <c r="H179" s="25" t="n">
         <v>14.4</v>
       </c>
       <c r="I179" s="4" t="n">
@@ -9509,7 +10001,10 @@
       <c r="J179" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K179" s="5" t="n"/>
+      <c r="K179" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J179-I179</f>
+        <v>0</v>
+      </c>
       <c r="L179" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
@@ -9519,22 +10014,22 @@
       <c r="B180" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="D180" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H180" s="29" t="s">
+      <c r="D180" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H180" s="28" t="s">
         <v>21</v>
       </c>
       <c r="I180" s="4" t="n">
@@ -9543,7 +10038,10 @@
       <c r="J180" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K180" s="5" t="n"/>
+      <c r="K180" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J180-I180</f>
+        <v>0</v>
+      </c>
       <c r="L180" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
@@ -9553,22 +10051,22 @@
       <c r="B181" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="D181" s="26" t="n">
+      <c r="D181" s="25" t="n">
         <v>41.95</v>
       </c>
-      <c r="E181" s="26" t="n">
+      <c r="E181" s="25" t="n">
         <v>11.35</v>
       </c>
-      <c r="F181" s="26" t="n">
+      <c r="F181" s="25" t="n">
         <v>41.95</v>
       </c>
-      <c r="G181" s="26" t="n">
+      <c r="G181" s="25" t="n">
         <v>11.35</v>
       </c>
-      <c r="H181" s="26" t="n">
+      <c r="H181" s="25" t="n">
         <v>8</v>
       </c>
       <c r="I181" s="4" t="n">
@@ -9577,7 +10075,10 @@
       <c r="J181" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K181" s="5" t="n"/>
+      <c r="K181" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J181-I181</f>
+        <v>0</v>
+      </c>
       <c r="L181" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
@@ -9587,22 +10088,22 @@
       <c r="B182" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D182" s="26" t="n">
+      <c r="D182" s="25" t="n">
         <v>43.25</v>
       </c>
-      <c r="E182" s="26" t="n">
+      <c r="E182" s="25" t="n">
         <v>11.7</v>
       </c>
-      <c r="F182" s="26" t="n">
+      <c r="F182" s="25" t="n">
         <v>43.25</v>
       </c>
-      <c r="G182" s="26" t="n">
+      <c r="G182" s="25" t="n">
         <v>11.7</v>
       </c>
-      <c r="H182" s="26" t="n">
+      <c r="H182" s="25" t="n">
         <v>8.25</v>
       </c>
       <c r="I182" s="4" t="n">
@@ -9611,7 +10112,10 @@
       <c r="J182" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K182" s="5" t="n"/>
+      <c r="K182" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J182-I182</f>
+        <v>0</v>
+      </c>
       <c r="L182" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
@@ -9621,22 +10125,22 @@
       <c r="B183" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C183" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="D183" s="26" t="n">
+      <c r="D183" s="25" t="n">
         <v>35.4</v>
       </c>
-      <c r="E183" s="26" t="n">
+      <c r="E183" s="25" t="n">
         <v>52.9</v>
       </c>
-      <c r="F183" s="26" t="n">
+      <c r="F183" s="25" t="n">
         <v>35.4</v>
       </c>
-      <c r="G183" s="26" t="n">
+      <c r="G183" s="25" t="n">
         <v>62.9</v>
       </c>
-      <c r="H183" s="26" t="n">
+      <c r="H183" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I183" s="4" t="n">
@@ -9645,7 +10149,10 @@
       <c r="J183" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K183" s="5" t="n"/>
+      <c r="K183" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J183-I183</f>
+        <v>0</v>
+      </c>
       <c r="L183" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
@@ -9655,22 +10162,22 @@
       <c r="B184" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="D184" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F184" s="29" t="s">
+      <c r="D184" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G184" s="29" t="s">
+      <c r="G184" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H184" s="29" t="s">
+      <c r="H184" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I184" s="4" t="n">
@@ -9679,7 +10186,10 @@
       <c r="J184" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K184" s="5" t="n"/>
+      <c r="K184" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J184-I184</f>
+        <v>0</v>
+      </c>
       <c r="L184" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
@@ -9689,22 +10199,22 @@
       <c r="B185" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="D185" s="26" t="n">
+      <c r="D185" s="25" t="n">
         <v>57.4</v>
       </c>
-      <c r="E185" s="26" t="n">
+      <c r="E185" s="25" t="n">
         <v>25.75</v>
       </c>
-      <c r="F185" s="26" t="n">
+      <c r="F185" s="25" t="n">
         <v>57.4</v>
       </c>
-      <c r="G185" s="26" t="n">
+      <c r="G185" s="25" t="n">
         <v>35.75</v>
       </c>
-      <c r="H185" s="26" t="n">
+      <c r="H185" s="25" t="n">
         <v>7.9</v>
       </c>
       <c r="I185" s="4" t="n">
@@ -9713,7 +10223,10 @@
       <c r="J185" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K185" s="5" t="n"/>
+      <c r="K185" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J185-I185</f>
+        <v>0</v>
+      </c>
       <c r="L185" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
@@ -9723,22 +10236,22 @@
       <c r="B186" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="D186" s="26" t="n">
+      <c r="D186" s="25" t="n">
         <v>42.4</v>
       </c>
-      <c r="E186" s="26" t="n">
+      <c r="E186" s="25" t="n">
         <v>34.2</v>
       </c>
-      <c r="F186" s="26" t="n">
+      <c r="F186" s="25" t="n">
         <v>44.85</v>
       </c>
-      <c r="G186" s="26" t="n">
+      <c r="G186" s="25" t="n">
         <v>38.7</v>
       </c>
-      <c r="H186" s="26" t="n">
+      <c r="H186" s="25" t="n">
         <v>24.6</v>
       </c>
       <c r="I186" s="4" t="n">
@@ -9747,7 +10260,10 @@
       <c r="J186" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K186" s="5" t="n"/>
+      <c r="K186" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J186-I186</f>
+        <v>0</v>
+      </c>
       <c r="L186" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
@@ -9757,22 +10273,22 @@
       <c r="B187" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D187" s="26" t="n">
+      <c r="D187" s="25" t="n">
         <v>49.55</v>
       </c>
-      <c r="E187" s="26" t="n">
+      <c r="E187" s="25" t="n">
         <v>28.6</v>
       </c>
-      <c r="F187" s="26" t="n">
+      <c r="F187" s="25" t="n">
         <v>49.55</v>
       </c>
-      <c r="G187" s="26" t="n">
+      <c r="G187" s="25" t="n">
         <v>35.8</v>
       </c>
-      <c r="H187" s="26" t="n">
+      <c r="H187" s="25" t="n">
         <v>25.4</v>
       </c>
       <c r="I187" s="4" t="n">
@@ -9781,7 +10297,10 @@
       <c r="J187" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K187" s="5" t="n"/>
+      <c r="K187" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J187-I187</f>
+        <v>0</v>
+      </c>
       <c r="L187" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
@@ -9791,22 +10310,22 @@
       <c r="B188" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C188" s="25" t="s">
+      <c r="C188" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D188" s="26" t="n">
+      <c r="D188" s="25" t="n">
         <v>34.8</v>
       </c>
-      <c r="E188" s="26" t="n">
+      <c r="E188" s="25" t="n">
         <v>19.3</v>
       </c>
-      <c r="F188" s="26" t="n">
+      <c r="F188" s="25" t="n">
         <v>34.8</v>
       </c>
-      <c r="G188" s="26" t="n">
+      <c r="G188" s="25" t="n">
         <v>20.75</v>
       </c>
-      <c r="H188" s="26" t="n">
+      <c r="H188" s="25" t="n">
         <v>14.55</v>
       </c>
       <c r="I188" s="4" t="n">
@@ -9815,7 +10334,10 @@
       <c r="J188" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K188" s="5" t="n"/>
+      <c r="K188" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J188-I188</f>
+        <v>0</v>
+      </c>
       <c r="L188" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
@@ -9825,22 +10347,22 @@
       <c r="B189" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="D189" s="26" t="n">
+      <c r="D189" s="25" t="n">
         <v>51.9</v>
       </c>
-      <c r="E189" s="26" t="n">
+      <c r="E189" s="25" t="n">
         <v>28.95</v>
       </c>
-      <c r="F189" s="26" t="n">
+      <c r="F189" s="25" t="n">
         <v>55.75</v>
       </c>
-      <c r="G189" s="26" t="n">
+      <c r="G189" s="25" t="n">
         <v>29</v>
       </c>
-      <c r="H189" s="26" t="n">
+      <c r="H189" s="25" t="n">
         <v>15</v>
       </c>
       <c r="I189" s="4" t="n">
@@ -9849,7 +10371,10 @@
       <c r="J189" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K189" s="5" t="n"/>
+      <c r="K189" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J189-I189</f>
+        <v>0</v>
+      </c>
       <c r="L189" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
@@ -9859,22 +10384,22 @@
       <c r="B190" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="D190" s="26" t="n">
+      <c r="D190" s="25" t="n">
         <v>38.35</v>
       </c>
-      <c r="E190" s="26" t="n">
+      <c r="E190" s="25" t="n">
         <v>14.05</v>
       </c>
-      <c r="F190" s="26" t="n">
+      <c r="F190" s="25" t="n">
         <v>41</v>
       </c>
-      <c r="G190" s="26" t="n">
+      <c r="G190" s="25" t="n">
         <v>17.45</v>
       </c>
-      <c r="H190" s="26" t="n">
+      <c r="H190" s="25" t="n">
         <v>10.05</v>
       </c>
       <c r="I190" s="4" t="n">
@@ -9883,7 +10408,10 @@
       <c r="J190" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K190" s="5" t="n"/>
+      <c r="K190" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J190-I190</f>
+        <v>0</v>
+      </c>
       <c r="L190" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
@@ -9893,22 +10421,22 @@
       <c r="B191" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C191" s="25" t="s">
+      <c r="C191" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="D191" s="26" t="n">
+      <c r="D191" s="25" t="n">
         <v>53.2</v>
       </c>
-      <c r="E191" s="26" t="n">
+      <c r="E191" s="25" t="n">
         <v>27.3</v>
       </c>
-      <c r="F191" s="26" t="n">
+      <c r="F191" s="25" t="n">
         <v>59</v>
       </c>
-      <c r="G191" s="26" t="n">
+      <c r="G191" s="25" t="n">
         <v>40.95</v>
       </c>
-      <c r="H191" s="26" t="n">
+      <c r="H191" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I191" s="4" t="n">
@@ -9917,7 +10445,10 @@
       <c r="J191" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K191" s="5" t="n"/>
+      <c r="K191" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J191-I191</f>
+        <v>0</v>
+      </c>
       <c r="L191" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
@@ -9927,22 +10458,22 @@
       <c r="B192" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D192" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F192" s="26" t="n">
+      <c r="D192" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192" s="25" t="n">
         <v>34.7</v>
       </c>
-      <c r="G192" s="26" t="n">
+      <c r="G192" s="25" t="n">
         <v>58</v>
       </c>
-      <c r="H192" s="26" t="n">
+      <c r="H192" s="25" t="n">
         <v>15.95</v>
       </c>
       <c r="I192" s="4" t="n">
@@ -9951,7 +10482,10 @@
       <c r="J192" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K192" s="5" t="n"/>
+      <c r="K192" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J192-I192</f>
+        <v>0</v>
+      </c>
       <c r="L192" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
@@ -9961,22 +10495,22 @@
       <c r="B193" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C193" s="25" t="s">
+      <c r="C193" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="D193" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E193" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F193" s="26" t="n">
+      <c r="D193" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" s="25" t="n">
         <v>35.3</v>
       </c>
-      <c r="G193" s="26" t="n">
+      <c r="G193" s="25" t="n">
         <v>69.55</v>
       </c>
-      <c r="H193" s="26" t="n">
+      <c r="H193" s="25" t="n">
         <v>34.35</v>
       </c>
       <c r="I193" s="4" t="n">
@@ -9985,7 +10519,10 @@
       <c r="J193" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K193" s="5" t="n"/>
+      <c r="K193" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J193-I193</f>
+        <v>0</v>
+      </c>
       <c r="L193" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
@@ -9995,22 +10532,22 @@
       <c r="B194" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="C194" s="25" t="s">
+      <c r="C194" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="D194" s="26" t="n">
+      <c r="D194" s="25" t="n">
         <v>56.7</v>
       </c>
-      <c r="E194" s="26" t="n">
+      <c r="E194" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="F194" s="26" t="n">
+      <c r="F194" s="25" t="n">
         <v>56.7</v>
       </c>
-      <c r="G194" s="26" t="n">
+      <c r="G194" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="H194" s="26" t="n">
+      <c r="H194" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I194" s="4" t="n">
@@ -10019,7 +10556,10 @@
       <c r="J194" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K194" s="5" t="n"/>
+      <c r="K194" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J194-I194</f>
+        <v>0</v>
+      </c>
       <c r="L194" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
@@ -10029,22 +10569,22 @@
       <c r="B195" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C195" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="D195" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E195" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F195" s="26" t="n">
+      <c r="D195" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E195" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" s="25" t="n">
         <v>41.85</v>
       </c>
-      <c r="G195" s="26" t="n">
+      <c r="G195" s="25" t="n">
         <v>55.6</v>
       </c>
-      <c r="H195" s="26" t="n">
+      <c r="H195" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I195" s="4" t="n">
@@ -10053,32 +10593,35 @@
       <c r="J195" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K195" s="5" t="n"/>
+      <c r="K195" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J195-I195</f>
+        <v>0</v>
+      </c>
       <c r="L195" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
       <c r="A196" s="19" t="n">
         <v>186</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="B196" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D196" s="26" t="n">
+      <c r="D196" s="25" t="n">
         <v>43.2</v>
       </c>
-      <c r="E196" s="26" t="n">
+      <c r="E196" s="25" t="n">
         <v>36.05</v>
       </c>
-      <c r="F196" s="26" t="n">
+      <c r="F196" s="25" t="n">
         <v>44.75</v>
       </c>
-      <c r="G196" s="26" t="n">
+      <c r="G196" s="25" t="n">
         <v>36.1</v>
       </c>
-      <c r="H196" s="26" t="n">
+      <c r="H196" s="25" t="n">
         <v>32.85</v>
       </c>
       <c r="I196" s="4" t="n">
@@ -10087,7 +10630,10 @@
       <c r="J196" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K196" s="5" t="n"/>
+      <c r="K196" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J196-I196</f>
+        <v>0</v>
+      </c>
       <c r="L196" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
@@ -10097,22 +10643,22 @@
       <c r="B197" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C197" s="36" t="s">
+      <c r="C197" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="D197" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E197" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" s="29" t="s">
+      <c r="D197" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G197" s="29" t="s">
+      <c r="G197" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H197" s="29" t="s">
+      <c r="H197" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I197" s="4" t="n">
@@ -10121,7 +10667,10 @@
       <c r="J197" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K197" s="5" t="n"/>
+      <c r="K197" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J197-I197</f>
+        <v>0</v>
+      </c>
       <c r="L197" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
@@ -10131,22 +10680,22 @@
       <c r="B198" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="C198" s="25" t="s">
+      <c r="C198" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="D198" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E198" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F198" s="26" t="n">
+      <c r="D198" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E198" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="25" t="n">
         <v>36.7</v>
       </c>
-      <c r="G198" s="26" t="n">
+      <c r="G198" s="25" t="n">
         <v>68.95</v>
       </c>
-      <c r="H198" s="26" t="n">
+      <c r="H198" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I198" s="4" t="n">
@@ -10155,7 +10704,10 @@
       <c r="J198" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="K198" s="5" t="n"/>
+      <c r="K198" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J198-I198</f>
+        <v>0</v>
+      </c>
       <c r="L198" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
@@ -10165,22 +10717,22 @@
       <c r="B199" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="D199" s="26" t="n">
+      <c r="D199" s="25" t="n">
         <v>60.05</v>
       </c>
-      <c r="E199" s="26" t="n">
+      <c r="E199" s="25" t="n">
         <v>20.4</v>
       </c>
-      <c r="F199" s="26" t="n">
+      <c r="F199" s="25" t="n">
         <v>60.05</v>
       </c>
-      <c r="G199" s="26" t="n">
+      <c r="G199" s="25" t="n">
         <v>30.5</v>
       </c>
-      <c r="H199" s="26" t="n">
+      <c r="H199" s="25" t="n">
         <v>2.3</v>
       </c>
       <c r="I199" s="4" t="n">
@@ -10189,7 +10741,10 @@
       <c r="J199" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K199" s="5" t="n"/>
+      <c r="K199" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J199-I199</f>
+        <v>0</v>
+      </c>
       <c r="L199" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
@@ -10199,22 +10754,22 @@
       <c r="B200" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="D200" s="26" t="n">
+      <c r="D200" s="25" t="n">
         <v>31.4</v>
       </c>
-      <c r="E200" s="26" t="n">
+      <c r="E200" s="25" t="n">
         <v>13.3</v>
       </c>
-      <c r="F200" s="26" t="n">
+      <c r="F200" s="25" t="n">
         <v>31.4</v>
       </c>
-      <c r="G200" s="26" t="n">
+      <c r="G200" s="25" t="n">
         <v>14.35</v>
       </c>
-      <c r="H200" s="26" t="n">
+      <c r="H200" s="25" t="n">
         <v>4.2</v>
       </c>
       <c r="I200" s="4" t="n">
@@ -10223,7 +10778,10 @@
       <c r="J200" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K200" s="5" t="n"/>
+      <c r="K200" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J200-I200</f>
+        <v>0</v>
+      </c>
       <c r="L200" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
@@ -10233,22 +10791,22 @@
       <c r="B201" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="D201" s="26" t="n">
+      <c r="D201" s="25" t="n">
         <v>55.2</v>
       </c>
-      <c r="E201" s="26" t="n">
+      <c r="E201" s="25" t="n">
         <v>11.85</v>
       </c>
-      <c r="F201" s="26" t="n">
+      <c r="F201" s="25" t="n">
         <v>55.2</v>
       </c>
-      <c r="G201" s="26" t="n">
+      <c r="G201" s="25" t="n">
         <v>13.9</v>
       </c>
-      <c r="H201" s="26" t="n">
+      <c r="H201" s="25" t="n">
         <v>3.45</v>
       </c>
       <c r="I201" s="4" t="n">
@@ -10257,7 +10815,10 @@
       <c r="J201" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K201" s="5" t="n"/>
+      <c r="K201" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J201-I201</f>
+        <v>0</v>
+      </c>
       <c r="L201" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
@@ -10267,22 +10828,22 @@
       <c r="B202" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="D202" s="26" t="n">
+      <c r="D202" s="25" t="n">
         <v>47.3</v>
       </c>
-      <c r="E202" s="26" t="n">
+      <c r="E202" s="25" t="n">
         <v>27.9</v>
       </c>
-      <c r="F202" s="26" t="n">
+      <c r="F202" s="25" t="n">
         <v>50.45</v>
       </c>
-      <c r="G202" s="26" t="n">
+      <c r="G202" s="25" t="n">
         <v>34</v>
       </c>
-      <c r="H202" s="26" t="n">
+      <c r="H202" s="25" t="n">
         <v>18.7</v>
       </c>
       <c r="I202" s="4" t="n">
@@ -10291,7 +10852,10 @@
       <c r="J202" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K202" s="5" t="n"/>
+      <c r="K202" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J202-I202</f>
+        <v>0</v>
+      </c>
       <c r="L202" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
@@ -10301,22 +10865,22 @@
       <c r="B203" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D203" s="26" t="n">
+      <c r="D203" s="25" t="n">
         <v>65.2</v>
       </c>
-      <c r="E203" s="26" t="n">
+      <c r="E203" s="25" t="n">
         <v>16.1</v>
       </c>
-      <c r="F203" s="26" t="n">
+      <c r="F203" s="25" t="n">
         <v>65.2</v>
       </c>
-      <c r="G203" s="26" t="n">
+      <c r="G203" s="25" t="n">
         <v>16.8</v>
       </c>
-      <c r="H203" s="26" t="n">
+      <c r="H203" s="25" t="n">
         <v>6.9</v>
       </c>
       <c r="I203" s="4" t="n">
@@ -10325,7 +10889,10 @@
       <c r="J203" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K203" s="5" t="n"/>
+      <c r="K203" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J203-I203</f>
+        <v>0</v>
+      </c>
       <c r="L203" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
@@ -10335,22 +10902,22 @@
       <c r="B204" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="D204" s="29" t="s">
+      <c r="D204" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E204" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F204" s="29" t="s">
+      <c r="E204" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G204" s="29" t="s">
+      <c r="G204" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H204" s="29" t="s">
+      <c r="H204" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I204" s="4" t="n">
@@ -10359,7 +10926,10 @@
       <c r="J204" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K204" s="5" t="n"/>
+      <c r="K204" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J204-I204</f>
+        <v>0</v>
+      </c>
       <c r="L204" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
@@ -10369,22 +10939,22 @@
       <c r="B205" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="D205" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E205" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F205" s="26" t="n">
+      <c r="D205" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E205" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" s="25" t="n">
         <v>55.9</v>
       </c>
-      <c r="G205" s="26" t="n">
+      <c r="G205" s="25" t="n">
         <v>75.6</v>
       </c>
-      <c r="H205" s="26" t="n">
+      <c r="H205" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I205" s="4" t="n">
@@ -10393,7 +10963,10 @@
       <c r="J205" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K205" s="5" t="n"/>
+      <c r="K205" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J205-I205</f>
+        <v>0</v>
+      </c>
       <c r="L205" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
@@ -10403,22 +10976,22 @@
       <c r="B206" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="D206" s="26" t="n">
+      <c r="D206" s="25" t="n">
         <v>61.9</v>
       </c>
-      <c r="E206" s="26" t="n">
+      <c r="E206" s="25" t="n">
         <v>38</v>
       </c>
-      <c r="F206" s="26" t="n">
+      <c r="F206" s="25" t="n">
         <v>67.4</v>
       </c>
-      <c r="G206" s="26" t="n">
+      <c r="G206" s="25" t="n">
         <v>48.25</v>
       </c>
-      <c r="H206" s="26" t="n">
+      <c r="H206" s="25" t="n">
         <v>33.5</v>
       </c>
       <c r="I206" s="4" t="n">
@@ -10427,7 +11000,10 @@
       <c r="J206" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K206" s="5" t="n"/>
+      <c r="K206" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J206-I206</f>
+        <v>0</v>
+      </c>
       <c r="L206" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
@@ -10437,22 +11013,22 @@
       <c r="B207" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="C207" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="D207" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E207" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="26" t="n">
+      <c r="D207" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E207" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="25" t="n">
         <v>61.95</v>
       </c>
-      <c r="G207" s="26" t="n">
+      <c r="G207" s="25" t="n">
         <v>20.2</v>
       </c>
-      <c r="H207" s="26" t="n">
+      <c r="H207" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I207" s="4" t="n">
@@ -10461,7 +11037,10 @@
       <c r="J207" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K207" s="5" t="n"/>
+      <c r="K207" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J207-I207</f>
+        <v>0</v>
+      </c>
       <c r="L207" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
@@ -10471,22 +11050,22 @@
       <c r="B208" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C208" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="D208" s="26" t="n">
+      <c r="D208" s="25" t="n">
         <v>39.9</v>
       </c>
-      <c r="E208" s="26" t="n">
+      <c r="E208" s="25" t="n">
         <v>35.5</v>
       </c>
-      <c r="F208" s="26" t="n">
+      <c r="F208" s="25" t="n">
         <v>42.8</v>
       </c>
-      <c r="G208" s="26" t="n">
+      <c r="G208" s="25" t="n">
         <v>52.05</v>
       </c>
-      <c r="H208" s="26" t="n">
+      <c r="H208" s="25" t="n">
         <v>40.9</v>
       </c>
       <c r="I208" s="4" t="n">
@@ -10495,7 +11074,10 @@
       <c r="J208" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K208" s="5" t="n"/>
+      <c r="K208" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J208-I208</f>
+        <v>0</v>
+      </c>
       <c r="L208" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
@@ -10505,22 +11087,22 @@
       <c r="B209" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C209" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="D209" s="26" t="n">
+      <c r="D209" s="25" t="n">
         <v>42.35</v>
       </c>
-      <c r="E209" s="26" t="n">
+      <c r="E209" s="25" t="n">
         <v>22.15</v>
       </c>
-      <c r="F209" s="26" t="n">
+      <c r="F209" s="25" t="n">
         <v>49.05</v>
       </c>
-      <c r="G209" s="26" t="n">
+      <c r="G209" s="25" t="n">
         <v>28.1</v>
       </c>
-      <c r="H209" s="26" t="n">
+      <c r="H209" s="25" t="n">
         <v>13.25</v>
       </c>
       <c r="I209" s="4" t="n">
@@ -10529,7 +11111,10 @@
       <c r="J209" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K209" s="5" t="n"/>
+      <c r="K209" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J209-I209</f>
+        <v>0</v>
+      </c>
       <c r="L209" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
@@ -10539,22 +11124,22 @@
       <c r="B210" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C210" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D210" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E210" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F210" s="29" t="s">
+      <c r="D210" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G210" s="29" t="s">
+      <c r="G210" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H210" s="29" t="s">
+      <c r="H210" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I210" s="4" t="n">
@@ -10563,7 +11148,10 @@
       <c r="J210" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K210" s="5" t="n"/>
+      <c r="K210" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J210-I210</f>
+        <v>0</v>
+      </c>
       <c r="L210" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
@@ -10573,22 +11161,22 @@
       <c r="B211" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="C211" s="25" t="s">
+      <c r="C211" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="D211" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E211" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F211" s="26" t="n">
+      <c r="D211" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E211" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="25" t="n">
         <v>41.55</v>
       </c>
-      <c r="G211" s="26" t="n">
+      <c r="G211" s="25" t="n">
         <v>54.5</v>
       </c>
-      <c r="H211" s="26" t="n">
+      <c r="H211" s="25" t="n">
         <v>8.45</v>
       </c>
       <c r="I211" s="4" t="n">
@@ -10597,7 +11185,10 @@
       <c r="J211" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K211" s="5" t="n"/>
+      <c r="K211" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J211-I211</f>
+        <v>0</v>
+      </c>
       <c r="L211" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
@@ -10607,22 +11198,22 @@
       <c r="B212" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C212" s="25" t="s">
+      <c r="C212" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="D212" s="26" t="n">
+      <c r="D212" s="25" t="n">
         <v>54.9</v>
       </c>
-      <c r="E212" s="26" t="n">
+      <c r="E212" s="25" t="n">
         <v>11.05</v>
       </c>
-      <c r="F212" s="26" t="n">
+      <c r="F212" s="25" t="n">
         <v>55.3</v>
       </c>
-      <c r="G212" s="26" t="n">
+      <c r="G212" s="25" t="n">
         <v>11.05</v>
       </c>
-      <c r="H212" s="26" t="n">
+      <c r="H212" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I212" s="4" t="n">
@@ -10631,7 +11222,10 @@
       <c r="J212" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K212" s="5" t="n"/>
+      <c r="K212" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J212-I212</f>
+        <v>0</v>
+      </c>
       <c r="L212" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
@@ -10641,22 +11235,22 @@
       <c r="B213" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D213" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E213" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F213" s="26" t="n">
+      <c r="D213" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E213" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213" s="25" t="n">
         <v>75.7</v>
       </c>
-      <c r="G213" s="26" t="n">
+      <c r="G213" s="25" t="n">
         <v>38.45</v>
       </c>
-      <c r="H213" s="26" t="n">
+      <c r="H213" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I213" s="4" t="n">
@@ -10665,7 +11259,10 @@
       <c r="J213" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K213" s="5" t="n"/>
+      <c r="K213" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J213-I213</f>
+        <v>0</v>
+      </c>
       <c r="L213" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
@@ -10675,22 +11272,22 @@
       <c r="B214" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="C214" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="D214" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E214" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214" s="26" t="n">
+      <c r="D214" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F214" s="25" t="n">
         <v>59.95</v>
       </c>
-      <c r="G214" s="26" t="n">
+      <c r="G214" s="25" t="n">
         <v>54.5</v>
       </c>
-      <c r="H214" s="26" t="n">
+      <c r="H214" s="25" t="n">
         <v>36.35</v>
       </c>
       <c r="I214" s="4" t="n">
@@ -10699,7 +11296,10 @@
       <c r="J214" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K214" s="5" t="n"/>
+      <c r="K214" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J214-I214</f>
+        <v>0</v>
+      </c>
       <c r="L214" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
@@ -10709,22 +11309,22 @@
       <c r="B215" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C215" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D215" s="26" t="n">
+      <c r="D215" s="25" t="n">
         <v>38.55</v>
       </c>
-      <c r="E215" s="26" t="n">
+      <c r="E215" s="25" t="n">
         <v>11.55</v>
       </c>
-      <c r="F215" s="26" t="n">
+      <c r="F215" s="25" t="n">
         <v>38.55</v>
       </c>
-      <c r="G215" s="26" t="n">
+      <c r="G215" s="25" t="n">
         <v>12.3</v>
       </c>
-      <c r="H215" s="26" t="n">
+      <c r="H215" s="25" t="n">
         <v>8.65</v>
       </c>
       <c r="I215" s="4" t="n">
@@ -10733,7 +11333,10 @@
       <c r="J215" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K215" s="5" t="n"/>
+      <c r="K215" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J215-I215</f>
+        <v>0</v>
+      </c>
       <c r="L215" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
@@ -10743,22 +11346,22 @@
       <c r="B216" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D216" s="26" t="n">
+      <c r="D216" s="25" t="n">
         <v>55.05</v>
       </c>
-      <c r="E216" s="26" t="n">
+      <c r="E216" s="25" t="n">
         <v>34.1</v>
       </c>
-      <c r="F216" s="26" t="n">
+      <c r="F216" s="25" t="n">
         <v>56.25</v>
       </c>
-      <c r="G216" s="26" t="n">
+      <c r="G216" s="25" t="n">
         <v>34.1</v>
       </c>
-      <c r="H216" s="26" t="n">
+      <c r="H216" s="25" t="n">
         <v>31.45</v>
       </c>
       <c r="I216" s="4" t="n">
@@ -10767,7 +11370,10 @@
       <c r="J216" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K216" s="5" t="n"/>
+      <c r="K216" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J216-I216</f>
+        <v>0</v>
+      </c>
       <c r="L216" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
@@ -10777,22 +11383,22 @@
       <c r="B217" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="C217" s="25" t="s">
+      <c r="C217" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="D217" s="26" t="n">
+      <c r="D217" s="25" t="n">
         <v>46.2</v>
       </c>
-      <c r="E217" s="26" t="n">
+      <c r="E217" s="25" t="n">
         <v>32.5</v>
       </c>
-      <c r="F217" s="26" t="n">
+      <c r="F217" s="25" t="n">
         <v>50.15</v>
       </c>
-      <c r="G217" s="26" t="n">
+      <c r="G217" s="25" t="n">
         <v>41.6</v>
       </c>
-      <c r="H217" s="26" t="n">
+      <c r="H217" s="25" t="n">
         <v>29.5</v>
       </c>
       <c r="I217" s="4" t="n">
@@ -10801,7 +11407,10 @@
       <c r="J217" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K217" s="5" t="n"/>
+      <c r="K217" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J217-I217</f>
+        <v>0</v>
+      </c>
       <c r="L217" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="218">
@@ -10811,22 +11420,22 @@
       <c r="B218" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="C218" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="D218" s="26" t="n">
+      <c r="D218" s="25" t="n">
         <v>55.45</v>
       </c>
-      <c r="E218" s="26" t="n">
+      <c r="E218" s="25" t="n">
         <v>16.8</v>
       </c>
-      <c r="F218" s="26" t="n">
+      <c r="F218" s="25" t="n">
         <v>57</v>
       </c>
-      <c r="G218" s="26" t="n">
+      <c r="G218" s="25" t="n">
         <v>16.8</v>
       </c>
-      <c r="H218" s="26" t="n">
+      <c r="H218" s="25" t="n">
         <v>2.3</v>
       </c>
       <c r="I218" s="4" t="n">
@@ -10835,7 +11444,10 @@
       <c r="J218" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K218" s="5" t="n"/>
+      <c r="K218" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J218-I218</f>
+        <v>0</v>
+      </c>
       <c r="L218" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="219">
@@ -10845,22 +11457,22 @@
       <c r="B219" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="C219" s="25" t="s">
+      <c r="C219" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="D219" s="26" t="n">
+      <c r="D219" s="25" t="n">
         <v>39</v>
       </c>
-      <c r="E219" s="26" t="n">
+      <c r="E219" s="25" t="n">
         <v>11.2</v>
       </c>
-      <c r="F219" s="26" t="n">
+      <c r="F219" s="25" t="n">
         <v>40.5</v>
       </c>
-      <c r="G219" s="26" t="n">
+      <c r="G219" s="25" t="n">
         <v>11.2</v>
       </c>
-      <c r="H219" s="26" t="n">
+      <c r="H219" s="25" t="n">
         <v>7.75</v>
       </c>
       <c r="I219" s="4" t="n">
@@ -10869,7 +11481,10 @@
       <c r="J219" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K219" s="5" t="n"/>
+      <c r="K219" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J219-I219</f>
+        <v>0</v>
+      </c>
       <c r="L219" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="220">
@@ -10879,22 +11494,22 @@
       <c r="B220" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C220" s="25" t="s">
+      <c r="C220" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D220" s="26" t="n">
+      <c r="D220" s="25" t="n">
         <v>57.85</v>
       </c>
-      <c r="E220" s="26" t="n">
+      <c r="E220" s="25" t="n">
         <v>44.55</v>
       </c>
-      <c r="F220" s="26" t="n">
+      <c r="F220" s="25" t="n">
         <v>65</v>
       </c>
-      <c r="G220" s="26" t="n">
+      <c r="G220" s="25" t="n">
         <v>53.15</v>
       </c>
-      <c r="H220" s="26" t="n">
+      <c r="H220" s="25" t="n">
         <v>26.75</v>
       </c>
       <c r="I220" s="4" t="n">
@@ -10903,7 +11518,10 @@
       <c r="J220" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K220" s="5" t="n"/>
+      <c r="K220" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J220-I220</f>
+        <v>0</v>
+      </c>
       <c r="L220" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="221">
@@ -10913,22 +11531,22 @@
       <c r="B221" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="D221" s="26" t="n">
+      <c r="D221" s="25" t="n">
         <v>45.15</v>
       </c>
-      <c r="E221" s="26" t="n">
+      <c r="E221" s="25" t="n">
         <v>11.85</v>
       </c>
-      <c r="F221" s="26" t="n">
+      <c r="F221" s="25" t="n">
         <v>47.2</v>
       </c>
-      <c r="G221" s="26" t="n">
+      <c r="G221" s="25" t="n">
         <v>11.85</v>
       </c>
-      <c r="H221" s="26" t="n">
+      <c r="H221" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I221" s="4" t="n">
@@ -10937,7 +11555,10 @@
       <c r="J221" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K221" s="5" t="n"/>
+      <c r="K221" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J221-I221</f>
+        <v>0</v>
+      </c>
       <c r="L221" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="222">
@@ -10947,22 +11568,22 @@
       <c r="B222" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="C222" s="25" t="s">
+      <c r="C222" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D222" s="26" t="n">
+      <c r="D222" s="25" t="n">
         <v>61.8</v>
       </c>
-      <c r="E222" s="26" t="n">
+      <c r="E222" s="25" t="n">
         <v>12.3</v>
       </c>
-      <c r="F222" s="26" t="n">
+      <c r="F222" s="25" t="n">
         <v>61.8</v>
       </c>
-      <c r="G222" s="26" t="n">
+      <c r="G222" s="25" t="n">
         <v>12.35</v>
       </c>
-      <c r="H222" s="26" t="n">
+      <c r="H222" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I222" s="4" t="n">
@@ -10971,7 +11592,10 @@
       <c r="J222" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K222" s="5" t="n"/>
+      <c r="K222" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J222-I222</f>
+        <v>0</v>
+      </c>
       <c r="L222" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="223">
@@ -10981,22 +11605,22 @@
       <c r="B223" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C223" s="25" t="s">
+      <c r="C223" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="D223" s="26" t="n">
+      <c r="D223" s="25" t="n">
         <v>43.9</v>
       </c>
-      <c r="E223" s="26" t="n">
+      <c r="E223" s="25" t="n">
         <v>20.45</v>
       </c>
-      <c r="F223" s="26" t="n">
+      <c r="F223" s="25" t="n">
         <v>44</v>
       </c>
-      <c r="G223" s="26" t="n">
+      <c r="G223" s="25" t="n">
         <v>27.5</v>
       </c>
-      <c r="H223" s="26" t="n">
+      <c r="H223" s="25" t="n">
         <v>9.15</v>
       </c>
       <c r="I223" s="4" t="n">
@@ -11005,7 +11629,10 @@
       <c r="J223" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K223" s="5" t="n"/>
+      <c r="K223" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J223-I223</f>
+        <v>0</v>
+      </c>
       <c r="L223" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="224">
@@ -11015,22 +11642,22 @@
       <c r="B224" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C224" s="25" t="s">
+      <c r="C224" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="D224" s="26" t="n">
+      <c r="D224" s="25" t="n">
         <v>48.3</v>
       </c>
-      <c r="E224" s="26" t="n">
+      <c r="E224" s="25" t="n">
         <v>35.55</v>
       </c>
-      <c r="F224" s="26" t="n">
+      <c r="F224" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="G224" s="26" t="n">
+      <c r="G224" s="25" t="n">
         <v>43.2</v>
       </c>
-      <c r="H224" s="26" t="n">
+      <c r="H224" s="25" t="n">
         <v>31.35</v>
       </c>
       <c r="I224" s="4" t="n">
@@ -11039,7 +11666,10 @@
       <c r="J224" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K224" s="5" t="n"/>
+      <c r="K224" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J224-I224</f>
+        <v>0</v>
+      </c>
       <c r="L224" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="225">
@@ -11049,22 +11679,22 @@
       <c r="B225" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="C225" s="25" t="s">
+      <c r="C225" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="D225" s="26" t="n">
+      <c r="D225" s="25" t="n">
         <v>46.3</v>
       </c>
-      <c r="E225" s="26" t="n">
+      <c r="E225" s="25" t="n">
         <v>28.55</v>
       </c>
-      <c r="F225" s="26" t="n">
+      <c r="F225" s="25" t="n">
         <v>46.3</v>
       </c>
-      <c r="G225" s="26" t="n">
+      <c r="G225" s="25" t="n">
         <v>40.85</v>
       </c>
-      <c r="H225" s="26" t="n">
+      <c r="H225" s="25" t="n">
         <v>6.85</v>
       </c>
       <c r="I225" s="4" t="n">
@@ -11073,7 +11703,10 @@
       <c r="J225" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K225" s="5" t="n"/>
+      <c r="K225" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J225-I225</f>
+        <v>-9</v>
+      </c>
       <c r="L225" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="226">
@@ -11083,22 +11716,22 @@
       <c r="B226" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="D226" s="26" t="n">
+      <c r="D226" s="25" t="n">
         <v>61</v>
       </c>
-      <c r="E226" s="26" t="n">
+      <c r="E226" s="25" t="n">
         <v>29.1</v>
       </c>
-      <c r="F226" s="26" t="n">
+      <c r="F226" s="25" t="n">
         <v>62.55</v>
       </c>
-      <c r="G226" s="26" t="n">
+      <c r="G226" s="25" t="n">
         <v>35.25</v>
       </c>
-      <c r="H226" s="26" t="n">
+      <c r="H226" s="25" t="n">
         <v>7.55</v>
       </c>
       <c r="I226" s="4" t="n">
@@ -11107,7 +11740,10 @@
       <c r="J226" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K226" s="5" t="n"/>
+      <c r="K226" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J226-I226</f>
+        <v>0</v>
+      </c>
       <c r="L226" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="227">
@@ -11117,22 +11753,22 @@
       <c r="B227" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C227" s="25" t="s">
+      <c r="C227" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D227" s="26" t="n">
+      <c r="D227" s="25" t="n">
         <v>43.95</v>
       </c>
-      <c r="E227" s="26" t="n">
+      <c r="E227" s="25" t="n">
         <v>10.95</v>
       </c>
-      <c r="F227" s="26" t="n">
+      <c r="F227" s="25" t="n">
         <v>43.95</v>
       </c>
-      <c r="G227" s="26" t="n">
+      <c r="G227" s="25" t="n">
         <v>10.95</v>
       </c>
-      <c r="H227" s="26" t="n">
+      <c r="H227" s="25" t="n">
         <v>6.4</v>
       </c>
       <c r="I227" s="4" t="n">
@@ -11141,7 +11777,10 @@
       <c r="J227" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K227" s="5" t="n"/>
+      <c r="K227" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J227-I227</f>
+        <v>0</v>
+      </c>
       <c r="L227" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="228">
@@ -11151,31 +11790,34 @@
       <c r="B228" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D228" s="26" t="n">
+      <c r="D228" s="25" t="n">
         <v>45.45</v>
       </c>
-      <c r="E228" s="26" t="n">
+      <c r="E228" s="25" t="n">
         <v>31.45</v>
       </c>
-      <c r="F228" s="26" t="n">
+      <c r="F228" s="25" t="n">
         <v>45.45</v>
       </c>
-      <c r="G228" s="26" t="n">
+      <c r="G228" s="25" t="n">
         <v>41.3</v>
       </c>
-      <c r="H228" s="26" t="n">
+      <c r="H228" s="25" t="n">
         <v>7.3</v>
       </c>
-      <c r="I228" s="33" t="n">
+      <c r="I228" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="J228" s="33" t="n">
+      <c r="J228" s="32" t="n">
         <v>31.5</v>
       </c>
-      <c r="K228" s="5" t="n"/>
+      <c r="K228" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J228-I228</f>
+        <v>0</v>
+      </c>
       <c r="L228" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="229">
@@ -11185,22 +11827,22 @@
       <c r="B229" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="D229" s="26" t="n">
+      <c r="D229" s="25" t="n">
         <v>47.7</v>
       </c>
-      <c r="E229" s="26" t="n">
+      <c r="E229" s="25" t="n">
         <v>34.25</v>
       </c>
-      <c r="F229" s="26" t="n">
+      <c r="F229" s="25" t="n">
         <v>48.55</v>
       </c>
-      <c r="G229" s="26" t="n">
+      <c r="G229" s="25" t="n">
         <v>40.45</v>
       </c>
-      <c r="H229" s="26" t="n">
+      <c r="H229" s="25" t="n">
         <v>22.8</v>
       </c>
       <c r="I229" s="4" t="n">
@@ -11209,7 +11851,10 @@
       <c r="J229" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="K229" s="5" t="n"/>
+      <c r="K229" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J229-I229</f>
+        <v>0</v>
+      </c>
       <c r="L229" s="5" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="230">
@@ -11219,32 +11864,33 @@
       <c r="B230" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="D230" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E230" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F230" s="26" t="n">
+      <c r="D230" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E230" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" s="25" t="n">
         <v>34</v>
       </c>
-      <c r="G230" s="26" t="n">
+      <c r="G230" s="25" t="n">
         <v>28.65</v>
       </c>
-      <c r="H230" s="26" t="n">
+      <c r="H230" s="25" t="n">
         <v>7.3</v>
       </c>
       <c r="I230" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J230" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K230" s="37" t="s">
-        <v>457</v>
+      <c r="K230" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J230-I230</f>
+        <v>0</v>
       </c>
       <c r="L230" s="5" t="n"/>
     </row>
@@ -11253,24 +11899,24 @@
         <v>221</v>
       </c>
       <c r="B231" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="C231" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D231" s="26" t="n">
+      <c r="D231" s="25" t="n">
         <v>49.65</v>
       </c>
-      <c r="E231" s="26" t="n">
+      <c r="E231" s="25" t="n">
         <v>35.75</v>
       </c>
-      <c r="F231" s="26" t="n">
+      <c r="F231" s="25" t="n">
         <v>54.25</v>
       </c>
-      <c r="G231" s="26" t="n">
+      <c r="G231" s="25" t="n">
         <v>43.8</v>
       </c>
-      <c r="H231" s="26" t="n">
+      <c r="H231" s="25" t="n">
         <v>31.35</v>
       </c>
       <c r="I231" s="4" t="n">
@@ -11279,8 +11925,9 @@
       <c r="J231" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K231" s="38" t="s">
-        <v>460</v>
+      <c r="K231" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J231-I231</f>
+        <v>0</v>
       </c>
       <c r="L231" s="5" t="n"/>
     </row>
@@ -11288,22 +11935,22 @@
       <c r="A232" s="19" t="n">
         <v>222</v>
       </c>
-      <c r="C232" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D232" s="26" t="n">
+      <c r="C232" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="D232" s="25" t="n">
         <v>44.55</v>
       </c>
-      <c r="E232" s="26" t="n">
+      <c r="E232" s="25" t="n">
         <v>23.45</v>
       </c>
-      <c r="F232" s="26" t="n">
+      <c r="F232" s="25" t="n">
         <v>44.55</v>
       </c>
-      <c r="G232" s="26" t="n">
+      <c r="G232" s="25" t="n">
         <v>23.45</v>
       </c>
-      <c r="H232" s="26" t="n">
+      <c r="H232" s="25" t="n">
         <v>15.95</v>
       </c>
       <c r="I232" s="4" t="n">
@@ -11311,6 +11958,28 @@
       </c>
       <c r="J232" s="4" t="n">
         <v>30</v>
+      </c>
+      <c r="K232" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J232-I232</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="E237" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E225*26+D225</f>
+        <v>788.6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="E238" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E237*0.2</f>
+        <v>157.72000000000003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="E239" s="1" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E237+E238</f>
+        <v>946.32</v>
       </c>
     </row>
   </sheetData>
@@ -11359,153 +12028,153 @@
   <sheetData>
     <row customHeight="true" ht="32.4500007629395" outlineLevel="0" r="1">
       <c r="A1" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="39" t="s">
+    </row>
+    <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
+      <c r="A2" s="37" t="n">
+        <v>223</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="39" t="s"/>
+    </row>
+    <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
+      <c r="A3" s="37" t="n">
+        <v>224</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row customHeight="true" ht="27.75" outlineLevel="0" r="2">
-      <c r="A2" s="40" t="n">
-        <v>223</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="C3" s="39" t="s"/>
+    </row>
+    <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
+      <c r="A4" s="37" t="n">
+        <v>225</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="42" t="s"/>
-    </row>
-    <row customHeight="true" ht="26.4500007629395" outlineLevel="0" r="3">
-      <c r="A3" s="40" t="n">
-        <v>224</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="C4" s="41" t="s"/>
+    </row>
+    <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
+      <c r="A5" s="37" t="n">
+        <v>226</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="C3" s="42" t="s"/>
-    </row>
-    <row customHeight="true" ht="45.75" outlineLevel="0" r="4">
-      <c r="A4" s="40" t="n">
-        <v>225</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="C5" s="43" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="36.75" outlineLevel="0" r="6">
+      <c r="A6" s="44" t="n">
+        <v>227</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="44" t="s"/>
-    </row>
-    <row customHeight="true" ht="50.25" outlineLevel="0" r="5">
-      <c r="A5" s="40" t="n">
-        <v>226</v>
-      </c>
-      <c r="B5" s="45" t="s">
+      <c r="C6" s="45" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="D6" s="46" t="n"/>
+    </row>
+    <row customHeight="true" ht="42" outlineLevel="0" r="7">
+      <c r="A7" s="44" t="n">
+        <v>228</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="46" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="36.75" outlineLevel="0" r="6">
-      <c r="A6" s="47" t="n">
-        <v>227</v>
-      </c>
-      <c r="B6" s="45" t="s">
+      <c r="C7" s="47" t="s"/>
+      <c r="D7" s="46" t="n"/>
+    </row>
+    <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
+      <c r="A8" s="48" t="n"/>
+      <c r="B8" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="48" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D6" s="49" t="n"/>
-    </row>
-    <row customHeight="true" ht="42" outlineLevel="0" r="7">
-      <c r="A7" s="47" t="n">
-        <v>228</v>
-      </c>
-      <c r="B7" s="45" t="s">
+      <c r="C8" s="41" t="s"/>
+      <c r="D8" s="46" t="n"/>
+    </row>
+    <row ht="38.25" outlineLevel="0" r="9">
+      <c r="A9" s="44" t="n">
+        <v>229</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="C7" s="50" t="s"/>
-      <c r="D7" s="49" t="n"/>
-    </row>
-    <row customHeight="true" ht="33.75" outlineLevel="0" r="8">
-      <c r="A8" s="51" t="n"/>
-      <c r="B8" s="43" t="s">
+      <c r="C9" s="49" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="D9" s="46" t="n"/>
+    </row>
+    <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
+      <c r="A10" s="44" t="n">
+        <v>230</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="44" t="s"/>
-      <c r="D8" s="49" t="n"/>
-    </row>
-    <row ht="38.25" outlineLevel="0" r="9">
-      <c r="A9" s="47" t="n">
-        <v>229</v>
-      </c>
-      <c r="B9" s="45" t="s">
+      <c r="C10" s="51" t="s"/>
+      <c r="D10" s="46" t="n"/>
+    </row>
+    <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
+      <c r="A11" s="37" t="n">
+        <v>231</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="C9" s="52" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="D9" s="49" t="n"/>
-    </row>
-    <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
-      <c r="A10" s="47" t="n">
-        <v>230</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="C11" s="52" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="53" t="n"/>
+    </row>
+    <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
+      <c r="A12" s="37" t="n">
+        <v>232</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="C10" s="54" t="s"/>
-      <c r="D10" s="49" t="n"/>
-    </row>
-    <row customFormat="true" customHeight="true" ht="57" outlineLevel="0" r="11" s="0">
-      <c r="A11" s="40" t="n">
-        <v>231</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="C12" s="39" t="s"/>
+      <c r="D12" s="54" t="n"/>
+    </row>
+    <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
+      <c r="A13" s="44" t="n">
+        <v>233</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="C11" s="55" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D11" s="56" t="n"/>
-    </row>
-    <row customHeight="true" ht="27.75" outlineLevel="0" r="12">
-      <c r="A12" s="40" t="n">
-        <v>232</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="C13" s="47" t="s"/>
+      <c r="D13" s="54" t="n"/>
+    </row>
+    <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
+      <c r="A14" s="55" t="n"/>
+      <c r="B14" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="C12" s="42" t="s"/>
-      <c r="D12" s="57" t="n"/>
-    </row>
-    <row customHeight="true" ht="74.25" outlineLevel="0" r="13">
-      <c r="A13" s="47" t="n">
-        <v>233</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="C14" s="57" t="s"/>
+      <c r="D14" s="54" t="n"/>
+    </row>
+    <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
+      <c r="A15" s="44" t="n">
+        <v>234</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="50" t="s"/>
-      <c r="D13" s="57" t="n"/>
-    </row>
-    <row customHeight="true" ht="13.5" outlineLevel="0" r="14">
-      <c r="A14" s="58" t="n"/>
-      <c r="B14" s="59" t="s">
-        <v>477</v>
-      </c>
-      <c r="C14" s="60" t="s"/>
-      <c r="D14" s="57" t="n"/>
-    </row>
-    <row customHeight="true" ht="39.5999984741211" outlineLevel="0" r="15">
-      <c r="A15" s="47" t="n">
-        <v>234</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="C15" s="42" t="s"/>
+      <c r="C15" s="39" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -3601,7 +3601,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:N239"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="L69" s="5" t="n"/>
     </row>
-    <row customHeight="true" ht="33.75" outlineLevel="0" r="70">
+    <row ht="0" outlineLevel="0" r="70">
       <c r="A70" s="19" t="n">
         <v>60</v>
       </c>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="L70" s="5" t="n"/>
     </row>
-    <row customHeight="true" ht="15" outlineLevel="0" r="71">
+    <row customHeight="true" ht="25.5" outlineLevel="0" r="71">
       <c r="A71" s="19" t="n">
         <v>61</v>
       </c>
@@ -11962,24 +11962,6 @@
       <c r="K232" s="26" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J232-I232</f>
         <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="237">
-      <c r="E237" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E225*26+D225</f>
-        <v>788.6</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="238">
-      <c r="E238" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E237*0.2</f>
-        <v>157.72000000000003</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="239">
-      <c r="E239" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E237+E238</f>
-        <v>946.32</v>
       </c>
     </row>
   </sheetData>

--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet name="Р3пос.юр" r:id="rId1" sheetId="1" state="visible"/>
     <sheet name="пос.юр" r:id="rId2" sheetId="2" state="visible"/>
-    <sheet name="Лист1" r:id="rId3" sheetId="3" state="visible"/>
   </sheets>
   <definedNames>
     <definedName hidden="false" localSheetId="0" name="_xlnm.Print_Area">'Р3пос.юр'!$A$8:$H$231</definedName>
@@ -2983,25 +2982,29 @@
       <t>предпринимателям, взимается налог на добавленную стоимость в соответствии с  законодательством Республики Беларусь.</t>
     </r>
   </si>
+  <si>
+    <t>&lt;span _ngcontent-fqs-c36=""&gt;ПРЕЙСКУРАНТ МЕЖД  с 01.01.2025 физ лица.pdf&lt;/span&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1013"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0;-0" formatCode="0;-0" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1009"/>
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="0;-0" formatCode="0;-0" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1012"/>
     <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1007"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1011"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1012"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -3461,7 +3464,7 @@
   <cellStyleXfs count="1">
     <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -3654,6 +3657,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1013" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -12261,7 +12265,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -12428,6 +12432,11 @@
         <v>476</v>
       </c>
       <c r="C15" s="67" t="s"/>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="B20" s="68" t="s">
+        <v>477</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12448,23 +12457,4 @@
     <oddHeader>&amp;R&amp;10&amp;"Arial Cyr,Regular"юр.лица&amp;12&amp;"-,Regular"</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView showZeros="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
-  <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" outlineLevel="0" width="12.0541162614883"/>
-  </cols>
-  <sheetData/>
-  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
-</worksheet>
 </file>
--- a/calc/files/parcel_int.xlsx
+++ b/calc/files/parcel_int.xlsx
@@ -2445,14 +2445,14 @@
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="0.0;-0.0" formatCode="0.0;-0.0" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0;-0" formatCode="0;-0" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0;-0" formatCode="0;-0" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1010"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1009"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -10692,11 +10692,11 @@
         <v>29</v>
       </c>
       <c r="J225" s="31" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K225" s="35" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J225-I225</f>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="226">
